--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin Buijs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin Buijs\Documents\GitHub\laadmodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1C254F-34E0-49C4-81F3-300825FF164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D4487-038C-407A-BB5A-E2AFA2401224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,1366 +395,1082 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>45937.916666666657</v>
       </c>
       <c r="B2" s="2">
-        <v>45937.916666666657</v>
-      </c>
-      <c r="C2" s="2">
         <v>45938</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>101.74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>45937.927083333343</v>
       </c>
       <c r="B3" s="2">
-        <v>45937.927083333343</v>
-      </c>
-      <c r="C3" s="2">
         <v>45938.010416666657</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>91.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>45937.9375</v>
       </c>
       <c r="B4" s="2">
-        <v>45937.9375</v>
-      </c>
-      <c r="C4" s="2">
         <v>45938.020833333343</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>91.47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45937.947916666657</v>
       </c>
       <c r="B5" s="2">
-        <v>45937.947916666657</v>
-      </c>
-      <c r="C5" s="2">
         <v>45938.03125</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>89.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45937.958333333343</v>
       </c>
       <c r="B6" s="2">
-        <v>45937.958333333343</v>
-      </c>
-      <c r="C6" s="2">
         <v>45938.041666666657</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>91.85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45937.96875</v>
       </c>
       <c r="B7" s="2">
-        <v>45937.96875</v>
-      </c>
-      <c r="C7" s="2">
         <v>45938.052083333343</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>89.07</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45937.979166666657</v>
       </c>
       <c r="B8" s="2">
-        <v>45937.979166666657</v>
-      </c>
-      <c r="C8" s="2">
         <v>45938.0625</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>87.33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45937.989583333343</v>
       </c>
       <c r="B9" s="2">
-        <v>45937.989583333343</v>
-      </c>
-      <c r="C9" s="2">
         <v>45938.072916666657</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>85.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45938</v>
       </c>
       <c r="B10" s="2">
-        <v>45938</v>
-      </c>
-      <c r="C10" s="2">
         <v>45938.083333333343</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>89.21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45938.010416666657</v>
       </c>
       <c r="B11" s="2">
-        <v>45938.010416666657</v>
-      </c>
-      <c r="C11" s="2">
         <v>45938.09375</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>88.14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45938.020833333343</v>
       </c>
       <c r="B12" s="2">
-        <v>45938.020833333343</v>
-      </c>
-      <c r="C12" s="2">
         <v>45938.104166666657</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>86.99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>11</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45938.03125</v>
       </c>
       <c r="B13" s="2">
-        <v>45938.03125</v>
-      </c>
-      <c r="C13" s="2">
         <v>45938.114583333343</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>85.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>12</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45938.041666666657</v>
       </c>
       <c r="B14" s="2">
-        <v>45938.041666666657</v>
-      </c>
-      <c r="C14" s="2">
         <v>45938.125</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>86.71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45938.052083333343</v>
       </c>
       <c r="B15" s="2">
-        <v>45938.052083333343</v>
-      </c>
-      <c r="C15" s="2">
         <v>45938.135416666657</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>84.17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45938.0625</v>
       </c>
       <c r="B16" s="2">
-        <v>45938.0625</v>
-      </c>
-      <c r="C16" s="2">
         <v>45938.145833333343</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>86.98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>15</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45938.072916666657</v>
       </c>
       <c r="B17" s="2">
-        <v>45938.072916666657</v>
-      </c>
-      <c r="C17" s="2">
         <v>45938.15625</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>86.17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>16</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45938.083333333343</v>
       </c>
       <c r="B18" s="2">
-        <v>45938.083333333343</v>
-      </c>
-      <c r="C18" s="2">
         <v>45938.166666666657</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>85.66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>17</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45938.09375</v>
       </c>
       <c r="B19" s="2">
-        <v>45938.09375</v>
-      </c>
-      <c r="C19" s="2">
         <v>45938.177083333343</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>84.48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>18</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45938.104166666657</v>
       </c>
       <c r="B20" s="2">
-        <v>45938.104166666657</v>
-      </c>
-      <c r="C20" s="2">
         <v>45938.1875</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>87.11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>19</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45938.114583333343</v>
       </c>
       <c r="B21" s="2">
-        <v>45938.114583333343</v>
-      </c>
-      <c r="C21" s="2">
         <v>45938.197916666657</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>91.67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>20</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45938.125</v>
       </c>
       <c r="B22" s="2">
-        <v>45938.125</v>
-      </c>
-      <c r="C22" s="2">
         <v>45938.208333333343</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>86.98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>21</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>45938.135416666657</v>
       </c>
       <c r="B23" s="2">
-        <v>45938.135416666657</v>
-      </c>
-      <c r="C23" s="2">
         <v>45938.21875</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>93.28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>22</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>45938.145833333343</v>
       </c>
       <c r="B24" s="2">
-        <v>45938.145833333343</v>
-      </c>
-      <c r="C24" s="2">
         <v>45938.229166666657</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <v>92.51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>23</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>45938.15625</v>
       </c>
       <c r="B25" s="2">
-        <v>45938.15625</v>
-      </c>
-      <c r="C25" s="2">
         <v>45938.239583333343</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <v>102.9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>24</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>45938.166666666657</v>
       </c>
       <c r="B26" s="2">
-        <v>45938.166666666657</v>
-      </c>
-      <c r="C26" s="2">
         <v>45938.25</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>92.99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>25</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>45938.177083333343</v>
       </c>
       <c r="B27" s="2">
-        <v>45938.177083333343</v>
-      </c>
-      <c r="C27" s="2">
         <v>45938.260416666657</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <v>108.63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>26</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>45938.1875</v>
       </c>
       <c r="B28" s="2">
-        <v>45938.1875</v>
-      </c>
-      <c r="C28" s="2">
         <v>45938.270833333343</v>
       </c>
-      <c r="D28">
+      <c r="C28">
         <v>120.42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>27</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>45938.197916666657</v>
       </c>
       <c r="B29" s="2">
-        <v>45938.197916666657</v>
-      </c>
-      <c r="C29" s="2">
         <v>45938.28125</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <v>134.53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>28</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>45938.208333333343</v>
       </c>
       <c r="B30" s="2">
-        <v>45938.208333333343</v>
-      </c>
-      <c r="C30" s="2">
         <v>45938.291666666657</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <v>127.56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>29</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>45938.21875</v>
       </c>
       <c r="B31" s="2">
-        <v>45938.21875</v>
-      </c>
-      <c r="C31" s="2">
         <v>45938.302083333343</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>148.38999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>30</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>45938.229166666657</v>
       </c>
       <c r="B32" s="2">
-        <v>45938.229166666657</v>
-      </c>
-      <c r="C32" s="2">
         <v>45938.3125</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <v>165.45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>31</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>45938.239583333343</v>
       </c>
       <c r="B33" s="2">
-        <v>45938.239583333343</v>
-      </c>
-      <c r="C33" s="2">
         <v>45938.322916666657</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <v>168.83</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>32</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>45938.25</v>
       </c>
       <c r="B34" s="2">
-        <v>45938.25</v>
-      </c>
-      <c r="C34" s="2">
         <v>45938.333333333343</v>
       </c>
-      <c r="D34">
+      <c r="C34">
         <v>203.62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>33</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>45938.260416666657</v>
       </c>
       <c r="B35" s="2">
-        <v>45938.260416666657</v>
-      </c>
-      <c r="C35" s="2">
         <v>45938.34375</v>
       </c>
-      <c r="D35">
+      <c r="C35">
         <v>175.34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>34</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>45938.270833333343</v>
       </c>
       <c r="B36" s="2">
-        <v>45938.270833333343</v>
-      </c>
-      <c r="C36" s="2">
         <v>45938.354166666657</v>
       </c>
-      <c r="D36">
+      <c r="C36">
         <v>151.24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>35</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>45938.28125</v>
       </c>
       <c r="B37" s="2">
-        <v>45938.28125</v>
-      </c>
-      <c r="C37" s="2">
         <v>45938.364583333343</v>
       </c>
-      <c r="D37">
+      <c r="C37">
         <v>135.38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>36</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>45938.291666666657</v>
       </c>
       <c r="B38" s="2">
-        <v>45938.291666666657</v>
-      </c>
-      <c r="C38" s="2">
         <v>45938.375</v>
       </c>
-      <c r="D38">
+      <c r="C38">
         <v>176.35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>37</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>45938.302083333343</v>
       </c>
       <c r="B39" s="2">
-        <v>45938.302083333343</v>
-      </c>
-      <c r="C39" s="2">
         <v>45938.385416666657</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <v>142.44999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>38</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>45938.3125</v>
       </c>
       <c r="B40" s="2">
-        <v>45938.3125</v>
-      </c>
-      <c r="C40" s="2">
         <v>45938.395833333343</v>
       </c>
-      <c r="D40">
+      <c r="C40">
         <v>119.67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>39</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>45938.322916666657</v>
       </c>
       <c r="B41" s="2">
-        <v>45938.322916666657</v>
-      </c>
-      <c r="C41" s="2">
         <v>45938.40625</v>
       </c>
-      <c r="D41">
+      <c r="C41">
         <v>106.06</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>40</v>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>45938.333333333343</v>
       </c>
       <c r="B42" s="2">
-        <v>45938.333333333343</v>
-      </c>
-      <c r="C42" s="2">
         <v>45938.416666666657</v>
       </c>
-      <c r="D42">
+      <c r="C42">
         <v>139.21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>41</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>45938.34375</v>
       </c>
       <c r="B43" s="2">
-        <v>45938.34375</v>
-      </c>
-      <c r="C43" s="2">
         <v>45938.427083333343</v>
       </c>
-      <c r="D43">
+      <c r="C43">
         <v>119.74</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>42</v>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>45938.354166666657</v>
       </c>
       <c r="B44" s="2">
-        <v>45938.354166666657</v>
-      </c>
-      <c r="C44" s="2">
         <v>45938.4375</v>
       </c>
-      <c r="D44">
+      <c r="C44">
         <v>106.31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>43</v>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>45938.364583333343</v>
       </c>
       <c r="B45" s="2">
-        <v>45938.364583333343</v>
-      </c>
-      <c r="C45" s="2">
         <v>45938.447916666657</v>
       </c>
-      <c r="D45">
+      <c r="C45">
         <v>99.46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>44</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>45938.375</v>
       </c>
       <c r="B46" s="2">
-        <v>45938.375</v>
-      </c>
-      <c r="C46" s="2">
         <v>45938.458333333343</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>120.14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>45</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>45938.385416666657</v>
       </c>
       <c r="B47" s="2">
-        <v>45938.385416666657</v>
-      </c>
-      <c r="C47" s="2">
         <v>45938.46875</v>
       </c>
-      <c r="D47">
+      <c r="C47">
         <v>101.96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>46</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>45938.395833333343</v>
       </c>
       <c r="B48" s="2">
-        <v>45938.395833333343</v>
-      </c>
-      <c r="C48" s="2">
         <v>45938.479166666657</v>
       </c>
-      <c r="D48">
+      <c r="C48">
         <v>94.05</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>47</v>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45938.40625</v>
       </c>
       <c r="B49" s="2">
-        <v>45938.40625</v>
-      </c>
-      <c r="C49" s="2">
         <v>45938.489583333343</v>
       </c>
-      <c r="D49">
+      <c r="C49">
         <v>85.06</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>48</v>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>45938.416666666657</v>
       </c>
       <c r="B50" s="2">
-        <v>45938.416666666657</v>
-      </c>
-      <c r="C50" s="2">
         <v>45938.5</v>
       </c>
-      <c r="D50">
+      <c r="C50">
         <v>92.65</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>49</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>45938.427083333343</v>
       </c>
       <c r="B51" s="2">
-        <v>45938.427083333343</v>
-      </c>
-      <c r="C51" s="2">
         <v>45938.510416666657</v>
       </c>
-      <c r="D51">
+      <c r="C51">
         <v>88.73</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>50</v>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>45938.4375</v>
       </c>
       <c r="B52" s="2">
-        <v>45938.4375</v>
-      </c>
-      <c r="C52" s="2">
         <v>45938.520833333343</v>
       </c>
-      <c r="D52">
+      <c r="C52">
         <v>86.6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>51</v>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>45938.447916666657</v>
       </c>
       <c r="B53" s="2">
-        <v>45938.447916666657</v>
-      </c>
-      <c r="C53" s="2">
         <v>45938.53125</v>
       </c>
-      <c r="D53">
+      <c r="C53">
         <v>86.05</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>52</v>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>45938.458333333343</v>
       </c>
       <c r="B54" s="2">
-        <v>45938.458333333343</v>
-      </c>
-      <c r="C54" s="2">
         <v>45938.541666666657</v>
       </c>
-      <c r="D54">
+      <c r="C54">
         <v>88.93</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>53</v>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>45938.46875</v>
       </c>
       <c r="B55" s="2">
-        <v>45938.46875</v>
-      </c>
-      <c r="C55" s="2">
         <v>45938.552083333343</v>
       </c>
-      <c r="D55">
+      <c r="C55">
         <v>87.74</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>54</v>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>45938.479166666657</v>
       </c>
       <c r="B56" s="2">
-        <v>45938.479166666657</v>
-      </c>
-      <c r="C56" s="2">
         <v>45938.5625</v>
       </c>
-      <c r="D56">
+      <c r="C56">
         <v>86.06</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>55</v>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>45938.489583333343</v>
       </c>
       <c r="B57" s="2">
-        <v>45938.489583333343</v>
-      </c>
-      <c r="C57" s="2">
         <v>45938.572916666657</v>
       </c>
-      <c r="D57">
+      <c r="C57">
         <v>84.38</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>56</v>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>45938.5</v>
       </c>
       <c r="B58" s="2">
-        <v>45938.5</v>
-      </c>
-      <c r="C58" s="2">
         <v>45938.583333333343</v>
       </c>
-      <c r="D58">
+      <c r="C58">
         <v>82.93</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>57</v>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>45938.510416666657</v>
       </c>
       <c r="B59" s="2">
-        <v>45938.510416666657</v>
-      </c>
-      <c r="C59" s="2">
         <v>45938.59375</v>
       </c>
-      <c r="D59">
+      <c r="C59">
         <v>84.88</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>58</v>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>45938.520833333343</v>
       </c>
       <c r="B60" s="2">
-        <v>45938.520833333343</v>
-      </c>
-      <c r="C60" s="2">
         <v>45938.604166666657</v>
       </c>
-      <c r="D60">
+      <c r="C60">
         <v>86.66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>59</v>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>45938.53125</v>
       </c>
       <c r="B61" s="2">
-        <v>45938.53125</v>
-      </c>
-      <c r="C61" s="2">
         <v>45938.614583333343</v>
       </c>
-      <c r="D61">
+      <c r="C61">
         <v>94.46</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>60</v>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>45938.541666666657</v>
       </c>
       <c r="B62" s="2">
-        <v>45938.541666666657</v>
-      </c>
-      <c r="C62" s="2">
         <v>45938.625</v>
       </c>
-      <c r="D62">
+      <c r="C62">
         <v>84.27</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>61</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>45938.552083333343</v>
       </c>
       <c r="B63" s="2">
-        <v>45938.552083333343</v>
-      </c>
-      <c r="C63" s="2">
         <v>45938.635416666657</v>
       </c>
-      <c r="D63">
+      <c r="C63">
         <v>88.51</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>62</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>45938.5625</v>
       </c>
       <c r="B64" s="2">
-        <v>45938.5625</v>
-      </c>
-      <c r="C64" s="2">
         <v>45938.645833333343</v>
       </c>
-      <c r="D64">
+      <c r="C64">
         <v>95.9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>63</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>45938.572916666657</v>
       </c>
       <c r="B65" s="2">
-        <v>45938.572916666657</v>
-      </c>
-      <c r="C65" s="2">
         <v>45938.65625</v>
       </c>
-      <c r="D65">
+      <c r="C65">
         <v>108.61</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>64</v>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>45938.583333333343</v>
       </c>
       <c r="B66" s="2">
-        <v>45938.583333333343</v>
-      </c>
-      <c r="C66" s="2">
         <v>45938.666666666657</v>
       </c>
-      <c r="D66">
+      <c r="C66">
         <v>86.02</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>65</v>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>45938.59375</v>
       </c>
       <c r="B67" s="2">
-        <v>45938.59375</v>
-      </c>
-      <c r="C67" s="2">
         <v>45938.677083333343</v>
       </c>
-      <c r="D67">
+      <c r="C67">
         <v>94.17</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>66</v>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>45938.604166666657</v>
       </c>
       <c r="B68" s="2">
-        <v>45938.604166666657</v>
-      </c>
-      <c r="C68" s="2">
         <v>45938.6875</v>
       </c>
-      <c r="D68">
+      <c r="C68">
         <v>118.25</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>67</v>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>45938.614583333343</v>
       </c>
       <c r="B69" s="2">
-        <v>45938.614583333343</v>
-      </c>
-      <c r="C69" s="2">
         <v>45938.697916666657</v>
       </c>
-      <c r="D69">
+      <c r="C69">
         <v>139.62</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>68</v>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>45938.625</v>
       </c>
       <c r="B70" s="2">
-        <v>45938.625</v>
-      </c>
-      <c r="C70" s="2">
         <v>45938.708333333343</v>
       </c>
-      <c r="D70">
+      <c r="C70">
         <v>96.65</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>69</v>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>45938.635416666657</v>
       </c>
       <c r="B71" s="2">
-        <v>45938.635416666657</v>
-      </c>
-      <c r="C71" s="2">
         <v>45938.71875</v>
       </c>
-      <c r="D71">
+      <c r="C71">
         <v>117.95</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>70</v>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>45938.645833333343</v>
       </c>
       <c r="B72" s="2">
-        <v>45938.645833333343</v>
-      </c>
-      <c r="C72" s="2">
         <v>45938.729166666657</v>
       </c>
-      <c r="D72">
+      <c r="C72">
         <v>148.81</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>71</v>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>45938.65625</v>
       </c>
       <c r="B73" s="2">
-        <v>45938.65625</v>
-      </c>
-      <c r="C73" s="2">
         <v>45938.739583333343</v>
       </c>
-      <c r="D73">
+      <c r="C73">
         <v>203.12</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>72</v>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>45938.666666666657</v>
       </c>
       <c r="B74" s="2">
-        <v>45938.666666666657</v>
-      </c>
-      <c r="C74" s="2">
         <v>45938.75</v>
       </c>
-      <c r="D74">
+      <c r="C74">
         <v>129.74</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>73</v>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>45938.677083333343</v>
       </c>
       <c r="B75" s="2">
-        <v>45938.677083333343</v>
-      </c>
-      <c r="C75" s="2">
         <v>45938.760416666657</v>
       </c>
-      <c r="D75">
+      <c r="C75">
         <v>142.25</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>74</v>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>45938.6875</v>
       </c>
       <c r="B76" s="2">
-        <v>45938.6875</v>
-      </c>
-      <c r="C76" s="2">
         <v>45938.770833333343</v>
       </c>
-      <c r="D76">
+      <c r="C76">
         <v>195.41</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>75</v>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>45938.697916666657</v>
       </c>
       <c r="B77" s="2">
-        <v>45938.697916666657</v>
-      </c>
-      <c r="C77" s="2">
         <v>45938.78125</v>
       </c>
-      <c r="D77">
+      <c r="C77">
         <v>241.07</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>76</v>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>45938.708333333343</v>
       </c>
       <c r="B78" s="2">
-        <v>45938.708333333343</v>
-      </c>
-      <c r="C78" s="2">
         <v>45938.791666666657</v>
       </c>
-      <c r="D78">
+      <c r="C78">
         <v>223.55</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>77</v>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>45938.71875</v>
       </c>
       <c r="B79" s="2">
-        <v>45938.71875</v>
-      </c>
-      <c r="C79" s="2">
         <v>45938.802083333343</v>
       </c>
-      <c r="D79">
+      <c r="C79">
         <v>199.54</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>78</v>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>45938.729166666657</v>
       </c>
       <c r="B80" s="2">
-        <v>45938.729166666657</v>
-      </c>
-      <c r="C80" s="2">
         <v>45938.8125</v>
       </c>
-      <c r="D80">
+      <c r="C80">
         <v>180.46</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>79</v>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>45938.739583333343</v>
       </c>
       <c r="B81" s="2">
-        <v>45938.739583333343</v>
-      </c>
-      <c r="C81" s="2">
         <v>45938.822916666657</v>
       </c>
-      <c r="D81">
+      <c r="C81">
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>80</v>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>45938.75</v>
       </c>
       <c r="B82" s="2">
-        <v>45938.75</v>
-      </c>
-      <c r="C82" s="2">
         <v>45938.833333333343</v>
       </c>
-      <c r="D82">
+      <c r="C82">
         <v>169.2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>81</v>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>45938.760416666657</v>
       </c>
       <c r="B83" s="2">
-        <v>45938.760416666657</v>
-      </c>
-      <c r="C83" s="2">
         <v>45938.84375</v>
       </c>
-      <c r="D83">
+      <c r="C83">
         <v>149.99</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>82</v>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>45938.770833333343</v>
       </c>
       <c r="B84" s="2">
-        <v>45938.770833333343</v>
-      </c>
-      <c r="C84" s="2">
         <v>45938.854166666657</v>
       </c>
-      <c r="D84">
+      <c r="C84">
         <v>128.21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>83</v>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>45938.78125</v>
       </c>
       <c r="B85" s="2">
-        <v>45938.78125</v>
-      </c>
-      <c r="C85" s="2">
         <v>45938.864583333343</v>
       </c>
-      <c r="D85">
+      <c r="C85">
         <v>118.39</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>84</v>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>45938.791666666657</v>
       </c>
       <c r="B86" s="2">
-        <v>45938.791666666657</v>
-      </c>
-      <c r="C86" s="2">
         <v>45938.875</v>
       </c>
-      <c r="D86">
+      <c r="C86">
         <v>128.02000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>85</v>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>45938.802083333343</v>
       </c>
       <c r="B87" s="2">
-        <v>45938.802083333343</v>
-      </c>
-      <c r="C87" s="2">
         <v>45938.885416666657</v>
       </c>
-      <c r="D87">
+      <c r="C87">
         <v>116.99</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>86</v>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>45938.8125</v>
       </c>
       <c r="B88" s="2">
-        <v>45938.8125</v>
-      </c>
-      <c r="C88" s="2">
         <v>45938.895833333343</v>
       </c>
-      <c r="D88">
+      <c r="C88">
         <v>106.9</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>87</v>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>45938.822916666657</v>
       </c>
       <c r="B89" s="2">
-        <v>45938.822916666657</v>
-      </c>
-      <c r="C89" s="2">
         <v>45938.90625</v>
       </c>
-      <c r="D89">
+      <c r="C89">
         <v>102.34</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>88</v>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>45938.833333333343</v>
       </c>
       <c r="B90" s="2">
-        <v>45938.833333333343</v>
-      </c>
-      <c r="C90" s="2">
         <v>45938.916666666657</v>
       </c>
-      <c r="D90">
+      <c r="C90">
         <v>110.69</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>89</v>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>45938.84375</v>
       </c>
       <c r="B91" s="2">
-        <v>45938.84375</v>
-      </c>
-      <c r="C91" s="2">
         <v>45938.927083333343</v>
       </c>
-      <c r="D91">
+      <c r="C91">
         <v>109.91</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>90</v>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>45938.854166666657</v>
       </c>
       <c r="B92" s="2">
-        <v>45938.854166666657</v>
-      </c>
-      <c r="C92" s="2">
         <v>45938.9375</v>
       </c>
-      <c r="D92">
+      <c r="C92">
         <v>106.28</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>91</v>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>45938.864583333343</v>
       </c>
       <c r="B93" s="2">
-        <v>45938.864583333343</v>
-      </c>
-      <c r="C93" s="2">
         <v>45938.947916666657</v>
       </c>
-      <c r="D93">
+      <c r="C93">
         <v>97.93</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>92</v>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>45938.875</v>
       </c>
       <c r="B94" s="2">
-        <v>45938.875</v>
-      </c>
-      <c r="C94" s="2">
         <v>45938.958333333343</v>
       </c>
-      <c r="D94">
+      <c r="C94">
         <v>101.68</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>93</v>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>45938.885416666657</v>
       </c>
       <c r="B95" s="2">
-        <v>45938.885416666657</v>
-      </c>
-      <c r="C95" s="2">
         <v>45938.96875</v>
       </c>
-      <c r="D95">
+      <c r="C95">
         <v>99.79</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>94</v>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>45938.895833333343</v>
       </c>
       <c r="B96" s="2">
-        <v>45938.895833333343</v>
-      </c>
-      <c r="C96" s="2">
         <v>45938.979166666657</v>
       </c>
-      <c r="D96">
+      <c r="C96">
         <v>95.48</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>95</v>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>45938.90625</v>
       </c>
       <c r="B97" s="2">
-        <v>45938.90625</v>
-      </c>
-      <c r="C97" s="2">
         <v>45938.989583333343</v>
       </c>
-      <c r="D97">
+      <c r="C97">
         <v>90</v>
       </c>
     </row>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin Buijs\Documents\GitHub\laadmodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE066802-5B2E-4B91-A323-C96972EA4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F50072-F47C-42D1-AE2A-0D4693E21AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1537"/>
+  <dimension ref="A1:G1561"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A1530" workbookViewId="0">
+      <selection activeCell="A1469" sqref="A1466:XFD1469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16214,7 +16215,7 @@
         <v>130.19</v>
       </c>
     </row>
-    <row r="1441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1441" s="2">
         <v>45807.875</v>
       </c>
@@ -16225,1059 +16226,1371 @@
         <v>108.15</v>
       </c>
     </row>
-    <row r="1442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1442" s="2">
+        <v>45807.916666666664</v>
+      </c>
+      <c r="B1442" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C1442">
+        <v>107</v>
+      </c>
+      <c r="F1442" s="3"/>
+      <c r="G1442" s="3"/>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1443" s="2">
+        <v>45807.958333333336</v>
+      </c>
+      <c r="B1443" s="2">
+        <v>45808.041666666664</v>
+      </c>
+      <c r="C1443">
+        <v>97.7</v>
+      </c>
+      <c r="F1443" s="3"/>
+      <c r="G1443" s="3"/>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1444" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B1444" s="2">
+        <v>45808.083333333336</v>
+      </c>
+      <c r="C1444">
+        <v>94.81</v>
+      </c>
+      <c r="F1444" s="3"/>
+      <c r="G1444" s="3"/>
+    </row>
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1445" s="2">
+        <v>45808.041666666664</v>
+      </c>
+      <c r="B1445" s="2">
+        <v>45808.125</v>
+      </c>
+      <c r="C1445">
+        <v>93.63</v>
+      </c>
+      <c r="F1445" s="3"/>
+      <c r="G1445" s="3"/>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1446" s="2">
+        <v>45808.083333333336</v>
+      </c>
+      <c r="B1446" s="2">
+        <v>45808.166666666664</v>
+      </c>
+      <c r="C1446">
+        <v>94.13</v>
+      </c>
+      <c r="F1446" s="3"/>
+      <c r="G1446" s="3"/>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1447" s="2">
+        <v>45808.125</v>
+      </c>
+      <c r="B1447" s="2">
+        <v>45808.208333333336</v>
+      </c>
+      <c r="C1447">
+        <v>92.58</v>
+      </c>
+      <c r="F1447" s="3"/>
+      <c r="G1447" s="3"/>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1448" s="2">
+        <v>45808.166666666664</v>
+      </c>
+      <c r="B1448" s="2">
+        <v>45808.25</v>
+      </c>
+      <c r="C1448">
+        <v>94.79</v>
+      </c>
+      <c r="F1448" s="3"/>
+      <c r="G1448" s="3"/>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1449" s="2">
+        <v>45808.208333333336</v>
+      </c>
+      <c r="B1449" s="2">
+        <v>45808.291666666664</v>
+      </c>
+      <c r="C1449">
+        <v>85.8</v>
+      </c>
+      <c r="F1449" s="3"/>
+      <c r="G1449" s="3"/>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1450" s="2">
+        <v>45808.25</v>
+      </c>
+      <c r="B1450" s="2">
+        <v>45808.333333333336</v>
+      </c>
+      <c r="C1450">
+        <v>53.81</v>
+      </c>
+      <c r="F1450" s="3"/>
+      <c r="G1450" s="3"/>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1451" s="2">
+        <v>45808.291666666664</v>
+      </c>
+      <c r="B1451" s="2">
+        <v>45808.375</v>
+      </c>
+      <c r="C1451">
+        <v>1</v>
+      </c>
+      <c r="F1451" s="3"/>
+      <c r="G1451" s="3"/>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1452" s="2">
+        <v>45808.333333333336</v>
+      </c>
+      <c r="B1452" s="2">
+        <v>45808.416666666664</v>
+      </c>
+      <c r="C1452">
+        <v>-0.02</v>
+      </c>
+      <c r="F1452" s="3"/>
+      <c r="G1452" s="3"/>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1453" s="2">
+        <v>45808.375</v>
+      </c>
+      <c r="B1453" s="2">
+        <v>45808.458333333336</v>
+      </c>
+      <c r="C1453">
+        <v>-1</v>
+      </c>
+      <c r="F1453" s="3"/>
+      <c r="G1453" s="3"/>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1454" s="2">
+        <v>45808.416666666664</v>
+      </c>
+      <c r="B1454" s="2">
+        <v>45808.5</v>
+      </c>
+      <c r="C1454">
+        <v>-3.07</v>
+      </c>
+      <c r="F1454" s="3"/>
+      <c r="G1454" s="3"/>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1455" s="2">
+        <v>45808.458333333336</v>
+      </c>
+      <c r="B1455" s="2">
+        <v>45808.541666666664</v>
+      </c>
+      <c r="C1455">
+        <v>-13.17</v>
+      </c>
+      <c r="F1455" s="3"/>
+      <c r="G1455" s="3"/>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1456" s="2">
+        <v>45808.5</v>
+      </c>
+      <c r="B1456" s="2">
+        <v>45808.583333333336</v>
+      </c>
+      <c r="C1456">
+        <v>-7.75</v>
+      </c>
+      <c r="F1456" s="3"/>
+      <c r="G1456" s="3"/>
+    </row>
+    <row r="1457" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1457" s="2">
+        <v>45808.541666666664</v>
+      </c>
+      <c r="B1457" s="2">
+        <v>45808.625</v>
+      </c>
+      <c r="C1457">
+        <v>-3</v>
+      </c>
+      <c r="F1457" s="3"/>
+      <c r="G1457" s="3"/>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1458" s="2">
+        <v>45808.583333333336</v>
+      </c>
+      <c r="B1458" s="2">
+        <v>45808.666666666664</v>
+      </c>
+      <c r="C1458">
+        <v>-0.05</v>
+      </c>
+      <c r="F1458" s="3"/>
+      <c r="G1458" s="3"/>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1459" s="2">
+        <v>45808.625</v>
+      </c>
+      <c r="B1459" s="2">
+        <v>45808.708333333336</v>
+      </c>
+      <c r="C1459">
+        <v>36.5</v>
+      </c>
+      <c r="F1459" s="3"/>
+      <c r="G1459" s="3"/>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1460" s="2">
+        <v>45808.666666666664</v>
+      </c>
+      <c r="B1460" s="2">
+        <v>45808.75</v>
+      </c>
+      <c r="C1460">
+        <v>88.85</v>
+      </c>
+      <c r="F1460" s="3"/>
+      <c r="G1460" s="3"/>
+    </row>
+    <row r="1461" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1461" s="2">
+        <v>45808.708333333336</v>
+      </c>
+      <c r="B1461" s="2">
+        <v>45808.791666666664</v>
+      </c>
+      <c r="C1461">
+        <v>131.41</v>
+      </c>
+      <c r="F1461" s="3"/>
+      <c r="G1461" s="3"/>
+    </row>
+    <row r="1462" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1462" s="2">
+        <v>45808.75</v>
+      </c>
+      <c r="B1462" s="2">
+        <v>45808.833333333336</v>
+      </c>
+      <c r="C1462">
+        <v>192.35</v>
+      </c>
+      <c r="F1462" s="3"/>
+      <c r="G1462" s="3"/>
+    </row>
+    <row r="1463" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1463" s="2">
+        <v>45808.791666666664</v>
+      </c>
+      <c r="B1463" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="C1463">
+        <v>192.37</v>
+      </c>
+      <c r="F1463" s="3"/>
+      <c r="G1463" s="3"/>
+    </row>
+    <row r="1464" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1464" s="2">
+        <v>45808.833333333336</v>
+      </c>
+      <c r="B1464" s="2">
+        <v>45808.916666666664</v>
+      </c>
+      <c r="C1464">
+        <v>135.76</v>
+      </c>
+      <c r="F1464" s="3"/>
+      <c r="G1464" s="3"/>
+    </row>
+    <row r="1465" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1465" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="B1465" s="2">
+        <v>45808.958333333336</v>
+      </c>
+      <c r="C1465">
+        <v>99.79</v>
+      </c>
+      <c r="F1465" s="3"/>
+      <c r="G1465" s="3"/>
+    </row>
+    <row r="1466" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1466" s="2">
         <v>45937.916666666657</v>
       </c>
-      <c r="B1442" s="2">
+      <c r="B1466" s="2">
         <v>45938</v>
       </c>
-      <c r="C1442">
+      <c r="C1466">
         <v>101.74</v>
       </c>
     </row>
-    <row r="1443" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1443" s="2">
+    <row r="1467" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1467" s="2">
         <v>45937.927083333343</v>
       </c>
-      <c r="B1443" s="2">
+      <c r="B1467" s="2">
         <v>45938.010416666657</v>
       </c>
-      <c r="C1443">
+      <c r="C1467">
         <v>91.4</v>
       </c>
     </row>
-    <row r="1444" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1444" s="2">
+    <row r="1468" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1468" s="2">
         <v>45937.9375</v>
       </c>
-      <c r="B1444" s="2">
+      <c r="B1468" s="2">
         <v>45938.020833333343</v>
       </c>
-      <c r="C1444">
+      <c r="C1468">
         <v>91.47</v>
       </c>
     </row>
-    <row r="1445" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1445" s="2">
+    <row r="1469" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1469" s="2">
         <v>45937.947916666657</v>
       </c>
-      <c r="B1445" s="2">
+      <c r="B1469" s="2">
         <v>45938.03125</v>
       </c>
-      <c r="C1445">
+      <c r="C1469">
         <v>89.2</v>
       </c>
     </row>
-    <row r="1446" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1446" s="2">
+    <row r="1470" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1470" s="2">
         <v>45937.958333333343</v>
       </c>
-      <c r="B1446" s="2">
+      <c r="B1470" s="2">
         <v>45938.041666666657</v>
       </c>
-      <c r="C1446">
+      <c r="C1470">
         <v>91.85</v>
       </c>
     </row>
-    <row r="1447" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1447" s="2">
+    <row r="1471" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1471" s="2">
         <v>45937.96875</v>
       </c>
-      <c r="B1447" s="2">
+      <c r="B1471" s="2">
         <v>45938.052083333343</v>
       </c>
-      <c r="C1447">
+      <c r="C1471">
         <v>89.07</v>
       </c>
     </row>
-    <row r="1448" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1448" s="2">
+    <row r="1472" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1472" s="2">
         <v>45937.979166666657</v>
       </c>
-      <c r="B1448" s="2">
+      <c r="B1472" s="2">
         <v>45938.0625</v>
       </c>
-      <c r="C1448">
+      <c r="C1472">
         <v>87.33</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1449" s="2">
-        <v>45937.989583333343</v>
-      </c>
-      <c r="B1449" s="2">
-        <v>45938.072916666657</v>
-      </c>
-      <c r="C1449">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1450" s="2">
-        <v>45938</v>
-      </c>
-      <c r="B1450" s="2">
-        <v>45938.083333333343</v>
-      </c>
-      <c r="C1450">
-        <v>89.21</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1451" s="2">
-        <v>45938.010416666657</v>
-      </c>
-      <c r="B1451" s="2">
-        <v>45938.09375</v>
-      </c>
-      <c r="C1451">
-        <v>88.14</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1452" s="2">
-        <v>45938.020833333343</v>
-      </c>
-      <c r="B1452" s="2">
-        <v>45938.104166666657</v>
-      </c>
-      <c r="C1452">
-        <v>86.99</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1453" s="2">
-        <v>45938.03125</v>
-      </c>
-      <c r="B1453" s="2">
-        <v>45938.114583333343</v>
-      </c>
-      <c r="C1453">
-        <v>85.9</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1454" s="2">
-        <v>45938.041666666657</v>
-      </c>
-      <c r="B1454" s="2">
-        <v>45938.125</v>
-      </c>
-      <c r="C1454">
-        <v>86.71</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1455" s="2">
-        <v>45938.052083333343</v>
-      </c>
-      <c r="B1455" s="2">
-        <v>45938.135416666657</v>
-      </c>
-      <c r="C1455">
-        <v>84.17</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1456" s="2">
-        <v>45938.0625</v>
-      </c>
-      <c r="B1456" s="2">
-        <v>45938.145833333343</v>
-      </c>
-      <c r="C1456">
-        <v>86.98</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1457" s="2">
-        <v>45938.072916666657</v>
-      </c>
-      <c r="B1457" s="2">
-        <v>45938.15625</v>
-      </c>
-      <c r="C1457">
-        <v>86.17</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1458" s="2">
-        <v>45938.083333333343</v>
-      </c>
-      <c r="B1458" s="2">
-        <v>45938.166666666657</v>
-      </c>
-      <c r="C1458">
-        <v>85.66</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1459" s="2">
-        <v>45938.09375</v>
-      </c>
-      <c r="B1459" s="2">
-        <v>45938.177083333343</v>
-      </c>
-      <c r="C1459">
-        <v>84.48</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1460" s="2">
-        <v>45938.104166666657</v>
-      </c>
-      <c r="B1460" s="2">
-        <v>45938.1875</v>
-      </c>
-      <c r="C1460">
-        <v>87.11</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1461" s="2">
-        <v>45938.114583333343</v>
-      </c>
-      <c r="B1461" s="2">
-        <v>45938.197916666657</v>
-      </c>
-      <c r="C1461">
-        <v>91.67</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1462" s="2">
-        <v>45938.125</v>
-      </c>
-      <c r="B1462" s="2">
-        <v>45938.208333333343</v>
-      </c>
-      <c r="C1462">
-        <v>86.98</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1463" s="2">
-        <v>45938.135416666657</v>
-      </c>
-      <c r="B1463" s="2">
-        <v>45938.21875</v>
-      </c>
-      <c r="C1463">
-        <v>93.28</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1464" s="2">
-        <v>45938.145833333343</v>
-      </c>
-      <c r="B1464" s="2">
-        <v>45938.229166666657</v>
-      </c>
-      <c r="C1464">
-        <v>92.51</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1465" s="2">
-        <v>45938.15625</v>
-      </c>
-      <c r="B1465" s="2">
-        <v>45938.239583333343</v>
-      </c>
-      <c r="C1465">
-        <v>102.9</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1466" s="2">
-        <v>45938.166666666657</v>
-      </c>
-      <c r="B1466" s="2">
-        <v>45938.25</v>
-      </c>
-      <c r="C1466">
-        <v>92.99</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1467" s="2">
-        <v>45938.177083333343</v>
-      </c>
-      <c r="B1467" s="2">
-        <v>45938.260416666657</v>
-      </c>
-      <c r="C1467">
-        <v>108.63</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1468" s="2">
-        <v>45938.1875</v>
-      </c>
-      <c r="B1468" s="2">
-        <v>45938.270833333343</v>
-      </c>
-      <c r="C1468">
-        <v>120.42</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1469" s="2">
-        <v>45938.197916666657</v>
-      </c>
-      <c r="B1469" s="2">
-        <v>45938.28125</v>
-      </c>
-      <c r="C1469">
-        <v>134.53</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1470" s="2">
-        <v>45938.208333333343</v>
-      </c>
-      <c r="B1470" s="2">
-        <v>45938.291666666657</v>
-      </c>
-      <c r="C1470">
-        <v>127.56</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1471" s="2">
-        <v>45938.21875</v>
-      </c>
-      <c r="B1471" s="2">
-        <v>45938.302083333343</v>
-      </c>
-      <c r="C1471">
-        <v>148.38999999999999</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1472" s="2">
-        <v>45938.229166666657</v>
-      </c>
-      <c r="B1472" s="2">
-        <v>45938.3125</v>
-      </c>
-      <c r="C1472">
-        <v>165.45</v>
       </c>
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1473" s="2">
-        <v>45938.239583333343</v>
+        <v>45937.989583333343</v>
       </c>
       <c r="B1473" s="2">
-        <v>45938.322916666657</v>
+        <v>45938.072916666657</v>
       </c>
       <c r="C1473">
-        <v>168.83</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1474" s="2">
-        <v>45938.25</v>
+        <v>45938</v>
       </c>
       <c r="B1474" s="2">
-        <v>45938.333333333343</v>
+        <v>45938.083333333343</v>
       </c>
       <c r="C1474">
-        <v>203.62</v>
+        <v>89.21</v>
       </c>
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1475" s="2">
-        <v>45938.260416666657</v>
+        <v>45938.010416666657</v>
       </c>
       <c r="B1475" s="2">
-        <v>45938.34375</v>
+        <v>45938.09375</v>
       </c>
       <c r="C1475">
-        <v>175.34</v>
+        <v>88.14</v>
       </c>
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1476" s="2">
-        <v>45938.270833333343</v>
+        <v>45938.020833333343</v>
       </c>
       <c r="B1476" s="2">
-        <v>45938.354166666657</v>
+        <v>45938.104166666657</v>
       </c>
       <c r="C1476">
-        <v>151.24</v>
+        <v>86.99</v>
       </c>
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1477" s="2">
-        <v>45938.28125</v>
+        <v>45938.03125</v>
       </c>
       <c r="B1477" s="2">
-        <v>45938.364583333343</v>
+        <v>45938.114583333343</v>
       </c>
       <c r="C1477">
-        <v>135.38</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1478" s="2">
-        <v>45938.291666666657</v>
+        <v>45938.041666666657</v>
       </c>
       <c r="B1478" s="2">
-        <v>45938.375</v>
+        <v>45938.125</v>
       </c>
       <c r="C1478">
-        <v>176.35</v>
+        <v>86.71</v>
       </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1479" s="2">
-        <v>45938.302083333343</v>
+        <v>45938.052083333343</v>
       </c>
       <c r="B1479" s="2">
-        <v>45938.385416666657</v>
+        <v>45938.135416666657</v>
       </c>
       <c r="C1479">
-        <v>142.44999999999999</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1480" s="2">
-        <v>45938.3125</v>
+        <v>45938.0625</v>
       </c>
       <c r="B1480" s="2">
-        <v>45938.395833333343</v>
+        <v>45938.145833333343</v>
       </c>
       <c r="C1480">
-        <v>119.67</v>
+        <v>86.98</v>
       </c>
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1481" s="2">
-        <v>45938.322916666657</v>
+        <v>45938.072916666657</v>
       </c>
       <c r="B1481" s="2">
-        <v>45938.40625</v>
+        <v>45938.15625</v>
       </c>
       <c r="C1481">
-        <v>106.06</v>
+        <v>86.17</v>
       </c>
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1482" s="2">
-        <v>45938.333333333343</v>
+        <v>45938.083333333343</v>
       </c>
       <c r="B1482" s="2">
-        <v>45938.416666666657</v>
+        <v>45938.166666666657</v>
       </c>
       <c r="C1482">
-        <v>139.21</v>
+        <v>85.66</v>
       </c>
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1483" s="2">
-        <v>45938.34375</v>
+        <v>45938.09375</v>
       </c>
       <c r="B1483" s="2">
-        <v>45938.427083333343</v>
+        <v>45938.177083333343</v>
       </c>
       <c r="C1483">
-        <v>119.74</v>
+        <v>84.48</v>
       </c>
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1484" s="2">
-        <v>45938.354166666657</v>
+        <v>45938.104166666657</v>
       </c>
       <c r="B1484" s="2">
-        <v>45938.4375</v>
+        <v>45938.1875</v>
       </c>
       <c r="C1484">
-        <v>106.31</v>
+        <v>87.11</v>
       </c>
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1485" s="2">
-        <v>45938.364583333343</v>
+        <v>45938.114583333343</v>
       </c>
       <c r="B1485" s="2">
-        <v>45938.447916666657</v>
+        <v>45938.197916666657</v>
       </c>
       <c r="C1485">
-        <v>99.46</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1486" s="2">
-        <v>45938.375</v>
+        <v>45938.125</v>
       </c>
       <c r="B1486" s="2">
-        <v>45938.458333333343</v>
+        <v>45938.208333333343</v>
       </c>
       <c r="C1486">
-        <v>120.14</v>
+        <v>86.98</v>
       </c>
     </row>
     <row r="1487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1487" s="2">
-        <v>45938.385416666657</v>
+        <v>45938.135416666657</v>
       </c>
       <c r="B1487" s="2">
-        <v>45938.46875</v>
+        <v>45938.21875</v>
       </c>
       <c r="C1487">
-        <v>101.96</v>
+        <v>93.28</v>
       </c>
     </row>
     <row r="1488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1488" s="2">
-        <v>45938.395833333343</v>
+        <v>45938.145833333343</v>
       </c>
       <c r="B1488" s="2">
-        <v>45938.479166666657</v>
+        <v>45938.229166666657</v>
       </c>
       <c r="C1488">
-        <v>94.05</v>
+        <v>92.51</v>
       </c>
     </row>
     <row r="1489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1489" s="2">
-        <v>45938.40625</v>
+        <v>45938.15625</v>
       </c>
       <c r="B1489" s="2">
-        <v>45938.489583333343</v>
+        <v>45938.239583333343</v>
       </c>
       <c r="C1489">
-        <v>85.06</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="1490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1490" s="2">
-        <v>45938.416666666657</v>
+        <v>45938.166666666657</v>
       </c>
       <c r="B1490" s="2">
-        <v>45938.5</v>
+        <v>45938.25</v>
       </c>
       <c r="C1490">
-        <v>92.65</v>
+        <v>92.99</v>
       </c>
     </row>
     <row r="1491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1491" s="2">
-        <v>45938.427083333343</v>
+        <v>45938.177083333343</v>
       </c>
       <c r="B1491" s="2">
-        <v>45938.510416666657</v>
+        <v>45938.260416666657</v>
       </c>
       <c r="C1491">
-        <v>88.73</v>
+        <v>108.63</v>
       </c>
     </row>
     <row r="1492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1492" s="2">
-        <v>45938.4375</v>
+        <v>45938.1875</v>
       </c>
       <c r="B1492" s="2">
-        <v>45938.520833333343</v>
+        <v>45938.270833333343</v>
       </c>
       <c r="C1492">
-        <v>86.6</v>
+        <v>120.42</v>
       </c>
     </row>
     <row r="1493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1493" s="2">
-        <v>45938.447916666657</v>
+        <v>45938.197916666657</v>
       </c>
       <c r="B1493" s="2">
-        <v>45938.53125</v>
+        <v>45938.28125</v>
       </c>
       <c r="C1493">
-        <v>86.05</v>
+        <v>134.53</v>
       </c>
     </row>
     <row r="1494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1494" s="2">
-        <v>45938.458333333343</v>
+        <v>45938.208333333343</v>
       </c>
       <c r="B1494" s="2">
-        <v>45938.541666666657</v>
+        <v>45938.291666666657</v>
       </c>
       <c r="C1494">
-        <v>88.93</v>
+        <v>127.56</v>
       </c>
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1495" s="2">
-        <v>45938.46875</v>
+        <v>45938.21875</v>
       </c>
       <c r="B1495" s="2">
-        <v>45938.552083333343</v>
+        <v>45938.302083333343</v>
       </c>
       <c r="C1495">
-        <v>87.74</v>
+        <v>148.38999999999999</v>
       </c>
     </row>
     <row r="1496" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1496" s="2">
-        <v>45938.479166666657</v>
+        <v>45938.229166666657</v>
       </c>
       <c r="B1496" s="2">
-        <v>45938.5625</v>
+        <v>45938.3125</v>
       </c>
       <c r="C1496">
-        <v>86.06</v>
+        <v>165.45</v>
       </c>
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1497" s="2">
-        <v>45938.489583333343</v>
+        <v>45938.239583333343</v>
       </c>
       <c r="B1497" s="2">
-        <v>45938.572916666657</v>
+        <v>45938.322916666657</v>
       </c>
       <c r="C1497">
-        <v>84.38</v>
+        <v>168.83</v>
       </c>
     </row>
     <row r="1498" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1498" s="2">
-        <v>45938.5</v>
+        <v>45938.25</v>
       </c>
       <c r="B1498" s="2">
-        <v>45938.583333333343</v>
+        <v>45938.333333333343</v>
       </c>
       <c r="C1498">
-        <v>82.93</v>
+        <v>203.62</v>
       </c>
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1499" s="2">
-        <v>45938.510416666657</v>
+        <v>45938.260416666657</v>
       </c>
       <c r="B1499" s="2">
-        <v>45938.59375</v>
+        <v>45938.34375</v>
       </c>
       <c r="C1499">
-        <v>84.88</v>
+        <v>175.34</v>
       </c>
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1500" s="2">
-        <v>45938.520833333343</v>
+        <v>45938.270833333343</v>
       </c>
       <c r="B1500" s="2">
-        <v>45938.604166666657</v>
+        <v>45938.354166666657</v>
       </c>
       <c r="C1500">
-        <v>86.66</v>
+        <v>151.24</v>
       </c>
     </row>
     <row r="1501" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1501" s="2">
-        <v>45938.53125</v>
+        <v>45938.28125</v>
       </c>
       <c r="B1501" s="2">
-        <v>45938.614583333343</v>
+        <v>45938.364583333343</v>
       </c>
       <c r="C1501">
-        <v>94.46</v>
+        <v>135.38</v>
       </c>
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1502" s="2">
-        <v>45938.541666666657</v>
+        <v>45938.291666666657</v>
       </c>
       <c r="B1502" s="2">
-        <v>45938.625</v>
+        <v>45938.375</v>
       </c>
       <c r="C1502">
-        <v>84.27</v>
+        <v>176.35</v>
       </c>
     </row>
     <row r="1503" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1503" s="2">
-        <v>45938.552083333343</v>
+        <v>45938.302083333343</v>
       </c>
       <c r="B1503" s="2">
-        <v>45938.635416666657</v>
+        <v>45938.385416666657</v>
       </c>
       <c r="C1503">
-        <v>88.51</v>
+        <v>142.44999999999999</v>
       </c>
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1504" s="2">
-        <v>45938.5625</v>
+        <v>45938.3125</v>
       </c>
       <c r="B1504" s="2">
-        <v>45938.645833333343</v>
+        <v>45938.395833333343</v>
       </c>
       <c r="C1504">
-        <v>95.9</v>
+        <v>119.67</v>
       </c>
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1505" s="2">
-        <v>45938.572916666657</v>
+        <v>45938.322916666657</v>
       </c>
       <c r="B1505" s="2">
-        <v>45938.65625</v>
+        <v>45938.40625</v>
       </c>
       <c r="C1505">
-        <v>108.61</v>
+        <v>106.06</v>
       </c>
     </row>
     <row r="1506" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1506" s="2">
-        <v>45938.583333333343</v>
+        <v>45938.333333333343</v>
       </c>
       <c r="B1506" s="2">
-        <v>45938.666666666657</v>
+        <v>45938.416666666657</v>
       </c>
       <c r="C1506">
-        <v>86.02</v>
+        <v>139.21</v>
       </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1507" s="2">
-        <v>45938.59375</v>
+        <v>45938.34375</v>
       </c>
       <c r="B1507" s="2">
-        <v>45938.677083333343</v>
+        <v>45938.427083333343</v>
       </c>
       <c r="C1507">
-        <v>94.17</v>
+        <v>119.74</v>
       </c>
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1508" s="2">
-        <v>45938.604166666657</v>
+        <v>45938.354166666657</v>
       </c>
       <c r="B1508" s="2">
-        <v>45938.6875</v>
+        <v>45938.4375</v>
       </c>
       <c r="C1508">
-        <v>118.25</v>
+        <v>106.31</v>
       </c>
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1509" s="2">
-        <v>45938.614583333343</v>
+        <v>45938.364583333343</v>
       </c>
       <c r="B1509" s="2">
-        <v>45938.697916666657</v>
+        <v>45938.447916666657</v>
       </c>
       <c r="C1509">
-        <v>139.62</v>
+        <v>99.46</v>
       </c>
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1510" s="2">
-        <v>45938.625</v>
+        <v>45938.375</v>
       </c>
       <c r="B1510" s="2">
-        <v>45938.708333333343</v>
+        <v>45938.458333333343</v>
       </c>
       <c r="C1510">
-        <v>96.65</v>
+        <v>120.14</v>
       </c>
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1511" s="2">
-        <v>45938.635416666657</v>
+        <v>45938.385416666657</v>
       </c>
       <c r="B1511" s="2">
-        <v>45938.71875</v>
+        <v>45938.46875</v>
       </c>
       <c r="C1511">
-        <v>117.95</v>
+        <v>101.96</v>
       </c>
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1512" s="2">
-        <v>45938.645833333343</v>
+        <v>45938.395833333343</v>
       </c>
       <c r="B1512" s="2">
-        <v>45938.729166666657</v>
+        <v>45938.479166666657</v>
       </c>
       <c r="C1512">
-        <v>148.81</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1513" s="2">
-        <v>45938.65625</v>
+        <v>45938.40625</v>
       </c>
       <c r="B1513" s="2">
-        <v>45938.739583333343</v>
+        <v>45938.489583333343</v>
       </c>
       <c r="C1513">
-        <v>203.12</v>
+        <v>85.06</v>
       </c>
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1514" s="2">
-        <v>45938.666666666657</v>
+        <v>45938.416666666657</v>
       </c>
       <c r="B1514" s="2">
-        <v>45938.75</v>
+        <v>45938.5</v>
       </c>
       <c r="C1514">
-        <v>129.74</v>
+        <v>92.65</v>
       </c>
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1515" s="2">
-        <v>45938.677083333343</v>
+        <v>45938.427083333343</v>
       </c>
       <c r="B1515" s="2">
-        <v>45938.760416666657</v>
+        <v>45938.510416666657</v>
       </c>
       <c r="C1515">
-        <v>142.25</v>
+        <v>88.73</v>
       </c>
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1516" s="2">
-        <v>45938.6875</v>
+        <v>45938.4375</v>
       </c>
       <c r="B1516" s="2">
-        <v>45938.770833333343</v>
+        <v>45938.520833333343</v>
       </c>
       <c r="C1516">
-        <v>195.41</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="1517" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1517" s="2">
-        <v>45938.697916666657</v>
+        <v>45938.447916666657</v>
       </c>
       <c r="B1517" s="2">
-        <v>45938.78125</v>
+        <v>45938.53125</v>
       </c>
       <c r="C1517">
-        <v>241.07</v>
+        <v>86.05</v>
       </c>
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1518" s="2">
-        <v>45938.708333333343</v>
+        <v>45938.458333333343</v>
       </c>
       <c r="B1518" s="2">
-        <v>45938.791666666657</v>
+        <v>45938.541666666657</v>
       </c>
       <c r="C1518">
-        <v>223.55</v>
+        <v>88.93</v>
       </c>
     </row>
     <row r="1519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1519" s="2">
-        <v>45938.71875</v>
+        <v>45938.46875</v>
       </c>
       <c r="B1519" s="2">
-        <v>45938.802083333343</v>
+        <v>45938.552083333343</v>
       </c>
       <c r="C1519">
-        <v>199.54</v>
+        <v>87.74</v>
       </c>
     </row>
     <row r="1520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1520" s="2">
-        <v>45938.729166666657</v>
+        <v>45938.479166666657</v>
       </c>
       <c r="B1520" s="2">
-        <v>45938.8125</v>
+        <v>45938.5625</v>
       </c>
       <c r="C1520">
-        <v>180.46</v>
+        <v>86.06</v>
       </c>
     </row>
     <row r="1521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1521" s="2">
-        <v>45938.739583333343</v>
+        <v>45938.489583333343</v>
       </c>
       <c r="B1521" s="2">
-        <v>45938.822916666657</v>
+        <v>45938.572916666657</v>
       </c>
       <c r="C1521">
-        <v>175</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1522" s="2">
-        <v>45938.75</v>
+        <v>45938.5</v>
       </c>
       <c r="B1522" s="2">
-        <v>45938.833333333343</v>
+        <v>45938.583333333343</v>
       </c>
       <c r="C1522">
-        <v>169.2</v>
+        <v>82.93</v>
       </c>
     </row>
     <row r="1523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1523" s="2">
-        <v>45938.760416666657</v>
+        <v>45938.510416666657</v>
       </c>
       <c r="B1523" s="2">
-        <v>45938.84375</v>
+        <v>45938.59375</v>
       </c>
       <c r="C1523">
-        <v>149.99</v>
+        <v>84.88</v>
       </c>
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1524" s="2">
-        <v>45938.770833333343</v>
+        <v>45938.520833333343</v>
       </c>
       <c r="B1524" s="2">
-        <v>45938.854166666657</v>
+        <v>45938.604166666657</v>
       </c>
       <c r="C1524">
-        <v>128.21</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1525" s="2">
-        <v>45938.78125</v>
+        <v>45938.53125</v>
       </c>
       <c r="B1525" s="2">
-        <v>45938.864583333343</v>
+        <v>45938.614583333343</v>
       </c>
       <c r="C1525">
-        <v>118.39</v>
+        <v>94.46</v>
       </c>
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1526" s="2">
-        <v>45938.791666666657</v>
+        <v>45938.541666666657</v>
       </c>
       <c r="B1526" s="2">
-        <v>45938.875</v>
+        <v>45938.625</v>
       </c>
       <c r="C1526">
-        <v>128.02000000000001</v>
+        <v>84.27</v>
       </c>
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1527" s="2">
-        <v>45938.802083333343</v>
+        <v>45938.552083333343</v>
       </c>
       <c r="B1527" s="2">
-        <v>45938.885416666657</v>
+        <v>45938.635416666657</v>
       </c>
       <c r="C1527">
-        <v>116.99</v>
+        <v>88.51</v>
       </c>
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1528" s="2">
-        <v>45938.8125</v>
+        <v>45938.5625</v>
       </c>
       <c r="B1528" s="2">
-        <v>45938.895833333343</v>
+        <v>45938.645833333343</v>
       </c>
       <c r="C1528">
-        <v>106.9</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1529" s="2">
-        <v>45938.822916666657</v>
+        <v>45938.572916666657</v>
       </c>
       <c r="B1529" s="2">
-        <v>45938.90625</v>
+        <v>45938.65625</v>
       </c>
       <c r="C1529">
-        <v>102.34</v>
+        <v>108.61</v>
       </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1530" s="2">
-        <v>45938.833333333343</v>
+        <v>45938.583333333343</v>
       </c>
       <c r="B1530" s="2">
-        <v>45938.916666666657</v>
+        <v>45938.666666666657</v>
       </c>
       <c r="C1530">
-        <v>110.69</v>
+        <v>86.02</v>
       </c>
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1531" s="2">
-        <v>45938.84375</v>
+        <v>45938.59375</v>
       </c>
       <c r="B1531" s="2">
-        <v>45938.927083333343</v>
+        <v>45938.677083333343</v>
       </c>
       <c r="C1531">
-        <v>109.91</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1532" s="2">
-        <v>45938.854166666657</v>
+        <v>45938.604166666657</v>
       </c>
       <c r="B1532" s="2">
-        <v>45938.9375</v>
+        <v>45938.6875</v>
       </c>
       <c r="C1532">
-        <v>106.28</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1533" s="2">
-        <v>45938.864583333343</v>
+        <v>45938.614583333343</v>
       </c>
       <c r="B1533" s="2">
-        <v>45938.947916666657</v>
+        <v>45938.697916666657</v>
       </c>
       <c r="C1533">
-        <v>97.93</v>
+        <v>139.62</v>
       </c>
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1534" s="2">
-        <v>45938.875</v>
+        <v>45938.625</v>
       </c>
       <c r="B1534" s="2">
-        <v>45938.958333333343</v>
+        <v>45938.708333333343</v>
       </c>
       <c r="C1534">
-        <v>101.68</v>
+        <v>96.65</v>
       </c>
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1535" s="2">
-        <v>45938.885416666657</v>
+        <v>45938.635416666657</v>
       </c>
       <c r="B1535" s="2">
-        <v>45938.96875</v>
+        <v>45938.71875</v>
       </c>
       <c r="C1535">
-        <v>99.79</v>
+        <v>117.95</v>
       </c>
     </row>
     <row r="1536" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1536" s="2">
-        <v>45938.895833333343</v>
+        <v>45938.645833333343</v>
       </c>
       <c r="B1536" s="2">
-        <v>45938.979166666657</v>
+        <v>45938.729166666657</v>
       </c>
       <c r="C1536">
-        <v>95.48</v>
+        <v>148.81</v>
       </c>
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1537" s="2">
+        <v>45938.65625</v>
+      </c>
+      <c r="B1537" s="2">
+        <v>45938.739583333343</v>
+      </c>
+      <c r="C1537">
+        <v>203.12</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1538" s="2">
+        <v>45938.666666666657</v>
+      </c>
+      <c r="B1538" s="2">
+        <v>45938.75</v>
+      </c>
+      <c r="C1538">
+        <v>129.74</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1539" s="2">
+        <v>45938.677083333343</v>
+      </c>
+      <c r="B1539" s="2">
+        <v>45938.760416666657</v>
+      </c>
+      <c r="C1539">
+        <v>142.25</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1540" s="2">
+        <v>45938.6875</v>
+      </c>
+      <c r="B1540" s="2">
+        <v>45938.770833333343</v>
+      </c>
+      <c r="C1540">
+        <v>195.41</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1541" s="2">
+        <v>45938.697916666657</v>
+      </c>
+      <c r="B1541" s="2">
+        <v>45938.78125</v>
+      </c>
+      <c r="C1541">
+        <v>241.07</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1542" s="2">
+        <v>45938.708333333343</v>
+      </c>
+      <c r="B1542" s="2">
+        <v>45938.791666666657</v>
+      </c>
+      <c r="C1542">
+        <v>223.55</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1543" s="2">
+        <v>45938.71875</v>
+      </c>
+      <c r="B1543" s="2">
+        <v>45938.802083333343</v>
+      </c>
+      <c r="C1543">
+        <v>199.54</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1544" s="2">
+        <v>45938.729166666657</v>
+      </c>
+      <c r="B1544" s="2">
+        <v>45938.8125</v>
+      </c>
+      <c r="C1544">
+        <v>180.46</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1545" s="2">
+        <v>45938.739583333343</v>
+      </c>
+      <c r="B1545" s="2">
+        <v>45938.822916666657</v>
+      </c>
+      <c r="C1545">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1546" s="2">
+        <v>45938.75</v>
+      </c>
+      <c r="B1546" s="2">
+        <v>45938.833333333343</v>
+      </c>
+      <c r="C1546">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1547" s="2">
+        <v>45938.760416666657</v>
+      </c>
+      <c r="B1547" s="2">
+        <v>45938.84375</v>
+      </c>
+      <c r="C1547">
+        <v>149.99</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1548" s="2">
+        <v>45938.770833333343</v>
+      </c>
+      <c r="B1548" s="2">
+        <v>45938.854166666657</v>
+      </c>
+      <c r="C1548">
+        <v>128.21</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1549" s="2">
+        <v>45938.78125</v>
+      </c>
+      <c r="B1549" s="2">
+        <v>45938.864583333343</v>
+      </c>
+      <c r="C1549">
+        <v>118.39</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1550" s="2">
+        <v>45938.791666666657</v>
+      </c>
+      <c r="B1550" s="2">
+        <v>45938.875</v>
+      </c>
+      <c r="C1550">
+        <v>128.02000000000001</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1551" s="2">
+        <v>45938.802083333343</v>
+      </c>
+      <c r="B1551" s="2">
+        <v>45938.885416666657</v>
+      </c>
+      <c r="C1551">
+        <v>116.99</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1552" s="2">
+        <v>45938.8125</v>
+      </c>
+      <c r="B1552" s="2">
+        <v>45938.895833333343</v>
+      </c>
+      <c r="C1552">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1553" s="2">
+        <v>45938.822916666657</v>
+      </c>
+      <c r="B1553" s="2">
         <v>45938.90625</v>
       </c>
-      <c r="B1537" s="2">
+      <c r="C1553">
+        <v>102.34</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1554" s="2">
+        <v>45938.833333333343</v>
+      </c>
+      <c r="B1554" s="2">
+        <v>45938.916666666657</v>
+      </c>
+      <c r="C1554">
+        <v>110.69</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1555" s="2">
+        <v>45938.84375</v>
+      </c>
+      <c r="B1555" s="2">
+        <v>45938.927083333343</v>
+      </c>
+      <c r="C1555">
+        <v>109.91</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1556" s="2">
+        <v>45938.854166666657</v>
+      </c>
+      <c r="B1556" s="2">
+        <v>45938.9375</v>
+      </c>
+      <c r="C1556">
+        <v>106.28</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1557" s="2">
+        <v>45938.864583333343</v>
+      </c>
+      <c r="B1557" s="2">
+        <v>45938.947916666657</v>
+      </c>
+      <c r="C1557">
+        <v>97.93</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1558" s="2">
+        <v>45938.875</v>
+      </c>
+      <c r="B1558" s="2">
+        <v>45938.958333333343</v>
+      </c>
+      <c r="C1558">
+        <v>101.68</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1559" s="2">
+        <v>45938.885416666657</v>
+      </c>
+      <c r="B1559" s="2">
+        <v>45938.96875</v>
+      </c>
+      <c r="C1559">
+        <v>99.79</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1560" s="2">
+        <v>45938.895833333343</v>
+      </c>
+      <c r="B1560" s="2">
+        <v>45938.979166666657</v>
+      </c>
+      <c r="C1560">
+        <v>95.48</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1561" s="2">
+        <v>45938.90625</v>
+      </c>
+      <c r="B1561" s="2">
         <v>45938.989583333343</v>
       </c>
-      <c r="C1537">
+      <c r="C1561">
         <v>90</v>
       </c>
     </row>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1753"/>
+  <dimension ref="A1:C1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16538,3169 +16538,5273 @@
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
-        <v>45936.91666666666</v>
+        <v>45934.91666666666</v>
       </c>
       <c r="B1466" s="2" t="n">
-        <v>45937</v>
+        <v>45935</v>
       </c>
       <c r="C1466" t="n">
-        <v>105.51</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
-        <v>45936.92708333334</v>
+        <v>45934.92708333334</v>
       </c>
       <c r="B1467" s="2" t="n">
-        <v>45937.01041666666</v>
+        <v>45935.01041666666</v>
       </c>
       <c r="C1467" t="n">
-        <v>102.6</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
-        <v>45936.9375</v>
+        <v>45934.9375</v>
       </c>
       <c r="B1468" s="2" t="n">
-        <v>45937.02083333334</v>
+        <v>45935.02083333334</v>
       </c>
       <c r="C1468" t="n">
-        <v>95.59999999999999</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
-        <v>45936.94791666666</v>
+        <v>45934.94791666666</v>
       </c>
       <c r="B1469" s="2" t="n">
-        <v>45937.03125</v>
+        <v>45935.03125</v>
       </c>
       <c r="C1469" t="n">
-        <v>88.45999999999999</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
-        <v>45936.95833333334</v>
+        <v>45934.95833333334</v>
       </c>
       <c r="B1470" s="2" t="n">
-        <v>45937.04166666666</v>
+        <v>45935.04166666666</v>
       </c>
       <c r="C1470" t="n">
-        <v>100</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
-        <v>45936.96875</v>
+        <v>45934.96875</v>
       </c>
       <c r="B1471" s="2" t="n">
-        <v>45937.05208333334</v>
+        <v>45935.05208333334</v>
       </c>
       <c r="C1471" t="n">
-        <v>93.59999999999999</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
-        <v>45936.97916666666</v>
+        <v>45934.97916666666</v>
       </c>
       <c r="B1472" s="2" t="n">
-        <v>45937.0625</v>
+        <v>45935.0625</v>
       </c>
       <c r="C1472" t="n">
-        <v>92.68000000000001</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
-        <v>45936.98958333334</v>
+        <v>45934.98958333334</v>
       </c>
       <c r="B1473" s="2" t="n">
-        <v>45937.07291666666</v>
+        <v>45935.07291666666</v>
       </c>
       <c r="C1473" t="n">
-        <v>85.44</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
-        <v>45937</v>
+        <v>45935</v>
       </c>
       <c r="B1474" s="2" t="n">
-        <v>45937.08333333334</v>
+        <v>45935.08333333334</v>
       </c>
       <c r="C1474" t="n">
-        <v>89.98</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
-        <v>45937.01041666666</v>
+        <v>45935.01041666666</v>
       </c>
       <c r="B1475" s="2" t="n">
-        <v>45937.09375</v>
+        <v>45935.09375</v>
       </c>
       <c r="C1475" t="n">
-        <v>85.59999999999999</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
-        <v>45937.02083333334</v>
+        <v>45935.02083333334</v>
       </c>
       <c r="B1476" s="2" t="n">
-        <v>45937.10416666666</v>
+        <v>45935.10416666666</v>
       </c>
       <c r="C1476" t="n">
-        <v>87.70999999999999</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
-        <v>45937.03125</v>
+        <v>45935.03125</v>
       </c>
       <c r="B1477" s="2" t="n">
-        <v>45937.11458333334</v>
-      </c>
-      <c r="C1477" t="n">
-        <v>85.23999999999999</v>
-      </c>
+        <v>45935.11458333334</v>
+      </c>
+      <c r="C1477" t="inlineStr"/>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
-        <v>45937.04166666666</v>
+        <v>45935.04166666666</v>
       </c>
       <c r="B1478" s="2" t="n">
-        <v>45937.125</v>
+        <v>45935.125</v>
       </c>
       <c r="C1478" t="n">
-        <v>88.04000000000001</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
-        <v>45937.05208333334</v>
+        <v>45935.05208333334</v>
       </c>
       <c r="B1479" s="2" t="n">
-        <v>45937.13541666666</v>
+        <v>45935.13541666666</v>
       </c>
       <c r="C1479" t="n">
-        <v>86.19</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
-        <v>45937.0625</v>
+        <v>45935.0625</v>
       </c>
       <c r="B1480" s="2" t="n">
-        <v>45937.14583333334</v>
+        <v>45935.14583333334</v>
       </c>
       <c r="C1480" t="n">
-        <v>87.09</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
-        <v>45937.07291666666</v>
+        <v>45935.07291666666</v>
       </c>
       <c r="B1481" s="2" t="n">
-        <v>45937.15625</v>
+        <v>45935.15625</v>
       </c>
       <c r="C1481" t="n">
-        <v>86.59</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
-        <v>45937.08333333334</v>
+        <v>45935.08333333334</v>
       </c>
       <c r="B1482" s="2" t="n">
-        <v>45937.16666666666</v>
+        <v>45935.16666666666</v>
       </c>
       <c r="C1482" t="n">
-        <v>84.01000000000001</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
-        <v>45937.09375</v>
+        <v>45935.09375</v>
       </c>
       <c r="B1483" s="2" t="n">
-        <v>45937.17708333334</v>
+        <v>45935.17708333334</v>
       </c>
       <c r="C1483" t="n">
-        <v>85.20999999999999</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
-        <v>45937.10416666666</v>
+        <v>45935.10416666666</v>
       </c>
       <c r="B1484" s="2" t="n">
-        <v>45937.1875</v>
+        <v>45935.1875</v>
       </c>
       <c r="C1484" t="n">
-        <v>91.61</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
-        <v>45937.11458333334</v>
+        <v>45935.11458333334</v>
       </c>
       <c r="B1485" s="2" t="n">
-        <v>45937.19791666666</v>
+        <v>45935.19791666666</v>
       </c>
       <c r="C1485" t="n">
-        <v>95.45999999999999</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
-        <v>45937.125</v>
+        <v>45935.125</v>
       </c>
       <c r="B1486" s="2" t="n">
-        <v>45937.20833333334</v>
+        <v>45935.20833333334</v>
       </c>
       <c r="C1486" t="n">
-        <v>84.54000000000001</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
-        <v>45937.13541666666</v>
+        <v>45935.13541666666</v>
       </c>
       <c r="B1487" s="2" t="n">
-        <v>45937.21875</v>
-      </c>
-      <c r="C1487" t="n">
-        <v>90.89</v>
-      </c>
+        <v>45935.21875</v>
+      </c>
+      <c r="C1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
-        <v>45937.14583333334</v>
+        <v>45935.14583333334</v>
       </c>
       <c r="B1488" s="2" t="n">
-        <v>45937.22916666666</v>
+        <v>45935.22916666666</v>
       </c>
       <c r="C1488" t="n">
-        <v>97.13</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
-        <v>45937.15625</v>
+        <v>45935.15625</v>
       </c>
       <c r="B1489" s="2" t="n">
-        <v>45937.23958333334</v>
-      </c>
-      <c r="C1489" t="n">
-        <v>106.53</v>
-      </c>
+        <v>45935.23958333334</v>
+      </c>
+      <c r="C1489" t="inlineStr"/>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
-        <v>45937.16666666666</v>
+        <v>45935.16666666666</v>
       </c>
       <c r="B1490" s="2" t="n">
-        <v>45937.25</v>
+        <v>45935.25</v>
       </c>
       <c r="C1490" t="n">
-        <v>105.89</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
-        <v>45937.17708333334</v>
+        <v>45935.17708333334</v>
       </c>
       <c r="B1491" s="2" t="n">
-        <v>45937.26041666666</v>
+        <v>45935.26041666666</v>
       </c>
       <c r="C1491" t="n">
-        <v>118.3</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
-        <v>45937.1875</v>
+        <v>45935.1875</v>
       </c>
       <c r="B1492" s="2" t="n">
-        <v>45937.27083333334</v>
+        <v>45935.27083333334</v>
       </c>
       <c r="C1492" t="n">
-        <v>121.91</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
-        <v>45937.19791666666</v>
+        <v>45935.19791666666</v>
       </c>
       <c r="B1493" s="2" t="n">
-        <v>45937.28125</v>
+        <v>45935.28125</v>
       </c>
       <c r="C1493" t="n">
-        <v>139.43</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
-        <v>45937.20833333334</v>
+        <v>45935.20833333334</v>
       </c>
       <c r="B1494" s="2" t="n">
-        <v>45937.29166666666</v>
+        <v>45935.29166666666</v>
       </c>
       <c r="C1494" t="n">
-        <v>138.6</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
-        <v>45937.21875</v>
+        <v>45935.21875</v>
       </c>
       <c r="B1495" s="2" t="n">
-        <v>45937.30208333334</v>
+        <v>45935.30208333334</v>
       </c>
       <c r="C1495" t="n">
-        <v>190.2</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
-        <v>45937.22916666666</v>
+        <v>45935.22916666666</v>
       </c>
       <c r="B1496" s="2" t="n">
-        <v>45937.3125</v>
+        <v>45935.3125</v>
       </c>
       <c r="C1496" t="n">
-        <v>241.65</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
-        <v>45937.23958333334</v>
+        <v>45935.23958333334</v>
       </c>
       <c r="B1497" s="2" t="n">
-        <v>45937.32291666666</v>
+        <v>45935.32291666666</v>
       </c>
       <c r="C1497" t="n">
-        <v>248.89</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
-        <v>45937.25</v>
+        <v>45935.25</v>
       </c>
       <c r="B1498" s="2" t="n">
-        <v>45937.33333333334</v>
+        <v>45935.33333333334</v>
       </c>
       <c r="C1498" t="n">
-        <v>271.11</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
-        <v>45937.26041666666</v>
+        <v>45935.26041666666</v>
       </c>
       <c r="B1499" s="2" t="n">
-        <v>45937.34375</v>
+        <v>45935.34375</v>
       </c>
       <c r="C1499" t="n">
-        <v>257.14</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
-        <v>45937.27083333334</v>
+        <v>45935.27083333334</v>
       </c>
       <c r="B1500" s="2" t="n">
-        <v>45937.35416666666</v>
+        <v>45935.35416666666</v>
       </c>
       <c r="C1500" t="n">
-        <v>251.51</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
-        <v>45937.28125</v>
+        <v>45935.28125</v>
       </c>
       <c r="B1501" s="2" t="n">
-        <v>45937.36458333334</v>
+        <v>45935.36458333334</v>
       </c>
       <c r="C1501" t="n">
-        <v>251.58</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
-        <v>45937.29166666666</v>
+        <v>45935.29166666666</v>
       </c>
       <c r="B1502" s="2" t="n">
-        <v>45937.375</v>
+        <v>45935.375</v>
       </c>
       <c r="C1502" t="n">
-        <v>277.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
-        <v>45937.30208333334</v>
+        <v>45935.30208333334</v>
       </c>
       <c r="B1503" s="2" t="n">
-        <v>45937.38541666666</v>
+        <v>45935.38541666666</v>
       </c>
       <c r="C1503" t="n">
-        <v>232.55</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
-        <v>45937.3125</v>
+        <v>45935.3125</v>
       </c>
       <c r="B1504" s="2" t="n">
-        <v>45937.39583333334</v>
+        <v>45935.39583333334</v>
       </c>
       <c r="C1504" t="n">
-        <v>159.97</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
-        <v>45937.32291666666</v>
+        <v>45935.32291666666</v>
       </c>
       <c r="B1505" s="2" t="n">
-        <v>45937.40625</v>
+        <v>45935.40625</v>
       </c>
       <c r="C1505" t="n">
-        <v>130.47</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
-        <v>45937.33333333334</v>
+        <v>45935.33333333334</v>
       </c>
       <c r="B1506" s="2" t="n">
-        <v>45937.41666666666</v>
+        <v>45935.41666666666</v>
       </c>
       <c r="C1506" t="n">
-        <v>192.36</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
-        <v>45937.34375</v>
+        <v>45935.34375</v>
       </c>
       <c r="B1507" s="2" t="n">
-        <v>45937.42708333334</v>
+        <v>45935.42708333334</v>
       </c>
       <c r="C1507" t="n">
-        <v>157.78</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
-        <v>45937.35416666666</v>
+        <v>45935.35416666666</v>
       </c>
       <c r="B1508" s="2" t="n">
-        <v>45937.4375</v>
+        <v>45935.4375</v>
       </c>
       <c r="C1508" t="n">
-        <v>131.03</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
-        <v>45937.36458333334</v>
+        <v>45935.36458333334</v>
       </c>
       <c r="B1509" s="2" t="n">
-        <v>45937.44791666666</v>
+        <v>45935.44791666666</v>
       </c>
       <c r="C1509" t="n">
-        <v>113.31</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
-        <v>45937.375</v>
+        <v>45935.375</v>
       </c>
       <c r="B1510" s="2" t="n">
-        <v>45937.45833333334</v>
+        <v>45935.45833333334</v>
       </c>
       <c r="C1510" t="n">
-        <v>138.91</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
-        <v>45937.38541666666</v>
+        <v>45935.38541666666</v>
       </c>
       <c r="B1511" s="2" t="n">
-        <v>45937.46875</v>
-      </c>
-      <c r="C1511" t="n">
-        <v>123.06</v>
-      </c>
+        <v>45935.46875</v>
+      </c>
+      <c r="C1511" t="inlineStr"/>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
-        <v>45937.39583333334</v>
+        <v>45935.39583333334</v>
       </c>
       <c r="B1512" s="2" t="n">
-        <v>45937.47916666666</v>
+        <v>45935.47916666666</v>
       </c>
       <c r="C1512" t="n">
-        <v>106.84</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
-        <v>45937.40625</v>
+        <v>45935.40625</v>
       </c>
       <c r="B1513" s="2" t="n">
-        <v>45937.48958333334</v>
+        <v>45935.48958333334</v>
       </c>
       <c r="C1513" t="n">
-        <v>99.56</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
-        <v>45937.41666666666</v>
+        <v>45935.41666666666</v>
       </c>
       <c r="B1514" s="2" t="n">
-        <v>45937.5</v>
+        <v>45935.5</v>
       </c>
       <c r="C1514" t="n">
-        <v>112.45</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
-        <v>45937.42708333334</v>
+        <v>45935.42708333334</v>
       </c>
       <c r="B1515" s="2" t="n">
-        <v>45937.51041666666</v>
+        <v>45935.51041666666</v>
       </c>
       <c r="C1515" t="n">
-        <v>99.75</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
-        <v>45937.4375</v>
+        <v>45935.4375</v>
       </c>
       <c r="B1516" s="2" t="n">
-        <v>45937.52083333334</v>
+        <v>45935.52083333334</v>
       </c>
       <c r="C1516" t="n">
-        <v>96.56</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
-        <v>45937.44791666666</v>
+        <v>45935.44791666666</v>
       </c>
       <c r="B1517" s="2" t="n">
-        <v>45937.53125</v>
+        <v>45935.53125</v>
       </c>
       <c r="C1517" t="n">
-        <v>95.52</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
-        <v>45937.45833333334</v>
+        <v>45935.45833333334</v>
       </c>
       <c r="B1518" s="2" t="n">
-        <v>45937.54166666666</v>
+        <v>45935.54166666666</v>
       </c>
       <c r="C1518" t="n">
-        <v>101.12</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
-        <v>45937.46875</v>
+        <v>45935.46875</v>
       </c>
       <c r="B1519" s="2" t="n">
-        <v>45937.55208333334</v>
+        <v>45935.55208333334</v>
       </c>
       <c r="C1519" t="n">
-        <v>95.43000000000001</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
-        <v>45937.47916666666</v>
+        <v>45935.47916666666</v>
       </c>
       <c r="B1520" s="2" t="n">
-        <v>45937.5625</v>
+        <v>45935.5625</v>
       </c>
       <c r="C1520" t="n">
-        <v>94.06</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
-        <v>45937.48958333334</v>
+        <v>45935.48958333334</v>
       </c>
       <c r="B1521" s="2" t="n">
-        <v>45937.57291666666</v>
+        <v>45935.57291666666</v>
       </c>
       <c r="C1521" t="n">
-        <v>91.45999999999999</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
-        <v>45937.5</v>
+        <v>45935.5</v>
       </c>
       <c r="B1522" s="2" t="n">
-        <v>45937.58333333334</v>
+        <v>45935.58333333334</v>
       </c>
       <c r="C1522" t="n">
-        <v>92.22</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
-        <v>45937.51041666666</v>
+        <v>45935.51041666666</v>
       </c>
       <c r="B1523" s="2" t="n">
-        <v>45937.59375</v>
+        <v>45935.59375</v>
       </c>
       <c r="C1523" t="n">
-        <v>93.39</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
-        <v>45937.52083333334</v>
+        <v>45935.52083333334</v>
       </c>
       <c r="B1524" s="2" t="n">
-        <v>45937.60416666666</v>
+        <v>45935.60416666666</v>
       </c>
       <c r="C1524" t="n">
-        <v>94.53</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
-        <v>45937.53125</v>
+        <v>45935.53125</v>
       </c>
       <c r="B1525" s="2" t="n">
-        <v>45937.61458333334</v>
+        <v>45935.61458333334</v>
       </c>
       <c r="C1525" t="n">
-        <v>96.44</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
-        <v>45937.54166666666</v>
+        <v>45935.54166666666</v>
       </c>
       <c r="B1526" s="2" t="n">
-        <v>45937.625</v>
+        <v>45935.625</v>
       </c>
       <c r="C1526" t="n">
-        <v>90.5</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
-        <v>45937.55208333334</v>
+        <v>45935.55208333334</v>
       </c>
       <c r="B1527" s="2" t="n">
-        <v>45937.63541666666</v>
+        <v>45935.63541666666</v>
       </c>
       <c r="C1527" t="n">
-        <v>94.73</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
-        <v>45937.5625</v>
+        <v>45935.5625</v>
       </c>
       <c r="B1528" s="2" t="n">
-        <v>45937.64583333334</v>
+        <v>45935.64583333334</v>
       </c>
       <c r="C1528" t="n">
-        <v>104.28</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
-        <v>45937.57291666666</v>
+        <v>45935.57291666666</v>
       </c>
       <c r="B1529" s="2" t="n">
-        <v>45937.65625</v>
+        <v>45935.65625</v>
       </c>
       <c r="C1529" t="n">
-        <v>116.09</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
-        <v>45937.58333333334</v>
+        <v>45935.58333333334</v>
       </c>
       <c r="B1530" s="2" t="n">
-        <v>45937.66666666666</v>
+        <v>45935.66666666666</v>
       </c>
       <c r="C1530" t="n">
-        <v>93.53</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
-        <v>45937.59375</v>
+        <v>45935.59375</v>
       </c>
       <c r="B1531" s="2" t="n">
-        <v>45937.67708333334</v>
+        <v>45935.67708333334</v>
       </c>
       <c r="C1531" t="n">
-        <v>99.88</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
-        <v>45937.60416666666</v>
+        <v>45935.60416666666</v>
       </c>
       <c r="B1532" s="2" t="n">
-        <v>45937.6875</v>
+        <v>45935.6875</v>
       </c>
       <c r="C1532" t="n">
-        <v>115.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
-        <v>45937.61458333334</v>
+        <v>45935.61458333334</v>
       </c>
       <c r="B1533" s="2" t="n">
-        <v>45937.69791666666</v>
+        <v>45935.69791666666</v>
       </c>
       <c r="C1533" t="n">
-        <v>132.97</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
-        <v>45937.625</v>
+        <v>45935.625</v>
       </c>
       <c r="B1534" s="2" t="n">
-        <v>45937.70833333334</v>
+        <v>45935.70833333334</v>
       </c>
       <c r="C1534" t="n">
-        <v>107.81</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
-        <v>45937.63541666666</v>
+        <v>45935.63541666666</v>
       </c>
       <c r="B1535" s="2" t="n">
-        <v>45937.71875</v>
+        <v>45935.71875</v>
       </c>
       <c r="C1535" t="n">
-        <v>120.95</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
-        <v>45937.64583333334</v>
+        <v>45935.64583333334</v>
       </c>
       <c r="B1536" s="2" t="n">
-        <v>45937.72916666666</v>
+        <v>45935.72916666666</v>
       </c>
       <c r="C1536" t="n">
-        <v>146.01</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
-        <v>45937.65625</v>
+        <v>45935.65625</v>
       </c>
       <c r="B1537" s="2" t="n">
-        <v>45937.73958333334</v>
+        <v>45935.73958333334</v>
       </c>
       <c r="C1537" t="n">
-        <v>193.61</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
-        <v>45937.66666666666</v>
+        <v>45935.66666666666</v>
       </c>
       <c r="B1538" s="2" t="n">
-        <v>45937.75</v>
+        <v>45935.75</v>
       </c>
       <c r="C1538" t="n">
-        <v>143.57</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
-        <v>45937.67708333334</v>
+        <v>45935.67708333334</v>
       </c>
       <c r="B1539" s="2" t="n">
-        <v>45937.76041666666</v>
+        <v>45935.76041666666</v>
       </c>
       <c r="C1539" t="n">
-        <v>150.1</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
-        <v>45937.6875</v>
+        <v>45935.6875</v>
       </c>
       <c r="B1540" s="2" t="n">
-        <v>45937.77083333334</v>
+        <v>45935.77083333334</v>
       </c>
       <c r="C1540" t="n">
-        <v>211.7</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
-        <v>45937.69791666666</v>
+        <v>45935.69791666666</v>
       </c>
       <c r="B1541" s="2" t="n">
-        <v>45937.78125</v>
+        <v>45935.78125</v>
       </c>
       <c r="C1541" t="n">
-        <v>272.86</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
-        <v>45937.70833333334</v>
+        <v>45935.70833333334</v>
       </c>
       <c r="B1542" s="2" t="n">
-        <v>45937.79166666666</v>
+        <v>45935.79166666666</v>
       </c>
       <c r="C1542" t="n">
-        <v>242.63</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
-        <v>45937.71875</v>
+        <v>45935.71875</v>
       </c>
       <c r="B1543" s="2" t="n">
-        <v>45937.80208333334</v>
+        <v>45935.80208333334</v>
       </c>
       <c r="C1543" t="n">
-        <v>212.78</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
-        <v>45937.72916666666</v>
+        <v>45935.72916666666</v>
       </c>
       <c r="B1544" s="2" t="n">
-        <v>45937.8125</v>
+        <v>45935.8125</v>
       </c>
       <c r="C1544" t="n">
-        <v>194.02</v>
+        <v>48.01</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
-        <v>45937.73958333334</v>
+        <v>45935.73958333334</v>
       </c>
       <c r="B1545" s="2" t="n">
-        <v>45937.82291666666</v>
+        <v>45935.82291666666</v>
       </c>
       <c r="C1545" t="n">
-        <v>180.81</v>
+        <v>56.73</v>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
-        <v>45937.75</v>
+        <v>45935.75</v>
       </c>
       <c r="B1546" s="2" t="n">
-        <v>45937.83333333334</v>
+        <v>45935.83333333334</v>
       </c>
       <c r="C1546" t="n">
-        <v>178.09</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
-        <v>45937.76041666666</v>
+        <v>45935.76041666666</v>
       </c>
       <c r="B1547" s="2" t="n">
-        <v>45937.84375</v>
+        <v>45935.84375</v>
       </c>
       <c r="C1547" t="n">
-        <v>158.89</v>
+        <v>62.24</v>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
-        <v>45937.77083333334</v>
+        <v>45935.77083333334</v>
       </c>
       <c r="B1548" s="2" t="n">
-        <v>45937.85416666666</v>
+        <v>45935.85416666666</v>
       </c>
       <c r="C1548" t="n">
-        <v>131.01</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
-        <v>45937.78125</v>
+        <v>45935.78125</v>
       </c>
       <c r="B1549" s="2" t="n">
-        <v>45937.86458333334</v>
+        <v>45935.86458333334</v>
       </c>
       <c r="C1549" t="n">
-        <v>117</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
-        <v>45937.79166666666</v>
+        <v>45935.79166666666</v>
       </c>
       <c r="B1550" s="2" t="n">
-        <v>45937.875</v>
+        <v>45935.875</v>
       </c>
       <c r="C1550" t="n">
-        <v>147.22</v>
+        <v>77.95</v>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
-        <v>45937.80208333334</v>
+        <v>45935.80208333334</v>
       </c>
       <c r="B1551" s="2" t="n">
-        <v>45937.88541666666</v>
+        <v>45935.88541666666</v>
       </c>
       <c r="C1551" t="n">
-        <v>129.01</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
-        <v>45937.8125</v>
+        <v>45935.8125</v>
       </c>
       <c r="B1552" s="2" t="n">
-        <v>45937.89583333334</v>
+        <v>45935.89583333334</v>
       </c>
       <c r="C1552" t="n">
-        <v>112.79</v>
+        <v>32.91</v>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
-        <v>45937.82291666666</v>
+        <v>45935.82291666666</v>
       </c>
       <c r="B1553" s="2" t="n">
-        <v>45937.90625</v>
+        <v>45935.90625</v>
       </c>
       <c r="C1553" t="n">
-        <v>103.95</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
-        <v>45937.83333333334</v>
+        <v>45935.83333333334</v>
       </c>
       <c r="B1554" s="2" t="n">
-        <v>45937.91666666666</v>
+        <v>45935.91666666666</v>
       </c>
       <c r="C1554" t="n">
-        <v>116.35</v>
+        <v>52.42</v>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
-        <v>45937.84375</v>
+        <v>45935.84375</v>
       </c>
       <c r="B1555" s="2" t="n">
-        <v>45937.92708333334</v>
+        <v>45935.92708333334</v>
       </c>
       <c r="C1555" t="n">
-        <v>111.87</v>
+        <v>32.09</v>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
-        <v>45937.85416666666</v>
+        <v>45935.85416666666</v>
       </c>
       <c r="B1556" s="2" t="n">
-        <v>45937.9375</v>
+        <v>45935.9375</v>
       </c>
       <c r="C1556" t="n">
-        <v>106.1</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
-        <v>45937.86458333334</v>
+        <v>45935.86458333334</v>
       </c>
       <c r="B1557" s="2" t="n">
-        <v>45937.94791666666</v>
+        <v>45935.94791666666</v>
       </c>
       <c r="C1557" t="n">
-        <v>95.37</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
-        <v>45937.875</v>
+        <v>45935.875</v>
       </c>
       <c r="B1558" s="2" t="n">
-        <v>45937.95833333334</v>
+        <v>45935.95833333334</v>
       </c>
       <c r="C1558" t="n">
-        <v>107.82</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
-        <v>45937.88541666666</v>
+        <v>45935.88541666666</v>
       </c>
       <c r="B1559" s="2" t="n">
-        <v>45937.96875</v>
+        <v>45935.96875</v>
       </c>
       <c r="C1559" t="n">
-        <v>98.43000000000001</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
-        <v>45937.89583333334</v>
+        <v>45935.89583333334</v>
       </c>
       <c r="B1560" s="2" t="n">
-        <v>45937.97916666666</v>
+        <v>45935.97916666666</v>
       </c>
       <c r="C1560" t="n">
-        <v>93.56999999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
-        <v>45937.90625</v>
+        <v>45935.90625</v>
       </c>
       <c r="B1561" s="2" t="n">
-        <v>45937.98958333334</v>
+        <v>45935.98958333334</v>
       </c>
       <c r="C1561" t="n">
-        <v>90.11</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
-        <v>45937.91666666666</v>
+        <v>45935.91666666666</v>
       </c>
       <c r="B1562" s="2" t="n">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="C1562" t="n">
-        <v>101.74</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
-        <v>45937.92708333334</v>
+        <v>45935.92708333334</v>
       </c>
       <c r="B1563" s="2" t="n">
-        <v>45938.01041666666</v>
+        <v>45936.01041666666</v>
       </c>
       <c r="C1563" t="n">
-        <v>91.40000000000001</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
-        <v>45937.9375</v>
+        <v>45935.9375</v>
       </c>
       <c r="B1564" s="2" t="n">
-        <v>45938.02083333334</v>
+        <v>45936.02083333334</v>
       </c>
       <c r="C1564" t="n">
-        <v>91.47</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
-        <v>45937.94791666666</v>
+        <v>45935.94791666666</v>
       </c>
       <c r="B1565" s="2" t="n">
-        <v>45938.03125</v>
+        <v>45936.03125</v>
       </c>
       <c r="C1565" t="n">
-        <v>89.2</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
-        <v>45937.95833333334</v>
+        <v>45935.95833333334</v>
       </c>
       <c r="B1566" s="2" t="n">
-        <v>45938.04166666666</v>
+        <v>45936.04166666666</v>
       </c>
       <c r="C1566" t="n">
-        <v>91.84999999999999</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
-        <v>45937.96875</v>
+        <v>45935.96875</v>
       </c>
       <c r="B1567" s="2" t="n">
-        <v>45938.05208333334</v>
+        <v>45936.05208333334</v>
       </c>
       <c r="C1567" t="n">
-        <v>89.06999999999999</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
-        <v>45937.97916666666</v>
+        <v>45935.97916666666</v>
       </c>
       <c r="B1568" s="2" t="n">
-        <v>45938.0625</v>
+        <v>45936.0625</v>
       </c>
       <c r="C1568" t="n">
-        <v>87.33</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
-        <v>45937.98958333334</v>
+        <v>45935.98958333334</v>
       </c>
       <c r="B1569" s="2" t="n">
-        <v>45938.07291666666</v>
+        <v>45936.07291666666</v>
       </c>
       <c r="C1569" t="n">
-        <v>85.5</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B1570" s="2" t="n">
-        <v>45938.08333333334</v>
+        <v>45936.08333333334</v>
       </c>
       <c r="C1570" t="n">
-        <v>89.20999999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
-        <v>45938.01041666666</v>
+        <v>45936.01041666666</v>
       </c>
       <c r="B1571" s="2" t="n">
-        <v>45938.09375</v>
+        <v>45936.09375</v>
       </c>
       <c r="C1571" t="n">
-        <v>88.14</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
-        <v>45938.02083333334</v>
+        <v>45936.02083333334</v>
       </c>
       <c r="B1572" s="2" t="n">
-        <v>45938.10416666666</v>
+        <v>45936.10416666666</v>
       </c>
       <c r="C1572" t="n">
-        <v>86.98999999999999</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
-        <v>45938.03125</v>
+        <v>45936.03125</v>
       </c>
       <c r="B1573" s="2" t="n">
-        <v>45938.11458333334</v>
+        <v>45936.11458333334</v>
       </c>
       <c r="C1573" t="n">
-        <v>85.90000000000001</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
-        <v>45938.04166666666</v>
+        <v>45936.04166666666</v>
       </c>
       <c r="B1574" s="2" t="n">
-        <v>45938.125</v>
+        <v>45936.125</v>
       </c>
       <c r="C1574" t="n">
-        <v>86.70999999999999</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
-        <v>45938.05208333334</v>
+        <v>45936.05208333334</v>
       </c>
       <c r="B1575" s="2" t="n">
-        <v>45938.13541666666</v>
+        <v>45936.13541666666</v>
       </c>
       <c r="C1575" t="n">
-        <v>84.17</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
-        <v>45938.0625</v>
+        <v>45936.0625</v>
       </c>
       <c r="B1576" s="2" t="n">
-        <v>45938.14583333334</v>
+        <v>45936.14583333334</v>
       </c>
       <c r="C1576" t="n">
-        <v>86.98</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
-        <v>45938.07291666666</v>
+        <v>45936.07291666666</v>
       </c>
       <c r="B1577" s="2" t="n">
-        <v>45938.15625</v>
+        <v>45936.15625</v>
       </c>
       <c r="C1577" t="n">
-        <v>86.17</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
-        <v>45938.08333333334</v>
+        <v>45936.08333333334</v>
       </c>
       <c r="B1578" s="2" t="n">
-        <v>45938.16666666666</v>
+        <v>45936.16666666666</v>
       </c>
       <c r="C1578" t="n">
-        <v>85.66</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
-        <v>45938.09375</v>
+        <v>45936.09375</v>
       </c>
       <c r="B1579" s="2" t="n">
-        <v>45938.17708333334</v>
+        <v>45936.17708333334</v>
       </c>
       <c r="C1579" t="n">
-        <v>84.48</v>
+        <v>18.03</v>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
-        <v>45938.10416666666</v>
+        <v>45936.10416666666</v>
       </c>
       <c r="B1580" s="2" t="n">
-        <v>45938.1875</v>
+        <v>45936.1875</v>
       </c>
       <c r="C1580" t="n">
-        <v>87.11</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
-        <v>45938.11458333334</v>
+        <v>45936.11458333334</v>
       </c>
       <c r="B1581" s="2" t="n">
-        <v>45938.19791666666</v>
+        <v>45936.19791666666</v>
       </c>
       <c r="C1581" t="n">
-        <v>91.67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
-        <v>45938.125</v>
+        <v>45936.125</v>
       </c>
       <c r="B1582" s="2" t="n">
-        <v>45938.20833333334</v>
+        <v>45936.20833333334</v>
       </c>
       <c r="C1582" t="n">
-        <v>86.98</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
-        <v>45938.13541666666</v>
+        <v>45936.13541666666</v>
       </c>
       <c r="B1583" s="2" t="n">
-        <v>45938.21875</v>
+        <v>45936.21875</v>
       </c>
       <c r="C1583" t="n">
-        <v>93.28</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" s="2" t="n">
-        <v>45938.14583333334</v>
+        <v>45936.14583333334</v>
       </c>
       <c r="B1584" s="2" t="n">
-        <v>45938.22916666666</v>
+        <v>45936.22916666666</v>
       </c>
       <c r="C1584" t="n">
-        <v>92.51000000000001</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
-        <v>45938.15625</v>
+        <v>45936.15625</v>
       </c>
       <c r="B1585" s="2" t="n">
-        <v>45938.23958333334</v>
+        <v>45936.23958333334</v>
       </c>
       <c r="C1585" t="n">
-        <v>102.9</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
-        <v>45938.16666666666</v>
+        <v>45936.16666666666</v>
       </c>
       <c r="B1586" s="2" t="n">
-        <v>45938.25</v>
+        <v>45936.25</v>
       </c>
       <c r="C1586" t="n">
-        <v>92.98999999999999</v>
+        <v>18.71</v>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
-        <v>45938.17708333334</v>
+        <v>45936.17708333334</v>
       </c>
       <c r="B1587" s="2" t="n">
-        <v>45938.26041666666</v>
+        <v>45936.26041666666</v>
       </c>
       <c r="C1587" t="n">
-        <v>108.63</v>
+        <v>76.86</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
-        <v>45938.1875</v>
+        <v>45936.1875</v>
       </c>
       <c r="B1588" s="2" t="n">
-        <v>45938.27083333334</v>
+        <v>45936.27083333334</v>
       </c>
       <c r="C1588" t="n">
-        <v>120.42</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
-        <v>45938.19791666666</v>
+        <v>45936.19791666666</v>
       </c>
       <c r="B1589" s="2" t="n">
-        <v>45938.28125</v>
+        <v>45936.28125</v>
       </c>
       <c r="C1589" t="n">
-        <v>134.53</v>
+        <v>102.61</v>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
-        <v>45938.20833333334</v>
+        <v>45936.20833333334</v>
       </c>
       <c r="B1590" s="2" t="n">
-        <v>45938.29166666666</v>
+        <v>45936.29166666666</v>
       </c>
       <c r="C1590" t="n">
-        <v>127.56</v>
+        <v>93.12</v>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
-        <v>45938.21875</v>
+        <v>45936.21875</v>
       </c>
       <c r="B1591" s="2" t="n">
-        <v>45938.30208333334</v>
+        <v>45936.30208333334</v>
       </c>
       <c r="C1591" t="n">
-        <v>148.39</v>
+        <v>107.66</v>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
-        <v>45938.22916666666</v>
+        <v>45936.22916666666</v>
       </c>
       <c r="B1592" s="2" t="n">
-        <v>45938.3125</v>
+        <v>45936.3125</v>
       </c>
       <c r="C1592" t="n">
-        <v>165.45</v>
+        <v>110.75</v>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
-        <v>45938.23958333334</v>
+        <v>45936.23958333334</v>
       </c>
       <c r="B1593" s="2" t="n">
-        <v>45938.32291666666</v>
+        <v>45936.32291666666</v>
       </c>
       <c r="C1593" t="n">
-        <v>168.83</v>
+        <v>117.23</v>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
-        <v>45938.25</v>
+        <v>45936.25</v>
       </c>
       <c r="B1594" s="2" t="n">
-        <v>45938.33333333334</v>
+        <v>45936.33333333334</v>
       </c>
       <c r="C1594" t="n">
-        <v>203.62</v>
+        <v>127.72</v>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
-        <v>45938.26041666666</v>
+        <v>45936.26041666666</v>
       </c>
       <c r="B1595" s="2" t="n">
-        <v>45938.34375</v>
+        <v>45936.34375</v>
       </c>
       <c r="C1595" t="n">
-        <v>175.34</v>
+        <v>128.54</v>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
-        <v>45938.27083333334</v>
+        <v>45936.27083333334</v>
       </c>
       <c r="B1596" s="2" t="n">
-        <v>45938.35416666666</v>
+        <v>45936.35416666666</v>
       </c>
       <c r="C1596" t="n">
-        <v>151.24</v>
+        <v>121.33</v>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
-        <v>45938.28125</v>
+        <v>45936.28125</v>
       </c>
       <c r="B1597" s="2" t="n">
-        <v>45938.36458333334</v>
+        <v>45936.36458333334</v>
       </c>
       <c r="C1597" t="n">
-        <v>135.38</v>
+        <v>112.18</v>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
-        <v>45938.29166666666</v>
+        <v>45936.29166666666</v>
       </c>
       <c r="B1598" s="2" t="n">
-        <v>45938.375</v>
+        <v>45936.375</v>
       </c>
       <c r="C1598" t="n">
-        <v>176.35</v>
+        <v>135.96</v>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
-        <v>45938.30208333334</v>
+        <v>45936.30208333334</v>
       </c>
       <c r="B1599" s="2" t="n">
-        <v>45938.38541666666</v>
+        <v>45936.38541666666</v>
       </c>
       <c r="C1599" t="n">
-        <v>142.45</v>
+        <v>121.97</v>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
-        <v>45938.3125</v>
+        <v>45936.3125</v>
       </c>
       <c r="B1600" s="2" t="n">
-        <v>45938.39583333334</v>
+        <v>45936.39583333334</v>
       </c>
       <c r="C1600" t="n">
-        <v>119.67</v>
+        <v>116.44</v>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
-        <v>45938.32291666666</v>
+        <v>45936.32291666666</v>
       </c>
       <c r="B1601" s="2" t="n">
-        <v>45938.40625</v>
+        <v>45936.40625</v>
       </c>
       <c r="C1601" t="n">
-        <v>106.06</v>
+        <v>104.24</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
-        <v>45938.33333333334</v>
+        <v>45936.33333333334</v>
       </c>
       <c r="B1602" s="2" t="n">
-        <v>45938.41666666666</v>
+        <v>45936.41666666666</v>
       </c>
       <c r="C1602" t="n">
-        <v>139.21</v>
+        <v>114.52</v>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
-        <v>45938.34375</v>
+        <v>45936.34375</v>
       </c>
       <c r="B1603" s="2" t="n">
-        <v>45938.42708333334</v>
+        <v>45936.42708333334</v>
       </c>
       <c r="C1603" t="n">
-        <v>119.74</v>
+        <v>101.23</v>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
-        <v>45938.35416666666</v>
+        <v>45936.35416666666</v>
       </c>
       <c r="B1604" s="2" t="n">
-        <v>45938.4375</v>
+        <v>45936.4375</v>
       </c>
       <c r="C1604" t="n">
-        <v>106.31</v>
+        <v>90.34</v>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
-        <v>45938.36458333334</v>
+        <v>45936.36458333334</v>
       </c>
       <c r="B1605" s="2" t="n">
-        <v>45938.44791666666</v>
+        <v>45936.44791666666</v>
       </c>
       <c r="C1605" t="n">
-        <v>99.45999999999999</v>
+        <v>82.95999999999999</v>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
-        <v>45938.375</v>
+        <v>45936.375</v>
       </c>
       <c r="B1606" s="2" t="n">
-        <v>45938.45833333334</v>
+        <v>45936.45833333334</v>
       </c>
       <c r="C1606" t="n">
-        <v>120.14</v>
+        <v>92.70999999999999</v>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
-        <v>45938.38541666666</v>
+        <v>45936.38541666666</v>
       </c>
       <c r="B1607" s="2" t="n">
-        <v>45938.46875</v>
+        <v>45936.46875</v>
       </c>
       <c r="C1607" t="n">
-        <v>101.96</v>
+        <v>86.93000000000001</v>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
-        <v>45938.39583333334</v>
+        <v>45936.39583333334</v>
       </c>
       <c r="B1608" s="2" t="n">
-        <v>45938.47916666666</v>
+        <v>45936.47916666666</v>
       </c>
       <c r="C1608" t="n">
-        <v>94.05</v>
+        <v>81.04000000000001</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
-        <v>45938.40625</v>
+        <v>45936.40625</v>
       </c>
       <c r="B1609" s="2" t="n">
-        <v>45938.48958333334</v>
+        <v>45936.48958333334</v>
       </c>
       <c r="C1609" t="n">
-        <v>85.06</v>
+        <v>78.19</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
-        <v>45938.41666666666</v>
+        <v>45936.41666666666</v>
       </c>
       <c r="B1610" s="2" t="n">
-        <v>45938.5</v>
+        <v>45936.5</v>
       </c>
       <c r="C1610" t="n">
-        <v>92.65000000000001</v>
+        <v>82.58</v>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
-        <v>45938.42708333334</v>
+        <v>45936.42708333334</v>
       </c>
       <c r="B1611" s="2" t="n">
-        <v>45938.51041666666</v>
+        <v>45936.51041666666</v>
       </c>
       <c r="C1611" t="n">
-        <v>88.73</v>
+        <v>80.66</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
-        <v>45938.4375</v>
+        <v>45936.4375</v>
       </c>
       <c r="B1612" s="2" t="n">
-        <v>45938.52083333334</v>
+        <v>45936.52083333334</v>
       </c>
       <c r="C1612" t="n">
-        <v>86.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
-        <v>45938.44791666666</v>
+        <v>45936.44791666666</v>
       </c>
       <c r="B1613" s="2" t="n">
-        <v>45938.53125</v>
+        <v>45936.53125</v>
       </c>
       <c r="C1613" t="n">
-        <v>86.05</v>
+        <v>85.97</v>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
-        <v>45938.45833333334</v>
+        <v>45936.45833333334</v>
       </c>
       <c r="B1614" s="2" t="n">
-        <v>45938.54166666666</v>
+        <v>45936.54166666666</v>
       </c>
       <c r="C1614" t="n">
-        <v>88.93000000000001</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
-        <v>45938.46875</v>
+        <v>45936.46875</v>
       </c>
       <c r="B1615" s="2" t="n">
-        <v>45938.55208333334</v>
+        <v>45936.55208333334</v>
       </c>
       <c r="C1615" t="n">
-        <v>87.73999999999999</v>
+        <v>88.05</v>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
-        <v>45938.47916666666</v>
+        <v>45936.47916666666</v>
       </c>
       <c r="B1616" s="2" t="n">
-        <v>45938.5625</v>
+        <v>45936.5625</v>
       </c>
       <c r="C1616" t="n">
-        <v>86.06</v>
+        <v>83.88</v>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
-        <v>45938.48958333334</v>
+        <v>45936.48958333334</v>
       </c>
       <c r="B1617" s="2" t="n">
-        <v>45938.57291666666</v>
+        <v>45936.57291666666</v>
       </c>
       <c r="C1617" t="n">
-        <v>84.38</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
-        <v>45938.5</v>
+        <v>45936.5</v>
       </c>
       <c r="B1618" s="2" t="n">
-        <v>45938.58333333334</v>
+        <v>45936.58333333334</v>
       </c>
       <c r="C1618" t="n">
-        <v>82.93000000000001</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
-        <v>45938.51041666666</v>
+        <v>45936.51041666666</v>
       </c>
       <c r="B1619" s="2" t="n">
-        <v>45938.59375</v>
+        <v>45936.59375</v>
       </c>
       <c r="C1619" t="n">
-        <v>84.88</v>
+        <v>83.42</v>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
-        <v>45938.52083333334</v>
+        <v>45936.52083333334</v>
       </c>
       <c r="B1620" s="2" t="n">
-        <v>45938.60416666666</v>
+        <v>45936.60416666666</v>
       </c>
       <c r="C1620" t="n">
-        <v>86.66</v>
+        <v>90.88</v>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
-        <v>45938.53125</v>
+        <v>45936.53125</v>
       </c>
       <c r="B1621" s="2" t="n">
-        <v>45938.61458333334</v>
+        <v>45936.61458333334</v>
       </c>
       <c r="C1621" t="n">
-        <v>94.45999999999999</v>
+        <v>89.15000000000001</v>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
-        <v>45938.54166666666</v>
+        <v>45936.54166666666</v>
       </c>
       <c r="B1622" s="2" t="n">
-        <v>45938.625</v>
+        <v>45936.625</v>
       </c>
       <c r="C1622" t="n">
-        <v>84.27</v>
+        <v>80.65000000000001</v>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
-        <v>45938.55208333334</v>
+        <v>45936.55208333334</v>
       </c>
       <c r="B1623" s="2" t="n">
-        <v>45938.63541666666</v>
+        <v>45936.63541666666</v>
       </c>
       <c r="C1623" t="n">
-        <v>88.51000000000001</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
-        <v>45938.5625</v>
+        <v>45936.5625</v>
       </c>
       <c r="B1624" s="2" t="n">
-        <v>45938.64583333334</v>
+        <v>45936.64583333334</v>
       </c>
       <c r="C1624" t="n">
-        <v>95.90000000000001</v>
+        <v>86.55</v>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
-        <v>45938.57291666666</v>
+        <v>45936.57291666666</v>
       </c>
       <c r="B1625" s="2" t="n">
-        <v>45938.65625</v>
+        <v>45936.65625</v>
       </c>
       <c r="C1625" t="n">
-        <v>108.61</v>
+        <v>91.83</v>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
-        <v>45938.58333333334</v>
+        <v>45936.58333333334</v>
       </c>
       <c r="B1626" s="2" t="n">
-        <v>45938.66666666666</v>
+        <v>45936.66666666666</v>
       </c>
       <c r="C1626" t="n">
-        <v>86.02</v>
+        <v>78.38</v>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
-        <v>45938.59375</v>
+        <v>45936.59375</v>
       </c>
       <c r="B1627" s="2" t="n">
-        <v>45938.67708333334</v>
+        <v>45936.67708333334</v>
       </c>
       <c r="C1627" t="n">
-        <v>94.17</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
-        <v>45938.60416666666</v>
+        <v>45936.60416666666</v>
       </c>
       <c r="B1628" s="2" t="n">
-        <v>45938.6875</v>
+        <v>45936.6875</v>
       </c>
       <c r="C1628" t="n">
-        <v>118.25</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
-        <v>45938.61458333334</v>
+        <v>45936.61458333334</v>
       </c>
       <c r="B1629" s="2" t="n">
-        <v>45938.69791666666</v>
+        <v>45936.69791666666</v>
       </c>
       <c r="C1629" t="n">
-        <v>139.62</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
-        <v>45938.625</v>
+        <v>45936.625</v>
       </c>
       <c r="B1630" s="2" t="n">
-        <v>45938.70833333334</v>
+        <v>45936.70833333334</v>
       </c>
       <c r="C1630" t="n">
-        <v>96.65000000000001</v>
+        <v>86.23999999999999</v>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
-        <v>45938.63541666666</v>
+        <v>45936.63541666666</v>
       </c>
       <c r="B1631" s="2" t="n">
-        <v>45938.71875</v>
+        <v>45936.71875</v>
       </c>
       <c r="C1631" t="n">
-        <v>117.95</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
-        <v>45938.64583333334</v>
+        <v>45936.64583333334</v>
       </c>
       <c r="B1632" s="2" t="n">
-        <v>45938.72916666666</v>
+        <v>45936.72916666666</v>
       </c>
       <c r="C1632" t="n">
-        <v>148.81</v>
+        <v>114.97</v>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
-        <v>45938.65625</v>
+        <v>45936.65625</v>
       </c>
       <c r="B1633" s="2" t="n">
-        <v>45938.73958333334</v>
+        <v>45936.73958333334</v>
       </c>
       <c r="C1633" t="n">
-        <v>203.12</v>
+        <v>142.56</v>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
-        <v>45938.66666666666</v>
+        <v>45936.66666666666</v>
       </c>
       <c r="B1634" s="2" t="n">
-        <v>45938.75</v>
+        <v>45936.75</v>
       </c>
       <c r="C1634" t="n">
-        <v>129.74</v>
+        <v>103.73</v>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
-        <v>45938.67708333334</v>
+        <v>45936.67708333334</v>
       </c>
       <c r="B1635" s="2" t="n">
-        <v>45938.76041666666</v>
+        <v>45936.76041666666</v>
       </c>
       <c r="C1635" t="n">
-        <v>142.25</v>
+        <v>114.28</v>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
-        <v>45938.6875</v>
+        <v>45936.6875</v>
       </c>
       <c r="B1636" s="2" t="n">
-        <v>45938.77083333334</v>
+        <v>45936.77083333334</v>
       </c>
       <c r="C1636" t="n">
-        <v>195.41</v>
+        <v>142.96</v>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
-        <v>45938.69791666666</v>
+        <v>45936.69791666666</v>
       </c>
       <c r="B1637" s="2" t="n">
-        <v>45938.78125</v>
+        <v>45936.78125</v>
       </c>
       <c r="C1637" t="n">
-        <v>241.07</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
-        <v>45938.70833333334</v>
+        <v>45936.70833333334</v>
       </c>
       <c r="B1638" s="2" t="n">
-        <v>45938.79166666666</v>
+        <v>45936.79166666666</v>
       </c>
       <c r="C1638" t="n">
-        <v>223.55</v>
+        <v>161.31</v>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
-        <v>45938.71875</v>
+        <v>45936.71875</v>
       </c>
       <c r="B1639" s="2" t="n">
-        <v>45938.80208333334</v>
+        <v>45936.80208333334</v>
       </c>
       <c r="C1639" t="n">
-        <v>199.54</v>
+        <v>169.59</v>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
-        <v>45938.72916666666</v>
+        <v>45936.72916666666</v>
       </c>
       <c r="B1640" s="2" t="n">
-        <v>45938.8125</v>
+        <v>45936.8125</v>
       </c>
       <c r="C1640" t="n">
-        <v>180.46</v>
+        <v>167.48</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
-        <v>45938.73958333334</v>
+        <v>45936.73958333334</v>
       </c>
       <c r="B1641" s="2" t="n">
-        <v>45938.82291666666</v>
+        <v>45936.82291666666</v>
       </c>
       <c r="C1641" t="n">
-        <v>175</v>
+        <v>159.99</v>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
-        <v>45938.75</v>
+        <v>45936.75</v>
       </c>
       <c r="B1642" s="2" t="n">
-        <v>45938.83333333334</v>
+        <v>45936.83333333334</v>
       </c>
       <c r="C1642" t="n">
-        <v>169.2</v>
+        <v>157.34</v>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
-        <v>45938.76041666666</v>
+        <v>45936.76041666666</v>
       </c>
       <c r="B1643" s="2" t="n">
-        <v>45938.84375</v>
+        <v>45936.84375</v>
       </c>
       <c r="C1643" t="n">
-        <v>149.99</v>
+        <v>131.58</v>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
-        <v>45938.77083333334</v>
+        <v>45936.77083333334</v>
       </c>
       <c r="B1644" s="2" t="n">
-        <v>45938.85416666666</v>
+        <v>45936.85416666666</v>
       </c>
       <c r="C1644" t="n">
-        <v>128.21</v>
+        <v>126.11</v>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
-        <v>45938.78125</v>
+        <v>45936.78125</v>
       </c>
       <c r="B1645" s="2" t="n">
-        <v>45938.86458333334</v>
+        <v>45936.86458333334</v>
       </c>
       <c r="C1645" t="n">
-        <v>118.39</v>
+        <v>120.89</v>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
-        <v>45938.79166666666</v>
+        <v>45936.79166666666</v>
       </c>
       <c r="B1646" s="2" t="n">
-        <v>45938.875</v>
+        <v>45936.875</v>
       </c>
       <c r="C1646" t="n">
-        <v>128.02</v>
+        <v>127.99</v>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
-        <v>45938.80208333334</v>
+        <v>45936.80208333334</v>
       </c>
       <c r="B1647" s="2" t="n">
-        <v>45938.88541666666</v>
+        <v>45936.88541666666</v>
       </c>
       <c r="C1647" t="n">
-        <v>116.99</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
-        <v>45938.8125</v>
+        <v>45936.8125</v>
       </c>
       <c r="B1648" s="2" t="n">
-        <v>45938.89583333334</v>
+        <v>45936.89583333334</v>
       </c>
       <c r="C1648" t="n">
-        <v>106.9</v>
+        <v>112.81</v>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
-        <v>45938.82291666666</v>
+        <v>45936.82291666666</v>
       </c>
       <c r="B1649" s="2" t="n">
-        <v>45938.90625</v>
+        <v>45936.90625</v>
       </c>
       <c r="C1649" t="n">
-        <v>102.34</v>
+        <v>111.41</v>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
-        <v>45938.83333333334</v>
+        <v>45936.83333333334</v>
       </c>
       <c r="B1650" s="2" t="n">
-        <v>45938.91666666666</v>
+        <v>45936.91666666666</v>
       </c>
       <c r="C1650" t="n">
-        <v>110.69</v>
+        <v>127.63</v>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
-        <v>45938.84375</v>
+        <v>45936.84375</v>
       </c>
       <c r="B1651" s="2" t="n">
-        <v>45938.92708333334</v>
+        <v>45936.92708333334</v>
       </c>
       <c r="C1651" t="n">
-        <v>109.91</v>
+        <v>111.72</v>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
-        <v>45938.85416666666</v>
+        <v>45936.85416666666</v>
       </c>
       <c r="B1652" s="2" t="n">
-        <v>45938.9375</v>
+        <v>45936.9375</v>
       </c>
       <c r="C1652" t="n">
-        <v>106.28</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
-        <v>45938.86458333334</v>
+        <v>45936.86458333334</v>
       </c>
       <c r="B1653" s="2" t="n">
-        <v>45938.94791666666</v>
+        <v>45936.94791666666</v>
       </c>
       <c r="C1653" t="n">
-        <v>97.93000000000001</v>
+        <v>109.62</v>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
-        <v>45938.875</v>
+        <v>45936.875</v>
       </c>
       <c r="B1654" s="2" t="n">
-        <v>45938.95833333334</v>
+        <v>45936.95833333334</v>
       </c>
       <c r="C1654" t="n">
-        <v>101.68</v>
+        <v>112.33</v>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
-        <v>45938.88541666666</v>
+        <v>45936.88541666666</v>
       </c>
       <c r="B1655" s="2" t="n">
-        <v>45938.96875</v>
+        <v>45936.96875</v>
       </c>
       <c r="C1655" t="n">
-        <v>99.79000000000001</v>
+        <v>102.58</v>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
-        <v>45938.89583333334</v>
+        <v>45936.89583333334</v>
       </c>
       <c r="B1656" s="2" t="n">
-        <v>45938.97916666666</v>
+        <v>45936.97916666666</v>
       </c>
       <c r="C1656" t="n">
-        <v>95.48</v>
+        <v>103.05</v>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
-        <v>45938.90625</v>
+        <v>45936.90625</v>
       </c>
       <c r="B1657" s="2" t="n">
-        <v>45938.98958333334</v>
+        <v>45936.98958333334</v>
       </c>
       <c r="C1657" t="n">
-        <v>90</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
-        <v>45938.91666666666</v>
+        <v>45936.91666666666</v>
       </c>
       <c r="B1658" s="2" t="n">
-        <v>45939</v>
+        <v>45937</v>
       </c>
       <c r="C1658" t="n">
-        <v>107.75</v>
+        <v>105.51</v>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
-        <v>45938.92708333334</v>
+        <v>45936.92708333334</v>
       </c>
       <c r="B1659" s="2" t="n">
-        <v>45939.01041666666</v>
+        <v>45937.01041666666</v>
       </c>
       <c r="C1659" t="n">
-        <v>100.01</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
-        <v>45938.9375</v>
+        <v>45936.9375</v>
       </c>
       <c r="B1660" s="2" t="n">
-        <v>45939.02083333334</v>
+        <v>45937.02083333334</v>
       </c>
       <c r="C1660" t="n">
-        <v>90.45</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
-        <v>45938.94791666666</v>
+        <v>45936.94791666666</v>
       </c>
       <c r="B1661" s="2" t="n">
-        <v>45939.03125</v>
+        <v>45937.03125</v>
       </c>
       <c r="C1661" t="n">
-        <v>87.41</v>
+        <v>88.45999999999999</v>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
-        <v>45938.95833333334</v>
+        <v>45936.95833333334</v>
       </c>
       <c r="B1662" s="2" t="n">
-        <v>45939.04166666666</v>
+        <v>45937.04166666666</v>
       </c>
       <c r="C1662" t="n">
-        <v>91.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
-        <v>45938.96875</v>
+        <v>45936.96875</v>
       </c>
       <c r="B1663" s="2" t="n">
-        <v>45939.05208333334</v>
+        <v>45937.05208333334</v>
       </c>
       <c r="C1663" t="n">
-        <v>91.01000000000001</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
-        <v>45938.97916666666</v>
+        <v>45936.97916666666</v>
       </c>
       <c r="B1664" s="2" t="n">
-        <v>45939.0625</v>
+        <v>45937.0625</v>
       </c>
       <c r="C1664" t="n">
-        <v>90.41</v>
+        <v>92.68000000000001</v>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
-        <v>45938.98958333334</v>
+        <v>45936.98958333334</v>
       </c>
       <c r="B1665" s="2" t="n">
-        <v>45939.07291666666</v>
+        <v>45937.07291666666</v>
       </c>
       <c r="C1665" t="n">
-        <v>90.11</v>
+        <v>85.44</v>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
-        <v>45939</v>
+        <v>45937</v>
       </c>
       <c r="B1666" s="2" t="n">
-        <v>45939.08333333334</v>
+        <v>45937.08333333334</v>
       </c>
       <c r="C1666" t="n">
-        <v>94.03</v>
+        <v>89.98</v>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
-        <v>45939.01041666666</v>
+        <v>45937.01041666666</v>
       </c>
       <c r="B1667" s="2" t="n">
-        <v>45939.09375</v>
+        <v>45937.09375</v>
       </c>
       <c r="C1667" t="n">
-        <v>90.42</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
-        <v>45939.02083333334</v>
+        <v>45937.02083333334</v>
       </c>
       <c r="B1668" s="2" t="n">
-        <v>45939.10416666666</v>
+        <v>45937.10416666666</v>
       </c>
       <c r="C1668" t="n">
-        <v>90.22</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
-        <v>45939.03125</v>
+        <v>45937.03125</v>
       </c>
       <c r="B1669" s="2" t="n">
-        <v>45939.11458333334</v>
+        <v>45937.11458333334</v>
       </c>
       <c r="C1669" t="n">
-        <v>89.22</v>
+        <v>85.23999999999999</v>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
-        <v>45939.04166666666</v>
+        <v>45937.04166666666</v>
       </c>
       <c r="B1670" s="2" t="n">
-        <v>45939.125</v>
+        <v>45937.125</v>
       </c>
       <c r="C1670" t="n">
-        <v>90.08</v>
+        <v>88.04000000000001</v>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
-        <v>45939.05208333334</v>
+        <v>45937.05208333334</v>
       </c>
       <c r="B1671" s="2" t="n">
-        <v>45939.13541666666</v>
+        <v>45937.13541666666</v>
       </c>
       <c r="C1671" t="n">
-        <v>86.31</v>
+        <v>86.19</v>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
-        <v>45939.0625</v>
+        <v>45937.0625</v>
       </c>
       <c r="B1672" s="2" t="n">
-        <v>45939.14583333334</v>
+        <v>45937.14583333334</v>
       </c>
       <c r="C1672" t="n">
-        <v>86.22</v>
+        <v>87.09</v>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
-        <v>45939.07291666666</v>
+        <v>45937.07291666666</v>
       </c>
       <c r="B1673" s="2" t="n">
-        <v>45939.15625</v>
+        <v>45937.15625</v>
       </c>
       <c r="C1673" t="n">
-        <v>85.52</v>
+        <v>86.59</v>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
-        <v>45939.08333333334</v>
+        <v>45937.08333333334</v>
       </c>
       <c r="B1674" s="2" t="n">
-        <v>45939.16666666666</v>
+        <v>45937.16666666666</v>
       </c>
       <c r="C1674" t="n">
-        <v>82.94</v>
+        <v>84.01000000000001</v>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
-        <v>45939.09375</v>
+        <v>45937.09375</v>
       </c>
       <c r="B1675" s="2" t="n">
-        <v>45939.17708333334</v>
+        <v>45937.17708333334</v>
       </c>
       <c r="C1675" t="n">
-        <v>84.65000000000001</v>
+        <v>85.20999999999999</v>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
-        <v>45939.10416666666</v>
+        <v>45937.10416666666</v>
       </c>
       <c r="B1676" s="2" t="n">
-        <v>45939.1875</v>
+        <v>45937.1875</v>
       </c>
       <c r="C1676" t="n">
-        <v>86.8</v>
+        <v>91.61</v>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
-        <v>45939.11458333334</v>
+        <v>45937.11458333334</v>
       </c>
       <c r="B1677" s="2" t="n">
-        <v>45939.19791666666</v>
+        <v>45937.19791666666</v>
       </c>
       <c r="C1677" t="n">
-        <v>95.06</v>
+        <v>95.45999999999999</v>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
-        <v>45939.125</v>
+        <v>45937.125</v>
       </c>
       <c r="B1678" s="2" t="n">
-        <v>45939.20833333334</v>
+        <v>45937.20833333334</v>
       </c>
       <c r="C1678" t="n">
-        <v>83.16</v>
+        <v>84.54000000000001</v>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
-        <v>45939.13541666666</v>
+        <v>45937.13541666666</v>
       </c>
       <c r="B1679" s="2" t="n">
-        <v>45939.21875</v>
+        <v>45937.21875</v>
       </c>
       <c r="C1679" t="n">
-        <v>87.55</v>
+        <v>90.89</v>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
-        <v>45939.14583333334</v>
+        <v>45937.14583333334</v>
       </c>
       <c r="B1680" s="2" t="n">
-        <v>45939.22916666666</v>
+        <v>45937.22916666666</v>
       </c>
       <c r="C1680" t="n">
-        <v>98.88</v>
+        <v>97.13</v>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
-        <v>45939.15625</v>
+        <v>45937.15625</v>
       </c>
       <c r="B1681" s="2" t="n">
-        <v>45939.23958333334</v>
+        <v>45937.23958333334</v>
       </c>
       <c r="C1681" t="n">
-        <v>114.41</v>
+        <v>106.53</v>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
-        <v>45939.16666666666</v>
+        <v>45937.16666666666</v>
       </c>
       <c r="B1682" s="2" t="n">
-        <v>45939.25</v>
+        <v>45937.25</v>
       </c>
       <c r="C1682" t="n">
-        <v>98.39</v>
+        <v>105.89</v>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
-        <v>45939.17708333334</v>
+        <v>45937.17708333334</v>
       </c>
       <c r="B1683" s="2" t="n">
-        <v>45939.26041666666</v>
+        <v>45937.26041666666</v>
       </c>
       <c r="C1683" t="n">
-        <v>115.36</v>
+        <v>118.3</v>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
-        <v>45939.1875</v>
+        <v>45937.1875</v>
       </c>
       <c r="B1684" s="2" t="n">
-        <v>45939.27083333334</v>
+        <v>45937.27083333334</v>
       </c>
       <c r="C1684" t="n">
-        <v>126.04</v>
+        <v>121.91</v>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
-        <v>45939.19791666666</v>
+        <v>45937.19791666666</v>
       </c>
       <c r="B1685" s="2" t="n">
-        <v>45939.28125</v>
+        <v>45937.28125</v>
       </c>
       <c r="C1685" t="n">
-        <v>138.91</v>
+        <v>139.43</v>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
-        <v>45939.20833333334</v>
+        <v>45937.20833333334</v>
       </c>
       <c r="B1686" s="2" t="n">
-        <v>45939.29166666666</v>
+        <v>45937.29166666666</v>
       </c>
       <c r="C1686" t="n">
-        <v>122.92</v>
+        <v>138.6</v>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
-        <v>45939.21875</v>
+        <v>45937.21875</v>
       </c>
       <c r="B1687" s="2" t="n">
-        <v>45939.30208333334</v>
+        <v>45937.30208333334</v>
       </c>
       <c r="C1687" t="n">
-        <v>142.54</v>
+        <v>190.2</v>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
-        <v>45939.22916666666</v>
+        <v>45937.22916666666</v>
       </c>
       <c r="B1688" s="2" t="n">
-        <v>45939.3125</v>
+        <v>45937.3125</v>
       </c>
       <c r="C1688" t="n">
-        <v>151.77</v>
+        <v>241.65</v>
       </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
-        <v>45939.23958333334</v>
+        <v>45937.23958333334</v>
       </c>
       <c r="B1689" s="2" t="n">
-        <v>45939.32291666666</v>
+        <v>45937.32291666666</v>
       </c>
       <c r="C1689" t="n">
-        <v>148.47</v>
+        <v>248.89</v>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
-        <v>45939.25</v>
+        <v>45937.25</v>
       </c>
       <c r="B1690" s="2" t="n">
-        <v>45939.33333333334</v>
+        <v>45937.33333333334</v>
       </c>
       <c r="C1690" t="n">
-        <v>168.79</v>
+        <v>271.11</v>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
-        <v>45939.26041666666</v>
+        <v>45937.26041666666</v>
       </c>
       <c r="B1691" s="2" t="n">
-        <v>45939.34375</v>
+        <v>45937.34375</v>
       </c>
       <c r="C1691" t="n">
-        <v>150.73</v>
+        <v>257.14</v>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
-        <v>45939.27083333334</v>
+        <v>45937.27083333334</v>
       </c>
       <c r="B1692" s="2" t="n">
-        <v>45939.35416666666</v>
+        <v>45937.35416666666</v>
       </c>
       <c r="C1692" t="n">
-        <v>141.19</v>
+        <v>251.51</v>
       </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
-        <v>45939.28125</v>
+        <v>45937.28125</v>
       </c>
       <c r="B1693" s="2" t="n">
-        <v>45939.36458333334</v>
+        <v>45937.36458333334</v>
       </c>
       <c r="C1693" t="n">
-        <v>129.51</v>
+        <v>251.58</v>
       </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
-        <v>45939.29166666666</v>
+        <v>45937.29166666666</v>
       </c>
       <c r="B1694" s="2" t="n">
-        <v>45939.375</v>
+        <v>45937.375</v>
       </c>
       <c r="C1694" t="n">
-        <v>166.31</v>
+        <v>277.01</v>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
-        <v>45939.30208333334</v>
+        <v>45937.30208333334</v>
       </c>
       <c r="B1695" s="2" t="n">
-        <v>45939.38541666666</v>
+        <v>45937.38541666666</v>
       </c>
       <c r="C1695" t="n">
-        <v>129.77</v>
+        <v>232.55</v>
       </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
-        <v>45939.3125</v>
+        <v>45937.3125</v>
       </c>
       <c r="B1696" s="2" t="n">
-        <v>45939.39583333334</v>
+        <v>45937.39583333334</v>
       </c>
       <c r="C1696" t="n">
-        <v>119.27</v>
+        <v>159.97</v>
       </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
-        <v>45939.32291666666</v>
+        <v>45937.32291666666</v>
       </c>
       <c r="B1697" s="2" t="n">
-        <v>45939.40625</v>
+        <v>45937.40625</v>
       </c>
       <c r="C1697" t="n">
-        <v>101.26</v>
+        <v>130.47</v>
       </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
-        <v>45939.33333333334</v>
+        <v>45937.33333333334</v>
       </c>
       <c r="B1698" s="2" t="n">
-        <v>45939.41666666666</v>
+        <v>45937.41666666666</v>
       </c>
       <c r="C1698" t="n">
-        <v>127.63</v>
+        <v>192.36</v>
       </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
-        <v>45939.34375</v>
+        <v>45937.34375</v>
       </c>
       <c r="B1699" s="2" t="n">
-        <v>45939.42708333334</v>
+        <v>45937.42708333334</v>
       </c>
       <c r="C1699" t="n">
-        <v>108.8</v>
+        <v>157.78</v>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
-        <v>45939.35416666666</v>
+        <v>45937.35416666666</v>
       </c>
       <c r="B1700" s="2" t="n">
-        <v>45939.4375</v>
+        <v>45937.4375</v>
       </c>
       <c r="C1700" t="n">
-        <v>99.84999999999999</v>
+        <v>131.03</v>
       </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
-        <v>45939.36458333334</v>
+        <v>45937.36458333334</v>
       </c>
       <c r="B1701" s="2" t="n">
-        <v>45939.44791666666</v>
+        <v>45937.44791666666</v>
       </c>
       <c r="C1701" t="n">
-        <v>88.39</v>
+        <v>113.31</v>
       </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
-        <v>45939.375</v>
+        <v>45937.375</v>
       </c>
       <c r="B1702" s="2" t="n">
-        <v>45939.45833333334</v>
+        <v>45937.45833333334</v>
       </c>
       <c r="C1702" t="n">
-        <v>106.52</v>
+        <v>138.91</v>
       </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
-        <v>45939.38541666666</v>
+        <v>45937.38541666666</v>
       </c>
       <c r="B1703" s="2" t="n">
-        <v>45939.46875</v>
+        <v>45937.46875</v>
       </c>
       <c r="C1703" t="n">
-        <v>98.84</v>
+        <v>123.06</v>
       </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
-        <v>45939.39583333334</v>
+        <v>45937.39583333334</v>
       </c>
       <c r="B1704" s="2" t="n">
-        <v>45939.47916666666</v>
+        <v>45937.47916666666</v>
       </c>
       <c r="C1704" t="n">
-        <v>90.09999999999999</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
-        <v>45939.40625</v>
+        <v>45937.40625</v>
       </c>
       <c r="B1705" s="2" t="n">
-        <v>45939.48958333334</v>
+        <v>45937.48958333334</v>
       </c>
       <c r="C1705" t="n">
-        <v>83.7</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
-        <v>45939.41666666666</v>
+        <v>45937.41666666666</v>
       </c>
       <c r="B1706" s="2" t="n">
-        <v>45939.5</v>
+        <v>45937.5</v>
       </c>
       <c r="C1706" t="n">
-        <v>100.33</v>
+        <v>112.45</v>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
-        <v>45939.42708333334</v>
+        <v>45937.42708333334</v>
       </c>
       <c r="B1707" s="2" t="n">
-        <v>45939.51041666666</v>
+        <v>45937.51041666666</v>
       </c>
       <c r="C1707" t="n">
-        <v>90.95999999999999</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
-        <v>45939.4375</v>
+        <v>45937.4375</v>
       </c>
       <c r="B1708" s="2" t="n">
-        <v>45939.52083333334</v>
+        <v>45937.52083333334</v>
       </c>
       <c r="C1708" t="n">
-        <v>85.06999999999999</v>
+        <v>96.56</v>
       </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
-        <v>45939.44791666666</v>
+        <v>45937.44791666666</v>
       </c>
       <c r="B1709" s="2" t="n">
-        <v>45939.53125</v>
+        <v>45937.53125</v>
       </c>
       <c r="C1709" t="n">
-        <v>77.42</v>
+        <v>95.52</v>
       </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
-        <v>45939.45833333334</v>
+        <v>45937.45833333334</v>
       </c>
       <c r="B1710" s="2" t="n">
-        <v>45939.54166666666</v>
+        <v>45937.54166666666</v>
       </c>
       <c r="C1710" t="n">
-        <v>84.83</v>
+        <v>101.12</v>
       </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
-        <v>45939.46875</v>
+        <v>45937.46875</v>
       </c>
       <c r="B1711" s="2" t="n">
-        <v>45939.55208333334</v>
+        <v>45937.55208333334</v>
       </c>
       <c r="C1711" t="n">
-        <v>83.08</v>
+        <v>95.43000000000001</v>
       </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
-        <v>45939.47916666666</v>
+        <v>45937.47916666666</v>
       </c>
       <c r="B1712" s="2" t="n">
-        <v>45939.5625</v>
+        <v>45937.5625</v>
       </c>
       <c r="C1712" t="n">
-        <v>76</v>
+        <v>94.06</v>
       </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
-        <v>45939.48958333334</v>
+        <v>45937.48958333334</v>
       </c>
       <c r="B1713" s="2" t="n">
-        <v>45939.57291666666</v>
+        <v>45937.57291666666</v>
       </c>
       <c r="C1713" t="n">
-        <v>65.73999999999999</v>
+        <v>91.45999999999999</v>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
-        <v>45939.5</v>
+        <v>45937.5</v>
       </c>
       <c r="B1714" s="2" t="n">
-        <v>45939.58333333334</v>
+        <v>45937.58333333334</v>
       </c>
       <c r="C1714" t="n">
-        <v>77.77</v>
+        <v>92.22</v>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
-        <v>45939.51041666666</v>
+        <v>45937.51041666666</v>
       </c>
       <c r="B1715" s="2" t="n">
-        <v>45939.59375</v>
+        <v>45937.59375</v>
       </c>
       <c r="C1715" t="n">
-        <v>78.22</v>
+        <v>93.39</v>
       </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
-        <v>45939.52083333334</v>
+        <v>45937.52083333334</v>
       </c>
       <c r="B1716" s="2" t="n">
-        <v>45939.60416666666</v>
+        <v>45937.60416666666</v>
       </c>
       <c r="C1716" t="n">
-        <v>75.17</v>
+        <v>94.53</v>
       </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
-        <v>45939.53125</v>
+        <v>45937.53125</v>
       </c>
       <c r="B1717" s="2" t="n">
-        <v>45939.61458333334</v>
+        <v>45937.61458333334</v>
       </c>
       <c r="C1717" t="n">
-        <v>78.09</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
-        <v>45939.54166666666</v>
+        <v>45937.54166666666</v>
       </c>
       <c r="B1718" s="2" t="n">
-        <v>45939.625</v>
+        <v>45937.625</v>
       </c>
       <c r="C1718" t="n">
-        <v>75.18000000000001</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
-        <v>45939.55208333334</v>
+        <v>45937.55208333334</v>
       </c>
       <c r="B1719" s="2" t="n">
-        <v>45939.63541666666</v>
+        <v>45937.63541666666</v>
       </c>
       <c r="C1719" t="n">
-        <v>81.86</v>
+        <v>94.73</v>
       </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
-        <v>45939.5625</v>
+        <v>45937.5625</v>
       </c>
       <c r="B1720" s="2" t="n">
-        <v>45939.64583333334</v>
+        <v>45937.64583333334</v>
       </c>
       <c r="C1720" t="n">
-        <v>89.22</v>
+        <v>104.28</v>
       </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
-        <v>45939.57291666666</v>
+        <v>45937.57291666666</v>
       </c>
       <c r="B1721" s="2" t="n">
-        <v>45939.65625</v>
+        <v>45937.65625</v>
       </c>
       <c r="C1721" t="n">
-        <v>102.35</v>
+        <v>116.09</v>
       </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
-        <v>45939.58333333334</v>
+        <v>45937.58333333334</v>
       </c>
       <c r="B1722" s="2" t="n">
-        <v>45939.66666666666</v>
+        <v>45937.66666666666</v>
       </c>
       <c r="C1722" t="n">
-        <v>79.69</v>
+        <v>93.53</v>
       </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
-        <v>45939.59375</v>
+        <v>45937.59375</v>
       </c>
       <c r="B1723" s="2" t="n">
-        <v>45939.67708333334</v>
+        <v>45937.67708333334</v>
       </c>
       <c r="C1723" t="n">
-        <v>79.59999999999999</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
-        <v>45939.60416666666</v>
+        <v>45937.60416666666</v>
       </c>
       <c r="B1724" s="2" t="n">
-        <v>45939.6875</v>
+        <v>45937.6875</v>
       </c>
       <c r="C1724" t="n">
-        <v>92.11</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
-        <v>45939.61458333334</v>
+        <v>45937.61458333334</v>
       </c>
       <c r="B1725" s="2" t="n">
-        <v>45939.69791666666</v>
+        <v>45937.69791666666</v>
       </c>
       <c r="C1725" t="n">
-        <v>100.31</v>
+        <v>132.97</v>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
-        <v>45939.625</v>
+        <v>45937.625</v>
       </c>
       <c r="B1726" s="2" t="n">
-        <v>45939.70833333334</v>
+        <v>45937.70833333334</v>
       </c>
       <c r="C1726" t="n">
-        <v>76.86</v>
+        <v>107.81</v>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
-        <v>45939.63541666666</v>
+        <v>45937.63541666666</v>
       </c>
       <c r="B1727" s="2" t="n">
-        <v>45939.71875</v>
+        <v>45937.71875</v>
       </c>
       <c r="C1727" t="n">
-        <v>103.67</v>
+        <v>120.95</v>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
-        <v>45939.64583333334</v>
+        <v>45937.64583333334</v>
       </c>
       <c r="B1728" s="2" t="n">
-        <v>45939.72916666666</v>
+        <v>45937.72916666666</v>
       </c>
       <c r="C1728" t="n">
-        <v>106.5</v>
+        <v>146.01</v>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
-        <v>45939.65625</v>
+        <v>45937.65625</v>
       </c>
       <c r="B1729" s="2" t="n">
-        <v>45939.73958333334</v>
+        <v>45937.73958333334</v>
       </c>
       <c r="C1729" t="n">
-        <v>127.43</v>
+        <v>193.61</v>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
-        <v>45939.66666666666</v>
+        <v>45937.66666666666</v>
       </c>
       <c r="B1730" s="2" t="n">
-        <v>45939.75</v>
+        <v>45937.75</v>
       </c>
       <c r="C1730" t="n">
-        <v>109.33</v>
+        <v>143.57</v>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
-        <v>45939.67708333334</v>
+        <v>45937.67708333334</v>
       </c>
       <c r="B1731" s="2" t="n">
-        <v>45939.76041666666</v>
+        <v>45937.76041666666</v>
       </c>
       <c r="C1731" t="n">
-        <v>117.3</v>
+        <v>150.1</v>
       </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
-        <v>45939.6875</v>
+        <v>45937.6875</v>
       </c>
       <c r="B1732" s="2" t="n">
-        <v>45939.77083333334</v>
+        <v>45937.77083333334</v>
       </c>
       <c r="C1732" t="n">
-        <v>126.54</v>
+        <v>211.7</v>
       </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
-        <v>45939.69791666666</v>
+        <v>45937.69791666666</v>
       </c>
       <c r="B1733" s="2" t="n">
-        <v>45939.78125</v>
+        <v>45937.78125</v>
       </c>
       <c r="C1733" t="n">
-        <v>125.26</v>
+        <v>272.86</v>
       </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
-        <v>45939.70833333334</v>
+        <v>45937.70833333334</v>
       </c>
       <c r="B1734" s="2" t="n">
-        <v>45939.79166666666</v>
+        <v>45937.79166666666</v>
       </c>
       <c r="C1734" t="n">
-        <v>125.67</v>
+        <v>242.63</v>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
-        <v>45939.71875</v>
+        <v>45937.71875</v>
       </c>
       <c r="B1735" s="2" t="n">
-        <v>45939.80208333334</v>
+        <v>45937.80208333334</v>
       </c>
       <c r="C1735" t="n">
-        <v>127.03</v>
+        <v>212.78</v>
       </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
-        <v>45939.72916666666</v>
+        <v>45937.72916666666</v>
       </c>
       <c r="B1736" s="2" t="n">
-        <v>45939.8125</v>
+        <v>45937.8125</v>
       </c>
       <c r="C1736" t="n">
-        <v>123.17</v>
+        <v>194.02</v>
       </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
-        <v>45939.73958333334</v>
+        <v>45937.73958333334</v>
       </c>
       <c r="B1737" s="2" t="n">
-        <v>45939.82291666666</v>
+        <v>45937.82291666666</v>
       </c>
       <c r="C1737" t="n">
-        <v>118.29</v>
+        <v>180.81</v>
       </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
-        <v>45939.75</v>
+        <v>45937.75</v>
       </c>
       <c r="B1738" s="2" t="n">
-        <v>45939.83333333334</v>
+        <v>45937.83333333334</v>
       </c>
       <c r="C1738" t="n">
-        <v>119.85</v>
+        <v>178.09</v>
       </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
-        <v>45939.76041666666</v>
+        <v>45937.76041666666</v>
       </c>
       <c r="B1739" s="2" t="n">
-        <v>45939.84375</v>
+        <v>45937.84375</v>
       </c>
       <c r="C1739" t="n">
-        <v>115.01</v>
+        <v>158.89</v>
       </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
-        <v>45939.77083333334</v>
+        <v>45937.77083333334</v>
       </c>
       <c r="B1740" s="2" t="n">
-        <v>45939.85416666666</v>
+        <v>45937.85416666666</v>
       </c>
       <c r="C1740" t="n">
-        <v>110.47</v>
+        <v>131.01</v>
       </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
-        <v>45939.78125</v>
+        <v>45937.78125</v>
       </c>
       <c r="B1741" s="2" t="n">
-        <v>45939.86458333334</v>
+        <v>45937.86458333334</v>
       </c>
       <c r="C1741" t="n">
-        <v>105.17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
-        <v>45939.79166666666</v>
+        <v>45937.79166666666</v>
       </c>
       <c r="B1742" s="2" t="n">
-        <v>45939.875</v>
+        <v>45937.875</v>
       </c>
       <c r="C1742" t="n">
-        <v>106.76</v>
+        <v>147.22</v>
       </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
-        <v>45939.80208333334</v>
+        <v>45937.80208333334</v>
       </c>
       <c r="B1743" s="2" t="n">
-        <v>45939.88541666666</v>
+        <v>45937.88541666666</v>
       </c>
       <c r="C1743" t="n">
-        <v>101.2</v>
+        <v>129.01</v>
       </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
-        <v>45939.8125</v>
+        <v>45937.8125</v>
       </c>
       <c r="B1744" s="2" t="n">
-        <v>45939.89583333334</v>
+        <v>45937.89583333334</v>
       </c>
       <c r="C1744" t="n">
-        <v>96.16</v>
+        <v>112.79</v>
       </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
-        <v>45939.82291666666</v>
+        <v>45937.82291666666</v>
       </c>
       <c r="B1745" s="2" t="n">
-        <v>45939.90625</v>
+        <v>45937.90625</v>
       </c>
       <c r="C1745" t="n">
-        <v>87.84999999999999</v>
+        <v>103.95</v>
       </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
-        <v>45939.83333333334</v>
+        <v>45937.83333333334</v>
       </c>
       <c r="B1746" s="2" t="n">
-        <v>45939.91666666666</v>
+        <v>45937.91666666666</v>
       </c>
       <c r="C1746" t="n">
-        <v>111.49</v>
+        <v>116.35</v>
       </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
-        <v>45939.84375</v>
+        <v>45937.84375</v>
       </c>
       <c r="B1747" s="2" t="n">
-        <v>45939.92708333334</v>
+        <v>45937.92708333334</v>
       </c>
       <c r="C1747" t="n">
-        <v>95.62</v>
+        <v>111.87</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
-        <v>45939.85416666666</v>
+        <v>45937.85416666666</v>
       </c>
       <c r="B1748" s="2" t="n">
-        <v>45939.9375</v>
+        <v>45937.9375</v>
       </c>
       <c r="C1748" t="n">
-        <v>91.56999999999999</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
-        <v>45939.86458333334</v>
+        <v>45937.86458333334</v>
       </c>
       <c r="B1749" s="2" t="n">
-        <v>45939.94791666666</v>
+        <v>45937.94791666666</v>
       </c>
       <c r="C1749" t="n">
-        <v>88.31</v>
+        <v>95.37</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
-        <v>45939.875</v>
+        <v>45937.875</v>
       </c>
       <c r="B1750" s="2" t="n">
-        <v>45939.95833333334</v>
+        <v>45937.95833333334</v>
       </c>
       <c r="C1750" t="n">
-        <v>100.1</v>
+        <v>107.82</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
-        <v>45939.88541666666</v>
+        <v>45937.88541666666</v>
       </c>
       <c r="B1751" s="2" t="n">
-        <v>45939.96875</v>
+        <v>45937.96875</v>
       </c>
       <c r="C1751" t="n">
-        <v>103.77</v>
+        <v>98.43000000000001</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
-        <v>45939.89583333334</v>
+        <v>45937.89583333334</v>
       </c>
       <c r="B1752" s="2" t="n">
-        <v>45939.97916666666</v>
+        <v>45937.97916666666</v>
       </c>
       <c r="C1752" t="n">
-        <v>89.02</v>
+        <v>93.56999999999999</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
+        <v>45937.90625</v>
+      </c>
+      <c r="B1753" s="2" t="n">
+        <v>45937.98958333334</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>90.11</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45937.91666666666</v>
+      </c>
+      <c r="B1754" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>101.74</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45937.92708333334</v>
+      </c>
+      <c r="B1755" s="2" t="n">
+        <v>45938.01041666666</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>91.40000000000001</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45937.9375</v>
+      </c>
+      <c r="B1756" s="2" t="n">
+        <v>45938.02083333334</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>91.47</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45937.94791666666</v>
+      </c>
+      <c r="B1757" s="2" t="n">
+        <v>45938.03125</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45937.95833333334</v>
+      </c>
+      <c r="B1758" s="2" t="n">
+        <v>45938.04166666666</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>91.84999999999999</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45937.96875</v>
+      </c>
+      <c r="B1759" s="2" t="n">
+        <v>45938.05208333334</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>89.06999999999999</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45937.97916666666</v>
+      </c>
+      <c r="B1760" s="2" t="n">
+        <v>45938.0625</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>87.33</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45937.98958333334</v>
+      </c>
+      <c r="B1761" s="2" t="n">
+        <v>45938.07291666666</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B1762" s="2" t="n">
+        <v>45938.08333333334</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>89.20999999999999</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45938.01041666666</v>
+      </c>
+      <c r="B1763" s="2" t="n">
+        <v>45938.09375</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>88.14</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45938.02083333334</v>
+      </c>
+      <c r="B1764" s="2" t="n">
+        <v>45938.10416666666</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>86.98999999999999</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45938.03125</v>
+      </c>
+      <c r="B1765" s="2" t="n">
+        <v>45938.11458333334</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>85.90000000000001</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45938.04166666666</v>
+      </c>
+      <c r="B1766" s="2" t="n">
+        <v>45938.125</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>86.70999999999999</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45938.05208333334</v>
+      </c>
+      <c r="B1767" s="2" t="n">
+        <v>45938.13541666666</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>84.17</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45938.0625</v>
+      </c>
+      <c r="B1768" s="2" t="n">
+        <v>45938.14583333334</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>86.98</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45938.07291666666</v>
+      </c>
+      <c r="B1769" s="2" t="n">
+        <v>45938.15625</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>86.17</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45938.08333333334</v>
+      </c>
+      <c r="B1770" s="2" t="n">
+        <v>45938.16666666666</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>85.66</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45938.09375</v>
+      </c>
+      <c r="B1771" s="2" t="n">
+        <v>45938.17708333334</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>84.48</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45938.10416666666</v>
+      </c>
+      <c r="B1772" s="2" t="n">
+        <v>45938.1875</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>87.11</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45938.11458333334</v>
+      </c>
+      <c r="B1773" s="2" t="n">
+        <v>45938.19791666666</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>91.67</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45938.125</v>
+      </c>
+      <c r="B1774" s="2" t="n">
+        <v>45938.20833333334</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>86.98</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45938.13541666666</v>
+      </c>
+      <c r="B1775" s="2" t="n">
+        <v>45938.21875</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45938.14583333334</v>
+      </c>
+      <c r="B1776" s="2" t="n">
+        <v>45938.22916666666</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>92.51000000000001</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45938.15625</v>
+      </c>
+      <c r="B1777" s="2" t="n">
+        <v>45938.23958333334</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45938.16666666666</v>
+      </c>
+      <c r="B1778" s="2" t="n">
+        <v>45938.25</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>92.98999999999999</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45938.17708333334</v>
+      </c>
+      <c r="B1779" s="2" t="n">
+        <v>45938.26041666666</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>108.63</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45938.1875</v>
+      </c>
+      <c r="B1780" s="2" t="n">
+        <v>45938.27083333334</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>120.42</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45938.19791666666</v>
+      </c>
+      <c r="B1781" s="2" t="n">
+        <v>45938.28125</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>134.53</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45938.20833333334</v>
+      </c>
+      <c r="B1782" s="2" t="n">
+        <v>45938.29166666666</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>127.56</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45938.21875</v>
+      </c>
+      <c r="B1783" s="2" t="n">
+        <v>45938.30208333334</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>148.39</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45938.22916666666</v>
+      </c>
+      <c r="B1784" s="2" t="n">
+        <v>45938.3125</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>165.45</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45938.23958333334</v>
+      </c>
+      <c r="B1785" s="2" t="n">
+        <v>45938.32291666666</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>168.83</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45938.25</v>
+      </c>
+      <c r="B1786" s="2" t="n">
+        <v>45938.33333333334</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>203.62</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45938.26041666666</v>
+      </c>
+      <c r="B1787" s="2" t="n">
+        <v>45938.34375</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>175.34</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45938.27083333334</v>
+      </c>
+      <c r="B1788" s="2" t="n">
+        <v>45938.35416666666</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45938.28125</v>
+      </c>
+      <c r="B1789" s="2" t="n">
+        <v>45938.36458333334</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>135.38</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45938.29166666666</v>
+      </c>
+      <c r="B1790" s="2" t="n">
+        <v>45938.375</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>176.35</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45938.30208333334</v>
+      </c>
+      <c r="B1791" s="2" t="n">
+        <v>45938.38541666666</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>142.45</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45938.3125</v>
+      </c>
+      <c r="B1792" s="2" t="n">
+        <v>45938.39583333334</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>119.67</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45938.32291666666</v>
+      </c>
+      <c r="B1793" s="2" t="n">
+        <v>45938.40625</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>106.06</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45938.33333333334</v>
+      </c>
+      <c r="B1794" s="2" t="n">
+        <v>45938.41666666666</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>139.21</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45938.34375</v>
+      </c>
+      <c r="B1795" s="2" t="n">
+        <v>45938.42708333334</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>119.74</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45938.35416666666</v>
+      </c>
+      <c r="B1796" s="2" t="n">
+        <v>45938.4375</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>106.31</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45938.36458333334</v>
+      </c>
+      <c r="B1797" s="2" t="n">
+        <v>45938.44791666666</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>99.45999999999999</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45938.375</v>
+      </c>
+      <c r="B1798" s="2" t="n">
+        <v>45938.45833333334</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>120.14</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45938.38541666666</v>
+      </c>
+      <c r="B1799" s="2" t="n">
+        <v>45938.46875</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>101.96</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45938.39583333334</v>
+      </c>
+      <c r="B1800" s="2" t="n">
+        <v>45938.47916666666</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>94.05</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45938.40625</v>
+      </c>
+      <c r="B1801" s="2" t="n">
+        <v>45938.48958333334</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>85.06</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45938.41666666666</v>
+      </c>
+      <c r="B1802" s="2" t="n">
+        <v>45938.5</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>92.65000000000001</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45938.42708333334</v>
+      </c>
+      <c r="B1803" s="2" t="n">
+        <v>45938.51041666666</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>88.73</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45938.4375</v>
+      </c>
+      <c r="B1804" s="2" t="n">
+        <v>45938.52083333334</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45938.44791666666</v>
+      </c>
+      <c r="B1805" s="2" t="n">
+        <v>45938.53125</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>86.05</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45938.45833333334</v>
+      </c>
+      <c r="B1806" s="2" t="n">
+        <v>45938.54166666666</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>88.93000000000001</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45938.46875</v>
+      </c>
+      <c r="B1807" s="2" t="n">
+        <v>45938.55208333334</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>87.73999999999999</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45938.47916666666</v>
+      </c>
+      <c r="B1808" s="2" t="n">
+        <v>45938.5625</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>86.06</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45938.48958333334</v>
+      </c>
+      <c r="B1809" s="2" t="n">
+        <v>45938.57291666666</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45938.5</v>
+      </c>
+      <c r="B1810" s="2" t="n">
+        <v>45938.58333333334</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>82.93000000000001</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45938.51041666666</v>
+      </c>
+      <c r="B1811" s="2" t="n">
+        <v>45938.59375</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>84.88</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45938.52083333334</v>
+      </c>
+      <c r="B1812" s="2" t="n">
+        <v>45938.60416666666</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>86.66</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45938.53125</v>
+      </c>
+      <c r="B1813" s="2" t="n">
+        <v>45938.61458333334</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>94.45999999999999</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45938.54166666666</v>
+      </c>
+      <c r="B1814" s="2" t="n">
+        <v>45938.625</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>84.27</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45938.55208333334</v>
+      </c>
+      <c r="B1815" s="2" t="n">
+        <v>45938.63541666666</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>88.51000000000001</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45938.5625</v>
+      </c>
+      <c r="B1816" s="2" t="n">
+        <v>45938.64583333334</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45938.57291666666</v>
+      </c>
+      <c r="B1817" s="2" t="n">
+        <v>45938.65625</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>108.61</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45938.58333333334</v>
+      </c>
+      <c r="B1818" s="2" t="n">
+        <v>45938.66666666666</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>86.02</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45938.59375</v>
+      </c>
+      <c r="B1819" s="2" t="n">
+        <v>45938.67708333334</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45938.60416666666</v>
+      </c>
+      <c r="B1820" s="2" t="n">
+        <v>45938.6875</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>118.25</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45938.61458333334</v>
+      </c>
+      <c r="B1821" s="2" t="n">
+        <v>45938.69791666666</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>139.62</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45938.625</v>
+      </c>
+      <c r="B1822" s="2" t="n">
+        <v>45938.70833333334</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>96.65000000000001</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45938.63541666666</v>
+      </c>
+      <c r="B1823" s="2" t="n">
+        <v>45938.71875</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>117.95</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45938.64583333334</v>
+      </c>
+      <c r="B1824" s="2" t="n">
+        <v>45938.72916666666</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>148.81</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45938.65625</v>
+      </c>
+      <c r="B1825" s="2" t="n">
+        <v>45938.73958333334</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>203.12</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45938.66666666666</v>
+      </c>
+      <c r="B1826" s="2" t="n">
+        <v>45938.75</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>129.74</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45938.67708333334</v>
+      </c>
+      <c r="B1827" s="2" t="n">
+        <v>45938.76041666666</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>142.25</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45938.6875</v>
+      </c>
+      <c r="B1828" s="2" t="n">
+        <v>45938.77083333334</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>195.41</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45938.69791666666</v>
+      </c>
+      <c r="B1829" s="2" t="n">
+        <v>45938.78125</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>241.07</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45938.70833333334</v>
+      </c>
+      <c r="B1830" s="2" t="n">
+        <v>45938.79166666666</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>223.55</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45938.71875</v>
+      </c>
+      <c r="B1831" s="2" t="n">
+        <v>45938.80208333334</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>199.54</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45938.72916666666</v>
+      </c>
+      <c r="B1832" s="2" t="n">
+        <v>45938.8125</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>180.46</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45938.73958333334</v>
+      </c>
+      <c r="B1833" s="2" t="n">
+        <v>45938.82291666666</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45938.75</v>
+      </c>
+      <c r="B1834" s="2" t="n">
+        <v>45938.83333333334</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45938.76041666666</v>
+      </c>
+      <c r="B1835" s="2" t="n">
+        <v>45938.84375</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>149.99</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45938.77083333334</v>
+      </c>
+      <c r="B1836" s="2" t="n">
+        <v>45938.85416666666</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>128.21</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45938.78125</v>
+      </c>
+      <c r="B1837" s="2" t="n">
+        <v>45938.86458333334</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>118.39</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45938.79166666666</v>
+      </c>
+      <c r="B1838" s="2" t="n">
+        <v>45938.875</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>128.02</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45938.80208333334</v>
+      </c>
+      <c r="B1839" s="2" t="n">
+        <v>45938.88541666666</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>116.99</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45938.8125</v>
+      </c>
+      <c r="B1840" s="2" t="n">
+        <v>45938.89583333334</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45938.82291666666</v>
+      </c>
+      <c r="B1841" s="2" t="n">
+        <v>45938.90625</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>102.34</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45938.83333333334</v>
+      </c>
+      <c r="B1842" s="2" t="n">
+        <v>45938.91666666666</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>110.69</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45938.84375</v>
+      </c>
+      <c r="B1843" s="2" t="n">
+        <v>45938.92708333334</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>109.91</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45938.85416666666</v>
+      </c>
+      <c r="B1844" s="2" t="n">
+        <v>45938.9375</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>106.28</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45938.86458333334</v>
+      </c>
+      <c r="B1845" s="2" t="n">
+        <v>45938.94791666666</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>97.93000000000001</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45938.875</v>
+      </c>
+      <c r="B1846" s="2" t="n">
+        <v>45938.95833333334</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>101.68</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45938.88541666666</v>
+      </c>
+      <c r="B1847" s="2" t="n">
+        <v>45938.96875</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>99.79000000000001</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45938.89583333334</v>
+      </c>
+      <c r="B1848" s="2" t="n">
+        <v>45938.97916666666</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>95.48</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45938.90625</v>
+      </c>
+      <c r="B1849" s="2" t="n">
+        <v>45938.98958333334</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45938.91666666666</v>
+      </c>
+      <c r="B1850" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>107.75</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45938.92708333334</v>
+      </c>
+      <c r="B1851" s="2" t="n">
+        <v>45939.01041666666</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>100.01</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45938.9375</v>
+      </c>
+      <c r="B1852" s="2" t="n">
+        <v>45939.02083333334</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>90.45</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45938.94791666666</v>
+      </c>
+      <c r="B1853" s="2" t="n">
+        <v>45939.03125</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>87.41</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45938.95833333334</v>
+      </c>
+      <c r="B1854" s="2" t="n">
+        <v>45939.04166666666</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>91.03</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45938.96875</v>
+      </c>
+      <c r="B1855" s="2" t="n">
+        <v>45939.05208333334</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>91.01000000000001</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45938.97916666666</v>
+      </c>
+      <c r="B1856" s="2" t="n">
+        <v>45939.0625</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>90.41</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45938.98958333334</v>
+      </c>
+      <c r="B1857" s="2" t="n">
+        <v>45939.07291666666</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>90.11</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B1858" s="2" t="n">
+        <v>45939.08333333334</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>94.03</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>45939.01041666666</v>
+      </c>
+      <c r="B1859" s="2" t="n">
+        <v>45939.09375</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>90.42</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2" t="n">
+        <v>45939.02083333334</v>
+      </c>
+      <c r="B1860" s="2" t="n">
+        <v>45939.10416666666</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>90.22</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="2" t="n">
+        <v>45939.03125</v>
+      </c>
+      <c r="B1861" s="2" t="n">
+        <v>45939.11458333334</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>89.22</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="2" t="n">
+        <v>45939.04166666666</v>
+      </c>
+      <c r="B1862" s="2" t="n">
+        <v>45939.125</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>90.08</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2" t="n">
+        <v>45939.05208333334</v>
+      </c>
+      <c r="B1863" s="2" t="n">
+        <v>45939.13541666666</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>86.31</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>45939.0625</v>
+      </c>
+      <c r="B1864" s="2" t="n">
+        <v>45939.14583333334</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>86.22</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>45939.07291666666</v>
+      </c>
+      <c r="B1865" s="2" t="n">
+        <v>45939.15625</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>85.52</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2" t="n">
+        <v>45939.08333333334</v>
+      </c>
+      <c r="B1866" s="2" t="n">
+        <v>45939.16666666666</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>82.94</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2" t="n">
+        <v>45939.09375</v>
+      </c>
+      <c r="B1867" s="2" t="n">
+        <v>45939.17708333334</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>84.65000000000001</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2" t="n">
+        <v>45939.10416666666</v>
+      </c>
+      <c r="B1868" s="2" t="n">
+        <v>45939.1875</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="2" t="n">
+        <v>45939.11458333334</v>
+      </c>
+      <c r="B1869" s="2" t="n">
+        <v>45939.19791666666</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>95.06</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="2" t="n">
+        <v>45939.125</v>
+      </c>
+      <c r="B1870" s="2" t="n">
+        <v>45939.20833333334</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>83.16</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="2" t="n">
+        <v>45939.13541666666</v>
+      </c>
+      <c r="B1871" s="2" t="n">
+        <v>45939.21875</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>87.55</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="2" t="n">
+        <v>45939.14583333334</v>
+      </c>
+      <c r="B1872" s="2" t="n">
+        <v>45939.22916666666</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>98.88</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="2" t="n">
+        <v>45939.15625</v>
+      </c>
+      <c r="B1873" s="2" t="n">
+        <v>45939.23958333334</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>114.41</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="2" t="n">
+        <v>45939.16666666666</v>
+      </c>
+      <c r="B1874" s="2" t="n">
+        <v>45939.25</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>98.39</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="2" t="n">
+        <v>45939.17708333334</v>
+      </c>
+      <c r="B1875" s="2" t="n">
+        <v>45939.26041666666</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>115.36</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="2" t="n">
+        <v>45939.1875</v>
+      </c>
+      <c r="B1876" s="2" t="n">
+        <v>45939.27083333334</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>126.04</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="2" t="n">
+        <v>45939.19791666666</v>
+      </c>
+      <c r="B1877" s="2" t="n">
+        <v>45939.28125</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>138.91</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="2" t="n">
+        <v>45939.20833333334</v>
+      </c>
+      <c r="B1878" s="2" t="n">
+        <v>45939.29166666666</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>122.92</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="2" t="n">
+        <v>45939.21875</v>
+      </c>
+      <c r="B1879" s="2" t="n">
+        <v>45939.30208333334</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>142.54</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="2" t="n">
+        <v>45939.22916666666</v>
+      </c>
+      <c r="B1880" s="2" t="n">
+        <v>45939.3125</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>151.77</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="2" t="n">
+        <v>45939.23958333334</v>
+      </c>
+      <c r="B1881" s="2" t="n">
+        <v>45939.32291666666</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>148.47</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="2" t="n">
+        <v>45939.25</v>
+      </c>
+      <c r="B1882" s="2" t="n">
+        <v>45939.33333333334</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>168.79</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="2" t="n">
+        <v>45939.26041666666</v>
+      </c>
+      <c r="B1883" s="2" t="n">
+        <v>45939.34375</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>150.73</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="2" t="n">
+        <v>45939.27083333334</v>
+      </c>
+      <c r="B1884" s="2" t="n">
+        <v>45939.35416666666</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>141.19</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="2" t="n">
+        <v>45939.28125</v>
+      </c>
+      <c r="B1885" s="2" t="n">
+        <v>45939.36458333334</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>129.51</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="2" t="n">
+        <v>45939.29166666666</v>
+      </c>
+      <c r="B1886" s="2" t="n">
+        <v>45939.375</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>166.31</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="2" t="n">
+        <v>45939.30208333334</v>
+      </c>
+      <c r="B1887" s="2" t="n">
+        <v>45939.38541666666</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>129.77</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="2" t="n">
+        <v>45939.3125</v>
+      </c>
+      <c r="B1888" s="2" t="n">
+        <v>45939.39583333334</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>119.27</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="2" t="n">
+        <v>45939.32291666666</v>
+      </c>
+      <c r="B1889" s="2" t="n">
+        <v>45939.40625</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>101.26</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="2" t="n">
+        <v>45939.33333333334</v>
+      </c>
+      <c r="B1890" s="2" t="n">
+        <v>45939.41666666666</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>127.63</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="2" t="n">
+        <v>45939.34375</v>
+      </c>
+      <c r="B1891" s="2" t="n">
+        <v>45939.42708333334</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="2" t="n">
+        <v>45939.35416666666</v>
+      </c>
+      <c r="B1892" s="2" t="n">
+        <v>45939.4375</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>99.84999999999999</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="2" t="n">
+        <v>45939.36458333334</v>
+      </c>
+      <c r="B1893" s="2" t="n">
+        <v>45939.44791666666</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>88.39</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="2" t="n">
+        <v>45939.375</v>
+      </c>
+      <c r="B1894" s="2" t="n">
+        <v>45939.45833333334</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>106.52</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="2" t="n">
+        <v>45939.38541666666</v>
+      </c>
+      <c r="B1895" s="2" t="n">
+        <v>45939.46875</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>98.84</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="2" t="n">
+        <v>45939.39583333334</v>
+      </c>
+      <c r="B1896" s="2" t="n">
+        <v>45939.47916666666</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="2" t="n">
+        <v>45939.40625</v>
+      </c>
+      <c r="B1897" s="2" t="n">
+        <v>45939.48958333334</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="2" t="n">
+        <v>45939.41666666666</v>
+      </c>
+      <c r="B1898" s="2" t="n">
+        <v>45939.5</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>100.33</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="2" t="n">
+        <v>45939.42708333334</v>
+      </c>
+      <c r="B1899" s="2" t="n">
+        <v>45939.51041666666</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>90.95999999999999</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="2" t="n">
+        <v>45939.4375</v>
+      </c>
+      <c r="B1900" s="2" t="n">
+        <v>45939.52083333334</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>85.06999999999999</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="2" t="n">
+        <v>45939.44791666666</v>
+      </c>
+      <c r="B1901" s="2" t="n">
+        <v>45939.53125</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="2" t="n">
+        <v>45939.45833333334</v>
+      </c>
+      <c r="B1902" s="2" t="n">
+        <v>45939.54166666666</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>84.83</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="2" t="n">
+        <v>45939.46875</v>
+      </c>
+      <c r="B1903" s="2" t="n">
+        <v>45939.55208333334</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>83.08</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="2" t="n">
+        <v>45939.47916666666</v>
+      </c>
+      <c r="B1904" s="2" t="n">
+        <v>45939.5625</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="2" t="n">
+        <v>45939.48958333334</v>
+      </c>
+      <c r="B1905" s="2" t="n">
+        <v>45939.57291666666</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>65.73999999999999</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="2" t="n">
+        <v>45939.5</v>
+      </c>
+      <c r="B1906" s="2" t="n">
+        <v>45939.58333333334</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>77.77</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="2" t="n">
+        <v>45939.51041666666</v>
+      </c>
+      <c r="B1907" s="2" t="n">
+        <v>45939.59375</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>78.22</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="2" t="n">
+        <v>45939.52083333334</v>
+      </c>
+      <c r="B1908" s="2" t="n">
+        <v>45939.60416666666</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>75.17</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="2" t="n">
+        <v>45939.53125</v>
+      </c>
+      <c r="B1909" s="2" t="n">
+        <v>45939.61458333334</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>78.09</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="2" t="n">
+        <v>45939.54166666666</v>
+      </c>
+      <c r="B1910" s="2" t="n">
+        <v>45939.625</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>75.18000000000001</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="2" t="n">
+        <v>45939.55208333334</v>
+      </c>
+      <c r="B1911" s="2" t="n">
+        <v>45939.63541666666</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>81.86</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="2" t="n">
+        <v>45939.5625</v>
+      </c>
+      <c r="B1912" s="2" t="n">
+        <v>45939.64583333334</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>89.22</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="2" t="n">
+        <v>45939.57291666666</v>
+      </c>
+      <c r="B1913" s="2" t="n">
+        <v>45939.65625</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="2" t="n">
+        <v>45939.58333333334</v>
+      </c>
+      <c r="B1914" s="2" t="n">
+        <v>45939.66666666666</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="2" t="n">
+        <v>45939.59375</v>
+      </c>
+      <c r="B1915" s="2" t="n">
+        <v>45939.67708333334</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>79.59999999999999</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="2" t="n">
+        <v>45939.60416666666</v>
+      </c>
+      <c r="B1916" s="2" t="n">
+        <v>45939.6875</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>92.11</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="2" t="n">
+        <v>45939.61458333334</v>
+      </c>
+      <c r="B1917" s="2" t="n">
+        <v>45939.69791666666</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>100.31</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="2" t="n">
+        <v>45939.625</v>
+      </c>
+      <c r="B1918" s="2" t="n">
+        <v>45939.70833333334</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>76.86</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="2" t="n">
+        <v>45939.63541666666</v>
+      </c>
+      <c r="B1919" s="2" t="n">
+        <v>45939.71875</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>103.67</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="2" t="n">
+        <v>45939.64583333334</v>
+      </c>
+      <c r="B1920" s="2" t="n">
+        <v>45939.72916666666</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="2" t="n">
+        <v>45939.65625</v>
+      </c>
+      <c r="B1921" s="2" t="n">
+        <v>45939.73958333334</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>127.43</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="2" t="n">
+        <v>45939.66666666666</v>
+      </c>
+      <c r="B1922" s="2" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>109.33</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="2" t="n">
+        <v>45939.67708333334</v>
+      </c>
+      <c r="B1923" s="2" t="n">
+        <v>45939.76041666666</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="2" t="n">
+        <v>45939.6875</v>
+      </c>
+      <c r="B1924" s="2" t="n">
+        <v>45939.77083333334</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>126.54</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="2" t="n">
+        <v>45939.69791666666</v>
+      </c>
+      <c r="B1925" s="2" t="n">
+        <v>45939.78125</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>125.26</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="2" t="n">
+        <v>45939.70833333334</v>
+      </c>
+      <c r="B1926" s="2" t="n">
+        <v>45939.79166666666</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>125.67</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="2" t="n">
+        <v>45939.71875</v>
+      </c>
+      <c r="B1927" s="2" t="n">
+        <v>45939.80208333334</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>127.03</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="2" t="n">
+        <v>45939.72916666666</v>
+      </c>
+      <c r="B1928" s="2" t="n">
+        <v>45939.8125</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>123.17</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="2" t="n">
+        <v>45939.73958333334</v>
+      </c>
+      <c r="B1929" s="2" t="n">
+        <v>45939.82291666666</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>118.29</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="2" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="B1930" s="2" t="n">
+        <v>45939.83333333334</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>119.85</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="2" t="n">
+        <v>45939.76041666666</v>
+      </c>
+      <c r="B1931" s="2" t="n">
+        <v>45939.84375</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>115.01</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="2" t="n">
+        <v>45939.77083333334</v>
+      </c>
+      <c r="B1932" s="2" t="n">
+        <v>45939.85416666666</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>110.47</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="2" t="n">
+        <v>45939.78125</v>
+      </c>
+      <c r="B1933" s="2" t="n">
+        <v>45939.86458333334</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>105.17</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="2" t="n">
+        <v>45939.79166666666</v>
+      </c>
+      <c r="B1934" s="2" t="n">
+        <v>45939.875</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>106.76</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="2" t="n">
+        <v>45939.80208333334</v>
+      </c>
+      <c r="B1935" s="2" t="n">
+        <v>45939.88541666666</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="2" t="n">
+        <v>45939.8125</v>
+      </c>
+      <c r="B1936" s="2" t="n">
+        <v>45939.89583333334</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>96.16</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="2" t="n">
+        <v>45939.82291666666</v>
+      </c>
+      <c r="B1937" s="2" t="n">
         <v>45939.90625</v>
       </c>
-      <c r="B1753" s="2" t="n">
+      <c r="C1937" t="n">
+        <v>87.84999999999999</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="2" t="n">
+        <v>45939.83333333334</v>
+      </c>
+      <c r="B1938" s="2" t="n">
+        <v>45939.91666666666</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>111.49</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="2" t="n">
+        <v>45939.84375</v>
+      </c>
+      <c r="B1939" s="2" t="n">
+        <v>45939.92708333334</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>95.62</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="2" t="n">
+        <v>45939.85416666666</v>
+      </c>
+      <c r="B1940" s="2" t="n">
+        <v>45939.9375</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>91.56999999999999</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="2" t="n">
+        <v>45939.86458333334</v>
+      </c>
+      <c r="B1941" s="2" t="n">
+        <v>45939.94791666666</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>88.31</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="2" t="n">
+        <v>45939.875</v>
+      </c>
+      <c r="B1942" s="2" t="n">
+        <v>45939.95833333334</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="2" t="n">
+        <v>45939.88541666666</v>
+      </c>
+      <c r="B1943" s="2" t="n">
+        <v>45939.96875</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>103.77</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="2" t="n">
+        <v>45939.89583333334</v>
+      </c>
+      <c r="B1944" s="2" t="n">
+        <v>45939.97916666666</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>89.02</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="2" t="n">
+        <v>45939.90625</v>
+      </c>
+      <c r="B1945" s="2" t="n">
         <v>45939.98958333334</v>
       </c>
-      <c r="C1753" t="n">
+      <c r="C1945" t="n">
         <v>79.37</v>
       </c>
     </row>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1945"/>
+  <dimension ref="A1:C1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16538,5274 +16538,1058 @@
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
-        <v>45934.91666666666</v>
+        <v>45937.91666666666</v>
       </c>
       <c r="B1466" s="2" t="n">
-        <v>45935</v>
+        <v>45938</v>
       </c>
       <c r="C1466" t="n">
-        <v>-0.01</v>
+        <v>101.74</v>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
-        <v>45934.92708333334</v>
+        <v>45937.92708333334</v>
       </c>
       <c r="B1467" s="2" t="n">
-        <v>45935.01041666666</v>
+        <v>45938.01041666666</v>
       </c>
       <c r="C1467" t="n">
-        <v>-0.07000000000000001</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
-        <v>45934.9375</v>
+        <v>45937.9375</v>
       </c>
       <c r="B1468" s="2" t="n">
-        <v>45935.02083333334</v>
+        <v>45938.02083333334</v>
       </c>
       <c r="C1468" t="n">
-        <v>-1.45</v>
+        <v>91.47</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
-        <v>45934.94791666666</v>
+        <v>45937.94791666666</v>
       </c>
       <c r="B1469" s="2" t="n">
-        <v>45935.03125</v>
+        <v>45938.03125</v>
       </c>
       <c r="C1469" t="n">
-        <v>-1.1</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
-        <v>45934.95833333334</v>
+        <v>45937.95833333334</v>
       </c>
       <c r="B1470" s="2" t="n">
-        <v>45935.04166666666</v>
+        <v>45938.04166666666</v>
       </c>
       <c r="C1470" t="n">
-        <v>-1.05</v>
+        <v>91.84999999999999</v>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
-        <v>45934.96875</v>
+        <v>45937.96875</v>
       </c>
       <c r="B1471" s="2" t="n">
-        <v>45935.05208333334</v>
+        <v>45938.05208333334</v>
       </c>
       <c r="C1471" t="n">
-        <v>-1.98</v>
+        <v>89.06999999999999</v>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
-        <v>45934.97916666666</v>
+        <v>45937.97916666666</v>
       </c>
       <c r="B1472" s="2" t="n">
-        <v>45935.0625</v>
+        <v>45938.0625</v>
       </c>
       <c r="C1472" t="n">
-        <v>-1.46</v>
+        <v>87.33</v>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
-        <v>45934.98958333334</v>
+        <v>45937.98958333334</v>
       </c>
       <c r="B1473" s="2" t="n">
-        <v>45935.07291666666</v>
+        <v>45938.07291666666</v>
       </c>
       <c r="C1473" t="n">
-        <v>-1.01</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
-        <v>45935</v>
+        <v>45938</v>
       </c>
       <c r="B1474" s="2" t="n">
-        <v>45935.08333333334</v>
+        <v>45938.08333333334</v>
       </c>
       <c r="C1474" t="n">
-        <v>-4.06</v>
+        <v>89.20999999999999</v>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
-        <v>45935.01041666666</v>
+        <v>45938.01041666666</v>
       </c>
       <c r="B1475" s="2" t="n">
-        <v>45935.09375</v>
+        <v>45938.09375</v>
       </c>
       <c r="C1475" t="n">
-        <v>-4.07</v>
+        <v>88.14</v>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
-        <v>45935.02083333334</v>
+        <v>45938.02083333334</v>
       </c>
       <c r="B1476" s="2" t="n">
-        <v>45935.10416666666</v>
+        <v>45938.10416666666</v>
       </c>
       <c r="C1476" t="n">
-        <v>-4.06</v>
+        <v>86.98999999999999</v>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
-        <v>45935.03125</v>
+        <v>45938.03125</v>
       </c>
       <c r="B1477" s="2" t="n">
-        <v>45935.11458333334</v>
-      </c>
-      <c r="C1477" t="inlineStr"/>
+        <v>45938.11458333334</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
-        <v>45935.04166666666</v>
+        <v>45938.04166666666</v>
       </c>
       <c r="B1478" s="2" t="n">
-        <v>45935.125</v>
+        <v>45938.125</v>
       </c>
       <c r="C1478" t="n">
-        <v>-4.08</v>
+        <v>86.70999999999999</v>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
-        <v>45935.05208333334</v>
+        <v>45938.05208333334</v>
       </c>
       <c r="B1479" s="2" t="n">
-        <v>45935.13541666666</v>
+        <v>45938.13541666666</v>
       </c>
       <c r="C1479" t="n">
-        <v>-4.07</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
-        <v>45935.0625</v>
+        <v>45938.0625</v>
       </c>
       <c r="B1480" s="2" t="n">
-        <v>45935.14583333334</v>
+        <v>45938.14583333334</v>
       </c>
       <c r="C1480" t="n">
-        <v>-4.06</v>
+        <v>86.98</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
-        <v>45935.07291666666</v>
+        <v>45938.07291666666</v>
       </c>
       <c r="B1481" s="2" t="n">
-        <v>45935.15625</v>
+        <v>45938.15625</v>
       </c>
       <c r="C1481" t="n">
-        <v>-4.09</v>
+        <v>86.17</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
-        <v>45935.08333333334</v>
+        <v>45938.08333333334</v>
       </c>
       <c r="B1482" s="2" t="n">
-        <v>45935.16666666666</v>
+        <v>45938.16666666666</v>
       </c>
       <c r="C1482" t="n">
-        <v>-4.68</v>
+        <v>85.66</v>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
-        <v>45935.09375</v>
+        <v>45938.09375</v>
       </c>
       <c r="B1483" s="2" t="n">
-        <v>45935.17708333334</v>
+        <v>45938.17708333334</v>
       </c>
       <c r="C1483" t="n">
-        <v>-4.88</v>
+        <v>84.48</v>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
-        <v>45935.10416666666</v>
+        <v>45938.10416666666</v>
       </c>
       <c r="B1484" s="2" t="n">
-        <v>45935.1875</v>
+        <v>45938.1875</v>
       </c>
       <c r="C1484" t="n">
-        <v>-4.91</v>
+        <v>87.11</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
-        <v>45935.11458333334</v>
+        <v>45938.11458333334</v>
       </c>
       <c r="B1485" s="2" t="n">
-        <v>45935.19791666666</v>
+        <v>45938.19791666666</v>
       </c>
       <c r="C1485" t="n">
-        <v>-4.88</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
-        <v>45935.125</v>
+        <v>45938.125</v>
       </c>
       <c r="B1486" s="2" t="n">
-        <v>45935.20833333334</v>
+        <v>45938.20833333334</v>
       </c>
       <c r="C1486" t="n">
-        <v>-4.09</v>
+        <v>86.98</v>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
-        <v>45935.13541666666</v>
+        <v>45938.13541666666</v>
       </c>
       <c r="B1487" s="2" t="n">
-        <v>45935.21875</v>
-      </c>
-      <c r="C1487" t="inlineStr"/>
+        <v>45938.21875</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>93.28</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
-        <v>45935.14583333334</v>
+        <v>45938.14583333334</v>
       </c>
       <c r="B1488" s="2" t="n">
-        <v>45935.22916666666</v>
+        <v>45938.22916666666</v>
       </c>
       <c r="C1488" t="n">
-        <v>-4.01</v>
+        <v>92.51000000000001</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
-        <v>45935.15625</v>
+        <v>45938.15625</v>
       </c>
       <c r="B1489" s="2" t="n">
-        <v>45935.23958333334</v>
-      </c>
-      <c r="C1489" t="inlineStr"/>
+        <v>45938.23958333334</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>102.9</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
-        <v>45935.16666666666</v>
+        <v>45938.16666666666</v>
       </c>
       <c r="B1490" s="2" t="n">
-        <v>45935.25</v>
+        <v>45938.25</v>
       </c>
       <c r="C1490" t="n">
-        <v>-4.06</v>
+        <v>92.98999999999999</v>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
-        <v>45935.17708333334</v>
+        <v>45938.17708333334</v>
       </c>
       <c r="B1491" s="2" t="n">
-        <v>45935.26041666666</v>
+        <v>45938.26041666666</v>
       </c>
       <c r="C1491" t="n">
-        <v>-4.05</v>
+        <v>108.63</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
-        <v>45935.1875</v>
+        <v>45938.1875</v>
       </c>
       <c r="B1492" s="2" t="n">
-        <v>45935.27083333334</v>
+        <v>45938.27083333334</v>
       </c>
       <c r="C1492" t="n">
-        <v>-3.8</v>
+        <v>120.42</v>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
-        <v>45935.19791666666</v>
+        <v>45938.19791666666</v>
       </c>
       <c r="B1493" s="2" t="n">
-        <v>45935.28125</v>
+        <v>45938.28125</v>
       </c>
       <c r="C1493" t="n">
-        <v>-3.08</v>
+        <v>134.53</v>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
-        <v>45935.20833333334</v>
+        <v>45938.20833333334</v>
       </c>
       <c r="B1494" s="2" t="n">
-        <v>45935.29166666666</v>
+        <v>45938.29166666666</v>
       </c>
       <c r="C1494" t="n">
-        <v>-2.02</v>
+        <v>127.56</v>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
-        <v>45935.21875</v>
+        <v>45938.21875</v>
       </c>
       <c r="B1495" s="2" t="n">
-        <v>45935.30208333334</v>
+        <v>45938.30208333334</v>
       </c>
       <c r="C1495" t="n">
-        <v>-1.78</v>
+        <v>148.39</v>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
-        <v>45935.22916666666</v>
+        <v>45938.22916666666</v>
       </c>
       <c r="B1496" s="2" t="n">
-        <v>45935.3125</v>
+        <v>45938.3125</v>
       </c>
       <c r="C1496" t="n">
-        <v>-1.42</v>
+        <v>165.45</v>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
-        <v>45935.23958333334</v>
+        <v>45938.23958333334</v>
       </c>
       <c r="B1497" s="2" t="n">
-        <v>45935.32291666666</v>
+        <v>45938.32291666666</v>
       </c>
       <c r="C1497" t="n">
-        <v>-0.78</v>
+        <v>168.83</v>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
-        <v>45935.25</v>
+        <v>45938.25</v>
       </c>
       <c r="B1498" s="2" t="n">
-        <v>45935.33333333334</v>
+        <v>45938.33333333334</v>
       </c>
       <c r="C1498" t="n">
-        <v>-0.1</v>
+        <v>203.62</v>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
-        <v>45935.26041666666</v>
+        <v>45938.26041666666</v>
       </c>
       <c r="B1499" s="2" t="n">
-        <v>45935.34375</v>
+        <v>45938.34375</v>
       </c>
       <c r="C1499" t="n">
-        <v>-0.09</v>
+        <v>175.34</v>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
-        <v>45935.27083333334</v>
+        <v>45938.27083333334</v>
       </c>
       <c r="B1500" s="2" t="n">
-        <v>45935.35416666666</v>
+        <v>45938.35416666666</v>
       </c>
       <c r="C1500" t="n">
-        <v>-0.05</v>
+        <v>151.24</v>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
-        <v>45935.28125</v>
+        <v>45938.28125</v>
       </c>
       <c r="B1501" s="2" t="n">
-        <v>45935.36458333334</v>
+        <v>45938.36458333334</v>
       </c>
       <c r="C1501" t="n">
-        <v>-0.11</v>
+        <v>135.38</v>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
-        <v>45935.29166666666</v>
+        <v>45938.29166666666</v>
       </c>
       <c r="B1502" s="2" t="n">
-        <v>45935.375</v>
+        <v>45938.375</v>
       </c>
       <c r="C1502" t="n">
-        <v>0.03</v>
+        <v>176.35</v>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
-        <v>45935.30208333334</v>
+        <v>45938.30208333334</v>
       </c>
       <c r="B1503" s="2" t="n">
-        <v>45935.38541666666</v>
+        <v>45938.38541666666</v>
       </c>
       <c r="C1503" t="n">
-        <v>-0.06</v>
+        <v>142.45</v>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
-        <v>45935.3125</v>
+        <v>45938.3125</v>
       </c>
       <c r="B1504" s="2" t="n">
-        <v>45935.39583333334</v>
+        <v>45938.39583333334</v>
       </c>
       <c r="C1504" t="n">
-        <v>-1.95</v>
+        <v>119.67</v>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
-        <v>45935.32291666666</v>
+        <v>45938.32291666666</v>
       </c>
       <c r="B1505" s="2" t="n">
-        <v>45935.40625</v>
+        <v>45938.40625</v>
       </c>
       <c r="C1505" t="n">
-        <v>-3.37</v>
+        <v>106.06</v>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
-        <v>45935.33333333334</v>
+        <v>45938.33333333334</v>
       </c>
       <c r="B1506" s="2" t="n">
-        <v>45935.41666666666</v>
+        <v>45938.41666666666</v>
       </c>
       <c r="C1506" t="n">
-        <v>-1.76</v>
+        <v>139.21</v>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
-        <v>45935.34375</v>
+        <v>45938.34375</v>
       </c>
       <c r="B1507" s="2" t="n">
-        <v>45935.42708333334</v>
+        <v>45938.42708333334</v>
       </c>
       <c r="C1507" t="n">
-        <v>-4.01</v>
+        <v>119.74</v>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
-        <v>45935.35416666666</v>
+        <v>45938.35416666666</v>
       </c>
       <c r="B1508" s="2" t="n">
-        <v>45935.4375</v>
+        <v>45938.4375</v>
       </c>
       <c r="C1508" t="n">
-        <v>-4.06</v>
+        <v>106.31</v>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
-        <v>45935.36458333334</v>
+        <v>45938.36458333334</v>
       </c>
       <c r="B1509" s="2" t="n">
-        <v>45935.44791666666</v>
+        <v>45938.44791666666</v>
       </c>
       <c r="C1509" t="n">
-        <v>-4.88</v>
+        <v>99.45999999999999</v>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
-        <v>45935.375</v>
+        <v>45938.375</v>
       </c>
       <c r="B1510" s="2" t="n">
-        <v>45935.45833333334</v>
+        <v>45938.45833333334</v>
       </c>
       <c r="C1510" t="n">
-        <v>-2.02</v>
+        <v>120.14</v>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
-        <v>45935.38541666666</v>
+        <v>45938.38541666666</v>
       </c>
       <c r="B1511" s="2" t="n">
-        <v>45935.46875</v>
-      </c>
-      <c r="C1511" t="inlineStr"/>
+        <v>45938.46875</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>101.96</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
-        <v>45935.39583333334</v>
+        <v>45938.39583333334</v>
       </c>
       <c r="B1512" s="2" t="n">
-        <v>45935.47916666666</v>
+        <v>45938.47916666666</v>
       </c>
       <c r="C1512" t="n">
-        <v>-2.01</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
-        <v>45935.40625</v>
+        <v>45938.40625</v>
       </c>
       <c r="B1513" s="2" t="n">
-        <v>45935.48958333334</v>
+        <v>45938.48958333334</v>
       </c>
       <c r="C1513" t="n">
-        <v>-2.02</v>
+        <v>85.06</v>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
-        <v>45935.41666666666</v>
+        <v>45938.41666666666</v>
       </c>
       <c r="B1514" s="2" t="n">
-        <v>45935.5</v>
+        <v>45938.5</v>
       </c>
       <c r="C1514" t="n">
-        <v>-4.04</v>
+        <v>92.65000000000001</v>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
-        <v>45935.42708333334</v>
+        <v>45938.42708333334</v>
       </c>
       <c r="B1515" s="2" t="n">
-        <v>45935.51041666666</v>
+        <v>45938.51041666666</v>
       </c>
       <c r="C1515" t="n">
-        <v>-3.17</v>
+        <v>88.73</v>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
-        <v>45935.4375</v>
+        <v>45938.4375</v>
       </c>
       <c r="B1516" s="2" t="n">
-        <v>45935.52083333334</v>
+        <v>45938.52083333334</v>
       </c>
       <c r="C1516" t="n">
-        <v>-3.13</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
-        <v>45935.44791666666</v>
+        <v>45938.44791666666</v>
       </c>
       <c r="B1517" s="2" t="n">
-        <v>45935.53125</v>
+        <v>45938.53125</v>
       </c>
       <c r="C1517" t="n">
-        <v>-3.63</v>
+        <v>86.05</v>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
-        <v>45935.45833333334</v>
+        <v>45938.45833333334</v>
       </c>
       <c r="B1518" s="2" t="n">
-        <v>45935.54166666666</v>
+        <v>45938.54166666666</v>
       </c>
       <c r="C1518" t="n">
-        <v>-3.2</v>
+        <v>88.93000000000001</v>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
-        <v>45935.46875</v>
+        <v>45938.46875</v>
       </c>
       <c r="B1519" s="2" t="n">
-        <v>45935.55208333334</v>
+        <v>45938.55208333334</v>
       </c>
       <c r="C1519" t="n">
-        <v>-3.38</v>
+        <v>87.73999999999999</v>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
-        <v>45935.47916666666</v>
+        <v>45938.47916666666</v>
       </c>
       <c r="B1520" s="2" t="n">
-        <v>45935.5625</v>
+        <v>45938.5625</v>
       </c>
       <c r="C1520" t="n">
-        <v>-3.02</v>
+        <v>86.06</v>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
-        <v>45935.48958333334</v>
+        <v>45938.48958333334</v>
       </c>
       <c r="B1521" s="2" t="n">
-        <v>45935.57291666666</v>
+        <v>45938.57291666666</v>
       </c>
       <c r="C1521" t="n">
-        <v>-3.33</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
-        <v>45935.5</v>
+        <v>45938.5</v>
       </c>
       <c r="B1522" s="2" t="n">
-        <v>45935.58333333334</v>
+        <v>45938.58333333334</v>
       </c>
       <c r="C1522" t="n">
-        <v>-3.02</v>
+        <v>82.93000000000001</v>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
-        <v>45935.51041666666</v>
+        <v>45938.51041666666</v>
       </c>
       <c r="B1523" s="2" t="n">
-        <v>45935.59375</v>
+        <v>45938.59375</v>
       </c>
       <c r="C1523" t="n">
-        <v>-2.94</v>
+        <v>84.88</v>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
-        <v>45935.52083333334</v>
+        <v>45938.52083333334</v>
       </c>
       <c r="B1524" s="2" t="n">
-        <v>45935.60416666666</v>
+        <v>45938.60416666666</v>
       </c>
       <c r="C1524" t="n">
-        <v>-2.92</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
-        <v>45935.53125</v>
+        <v>45938.53125</v>
       </c>
       <c r="B1525" s="2" t="n">
-        <v>45935.61458333334</v>
+        <v>45938.61458333334</v>
       </c>
       <c r="C1525" t="n">
-        <v>-2.54</v>
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
-        <v>45935.54166666666</v>
+        <v>45938.54166666666</v>
       </c>
       <c r="B1526" s="2" t="n">
-        <v>45935.625</v>
+        <v>45938.625</v>
       </c>
       <c r="C1526" t="n">
-        <v>-2.43</v>
+        <v>84.27</v>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
-        <v>45935.55208333334</v>
+        <v>45938.55208333334</v>
       </c>
       <c r="B1527" s="2" t="n">
-        <v>45935.63541666666</v>
+        <v>45938.63541666666</v>
       </c>
       <c r="C1527" t="n">
-        <v>-2.13</v>
+        <v>88.51000000000001</v>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
-        <v>45935.5625</v>
+        <v>45938.5625</v>
       </c>
       <c r="B1528" s="2" t="n">
-        <v>45935.64583333334</v>
+        <v>45938.64583333334</v>
       </c>
       <c r="C1528" t="n">
-        <v>-2.02</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
-        <v>45935.57291666666</v>
+        <v>45938.57291666666</v>
       </c>
       <c r="B1529" s="2" t="n">
-        <v>45935.65625</v>
+        <v>45938.65625</v>
       </c>
       <c r="C1529" t="n">
-        <v>-3.02</v>
+        <v>108.61</v>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
-        <v>45935.58333333334</v>
+        <v>45938.58333333334</v>
       </c>
       <c r="B1530" s="2" t="n">
-        <v>45935.66666666666</v>
+        <v>45938.66666666666</v>
       </c>
       <c r="C1530" t="n">
-        <v>-1.59</v>
+        <v>86.02</v>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
-        <v>45935.59375</v>
+        <v>45938.59375</v>
       </c>
       <c r="B1531" s="2" t="n">
-        <v>45935.67708333334</v>
+        <v>45938.67708333334</v>
       </c>
       <c r="C1531" t="n">
-        <v>-1.02</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
-        <v>45935.60416666666</v>
+        <v>45938.60416666666</v>
       </c>
       <c r="B1532" s="2" t="n">
-        <v>45935.6875</v>
+        <v>45938.6875</v>
       </c>
       <c r="C1532" t="n">
-        <v>-0.1</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
-        <v>45935.61458333334</v>
+        <v>45938.61458333334</v>
       </c>
       <c r="B1533" s="2" t="n">
-        <v>45935.69791666666</v>
+        <v>45938.69791666666</v>
       </c>
       <c r="C1533" t="n">
-        <v>-0.04</v>
+        <v>139.62</v>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
-        <v>45935.625</v>
+        <v>45938.625</v>
       </c>
       <c r="B1534" s="2" t="n">
-        <v>45935.70833333334</v>
+        <v>45938.70833333334</v>
       </c>
       <c r="C1534" t="n">
-        <v>-2.88</v>
+        <v>96.65000000000001</v>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
-        <v>45935.63541666666</v>
+        <v>45938.63541666666</v>
       </c>
       <c r="B1535" s="2" t="n">
-        <v>45935.71875</v>
+        <v>45938.71875</v>
       </c>
       <c r="C1535" t="n">
-        <v>0.07000000000000001</v>
+        <v>117.95</v>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
-        <v>45935.64583333334</v>
+        <v>45938.64583333334</v>
       </c>
       <c r="B1536" s="2" t="n">
-        <v>45935.72916666666</v>
+        <v>45938.72916666666</v>
       </c>
       <c r="C1536" t="n">
-        <v>1.76</v>
+        <v>148.81</v>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
-        <v>45935.65625</v>
+        <v>45938.65625</v>
       </c>
       <c r="B1537" s="2" t="n">
-        <v>45935.73958333334</v>
+        <v>45938.73958333334</v>
       </c>
       <c r="C1537" t="n">
-        <v>9.609999999999999</v>
+        <v>203.12</v>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
-        <v>45935.66666666666</v>
+        <v>45938.66666666666</v>
       </c>
       <c r="B1538" s="2" t="n">
-        <v>45935.75</v>
+        <v>45938.75</v>
       </c>
       <c r="C1538" t="n">
-        <v>5.37</v>
+        <v>129.74</v>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
-        <v>45935.67708333334</v>
+        <v>45938.67708333334</v>
       </c>
       <c r="B1539" s="2" t="n">
-        <v>45935.76041666666</v>
+        <v>45938.76041666666</v>
       </c>
       <c r="C1539" t="n">
-        <v>11.37</v>
+        <v>142.25</v>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
-        <v>45935.6875</v>
+        <v>45938.6875</v>
       </c>
       <c r="B1540" s="2" t="n">
-        <v>45935.77083333334</v>
+        <v>45938.77083333334</v>
       </c>
       <c r="C1540" t="n">
-        <v>20.87</v>
+        <v>195.41</v>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
-        <v>45935.69791666666</v>
+        <v>45938.69791666666</v>
       </c>
       <c r="B1541" s="2" t="n">
-        <v>45935.78125</v>
+        <v>45938.78125</v>
       </c>
       <c r="C1541" t="n">
-        <v>30.56</v>
+        <v>241.07</v>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
-        <v>45935.70833333334</v>
+        <v>45938.70833333334</v>
       </c>
       <c r="B1542" s="2" t="n">
-        <v>45935.79166666666</v>
+        <v>45938.79166666666</v>
       </c>
       <c r="C1542" t="n">
-        <v>23.22</v>
+        <v>223.55</v>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
-        <v>45935.71875</v>
+        <v>45938.71875</v>
       </c>
       <c r="B1543" s="2" t="n">
-        <v>45935.80208333334</v>
+        <v>45938.80208333334</v>
       </c>
       <c r="C1543" t="n">
-        <v>32.04</v>
+        <v>199.54</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
-        <v>45935.72916666666</v>
+        <v>45938.72916666666</v>
       </c>
       <c r="B1544" s="2" t="n">
-        <v>45935.8125</v>
+        <v>45938.8125</v>
       </c>
       <c r="C1544" t="n">
-        <v>48.01</v>
+        <v>180.46</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
-        <v>45935.73958333334</v>
+        <v>45938.73958333334</v>
       </c>
       <c r="B1545" s="2" t="n">
-        <v>45935.82291666666</v>
+        <v>45938.82291666666</v>
       </c>
       <c r="C1545" t="n">
-        <v>56.73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
-        <v>45935.75</v>
+        <v>45938.75</v>
       </c>
       <c r="B1546" s="2" t="n">
-        <v>45935.83333333334</v>
+        <v>45938.83333333334</v>
       </c>
       <c r="C1546" t="n">
-        <v>70.09999999999999</v>
+        <v>169.2</v>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
-        <v>45935.76041666666</v>
+        <v>45938.76041666666</v>
       </c>
       <c r="B1547" s="2" t="n">
-        <v>45935.84375</v>
+        <v>45938.84375</v>
       </c>
       <c r="C1547" t="n">
-        <v>62.24</v>
+        <v>149.99</v>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
-        <v>45935.77083333334</v>
+        <v>45938.77083333334</v>
       </c>
       <c r="B1548" s="2" t="n">
-        <v>45935.85416666666</v>
+        <v>45938.85416666666</v>
       </c>
       <c r="C1548" t="n">
-        <v>45.1</v>
+        <v>128.21</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
-        <v>45935.78125</v>
+        <v>45938.78125</v>
       </c>
       <c r="B1549" s="2" t="n">
-        <v>45935.86458333334</v>
+        <v>45938.86458333334</v>
       </c>
       <c r="C1549" t="n">
-        <v>22.53</v>
+        <v>118.39</v>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
-        <v>45935.79166666666</v>
+        <v>45938.79166666666</v>
       </c>
       <c r="B1550" s="2" t="n">
-        <v>45935.875</v>
+        <v>45938.875</v>
       </c>
       <c r="C1550" t="n">
-        <v>77.95</v>
+        <v>128.02</v>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
-        <v>45935.80208333334</v>
+        <v>45938.80208333334</v>
       </c>
       <c r="B1551" s="2" t="n">
-        <v>45935.88541666666</v>
+        <v>45938.88541666666</v>
       </c>
       <c r="C1551" t="n">
-        <v>50.1</v>
+        <v>116.99</v>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
-        <v>45935.8125</v>
+        <v>45938.8125</v>
       </c>
       <c r="B1552" s="2" t="n">
-        <v>45935.89583333334</v>
+        <v>45938.89583333334</v>
       </c>
       <c r="C1552" t="n">
-        <v>32.91</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
-        <v>45935.82291666666</v>
+        <v>45938.82291666666</v>
       </c>
       <c r="B1553" s="2" t="n">
-        <v>45935.90625</v>
+        <v>45938.90625</v>
       </c>
       <c r="C1553" t="n">
-        <v>30.1</v>
+        <v>102.34</v>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
-        <v>45935.83333333334</v>
+        <v>45938.83333333334</v>
       </c>
       <c r="B1554" s="2" t="n">
-        <v>45935.91666666666</v>
+        <v>45938.91666666666</v>
       </c>
       <c r="C1554" t="n">
-        <v>52.42</v>
+        <v>110.69</v>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
-        <v>45935.84375</v>
+        <v>45938.84375</v>
       </c>
       <c r="B1555" s="2" t="n">
-        <v>45935.92708333334</v>
+        <v>45938.92708333334</v>
       </c>
       <c r="C1555" t="n">
-        <v>32.09</v>
+        <v>109.91</v>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
-        <v>45935.85416666666</v>
+        <v>45938.85416666666</v>
       </c>
       <c r="B1556" s="2" t="n">
-        <v>45935.9375</v>
+        <v>45938.9375</v>
       </c>
       <c r="C1556" t="n">
-        <v>50.1</v>
+        <v>106.28</v>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
-        <v>45935.86458333334</v>
+        <v>45938.86458333334</v>
       </c>
       <c r="B1557" s="2" t="n">
-        <v>45935.94791666666</v>
+        <v>45938.94791666666</v>
       </c>
       <c r="C1557" t="n">
-        <v>24.99</v>
+        <v>97.93000000000001</v>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
-        <v>45935.875</v>
+        <v>45938.875</v>
       </c>
       <c r="B1558" s="2" t="n">
-        <v>45935.95833333334</v>
+        <v>45938.95833333334</v>
       </c>
       <c r="C1558" t="n">
-        <v>55.71</v>
+        <v>101.68</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
-        <v>45935.88541666666</v>
+        <v>45938.88541666666</v>
       </c>
       <c r="B1559" s="2" t="n">
-        <v>45935.96875</v>
+        <v>45938.96875</v>
       </c>
       <c r="C1559" t="n">
-        <v>30.23</v>
+        <v>99.79000000000001</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
-        <v>45935.89583333334</v>
+        <v>45938.89583333334</v>
       </c>
       <c r="B1560" s="2" t="n">
-        <v>45935.97916666666</v>
+        <v>45938.97916666666</v>
       </c>
       <c r="C1560" t="n">
-        <v>20</v>
+        <v>95.48</v>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
-        <v>45935.90625</v>
+        <v>45938.90625</v>
       </c>
       <c r="B1561" s="2" t="n">
-        <v>45935.98958333334</v>
+        <v>45938.98958333334</v>
       </c>
       <c r="C1561" t="n">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" s="2" t="n">
-        <v>45935.91666666666</v>
-      </c>
-      <c r="B1562" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C1562" t="n">
-        <v>30.84</v>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" s="2" t="n">
-        <v>45935.92708333334</v>
-      </c>
-      <c r="B1563" s="2" t="n">
-        <v>45936.01041666666</v>
-      </c>
-      <c r="C1563" t="n">
-        <v>24.53</v>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" s="2" t="n">
-        <v>45935.9375</v>
-      </c>
-      <c r="B1564" s="2" t="n">
-        <v>45936.02083333334</v>
-      </c>
-      <c r="C1564" t="n">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" s="2" t="n">
-        <v>45935.94791666666</v>
-      </c>
-      <c r="B1565" s="2" t="n">
-        <v>45936.03125</v>
-      </c>
-      <c r="C1565" t="n">
-        <v>13.29</v>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" s="2" t="n">
-        <v>45935.95833333334</v>
-      </c>
-      <c r="B1566" s="2" t="n">
-        <v>45936.04166666666</v>
-      </c>
-      <c r="C1566" t="n">
-        <v>14.32</v>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" s="2" t="n">
-        <v>45935.96875</v>
-      </c>
-      <c r="B1567" s="2" t="n">
-        <v>45936.05208333334</v>
-      </c>
-      <c r="C1567" t="n">
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" s="2" t="n">
-        <v>45935.97916666666</v>
-      </c>
-      <c r="B1568" s="2" t="n">
-        <v>45936.0625</v>
-      </c>
-      <c r="C1568" t="n">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" s="2" t="n">
-        <v>45935.98958333334</v>
-      </c>
-      <c r="B1569" s="2" t="n">
-        <v>45936.07291666666</v>
-      </c>
-      <c r="C1569" t="n">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="B1570" s="2" t="n">
-        <v>45936.08333333334</v>
-      </c>
-      <c r="C1570" t="n">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" s="2" t="n">
-        <v>45936.01041666666</v>
-      </c>
-      <c r="B1571" s="2" t="n">
-        <v>45936.09375</v>
-      </c>
-      <c r="C1571" t="n">
-        <v>9.51</v>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" s="2" t="n">
-        <v>45936.02083333334</v>
-      </c>
-      <c r="B1572" s="2" t="n">
-        <v>45936.10416666666</v>
-      </c>
-      <c r="C1572" t="n">
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" s="2" t="n">
-        <v>45936.03125</v>
-      </c>
-      <c r="B1573" s="2" t="n">
-        <v>45936.11458333334</v>
-      </c>
-      <c r="C1573" t="n">
-        <v>10.55</v>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" s="2" t="n">
-        <v>45936.04166666666</v>
-      </c>
-      <c r="B1574" s="2" t="n">
-        <v>45936.125</v>
-      </c>
-      <c r="C1574" t="n">
-        <v>11.08</v>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" s="2" t="n">
-        <v>45936.05208333334</v>
-      </c>
-      <c r="B1575" s="2" t="n">
-        <v>45936.13541666666</v>
-      </c>
-      <c r="C1575" t="n">
-        <v>10.87</v>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" s="2" t="n">
-        <v>45936.0625</v>
-      </c>
-      <c r="B1576" s="2" t="n">
-        <v>45936.14583333334</v>
-      </c>
-      <c r="C1576" t="n">
-        <v>11.03</v>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" s="2" t="n">
-        <v>45936.07291666666</v>
-      </c>
-      <c r="B1577" s="2" t="n">
-        <v>45936.15625</v>
-      </c>
-      <c r="C1577" t="n">
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" s="2" t="n">
-        <v>45936.08333333334</v>
-      </c>
-      <c r="B1578" s="2" t="n">
-        <v>45936.16666666666</v>
-      </c>
-      <c r="C1578" t="n">
-        <v>10.86</v>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" s="2" t="n">
-        <v>45936.09375</v>
-      </c>
-      <c r="B1579" s="2" t="n">
-        <v>45936.17708333334</v>
-      </c>
-      <c r="C1579" t="n">
-        <v>18.03</v>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" s="2" t="n">
-        <v>45936.10416666666</v>
-      </c>
-      <c r="B1580" s="2" t="n">
-        <v>45936.1875</v>
-      </c>
-      <c r="C1580" t="n">
-        <v>17.85</v>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" s="2" t="n">
-        <v>45936.11458333334</v>
-      </c>
-      <c r="B1581" s="2" t="n">
-        <v>45936.19791666666</v>
-      </c>
-      <c r="C1581" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" s="2" t="n">
-        <v>45936.125</v>
-      </c>
-      <c r="B1582" s="2" t="n">
-        <v>45936.20833333334</v>
-      </c>
-      <c r="C1582" t="n">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" s="2" t="n">
-        <v>45936.13541666666</v>
-      </c>
-      <c r="B1583" s="2" t="n">
-        <v>45936.21875</v>
-      </c>
-      <c r="C1583" t="n">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" s="2" t="n">
-        <v>45936.14583333334</v>
-      </c>
-      <c r="B1584" s="2" t="n">
-        <v>45936.22916666666</v>
-      </c>
-      <c r="C1584" t="n">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" s="2" t="n">
-        <v>45936.15625</v>
-      </c>
-      <c r="B1585" s="2" t="n">
-        <v>45936.23958333334</v>
-      </c>
-      <c r="C1585" t="n">
-        <v>49.58</v>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" s="2" t="n">
-        <v>45936.16666666666</v>
-      </c>
-      <c r="B1586" s="2" t="n">
-        <v>45936.25</v>
-      </c>
-      <c r="C1586" t="n">
-        <v>18.71</v>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" s="2" t="n">
-        <v>45936.17708333334</v>
-      </c>
-      <c r="B1587" s="2" t="n">
-        <v>45936.26041666666</v>
-      </c>
-      <c r="C1587" t="n">
-        <v>76.86</v>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" s="2" t="n">
-        <v>45936.1875</v>
-      </c>
-      <c r="B1588" s="2" t="n">
-        <v>45936.27083333334</v>
-      </c>
-      <c r="C1588" t="n">
-        <v>80.55</v>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" s="2" t="n">
-        <v>45936.19791666666</v>
-      </c>
-      <c r="B1589" s="2" t="n">
-        <v>45936.28125</v>
-      </c>
-      <c r="C1589" t="n">
-        <v>102.61</v>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" s="2" t="n">
-        <v>45936.20833333334</v>
-      </c>
-      <c r="B1590" s="2" t="n">
-        <v>45936.29166666666</v>
-      </c>
-      <c r="C1590" t="n">
-        <v>93.12</v>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" s="2" t="n">
-        <v>45936.21875</v>
-      </c>
-      <c r="B1591" s="2" t="n">
-        <v>45936.30208333334</v>
-      </c>
-      <c r="C1591" t="n">
-        <v>107.66</v>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" s="2" t="n">
-        <v>45936.22916666666</v>
-      </c>
-      <c r="B1592" s="2" t="n">
-        <v>45936.3125</v>
-      </c>
-      <c r="C1592" t="n">
-        <v>110.75</v>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" s="2" t="n">
-        <v>45936.23958333334</v>
-      </c>
-      <c r="B1593" s="2" t="n">
-        <v>45936.32291666666</v>
-      </c>
-      <c r="C1593" t="n">
-        <v>117.23</v>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" s="2" t="n">
-        <v>45936.25</v>
-      </c>
-      <c r="B1594" s="2" t="n">
-        <v>45936.33333333334</v>
-      </c>
-      <c r="C1594" t="n">
-        <v>127.72</v>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" s="2" t="n">
-        <v>45936.26041666666</v>
-      </c>
-      <c r="B1595" s="2" t="n">
-        <v>45936.34375</v>
-      </c>
-      <c r="C1595" t="n">
-        <v>128.54</v>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" s="2" t="n">
-        <v>45936.27083333334</v>
-      </c>
-      <c r="B1596" s="2" t="n">
-        <v>45936.35416666666</v>
-      </c>
-      <c r="C1596" t="n">
-        <v>121.33</v>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" s="2" t="n">
-        <v>45936.28125</v>
-      </c>
-      <c r="B1597" s="2" t="n">
-        <v>45936.36458333334</v>
-      </c>
-      <c r="C1597" t="n">
-        <v>112.18</v>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" s="2" t="n">
-        <v>45936.29166666666</v>
-      </c>
-      <c r="B1598" s="2" t="n">
-        <v>45936.375</v>
-      </c>
-      <c r="C1598" t="n">
-        <v>135.96</v>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" s="2" t="n">
-        <v>45936.30208333334</v>
-      </c>
-      <c r="B1599" s="2" t="n">
-        <v>45936.38541666666</v>
-      </c>
-      <c r="C1599" t="n">
-        <v>121.97</v>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" s="2" t="n">
-        <v>45936.3125</v>
-      </c>
-      <c r="B1600" s="2" t="n">
-        <v>45936.39583333334</v>
-      </c>
-      <c r="C1600" t="n">
-        <v>116.44</v>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" s="2" t="n">
-        <v>45936.32291666666</v>
-      </c>
-      <c r="B1601" s="2" t="n">
-        <v>45936.40625</v>
-      </c>
-      <c r="C1601" t="n">
-        <v>104.24</v>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" s="2" t="n">
-        <v>45936.33333333334</v>
-      </c>
-      <c r="B1602" s="2" t="n">
-        <v>45936.41666666666</v>
-      </c>
-      <c r="C1602" t="n">
-        <v>114.52</v>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" s="2" t="n">
-        <v>45936.34375</v>
-      </c>
-      <c r="B1603" s="2" t="n">
-        <v>45936.42708333334</v>
-      </c>
-      <c r="C1603" t="n">
-        <v>101.23</v>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" s="2" t="n">
-        <v>45936.35416666666</v>
-      </c>
-      <c r="B1604" s="2" t="n">
-        <v>45936.4375</v>
-      </c>
-      <c r="C1604" t="n">
-        <v>90.34</v>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" s="2" t="n">
-        <v>45936.36458333334</v>
-      </c>
-      <c r="B1605" s="2" t="n">
-        <v>45936.44791666666</v>
-      </c>
-      <c r="C1605" t="n">
-        <v>82.95999999999999</v>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" s="2" t="n">
-        <v>45936.375</v>
-      </c>
-      <c r="B1606" s="2" t="n">
-        <v>45936.45833333334</v>
-      </c>
-      <c r="C1606" t="n">
-        <v>92.70999999999999</v>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" s="2" t="n">
-        <v>45936.38541666666</v>
-      </c>
-      <c r="B1607" s="2" t="n">
-        <v>45936.46875</v>
-      </c>
-      <c r="C1607" t="n">
-        <v>86.93000000000001</v>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" s="2" t="n">
-        <v>45936.39583333334</v>
-      </c>
-      <c r="B1608" s="2" t="n">
-        <v>45936.47916666666</v>
-      </c>
-      <c r="C1608" t="n">
-        <v>81.04000000000001</v>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" s="2" t="n">
-        <v>45936.40625</v>
-      </c>
-      <c r="B1609" s="2" t="n">
-        <v>45936.48958333334</v>
-      </c>
-      <c r="C1609" t="n">
-        <v>78.19</v>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" s="2" t="n">
-        <v>45936.41666666666</v>
-      </c>
-      <c r="B1610" s="2" t="n">
-        <v>45936.5</v>
-      </c>
-      <c r="C1610" t="n">
-        <v>82.58</v>
-      </c>
-    </row>
-    <row r="1611">
-      <c r="A1611" s="2" t="n">
-        <v>45936.42708333334</v>
-      </c>
-      <c r="B1611" s="2" t="n">
-        <v>45936.51041666666</v>
-      </c>
-      <c r="C1611" t="n">
-        <v>80.66</v>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" s="2" t="n">
-        <v>45936.4375</v>
-      </c>
-      <c r="B1612" s="2" t="n">
-        <v>45936.52083333334</v>
-      </c>
-      <c r="C1612" t="n">
-        <v>82.09999999999999</v>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" s="2" t="n">
-        <v>45936.44791666666</v>
-      </c>
-      <c r="B1613" s="2" t="n">
-        <v>45936.53125</v>
-      </c>
-      <c r="C1613" t="n">
-        <v>85.97</v>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" s="2" t="n">
-        <v>45936.45833333334</v>
-      </c>
-      <c r="B1614" s="2" t="n">
-        <v>45936.54166666666</v>
-      </c>
-      <c r="C1614" t="n">
-        <v>81.67</v>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" s="2" t="n">
-        <v>45936.46875</v>
-      </c>
-      <c r="B1615" s="2" t="n">
-        <v>45936.55208333334</v>
-      </c>
-      <c r="C1615" t="n">
-        <v>88.05</v>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" s="2" t="n">
-        <v>45936.47916666666</v>
-      </c>
-      <c r="B1616" s="2" t="n">
-        <v>45936.5625</v>
-      </c>
-      <c r="C1616" t="n">
-        <v>83.88</v>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" s="2" t="n">
-        <v>45936.48958333334</v>
-      </c>
-      <c r="B1617" s="2" t="n">
-        <v>45936.57291666666</v>
-      </c>
-      <c r="C1617" t="n">
-        <v>82.40000000000001</v>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" s="2" t="n">
-        <v>45936.5</v>
-      </c>
-      <c r="B1618" s="2" t="n">
-        <v>45936.58333333334</v>
-      </c>
-      <c r="C1618" t="n">
-        <v>76.55</v>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" s="2" t="n">
-        <v>45936.51041666666</v>
-      </c>
-      <c r="B1619" s="2" t="n">
-        <v>45936.59375</v>
-      </c>
-      <c r="C1619" t="n">
-        <v>83.42</v>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" s="2" t="n">
-        <v>45936.52083333334</v>
-      </c>
-      <c r="B1620" s="2" t="n">
-        <v>45936.60416666666</v>
-      </c>
-      <c r="C1620" t="n">
-        <v>90.88</v>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" s="2" t="n">
-        <v>45936.53125</v>
-      </c>
-      <c r="B1621" s="2" t="n">
-        <v>45936.61458333334</v>
-      </c>
-      <c r="C1621" t="n">
-        <v>89.15000000000001</v>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" s="2" t="n">
-        <v>45936.54166666666</v>
-      </c>
-      <c r="B1622" s="2" t="n">
-        <v>45936.625</v>
-      </c>
-      <c r="C1622" t="n">
-        <v>80.65000000000001</v>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" s="2" t="n">
-        <v>45936.55208333334</v>
-      </c>
-      <c r="B1623" s="2" t="n">
-        <v>45936.63541666666</v>
-      </c>
-      <c r="C1623" t="n">
-        <v>83.47</v>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" s="2" t="n">
-        <v>45936.5625</v>
-      </c>
-      <c r="B1624" s="2" t="n">
-        <v>45936.64583333334</v>
-      </c>
-      <c r="C1624" t="n">
-        <v>86.55</v>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" s="2" t="n">
-        <v>45936.57291666666</v>
-      </c>
-      <c r="B1625" s="2" t="n">
-        <v>45936.65625</v>
-      </c>
-      <c r="C1625" t="n">
-        <v>91.83</v>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" s="2" t="n">
-        <v>45936.58333333334</v>
-      </c>
-      <c r="B1626" s="2" t="n">
-        <v>45936.66666666666</v>
-      </c>
-      <c r="C1626" t="n">
-        <v>78.38</v>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" s="2" t="n">
-        <v>45936.59375</v>
-      </c>
-      <c r="B1627" s="2" t="n">
-        <v>45936.67708333334</v>
-      </c>
-      <c r="C1627" t="n">
-        <v>88.90000000000001</v>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" s="2" t="n">
-        <v>45936.60416666666</v>
-      </c>
-      <c r="B1628" s="2" t="n">
-        <v>45936.6875</v>
-      </c>
-      <c r="C1628" t="n">
-        <v>99.93000000000001</v>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" s="2" t="n">
-        <v>45936.61458333334</v>
-      </c>
-      <c r="B1629" s="2" t="n">
-        <v>45936.69791666666</v>
-      </c>
-      <c r="C1629" t="n">
-        <v>115.2</v>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" s="2" t="n">
-        <v>45936.625</v>
-      </c>
-      <c r="B1630" s="2" t="n">
-        <v>45936.70833333334</v>
-      </c>
-      <c r="C1630" t="n">
-        <v>86.23999999999999</v>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" s="2" t="n">
-        <v>45936.63541666666</v>
-      </c>
-      <c r="B1631" s="2" t="n">
-        <v>45936.71875</v>
-      </c>
-      <c r="C1631" t="n">
-        <v>106.7</v>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" s="2" t="n">
-        <v>45936.64583333334</v>
-      </c>
-      <c r="B1632" s="2" t="n">
-        <v>45936.72916666666</v>
-      </c>
-      <c r="C1632" t="n">
-        <v>114.97</v>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" s="2" t="n">
-        <v>45936.65625</v>
-      </c>
-      <c r="B1633" s="2" t="n">
-        <v>45936.73958333334</v>
-      </c>
-      <c r="C1633" t="n">
-        <v>142.56</v>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" s="2" t="n">
-        <v>45936.66666666666</v>
-      </c>
-      <c r="B1634" s="2" t="n">
-        <v>45936.75</v>
-      </c>
-      <c r="C1634" t="n">
-        <v>103.73</v>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" s="2" t="n">
-        <v>45936.67708333334</v>
-      </c>
-      <c r="B1635" s="2" t="n">
-        <v>45936.76041666666</v>
-      </c>
-      <c r="C1635" t="n">
-        <v>114.28</v>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" s="2" t="n">
-        <v>45936.6875</v>
-      </c>
-      <c r="B1636" s="2" t="n">
-        <v>45936.77083333334</v>
-      </c>
-      <c r="C1636" t="n">
-        <v>142.96</v>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" s="2" t="n">
-        <v>45936.69791666666</v>
-      </c>
-      <c r="B1637" s="2" t="n">
-        <v>45936.78125</v>
-      </c>
-      <c r="C1637" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" s="2" t="n">
-        <v>45936.70833333334</v>
-      </c>
-      <c r="B1638" s="2" t="n">
-        <v>45936.79166666666</v>
-      </c>
-      <c r="C1638" t="n">
-        <v>161.31</v>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" s="2" t="n">
-        <v>45936.71875</v>
-      </c>
-      <c r="B1639" s="2" t="n">
-        <v>45936.80208333334</v>
-      </c>
-      <c r="C1639" t="n">
-        <v>169.59</v>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" s="2" t="n">
-        <v>45936.72916666666</v>
-      </c>
-      <c r="B1640" s="2" t="n">
-        <v>45936.8125</v>
-      </c>
-      <c r="C1640" t="n">
-        <v>167.48</v>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" s="2" t="n">
-        <v>45936.73958333334</v>
-      </c>
-      <c r="B1641" s="2" t="n">
-        <v>45936.82291666666</v>
-      </c>
-      <c r="C1641" t="n">
-        <v>159.99</v>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" s="2" t="n">
-        <v>45936.75</v>
-      </c>
-      <c r="B1642" s="2" t="n">
-        <v>45936.83333333334</v>
-      </c>
-      <c r="C1642" t="n">
-        <v>157.34</v>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" s="2" t="n">
-        <v>45936.76041666666</v>
-      </c>
-      <c r="B1643" s="2" t="n">
-        <v>45936.84375</v>
-      </c>
-      <c r="C1643" t="n">
-        <v>131.58</v>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" s="2" t="n">
-        <v>45936.77083333334</v>
-      </c>
-      <c r="B1644" s="2" t="n">
-        <v>45936.85416666666</v>
-      </c>
-      <c r="C1644" t="n">
-        <v>126.11</v>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" s="2" t="n">
-        <v>45936.78125</v>
-      </c>
-      <c r="B1645" s="2" t="n">
-        <v>45936.86458333334</v>
-      </c>
-      <c r="C1645" t="n">
-        <v>120.89</v>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" s="2" t="n">
-        <v>45936.79166666666</v>
-      </c>
-      <c r="B1646" s="2" t="n">
-        <v>45936.875</v>
-      </c>
-      <c r="C1646" t="n">
-        <v>127.99</v>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" s="2" t="n">
-        <v>45936.80208333334</v>
-      </c>
-      <c r="B1647" s="2" t="n">
-        <v>45936.88541666666</v>
-      </c>
-      <c r="C1647" t="n">
-        <v>122.2</v>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" s="2" t="n">
-        <v>45936.8125</v>
-      </c>
-      <c r="B1648" s="2" t="n">
-        <v>45936.89583333334</v>
-      </c>
-      <c r="C1648" t="n">
-        <v>112.81</v>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" s="2" t="n">
-        <v>45936.82291666666</v>
-      </c>
-      <c r="B1649" s="2" t="n">
-        <v>45936.90625</v>
-      </c>
-      <c r="C1649" t="n">
-        <v>111.41</v>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" s="2" t="n">
-        <v>45936.83333333334</v>
-      </c>
-      <c r="B1650" s="2" t="n">
-        <v>45936.91666666666</v>
-      </c>
-      <c r="C1650" t="n">
-        <v>127.63</v>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" s="2" t="n">
-        <v>45936.84375</v>
-      </c>
-      <c r="B1651" s="2" t="n">
-        <v>45936.92708333334</v>
-      </c>
-      <c r="C1651" t="n">
-        <v>111.72</v>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" s="2" t="n">
-        <v>45936.85416666666</v>
-      </c>
-      <c r="B1652" s="2" t="n">
-        <v>45936.9375</v>
-      </c>
-      <c r="C1652" t="n">
-        <v>115.2</v>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" s="2" t="n">
-        <v>45936.86458333334</v>
-      </c>
-      <c r="B1653" s="2" t="n">
-        <v>45936.94791666666</v>
-      </c>
-      <c r="C1653" t="n">
-        <v>109.62</v>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" s="2" t="n">
-        <v>45936.875</v>
-      </c>
-      <c r="B1654" s="2" t="n">
-        <v>45936.95833333334</v>
-      </c>
-      <c r="C1654" t="n">
-        <v>112.33</v>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" s="2" t="n">
-        <v>45936.88541666666</v>
-      </c>
-      <c r="B1655" s="2" t="n">
-        <v>45936.96875</v>
-      </c>
-      <c r="C1655" t="n">
-        <v>102.58</v>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" s="2" t="n">
-        <v>45936.89583333334</v>
-      </c>
-      <c r="B1656" s="2" t="n">
-        <v>45936.97916666666</v>
-      </c>
-      <c r="C1656" t="n">
-        <v>103.05</v>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" s="2" t="n">
-        <v>45936.90625</v>
-      </c>
-      <c r="B1657" s="2" t="n">
-        <v>45936.98958333334</v>
-      </c>
-      <c r="C1657" t="n">
-        <v>98.45999999999999</v>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" s="2" t="n">
-        <v>45936.91666666666</v>
-      </c>
-      <c r="B1658" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C1658" t="n">
-        <v>105.51</v>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" s="2" t="n">
-        <v>45936.92708333334</v>
-      </c>
-      <c r="B1659" s="2" t="n">
-        <v>45937.01041666666</v>
-      </c>
-      <c r="C1659" t="n">
-        <v>102.6</v>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" s="2" t="n">
-        <v>45936.9375</v>
-      </c>
-      <c r="B1660" s="2" t="n">
-        <v>45937.02083333334</v>
-      </c>
-      <c r="C1660" t="n">
-        <v>95.59999999999999</v>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" s="2" t="n">
-        <v>45936.94791666666</v>
-      </c>
-      <c r="B1661" s="2" t="n">
-        <v>45937.03125</v>
-      </c>
-      <c r="C1661" t="n">
-        <v>88.45999999999999</v>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" s="2" t="n">
-        <v>45936.95833333334</v>
-      </c>
-      <c r="B1662" s="2" t="n">
-        <v>45937.04166666666</v>
-      </c>
-      <c r="C1662" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" s="2" t="n">
-        <v>45936.96875</v>
-      </c>
-      <c r="B1663" s="2" t="n">
-        <v>45937.05208333334</v>
-      </c>
-      <c r="C1663" t="n">
-        <v>93.59999999999999</v>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" s="2" t="n">
-        <v>45936.97916666666</v>
-      </c>
-      <c r="B1664" s="2" t="n">
-        <v>45937.0625</v>
-      </c>
-      <c r="C1664" t="n">
-        <v>92.68000000000001</v>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" s="2" t="n">
-        <v>45936.98958333334</v>
-      </c>
-      <c r="B1665" s="2" t="n">
-        <v>45937.07291666666</v>
-      </c>
-      <c r="C1665" t="n">
-        <v>85.44</v>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="B1666" s="2" t="n">
-        <v>45937.08333333334</v>
-      </c>
-      <c r="C1666" t="n">
-        <v>89.98</v>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" s="2" t="n">
-        <v>45937.01041666666</v>
-      </c>
-      <c r="B1667" s="2" t="n">
-        <v>45937.09375</v>
-      </c>
-      <c r="C1667" t="n">
-        <v>85.59999999999999</v>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" s="2" t="n">
-        <v>45937.02083333334</v>
-      </c>
-      <c r="B1668" s="2" t="n">
-        <v>45937.10416666666</v>
-      </c>
-      <c r="C1668" t="n">
-        <v>87.70999999999999</v>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" s="2" t="n">
-        <v>45937.03125</v>
-      </c>
-      <c r="B1669" s="2" t="n">
-        <v>45937.11458333334</v>
-      </c>
-      <c r="C1669" t="n">
-        <v>85.23999999999999</v>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" s="2" t="n">
-        <v>45937.04166666666</v>
-      </c>
-      <c r="B1670" s="2" t="n">
-        <v>45937.125</v>
-      </c>
-      <c r="C1670" t="n">
-        <v>88.04000000000001</v>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" s="2" t="n">
-        <v>45937.05208333334</v>
-      </c>
-      <c r="B1671" s="2" t="n">
-        <v>45937.13541666666</v>
-      </c>
-      <c r="C1671" t="n">
-        <v>86.19</v>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" s="2" t="n">
-        <v>45937.0625</v>
-      </c>
-      <c r="B1672" s="2" t="n">
-        <v>45937.14583333334</v>
-      </c>
-      <c r="C1672" t="n">
-        <v>87.09</v>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" s="2" t="n">
-        <v>45937.07291666666</v>
-      </c>
-      <c r="B1673" s="2" t="n">
-        <v>45937.15625</v>
-      </c>
-      <c r="C1673" t="n">
-        <v>86.59</v>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" s="2" t="n">
-        <v>45937.08333333334</v>
-      </c>
-      <c r="B1674" s="2" t="n">
-        <v>45937.16666666666</v>
-      </c>
-      <c r="C1674" t="n">
-        <v>84.01000000000001</v>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" s="2" t="n">
-        <v>45937.09375</v>
-      </c>
-      <c r="B1675" s="2" t="n">
-        <v>45937.17708333334</v>
-      </c>
-      <c r="C1675" t="n">
-        <v>85.20999999999999</v>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" s="2" t="n">
-        <v>45937.10416666666</v>
-      </c>
-      <c r="B1676" s="2" t="n">
-        <v>45937.1875</v>
-      </c>
-      <c r="C1676" t="n">
-        <v>91.61</v>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" s="2" t="n">
-        <v>45937.11458333334</v>
-      </c>
-      <c r="B1677" s="2" t="n">
-        <v>45937.19791666666</v>
-      </c>
-      <c r="C1677" t="n">
-        <v>95.45999999999999</v>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" s="2" t="n">
-        <v>45937.125</v>
-      </c>
-      <c r="B1678" s="2" t="n">
-        <v>45937.20833333334</v>
-      </c>
-      <c r="C1678" t="n">
-        <v>84.54000000000001</v>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" s="2" t="n">
-        <v>45937.13541666666</v>
-      </c>
-      <c r="B1679" s="2" t="n">
-        <v>45937.21875</v>
-      </c>
-      <c r="C1679" t="n">
-        <v>90.89</v>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" s="2" t="n">
-        <v>45937.14583333334</v>
-      </c>
-      <c r="B1680" s="2" t="n">
-        <v>45937.22916666666</v>
-      </c>
-      <c r="C1680" t="n">
-        <v>97.13</v>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" s="2" t="n">
-        <v>45937.15625</v>
-      </c>
-      <c r="B1681" s="2" t="n">
-        <v>45937.23958333334</v>
-      </c>
-      <c r="C1681" t="n">
-        <v>106.53</v>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" s="2" t="n">
-        <v>45937.16666666666</v>
-      </c>
-      <c r="B1682" s="2" t="n">
-        <v>45937.25</v>
-      </c>
-      <c r="C1682" t="n">
-        <v>105.89</v>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" s="2" t="n">
-        <v>45937.17708333334</v>
-      </c>
-      <c r="B1683" s="2" t="n">
-        <v>45937.26041666666</v>
-      </c>
-      <c r="C1683" t="n">
-        <v>118.3</v>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" s="2" t="n">
-        <v>45937.1875</v>
-      </c>
-      <c r="B1684" s="2" t="n">
-        <v>45937.27083333334</v>
-      </c>
-      <c r="C1684" t="n">
-        <v>121.91</v>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" s="2" t="n">
-        <v>45937.19791666666</v>
-      </c>
-      <c r="B1685" s="2" t="n">
-        <v>45937.28125</v>
-      </c>
-      <c r="C1685" t="n">
-        <v>139.43</v>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" s="2" t="n">
-        <v>45937.20833333334</v>
-      </c>
-      <c r="B1686" s="2" t="n">
-        <v>45937.29166666666</v>
-      </c>
-      <c r="C1686" t="n">
-        <v>138.6</v>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" s="2" t="n">
-        <v>45937.21875</v>
-      </c>
-      <c r="B1687" s="2" t="n">
-        <v>45937.30208333334</v>
-      </c>
-      <c r="C1687" t="n">
-        <v>190.2</v>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" s="2" t="n">
-        <v>45937.22916666666</v>
-      </c>
-      <c r="B1688" s="2" t="n">
-        <v>45937.3125</v>
-      </c>
-      <c r="C1688" t="n">
-        <v>241.65</v>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" s="2" t="n">
-        <v>45937.23958333334</v>
-      </c>
-      <c r="B1689" s="2" t="n">
-        <v>45937.32291666666</v>
-      </c>
-      <c r="C1689" t="n">
-        <v>248.89</v>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" s="2" t="n">
-        <v>45937.25</v>
-      </c>
-      <c r="B1690" s="2" t="n">
-        <v>45937.33333333334</v>
-      </c>
-      <c r="C1690" t="n">
-        <v>271.11</v>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" s="2" t="n">
-        <v>45937.26041666666</v>
-      </c>
-      <c r="B1691" s="2" t="n">
-        <v>45937.34375</v>
-      </c>
-      <c r="C1691" t="n">
-        <v>257.14</v>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" s="2" t="n">
-        <v>45937.27083333334</v>
-      </c>
-      <c r="B1692" s="2" t="n">
-        <v>45937.35416666666</v>
-      </c>
-      <c r="C1692" t="n">
-        <v>251.51</v>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" s="2" t="n">
-        <v>45937.28125</v>
-      </c>
-      <c r="B1693" s="2" t="n">
-        <v>45937.36458333334</v>
-      </c>
-      <c r="C1693" t="n">
-        <v>251.58</v>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" s="2" t="n">
-        <v>45937.29166666666</v>
-      </c>
-      <c r="B1694" s="2" t="n">
-        <v>45937.375</v>
-      </c>
-      <c r="C1694" t="n">
-        <v>277.01</v>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" s="2" t="n">
-        <v>45937.30208333334</v>
-      </c>
-      <c r="B1695" s="2" t="n">
-        <v>45937.38541666666</v>
-      </c>
-      <c r="C1695" t="n">
-        <v>232.55</v>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" s="2" t="n">
-        <v>45937.3125</v>
-      </c>
-      <c r="B1696" s="2" t="n">
-        <v>45937.39583333334</v>
-      </c>
-      <c r="C1696" t="n">
-        <v>159.97</v>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" s="2" t="n">
-        <v>45937.32291666666</v>
-      </c>
-      <c r="B1697" s="2" t="n">
-        <v>45937.40625</v>
-      </c>
-      <c r="C1697" t="n">
-        <v>130.47</v>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" s="2" t="n">
-        <v>45937.33333333334</v>
-      </c>
-      <c r="B1698" s="2" t="n">
-        <v>45937.41666666666</v>
-      </c>
-      <c r="C1698" t="n">
-        <v>192.36</v>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" s="2" t="n">
-        <v>45937.34375</v>
-      </c>
-      <c r="B1699" s="2" t="n">
-        <v>45937.42708333334</v>
-      </c>
-      <c r="C1699" t="n">
-        <v>157.78</v>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" s="2" t="n">
-        <v>45937.35416666666</v>
-      </c>
-      <c r="B1700" s="2" t="n">
-        <v>45937.4375</v>
-      </c>
-      <c r="C1700" t="n">
-        <v>131.03</v>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" s="2" t="n">
-        <v>45937.36458333334</v>
-      </c>
-      <c r="B1701" s="2" t="n">
-        <v>45937.44791666666</v>
-      </c>
-      <c r="C1701" t="n">
-        <v>113.31</v>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" s="2" t="n">
-        <v>45937.375</v>
-      </c>
-      <c r="B1702" s="2" t="n">
-        <v>45937.45833333334</v>
-      </c>
-      <c r="C1702" t="n">
-        <v>138.91</v>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" s="2" t="n">
-        <v>45937.38541666666</v>
-      </c>
-      <c r="B1703" s="2" t="n">
-        <v>45937.46875</v>
-      </c>
-      <c r="C1703" t="n">
-        <v>123.06</v>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" s="2" t="n">
-        <v>45937.39583333334</v>
-      </c>
-      <c r="B1704" s="2" t="n">
-        <v>45937.47916666666</v>
-      </c>
-      <c r="C1704" t="n">
-        <v>106.84</v>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" s="2" t="n">
-        <v>45937.40625</v>
-      </c>
-      <c r="B1705" s="2" t="n">
-        <v>45937.48958333334</v>
-      </c>
-      <c r="C1705" t="n">
-        <v>99.56</v>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" s="2" t="n">
-        <v>45937.41666666666</v>
-      </c>
-      <c r="B1706" s="2" t="n">
-        <v>45937.5</v>
-      </c>
-      <c r="C1706" t="n">
-        <v>112.45</v>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" s="2" t="n">
-        <v>45937.42708333334</v>
-      </c>
-      <c r="B1707" s="2" t="n">
-        <v>45937.51041666666</v>
-      </c>
-      <c r="C1707" t="n">
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" s="2" t="n">
-        <v>45937.4375</v>
-      </c>
-      <c r="B1708" s="2" t="n">
-        <v>45937.52083333334</v>
-      </c>
-      <c r="C1708" t="n">
-        <v>96.56</v>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" s="2" t="n">
-        <v>45937.44791666666</v>
-      </c>
-      <c r="B1709" s="2" t="n">
-        <v>45937.53125</v>
-      </c>
-      <c r="C1709" t="n">
-        <v>95.52</v>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" s="2" t="n">
-        <v>45937.45833333334</v>
-      </c>
-      <c r="B1710" s="2" t="n">
-        <v>45937.54166666666</v>
-      </c>
-      <c r="C1710" t="n">
-        <v>101.12</v>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" s="2" t="n">
-        <v>45937.46875</v>
-      </c>
-      <c r="B1711" s="2" t="n">
-        <v>45937.55208333334</v>
-      </c>
-      <c r="C1711" t="n">
-        <v>95.43000000000001</v>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" s="2" t="n">
-        <v>45937.47916666666</v>
-      </c>
-      <c r="B1712" s="2" t="n">
-        <v>45937.5625</v>
-      </c>
-      <c r="C1712" t="n">
-        <v>94.06</v>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" s="2" t="n">
-        <v>45937.48958333334</v>
-      </c>
-      <c r="B1713" s="2" t="n">
-        <v>45937.57291666666</v>
-      </c>
-      <c r="C1713" t="n">
-        <v>91.45999999999999</v>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" s="2" t="n">
-        <v>45937.5</v>
-      </c>
-      <c r="B1714" s="2" t="n">
-        <v>45937.58333333334</v>
-      </c>
-      <c r="C1714" t="n">
-        <v>92.22</v>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" s="2" t="n">
-        <v>45937.51041666666</v>
-      </c>
-      <c r="B1715" s="2" t="n">
-        <v>45937.59375</v>
-      </c>
-      <c r="C1715" t="n">
-        <v>93.39</v>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" s="2" t="n">
-        <v>45937.52083333334</v>
-      </c>
-      <c r="B1716" s="2" t="n">
-        <v>45937.60416666666</v>
-      </c>
-      <c r="C1716" t="n">
-        <v>94.53</v>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" s="2" t="n">
-        <v>45937.53125</v>
-      </c>
-      <c r="B1717" s="2" t="n">
-        <v>45937.61458333334</v>
-      </c>
-      <c r="C1717" t="n">
-        <v>96.44</v>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" s="2" t="n">
-        <v>45937.54166666666</v>
-      </c>
-      <c r="B1718" s="2" t="n">
-        <v>45937.625</v>
-      </c>
-      <c r="C1718" t="n">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" s="2" t="n">
-        <v>45937.55208333334</v>
-      </c>
-      <c r="B1719" s="2" t="n">
-        <v>45937.63541666666</v>
-      </c>
-      <c r="C1719" t="n">
-        <v>94.73</v>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" s="2" t="n">
-        <v>45937.5625</v>
-      </c>
-      <c r="B1720" s="2" t="n">
-        <v>45937.64583333334</v>
-      </c>
-      <c r="C1720" t="n">
-        <v>104.28</v>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" s="2" t="n">
-        <v>45937.57291666666</v>
-      </c>
-      <c r="B1721" s="2" t="n">
-        <v>45937.65625</v>
-      </c>
-      <c r="C1721" t="n">
-        <v>116.09</v>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" s="2" t="n">
-        <v>45937.58333333334</v>
-      </c>
-      <c r="B1722" s="2" t="n">
-        <v>45937.66666666666</v>
-      </c>
-      <c r="C1722" t="n">
-        <v>93.53</v>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" s="2" t="n">
-        <v>45937.59375</v>
-      </c>
-      <c r="B1723" s="2" t="n">
-        <v>45937.67708333334</v>
-      </c>
-      <c r="C1723" t="n">
-        <v>99.88</v>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" s="2" t="n">
-        <v>45937.60416666666</v>
-      </c>
-      <c r="B1724" s="2" t="n">
-        <v>45937.6875</v>
-      </c>
-      <c r="C1724" t="n">
-        <v>115.3</v>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" s="2" t="n">
-        <v>45937.61458333334</v>
-      </c>
-      <c r="B1725" s="2" t="n">
-        <v>45937.69791666666</v>
-      </c>
-      <c r="C1725" t="n">
-        <v>132.97</v>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" s="2" t="n">
-        <v>45937.625</v>
-      </c>
-      <c r="B1726" s="2" t="n">
-        <v>45937.70833333334</v>
-      </c>
-      <c r="C1726" t="n">
-        <v>107.81</v>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" s="2" t="n">
-        <v>45937.63541666666</v>
-      </c>
-      <c r="B1727" s="2" t="n">
-        <v>45937.71875</v>
-      </c>
-      <c r="C1727" t="n">
-        <v>120.95</v>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" s="2" t="n">
-        <v>45937.64583333334</v>
-      </c>
-      <c r="B1728" s="2" t="n">
-        <v>45937.72916666666</v>
-      </c>
-      <c r="C1728" t="n">
-        <v>146.01</v>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" s="2" t="n">
-        <v>45937.65625</v>
-      </c>
-      <c r="B1729" s="2" t="n">
-        <v>45937.73958333334</v>
-      </c>
-      <c r="C1729" t="n">
-        <v>193.61</v>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" s="2" t="n">
-        <v>45937.66666666666</v>
-      </c>
-      <c r="B1730" s="2" t="n">
-        <v>45937.75</v>
-      </c>
-      <c r="C1730" t="n">
-        <v>143.57</v>
-      </c>
-    </row>
-    <row r="1731">
-      <c r="A1731" s="2" t="n">
-        <v>45937.67708333334</v>
-      </c>
-      <c r="B1731" s="2" t="n">
-        <v>45937.76041666666</v>
-      </c>
-      <c r="C1731" t="n">
-        <v>150.1</v>
-      </c>
-    </row>
-    <row r="1732">
-      <c r="A1732" s="2" t="n">
-        <v>45937.6875</v>
-      </c>
-      <c r="B1732" s="2" t="n">
-        <v>45937.77083333334</v>
-      </c>
-      <c r="C1732" t="n">
-        <v>211.7</v>
-      </c>
-    </row>
-    <row r="1733">
-      <c r="A1733" s="2" t="n">
-        <v>45937.69791666666</v>
-      </c>
-      <c r="B1733" s="2" t="n">
-        <v>45937.78125</v>
-      </c>
-      <c r="C1733" t="n">
-        <v>272.86</v>
-      </c>
-    </row>
-    <row r="1734">
-      <c r="A1734" s="2" t="n">
-        <v>45937.70833333334</v>
-      </c>
-      <c r="B1734" s="2" t="n">
-        <v>45937.79166666666</v>
-      </c>
-      <c r="C1734" t="n">
-        <v>242.63</v>
-      </c>
-    </row>
-    <row r="1735">
-      <c r="A1735" s="2" t="n">
-        <v>45937.71875</v>
-      </c>
-      <c r="B1735" s="2" t="n">
-        <v>45937.80208333334</v>
-      </c>
-      <c r="C1735" t="n">
-        <v>212.78</v>
-      </c>
-    </row>
-    <row r="1736">
-      <c r="A1736" s="2" t="n">
-        <v>45937.72916666666</v>
-      </c>
-      <c r="B1736" s="2" t="n">
-        <v>45937.8125</v>
-      </c>
-      <c r="C1736" t="n">
-        <v>194.02</v>
-      </c>
-    </row>
-    <row r="1737">
-      <c r="A1737" s="2" t="n">
-        <v>45937.73958333334</v>
-      </c>
-      <c r="B1737" s="2" t="n">
-        <v>45937.82291666666</v>
-      </c>
-      <c r="C1737" t="n">
-        <v>180.81</v>
-      </c>
-    </row>
-    <row r="1738">
-      <c r="A1738" s="2" t="n">
-        <v>45937.75</v>
-      </c>
-      <c r="B1738" s="2" t="n">
-        <v>45937.83333333334</v>
-      </c>
-      <c r="C1738" t="n">
-        <v>178.09</v>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" s="2" t="n">
-        <v>45937.76041666666</v>
-      </c>
-      <c r="B1739" s="2" t="n">
-        <v>45937.84375</v>
-      </c>
-      <c r="C1739" t="n">
-        <v>158.89</v>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" s="2" t="n">
-        <v>45937.77083333334</v>
-      </c>
-      <c r="B1740" s="2" t="n">
-        <v>45937.85416666666</v>
-      </c>
-      <c r="C1740" t="n">
-        <v>131.01</v>
-      </c>
-    </row>
-    <row r="1741">
-      <c r="A1741" s="2" t="n">
-        <v>45937.78125</v>
-      </c>
-      <c r="B1741" s="2" t="n">
-        <v>45937.86458333334</v>
-      </c>
-      <c r="C1741" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" s="2" t="n">
-        <v>45937.79166666666</v>
-      </c>
-      <c r="B1742" s="2" t="n">
-        <v>45937.875</v>
-      </c>
-      <c r="C1742" t="n">
-        <v>147.22</v>
-      </c>
-    </row>
-    <row r="1743">
-      <c r="A1743" s="2" t="n">
-        <v>45937.80208333334</v>
-      </c>
-      <c r="B1743" s="2" t="n">
-        <v>45937.88541666666</v>
-      </c>
-      <c r="C1743" t="n">
-        <v>129.01</v>
-      </c>
-    </row>
-    <row r="1744">
-      <c r="A1744" s="2" t="n">
-        <v>45937.8125</v>
-      </c>
-      <c r="B1744" s="2" t="n">
-        <v>45937.89583333334</v>
-      </c>
-      <c r="C1744" t="n">
-        <v>112.79</v>
-      </c>
-    </row>
-    <row r="1745">
-      <c r="A1745" s="2" t="n">
-        <v>45937.82291666666</v>
-      </c>
-      <c r="B1745" s="2" t="n">
-        <v>45937.90625</v>
-      </c>
-      <c r="C1745" t="n">
-        <v>103.95</v>
-      </c>
-    </row>
-    <row r="1746">
-      <c r="A1746" s="2" t="n">
-        <v>45937.83333333334</v>
-      </c>
-      <c r="B1746" s="2" t="n">
-        <v>45937.91666666666</v>
-      </c>
-      <c r="C1746" t="n">
-        <v>116.35</v>
-      </c>
-    </row>
-    <row r="1747">
-      <c r="A1747" s="2" t="n">
-        <v>45937.84375</v>
-      </c>
-      <c r="B1747" s="2" t="n">
-        <v>45937.92708333334</v>
-      </c>
-      <c r="C1747" t="n">
-        <v>111.87</v>
-      </c>
-    </row>
-    <row r="1748">
-      <c r="A1748" s="2" t="n">
-        <v>45937.85416666666</v>
-      </c>
-      <c r="B1748" s="2" t="n">
-        <v>45937.9375</v>
-      </c>
-      <c r="C1748" t="n">
-        <v>106.1</v>
-      </c>
-    </row>
-    <row r="1749">
-      <c r="A1749" s="2" t="n">
-        <v>45937.86458333334</v>
-      </c>
-      <c r="B1749" s="2" t="n">
-        <v>45937.94791666666</v>
-      </c>
-      <c r="C1749" t="n">
-        <v>95.37</v>
-      </c>
-    </row>
-    <row r="1750">
-      <c r="A1750" s="2" t="n">
-        <v>45937.875</v>
-      </c>
-      <c r="B1750" s="2" t="n">
-        <v>45937.95833333334</v>
-      </c>
-      <c r="C1750" t="n">
-        <v>107.82</v>
-      </c>
-    </row>
-    <row r="1751">
-      <c r="A1751" s="2" t="n">
-        <v>45937.88541666666</v>
-      </c>
-      <c r="B1751" s="2" t="n">
-        <v>45937.96875</v>
-      </c>
-      <c r="C1751" t="n">
-        <v>98.43000000000001</v>
-      </c>
-    </row>
-    <row r="1752">
-      <c r="A1752" s="2" t="n">
-        <v>45937.89583333334</v>
-      </c>
-      <c r="B1752" s="2" t="n">
-        <v>45937.97916666666</v>
-      </c>
-      <c r="C1752" t="n">
-        <v>93.56999999999999</v>
-      </c>
-    </row>
-    <row r="1753">
-      <c r="A1753" s="2" t="n">
-        <v>45937.90625</v>
-      </c>
-      <c r="B1753" s="2" t="n">
-        <v>45937.98958333334</v>
-      </c>
-      <c r="C1753" t="n">
-        <v>90.11</v>
-      </c>
-    </row>
-    <row r="1754">
-      <c r="A1754" s="2" t="n">
-        <v>45937.91666666666</v>
-      </c>
-      <c r="B1754" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C1754" t="n">
-        <v>101.74</v>
-      </c>
-    </row>
-    <row r="1755">
-      <c r="A1755" s="2" t="n">
-        <v>45937.92708333334</v>
-      </c>
-      <c r="B1755" s="2" t="n">
-        <v>45938.01041666666</v>
-      </c>
-      <c r="C1755" t="n">
-        <v>91.40000000000001</v>
-      </c>
-    </row>
-    <row r="1756">
-      <c r="A1756" s="2" t="n">
-        <v>45937.9375</v>
-      </c>
-      <c r="B1756" s="2" t="n">
-        <v>45938.02083333334</v>
-      </c>
-      <c r="C1756" t="n">
-        <v>91.47</v>
-      </c>
-    </row>
-    <row r="1757">
-      <c r="A1757" s="2" t="n">
-        <v>45937.94791666666</v>
-      </c>
-      <c r="B1757" s="2" t="n">
-        <v>45938.03125</v>
-      </c>
-      <c r="C1757" t="n">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="1758">
-      <c r="A1758" s="2" t="n">
-        <v>45937.95833333334</v>
-      </c>
-      <c r="B1758" s="2" t="n">
-        <v>45938.04166666666</v>
-      </c>
-      <c r="C1758" t="n">
-        <v>91.84999999999999</v>
-      </c>
-    </row>
-    <row r="1759">
-      <c r="A1759" s="2" t="n">
-        <v>45937.96875</v>
-      </c>
-      <c r="B1759" s="2" t="n">
-        <v>45938.05208333334</v>
-      </c>
-      <c r="C1759" t="n">
-        <v>89.06999999999999</v>
-      </c>
-    </row>
-    <row r="1760">
-      <c r="A1760" s="2" t="n">
-        <v>45937.97916666666</v>
-      </c>
-      <c r="B1760" s="2" t="n">
-        <v>45938.0625</v>
-      </c>
-      <c r="C1760" t="n">
-        <v>87.33</v>
-      </c>
-    </row>
-    <row r="1761">
-      <c r="A1761" s="2" t="n">
-        <v>45937.98958333334</v>
-      </c>
-      <c r="B1761" s="2" t="n">
-        <v>45938.07291666666</v>
-      </c>
-      <c r="C1761" t="n">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="1762">
-      <c r="A1762" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="B1762" s="2" t="n">
-        <v>45938.08333333334</v>
-      </c>
-      <c r="C1762" t="n">
-        <v>89.20999999999999</v>
-      </c>
-    </row>
-    <row r="1763">
-      <c r="A1763" s="2" t="n">
-        <v>45938.01041666666</v>
-      </c>
-      <c r="B1763" s="2" t="n">
-        <v>45938.09375</v>
-      </c>
-      <c r="C1763" t="n">
-        <v>88.14</v>
-      </c>
-    </row>
-    <row r="1764">
-      <c r="A1764" s="2" t="n">
-        <v>45938.02083333334</v>
-      </c>
-      <c r="B1764" s="2" t="n">
-        <v>45938.10416666666</v>
-      </c>
-      <c r="C1764" t="n">
-        <v>86.98999999999999</v>
-      </c>
-    </row>
-    <row r="1765">
-      <c r="A1765" s="2" t="n">
-        <v>45938.03125</v>
-      </c>
-      <c r="B1765" s="2" t="n">
-        <v>45938.11458333334</v>
-      </c>
-      <c r="C1765" t="n">
-        <v>85.90000000000001</v>
-      </c>
-    </row>
-    <row r="1766">
-      <c r="A1766" s="2" t="n">
-        <v>45938.04166666666</v>
-      </c>
-      <c r="B1766" s="2" t="n">
-        <v>45938.125</v>
-      </c>
-      <c r="C1766" t="n">
-        <v>86.70999999999999</v>
-      </c>
-    </row>
-    <row r="1767">
-      <c r="A1767" s="2" t="n">
-        <v>45938.05208333334</v>
-      </c>
-      <c r="B1767" s="2" t="n">
-        <v>45938.13541666666</v>
-      </c>
-      <c r="C1767" t="n">
-        <v>84.17</v>
-      </c>
-    </row>
-    <row r="1768">
-      <c r="A1768" s="2" t="n">
-        <v>45938.0625</v>
-      </c>
-      <c r="B1768" s="2" t="n">
-        <v>45938.14583333334</v>
-      </c>
-      <c r="C1768" t="n">
-        <v>86.98</v>
-      </c>
-    </row>
-    <row r="1769">
-      <c r="A1769" s="2" t="n">
-        <v>45938.07291666666</v>
-      </c>
-      <c r="B1769" s="2" t="n">
-        <v>45938.15625</v>
-      </c>
-      <c r="C1769" t="n">
-        <v>86.17</v>
-      </c>
-    </row>
-    <row r="1770">
-      <c r="A1770" s="2" t="n">
-        <v>45938.08333333334</v>
-      </c>
-      <c r="B1770" s="2" t="n">
-        <v>45938.16666666666</v>
-      </c>
-      <c r="C1770" t="n">
-        <v>85.66</v>
-      </c>
-    </row>
-    <row r="1771">
-      <c r="A1771" s="2" t="n">
-        <v>45938.09375</v>
-      </c>
-      <c r="B1771" s="2" t="n">
-        <v>45938.17708333334</v>
-      </c>
-      <c r="C1771" t="n">
-        <v>84.48</v>
-      </c>
-    </row>
-    <row r="1772">
-      <c r="A1772" s="2" t="n">
-        <v>45938.10416666666</v>
-      </c>
-      <c r="B1772" s="2" t="n">
-        <v>45938.1875</v>
-      </c>
-      <c r="C1772" t="n">
-        <v>87.11</v>
-      </c>
-    </row>
-    <row r="1773">
-      <c r="A1773" s="2" t="n">
-        <v>45938.11458333334</v>
-      </c>
-      <c r="B1773" s="2" t="n">
-        <v>45938.19791666666</v>
-      </c>
-      <c r="C1773" t="n">
-        <v>91.67</v>
-      </c>
-    </row>
-    <row r="1774">
-      <c r="A1774" s="2" t="n">
-        <v>45938.125</v>
-      </c>
-      <c r="B1774" s="2" t="n">
-        <v>45938.20833333334</v>
-      </c>
-      <c r="C1774" t="n">
-        <v>86.98</v>
-      </c>
-    </row>
-    <row r="1775">
-      <c r="A1775" s="2" t="n">
-        <v>45938.13541666666</v>
-      </c>
-      <c r="B1775" s="2" t="n">
-        <v>45938.21875</v>
-      </c>
-      <c r="C1775" t="n">
-        <v>93.28</v>
-      </c>
-    </row>
-    <row r="1776">
-      <c r="A1776" s="2" t="n">
-        <v>45938.14583333334</v>
-      </c>
-      <c r="B1776" s="2" t="n">
-        <v>45938.22916666666</v>
-      </c>
-      <c r="C1776" t="n">
-        <v>92.51000000000001</v>
-      </c>
-    </row>
-    <row r="1777">
-      <c r="A1777" s="2" t="n">
-        <v>45938.15625</v>
-      </c>
-      <c r="B1777" s="2" t="n">
-        <v>45938.23958333334</v>
-      </c>
-      <c r="C1777" t="n">
-        <v>102.9</v>
-      </c>
-    </row>
-    <row r="1778">
-      <c r="A1778" s="2" t="n">
-        <v>45938.16666666666</v>
-      </c>
-      <c r="B1778" s="2" t="n">
-        <v>45938.25</v>
-      </c>
-      <c r="C1778" t="n">
-        <v>92.98999999999999</v>
-      </c>
-    </row>
-    <row r="1779">
-      <c r="A1779" s="2" t="n">
-        <v>45938.17708333334</v>
-      </c>
-      <c r="B1779" s="2" t="n">
-        <v>45938.26041666666</v>
-      </c>
-      <c r="C1779" t="n">
-        <v>108.63</v>
-      </c>
-    </row>
-    <row r="1780">
-      <c r="A1780" s="2" t="n">
-        <v>45938.1875</v>
-      </c>
-      <c r="B1780" s="2" t="n">
-        <v>45938.27083333334</v>
-      </c>
-      <c r="C1780" t="n">
-        <v>120.42</v>
-      </c>
-    </row>
-    <row r="1781">
-      <c r="A1781" s="2" t="n">
-        <v>45938.19791666666</v>
-      </c>
-      <c r="B1781" s="2" t="n">
-        <v>45938.28125</v>
-      </c>
-      <c r="C1781" t="n">
-        <v>134.53</v>
-      </c>
-    </row>
-    <row r="1782">
-      <c r="A1782" s="2" t="n">
-        <v>45938.20833333334</v>
-      </c>
-      <c r="B1782" s="2" t="n">
-        <v>45938.29166666666</v>
-      </c>
-      <c r="C1782" t="n">
-        <v>127.56</v>
-      </c>
-    </row>
-    <row r="1783">
-      <c r="A1783" s="2" t="n">
-        <v>45938.21875</v>
-      </c>
-      <c r="B1783" s="2" t="n">
-        <v>45938.30208333334</v>
-      </c>
-      <c r="C1783" t="n">
-        <v>148.39</v>
-      </c>
-    </row>
-    <row r="1784">
-      <c r="A1784" s="2" t="n">
-        <v>45938.22916666666</v>
-      </c>
-      <c r="B1784" s="2" t="n">
-        <v>45938.3125</v>
-      </c>
-      <c r="C1784" t="n">
-        <v>165.45</v>
-      </c>
-    </row>
-    <row r="1785">
-      <c r="A1785" s="2" t="n">
-        <v>45938.23958333334</v>
-      </c>
-      <c r="B1785" s="2" t="n">
-        <v>45938.32291666666</v>
-      </c>
-      <c r="C1785" t="n">
-        <v>168.83</v>
-      </c>
-    </row>
-    <row r="1786">
-      <c r="A1786" s="2" t="n">
-        <v>45938.25</v>
-      </c>
-      <c r="B1786" s="2" t="n">
-        <v>45938.33333333334</v>
-      </c>
-      <c r="C1786" t="n">
-        <v>203.62</v>
-      </c>
-    </row>
-    <row r="1787">
-      <c r="A1787" s="2" t="n">
-        <v>45938.26041666666</v>
-      </c>
-      <c r="B1787" s="2" t="n">
-        <v>45938.34375</v>
-      </c>
-      <c r="C1787" t="n">
-        <v>175.34</v>
-      </c>
-    </row>
-    <row r="1788">
-      <c r="A1788" s="2" t="n">
-        <v>45938.27083333334</v>
-      </c>
-      <c r="B1788" s="2" t="n">
-        <v>45938.35416666666</v>
-      </c>
-      <c r="C1788" t="n">
-        <v>151.24</v>
-      </c>
-    </row>
-    <row r="1789">
-      <c r="A1789" s="2" t="n">
-        <v>45938.28125</v>
-      </c>
-      <c r="B1789" s="2" t="n">
-        <v>45938.36458333334</v>
-      </c>
-      <c r="C1789" t="n">
-        <v>135.38</v>
-      </c>
-    </row>
-    <row r="1790">
-      <c r="A1790" s="2" t="n">
-        <v>45938.29166666666</v>
-      </c>
-      <c r="B1790" s="2" t="n">
-        <v>45938.375</v>
-      </c>
-      <c r="C1790" t="n">
-        <v>176.35</v>
-      </c>
-    </row>
-    <row r="1791">
-      <c r="A1791" s="2" t="n">
-        <v>45938.30208333334</v>
-      </c>
-      <c r="B1791" s="2" t="n">
-        <v>45938.38541666666</v>
-      </c>
-      <c r="C1791" t="n">
-        <v>142.45</v>
-      </c>
-    </row>
-    <row r="1792">
-      <c r="A1792" s="2" t="n">
-        <v>45938.3125</v>
-      </c>
-      <c r="B1792" s="2" t="n">
-        <v>45938.39583333334</v>
-      </c>
-      <c r="C1792" t="n">
-        <v>119.67</v>
-      </c>
-    </row>
-    <row r="1793">
-      <c r="A1793" s="2" t="n">
-        <v>45938.32291666666</v>
-      </c>
-      <c r="B1793" s="2" t="n">
-        <v>45938.40625</v>
-      </c>
-      <c r="C1793" t="n">
-        <v>106.06</v>
-      </c>
-    </row>
-    <row r="1794">
-      <c r="A1794" s="2" t="n">
-        <v>45938.33333333334</v>
-      </c>
-      <c r="B1794" s="2" t="n">
-        <v>45938.41666666666</v>
-      </c>
-      <c r="C1794" t="n">
-        <v>139.21</v>
-      </c>
-    </row>
-    <row r="1795">
-      <c r="A1795" s="2" t="n">
-        <v>45938.34375</v>
-      </c>
-      <c r="B1795" s="2" t="n">
-        <v>45938.42708333334</v>
-      </c>
-      <c r="C1795" t="n">
-        <v>119.74</v>
-      </c>
-    </row>
-    <row r="1796">
-      <c r="A1796" s="2" t="n">
-        <v>45938.35416666666</v>
-      </c>
-      <c r="B1796" s="2" t="n">
-        <v>45938.4375</v>
-      </c>
-      <c r="C1796" t="n">
-        <v>106.31</v>
-      </c>
-    </row>
-    <row r="1797">
-      <c r="A1797" s="2" t="n">
-        <v>45938.36458333334</v>
-      </c>
-      <c r="B1797" s="2" t="n">
-        <v>45938.44791666666</v>
-      </c>
-      <c r="C1797" t="n">
-        <v>99.45999999999999</v>
-      </c>
-    </row>
-    <row r="1798">
-      <c r="A1798" s="2" t="n">
-        <v>45938.375</v>
-      </c>
-      <c r="B1798" s="2" t="n">
-        <v>45938.45833333334</v>
-      </c>
-      <c r="C1798" t="n">
-        <v>120.14</v>
-      </c>
-    </row>
-    <row r="1799">
-      <c r="A1799" s="2" t="n">
-        <v>45938.38541666666</v>
-      </c>
-      <c r="B1799" s="2" t="n">
-        <v>45938.46875</v>
-      </c>
-      <c r="C1799" t="n">
-        <v>101.96</v>
-      </c>
-    </row>
-    <row r="1800">
-      <c r="A1800" s="2" t="n">
-        <v>45938.39583333334</v>
-      </c>
-      <c r="B1800" s="2" t="n">
-        <v>45938.47916666666</v>
-      </c>
-      <c r="C1800" t="n">
-        <v>94.05</v>
-      </c>
-    </row>
-    <row r="1801">
-      <c r="A1801" s="2" t="n">
-        <v>45938.40625</v>
-      </c>
-      <c r="B1801" s="2" t="n">
-        <v>45938.48958333334</v>
-      </c>
-      <c r="C1801" t="n">
-        <v>85.06</v>
-      </c>
-    </row>
-    <row r="1802">
-      <c r="A1802" s="2" t="n">
-        <v>45938.41666666666</v>
-      </c>
-      <c r="B1802" s="2" t="n">
-        <v>45938.5</v>
-      </c>
-      <c r="C1802" t="n">
-        <v>92.65000000000001</v>
-      </c>
-    </row>
-    <row r="1803">
-      <c r="A1803" s="2" t="n">
-        <v>45938.42708333334</v>
-      </c>
-      <c r="B1803" s="2" t="n">
-        <v>45938.51041666666</v>
-      </c>
-      <c r="C1803" t="n">
-        <v>88.73</v>
-      </c>
-    </row>
-    <row r="1804">
-      <c r="A1804" s="2" t="n">
-        <v>45938.4375</v>
-      </c>
-      <c r="B1804" s="2" t="n">
-        <v>45938.52083333334</v>
-      </c>
-      <c r="C1804" t="n">
-        <v>86.59999999999999</v>
-      </c>
-    </row>
-    <row r="1805">
-      <c r="A1805" s="2" t="n">
-        <v>45938.44791666666</v>
-      </c>
-      <c r="B1805" s="2" t="n">
-        <v>45938.53125</v>
-      </c>
-      <c r="C1805" t="n">
-        <v>86.05</v>
-      </c>
-    </row>
-    <row r="1806">
-      <c r="A1806" s="2" t="n">
-        <v>45938.45833333334</v>
-      </c>
-      <c r="B1806" s="2" t="n">
-        <v>45938.54166666666</v>
-      </c>
-      <c r="C1806" t="n">
-        <v>88.93000000000001</v>
-      </c>
-    </row>
-    <row r="1807">
-      <c r="A1807" s="2" t="n">
-        <v>45938.46875</v>
-      </c>
-      <c r="B1807" s="2" t="n">
-        <v>45938.55208333334</v>
-      </c>
-      <c r="C1807" t="n">
-        <v>87.73999999999999</v>
-      </c>
-    </row>
-    <row r="1808">
-      <c r="A1808" s="2" t="n">
-        <v>45938.47916666666</v>
-      </c>
-      <c r="B1808" s="2" t="n">
-        <v>45938.5625</v>
-      </c>
-      <c r="C1808" t="n">
-        <v>86.06</v>
-      </c>
-    </row>
-    <row r="1809">
-      <c r="A1809" s="2" t="n">
-        <v>45938.48958333334</v>
-      </c>
-      <c r="B1809" s="2" t="n">
-        <v>45938.57291666666</v>
-      </c>
-      <c r="C1809" t="n">
-        <v>84.38</v>
-      </c>
-    </row>
-    <row r="1810">
-      <c r="A1810" s="2" t="n">
-        <v>45938.5</v>
-      </c>
-      <c r="B1810" s="2" t="n">
-        <v>45938.58333333334</v>
-      </c>
-      <c r="C1810" t="n">
-        <v>82.93000000000001</v>
-      </c>
-    </row>
-    <row r="1811">
-      <c r="A1811" s="2" t="n">
-        <v>45938.51041666666</v>
-      </c>
-      <c r="B1811" s="2" t="n">
-        <v>45938.59375</v>
-      </c>
-      <c r="C1811" t="n">
-        <v>84.88</v>
-      </c>
-    </row>
-    <row r="1812">
-      <c r="A1812" s="2" t="n">
-        <v>45938.52083333334</v>
-      </c>
-      <c r="B1812" s="2" t="n">
-        <v>45938.60416666666</v>
-      </c>
-      <c r="C1812" t="n">
-        <v>86.66</v>
-      </c>
-    </row>
-    <row r="1813">
-      <c r="A1813" s="2" t="n">
-        <v>45938.53125</v>
-      </c>
-      <c r="B1813" s="2" t="n">
-        <v>45938.61458333334</v>
-      </c>
-      <c r="C1813" t="n">
-        <v>94.45999999999999</v>
-      </c>
-    </row>
-    <row r="1814">
-      <c r="A1814" s="2" t="n">
-        <v>45938.54166666666</v>
-      </c>
-      <c r="B1814" s="2" t="n">
-        <v>45938.625</v>
-      </c>
-      <c r="C1814" t="n">
-        <v>84.27</v>
-      </c>
-    </row>
-    <row r="1815">
-      <c r="A1815" s="2" t="n">
-        <v>45938.55208333334</v>
-      </c>
-      <c r="B1815" s="2" t="n">
-        <v>45938.63541666666</v>
-      </c>
-      <c r="C1815" t="n">
-        <v>88.51000000000001</v>
-      </c>
-    </row>
-    <row r="1816">
-      <c r="A1816" s="2" t="n">
-        <v>45938.5625</v>
-      </c>
-      <c r="B1816" s="2" t="n">
-        <v>45938.64583333334</v>
-      </c>
-      <c r="C1816" t="n">
-        <v>95.90000000000001</v>
-      </c>
-    </row>
-    <row r="1817">
-      <c r="A1817" s="2" t="n">
-        <v>45938.57291666666</v>
-      </c>
-      <c r="B1817" s="2" t="n">
-        <v>45938.65625</v>
-      </c>
-      <c r="C1817" t="n">
-        <v>108.61</v>
-      </c>
-    </row>
-    <row r="1818">
-      <c r="A1818" s="2" t="n">
-        <v>45938.58333333334</v>
-      </c>
-      <c r="B1818" s="2" t="n">
-        <v>45938.66666666666</v>
-      </c>
-      <c r="C1818" t="n">
-        <v>86.02</v>
-      </c>
-    </row>
-    <row r="1819">
-      <c r="A1819" s="2" t="n">
-        <v>45938.59375</v>
-      </c>
-      <c r="B1819" s="2" t="n">
-        <v>45938.67708333334</v>
-      </c>
-      <c r="C1819" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="1820">
-      <c r="A1820" s="2" t="n">
-        <v>45938.60416666666</v>
-      </c>
-      <c r="B1820" s="2" t="n">
-        <v>45938.6875</v>
-      </c>
-      <c r="C1820" t="n">
-        <v>118.25</v>
-      </c>
-    </row>
-    <row r="1821">
-      <c r="A1821" s="2" t="n">
-        <v>45938.61458333334</v>
-      </c>
-      <c r="B1821" s="2" t="n">
-        <v>45938.69791666666</v>
-      </c>
-      <c r="C1821" t="n">
-        <v>139.62</v>
-      </c>
-    </row>
-    <row r="1822">
-      <c r="A1822" s="2" t="n">
-        <v>45938.625</v>
-      </c>
-      <c r="B1822" s="2" t="n">
-        <v>45938.70833333334</v>
-      </c>
-      <c r="C1822" t="n">
-        <v>96.65000000000001</v>
-      </c>
-    </row>
-    <row r="1823">
-      <c r="A1823" s="2" t="n">
-        <v>45938.63541666666</v>
-      </c>
-      <c r="B1823" s="2" t="n">
-        <v>45938.71875</v>
-      </c>
-      <c r="C1823" t="n">
-        <v>117.95</v>
-      </c>
-    </row>
-    <row r="1824">
-      <c r="A1824" s="2" t="n">
-        <v>45938.64583333334</v>
-      </c>
-      <c r="B1824" s="2" t="n">
-        <v>45938.72916666666</v>
-      </c>
-      <c r="C1824" t="n">
-        <v>148.81</v>
-      </c>
-    </row>
-    <row r="1825">
-      <c r="A1825" s="2" t="n">
-        <v>45938.65625</v>
-      </c>
-      <c r="B1825" s="2" t="n">
-        <v>45938.73958333334</v>
-      </c>
-      <c r="C1825" t="n">
-        <v>203.12</v>
-      </c>
-    </row>
-    <row r="1826">
-      <c r="A1826" s="2" t="n">
-        <v>45938.66666666666</v>
-      </c>
-      <c r="B1826" s="2" t="n">
-        <v>45938.75</v>
-      </c>
-      <c r="C1826" t="n">
-        <v>129.74</v>
-      </c>
-    </row>
-    <row r="1827">
-      <c r="A1827" s="2" t="n">
-        <v>45938.67708333334</v>
-      </c>
-      <c r="B1827" s="2" t="n">
-        <v>45938.76041666666</v>
-      </c>
-      <c r="C1827" t="n">
-        <v>142.25</v>
-      </c>
-    </row>
-    <row r="1828">
-      <c r="A1828" s="2" t="n">
-        <v>45938.6875</v>
-      </c>
-      <c r="B1828" s="2" t="n">
-        <v>45938.77083333334</v>
-      </c>
-      <c r="C1828" t="n">
-        <v>195.41</v>
-      </c>
-    </row>
-    <row r="1829">
-      <c r="A1829" s="2" t="n">
-        <v>45938.69791666666</v>
-      </c>
-      <c r="B1829" s="2" t="n">
-        <v>45938.78125</v>
-      </c>
-      <c r="C1829" t="n">
-        <v>241.07</v>
-      </c>
-    </row>
-    <row r="1830">
-      <c r="A1830" s="2" t="n">
-        <v>45938.70833333334</v>
-      </c>
-      <c r="B1830" s="2" t="n">
-        <v>45938.79166666666</v>
-      </c>
-      <c r="C1830" t="n">
-        <v>223.55</v>
-      </c>
-    </row>
-    <row r="1831">
-      <c r="A1831" s="2" t="n">
-        <v>45938.71875</v>
-      </c>
-      <c r="B1831" s="2" t="n">
-        <v>45938.80208333334</v>
-      </c>
-      <c r="C1831" t="n">
-        <v>199.54</v>
-      </c>
-    </row>
-    <row r="1832">
-      <c r="A1832" s="2" t="n">
-        <v>45938.72916666666</v>
-      </c>
-      <c r="B1832" s="2" t="n">
-        <v>45938.8125</v>
-      </c>
-      <c r="C1832" t="n">
-        <v>180.46</v>
-      </c>
-    </row>
-    <row r="1833">
-      <c r="A1833" s="2" t="n">
-        <v>45938.73958333334</v>
-      </c>
-      <c r="B1833" s="2" t="n">
-        <v>45938.82291666666</v>
-      </c>
-      <c r="C1833" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="1834">
-      <c r="A1834" s="2" t="n">
-        <v>45938.75</v>
-      </c>
-      <c r="B1834" s="2" t="n">
-        <v>45938.83333333334</v>
-      </c>
-      <c r="C1834" t="n">
-        <v>169.2</v>
-      </c>
-    </row>
-    <row r="1835">
-      <c r="A1835" s="2" t="n">
-        <v>45938.76041666666</v>
-      </c>
-      <c r="B1835" s="2" t="n">
-        <v>45938.84375</v>
-      </c>
-      <c r="C1835" t="n">
-        <v>149.99</v>
-      </c>
-    </row>
-    <row r="1836">
-      <c r="A1836" s="2" t="n">
-        <v>45938.77083333334</v>
-      </c>
-      <c r="B1836" s="2" t="n">
-        <v>45938.85416666666</v>
-      </c>
-      <c r="C1836" t="n">
-        <v>128.21</v>
-      </c>
-    </row>
-    <row r="1837">
-      <c r="A1837" s="2" t="n">
-        <v>45938.78125</v>
-      </c>
-      <c r="B1837" s="2" t="n">
-        <v>45938.86458333334</v>
-      </c>
-      <c r="C1837" t="n">
-        <v>118.39</v>
-      </c>
-    </row>
-    <row r="1838">
-      <c r="A1838" s="2" t="n">
-        <v>45938.79166666666</v>
-      </c>
-      <c r="B1838" s="2" t="n">
-        <v>45938.875</v>
-      </c>
-      <c r="C1838" t="n">
-        <v>128.02</v>
-      </c>
-    </row>
-    <row r="1839">
-      <c r="A1839" s="2" t="n">
-        <v>45938.80208333334</v>
-      </c>
-      <c r="B1839" s="2" t="n">
-        <v>45938.88541666666</v>
-      </c>
-      <c r="C1839" t="n">
-        <v>116.99</v>
-      </c>
-    </row>
-    <row r="1840">
-      <c r="A1840" s="2" t="n">
-        <v>45938.8125</v>
-      </c>
-      <c r="B1840" s="2" t="n">
-        <v>45938.89583333334</v>
-      </c>
-      <c r="C1840" t="n">
-        <v>106.9</v>
-      </c>
-    </row>
-    <row r="1841">
-      <c r="A1841" s="2" t="n">
-        <v>45938.82291666666</v>
-      </c>
-      <c r="B1841" s="2" t="n">
-        <v>45938.90625</v>
-      </c>
-      <c r="C1841" t="n">
-        <v>102.34</v>
-      </c>
-    </row>
-    <row r="1842">
-      <c r="A1842" s="2" t="n">
-        <v>45938.83333333334</v>
-      </c>
-      <c r="B1842" s="2" t="n">
-        <v>45938.91666666666</v>
-      </c>
-      <c r="C1842" t="n">
-        <v>110.69</v>
-      </c>
-    </row>
-    <row r="1843">
-      <c r="A1843" s="2" t="n">
-        <v>45938.84375</v>
-      </c>
-      <c r="B1843" s="2" t="n">
-        <v>45938.92708333334</v>
-      </c>
-      <c r="C1843" t="n">
-        <v>109.91</v>
-      </c>
-    </row>
-    <row r="1844">
-      <c r="A1844" s="2" t="n">
-        <v>45938.85416666666</v>
-      </c>
-      <c r="B1844" s="2" t="n">
-        <v>45938.9375</v>
-      </c>
-      <c r="C1844" t="n">
-        <v>106.28</v>
-      </c>
-    </row>
-    <row r="1845">
-      <c r="A1845" s="2" t="n">
-        <v>45938.86458333334</v>
-      </c>
-      <c r="B1845" s="2" t="n">
-        <v>45938.94791666666</v>
-      </c>
-      <c r="C1845" t="n">
-        <v>97.93000000000001</v>
-      </c>
-    </row>
-    <row r="1846">
-      <c r="A1846" s="2" t="n">
-        <v>45938.875</v>
-      </c>
-      <c r="B1846" s="2" t="n">
-        <v>45938.95833333334</v>
-      </c>
-      <c r="C1846" t="n">
-        <v>101.68</v>
-      </c>
-    </row>
-    <row r="1847">
-      <c r="A1847" s="2" t="n">
-        <v>45938.88541666666</v>
-      </c>
-      <c r="B1847" s="2" t="n">
-        <v>45938.96875</v>
-      </c>
-      <c r="C1847" t="n">
-        <v>99.79000000000001</v>
-      </c>
-    </row>
-    <row r="1848">
-      <c r="A1848" s="2" t="n">
-        <v>45938.89583333334</v>
-      </c>
-      <c r="B1848" s="2" t="n">
-        <v>45938.97916666666</v>
-      </c>
-      <c r="C1848" t="n">
-        <v>95.48</v>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" s="2" t="n">
-        <v>45938.90625</v>
-      </c>
-      <c r="B1849" s="2" t="n">
-        <v>45938.98958333334</v>
-      </c>
-      <c r="C1849" t="n">
         <v>90</v>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" s="2" t="n">
-        <v>45938.91666666666</v>
-      </c>
-      <c r="B1850" s="2" t="n">
-        <v>45939</v>
-      </c>
-      <c r="C1850" t="n">
-        <v>107.75</v>
-      </c>
-    </row>
-    <row r="1851">
-      <c r="A1851" s="2" t="n">
-        <v>45938.92708333334</v>
-      </c>
-      <c r="B1851" s="2" t="n">
-        <v>45939.01041666666</v>
-      </c>
-      <c r="C1851" t="n">
-        <v>100.01</v>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" s="2" t="n">
-        <v>45938.9375</v>
-      </c>
-      <c r="B1852" s="2" t="n">
-        <v>45939.02083333334</v>
-      </c>
-      <c r="C1852" t="n">
-        <v>90.45</v>
-      </c>
-    </row>
-    <row r="1853">
-      <c r="A1853" s="2" t="n">
-        <v>45938.94791666666</v>
-      </c>
-      <c r="B1853" s="2" t="n">
-        <v>45939.03125</v>
-      </c>
-      <c r="C1853" t="n">
-        <v>87.41</v>
-      </c>
-    </row>
-    <row r="1854">
-      <c r="A1854" s="2" t="n">
-        <v>45938.95833333334</v>
-      </c>
-      <c r="B1854" s="2" t="n">
-        <v>45939.04166666666</v>
-      </c>
-      <c r="C1854" t="n">
-        <v>91.03</v>
-      </c>
-    </row>
-    <row r="1855">
-      <c r="A1855" s="2" t="n">
-        <v>45938.96875</v>
-      </c>
-      <c r="B1855" s="2" t="n">
-        <v>45939.05208333334</v>
-      </c>
-      <c r="C1855" t="n">
-        <v>91.01000000000001</v>
-      </c>
-    </row>
-    <row r="1856">
-      <c r="A1856" s="2" t="n">
-        <v>45938.97916666666</v>
-      </c>
-      <c r="B1856" s="2" t="n">
-        <v>45939.0625</v>
-      </c>
-      <c r="C1856" t="n">
-        <v>90.41</v>
-      </c>
-    </row>
-    <row r="1857">
-      <c r="A1857" s="2" t="n">
-        <v>45938.98958333334</v>
-      </c>
-      <c r="B1857" s="2" t="n">
-        <v>45939.07291666666</v>
-      </c>
-      <c r="C1857" t="n">
-        <v>90.11</v>
-      </c>
-    </row>
-    <row r="1858">
-      <c r="A1858" s="2" t="n">
-        <v>45939</v>
-      </c>
-      <c r="B1858" s="2" t="n">
-        <v>45939.08333333334</v>
-      </c>
-      <c r="C1858" t="n">
-        <v>94.03</v>
-      </c>
-    </row>
-    <row r="1859">
-      <c r="A1859" s="2" t="n">
-        <v>45939.01041666666</v>
-      </c>
-      <c r="B1859" s="2" t="n">
-        <v>45939.09375</v>
-      </c>
-      <c r="C1859" t="n">
-        <v>90.42</v>
-      </c>
-    </row>
-    <row r="1860">
-      <c r="A1860" s="2" t="n">
-        <v>45939.02083333334</v>
-      </c>
-      <c r="B1860" s="2" t="n">
-        <v>45939.10416666666</v>
-      </c>
-      <c r="C1860" t="n">
-        <v>90.22</v>
-      </c>
-    </row>
-    <row r="1861">
-      <c r="A1861" s="2" t="n">
-        <v>45939.03125</v>
-      </c>
-      <c r="B1861" s="2" t="n">
-        <v>45939.11458333334</v>
-      </c>
-      <c r="C1861" t="n">
-        <v>89.22</v>
-      </c>
-    </row>
-    <row r="1862">
-      <c r="A1862" s="2" t="n">
-        <v>45939.04166666666</v>
-      </c>
-      <c r="B1862" s="2" t="n">
-        <v>45939.125</v>
-      </c>
-      <c r="C1862" t="n">
-        <v>90.08</v>
-      </c>
-    </row>
-    <row r="1863">
-      <c r="A1863" s="2" t="n">
-        <v>45939.05208333334</v>
-      </c>
-      <c r="B1863" s="2" t="n">
-        <v>45939.13541666666</v>
-      </c>
-      <c r="C1863" t="n">
-        <v>86.31</v>
-      </c>
-    </row>
-    <row r="1864">
-      <c r="A1864" s="2" t="n">
-        <v>45939.0625</v>
-      </c>
-      <c r="B1864" s="2" t="n">
-        <v>45939.14583333334</v>
-      </c>
-      <c r="C1864" t="n">
-        <v>86.22</v>
-      </c>
-    </row>
-    <row r="1865">
-      <c r="A1865" s="2" t="n">
-        <v>45939.07291666666</v>
-      </c>
-      <c r="B1865" s="2" t="n">
-        <v>45939.15625</v>
-      </c>
-      <c r="C1865" t="n">
-        <v>85.52</v>
-      </c>
-    </row>
-    <row r="1866">
-      <c r="A1866" s="2" t="n">
-        <v>45939.08333333334</v>
-      </c>
-      <c r="B1866" s="2" t="n">
-        <v>45939.16666666666</v>
-      </c>
-      <c r="C1866" t="n">
-        <v>82.94</v>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" s="2" t="n">
-        <v>45939.09375</v>
-      </c>
-      <c r="B1867" s="2" t="n">
-        <v>45939.17708333334</v>
-      </c>
-      <c r="C1867" t="n">
-        <v>84.65000000000001</v>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" s="2" t="n">
-        <v>45939.10416666666</v>
-      </c>
-      <c r="B1868" s="2" t="n">
-        <v>45939.1875</v>
-      </c>
-      <c r="C1868" t="n">
-        <v>86.8</v>
-      </c>
-    </row>
-    <row r="1869">
-      <c r="A1869" s="2" t="n">
-        <v>45939.11458333334</v>
-      </c>
-      <c r="B1869" s="2" t="n">
-        <v>45939.19791666666</v>
-      </c>
-      <c r="C1869" t="n">
-        <v>95.06</v>
-      </c>
-    </row>
-    <row r="1870">
-      <c r="A1870" s="2" t="n">
-        <v>45939.125</v>
-      </c>
-      <c r="B1870" s="2" t="n">
-        <v>45939.20833333334</v>
-      </c>
-      <c r="C1870" t="n">
-        <v>83.16</v>
-      </c>
-    </row>
-    <row r="1871">
-      <c r="A1871" s="2" t="n">
-        <v>45939.13541666666</v>
-      </c>
-      <c r="B1871" s="2" t="n">
-        <v>45939.21875</v>
-      </c>
-      <c r="C1871" t="n">
-        <v>87.55</v>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" s="2" t="n">
-        <v>45939.14583333334</v>
-      </c>
-      <c r="B1872" s="2" t="n">
-        <v>45939.22916666666</v>
-      </c>
-      <c r="C1872" t="n">
-        <v>98.88</v>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" s="2" t="n">
-        <v>45939.15625</v>
-      </c>
-      <c r="B1873" s="2" t="n">
-        <v>45939.23958333334</v>
-      </c>
-      <c r="C1873" t="n">
-        <v>114.41</v>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" s="2" t="n">
-        <v>45939.16666666666</v>
-      </c>
-      <c r="B1874" s="2" t="n">
-        <v>45939.25</v>
-      </c>
-      <c r="C1874" t="n">
-        <v>98.39</v>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" s="2" t="n">
-        <v>45939.17708333334</v>
-      </c>
-      <c r="B1875" s="2" t="n">
-        <v>45939.26041666666</v>
-      </c>
-      <c r="C1875" t="n">
-        <v>115.36</v>
-      </c>
-    </row>
-    <row r="1876">
-      <c r="A1876" s="2" t="n">
-        <v>45939.1875</v>
-      </c>
-      <c r="B1876" s="2" t="n">
-        <v>45939.27083333334</v>
-      </c>
-      <c r="C1876" t="n">
-        <v>126.04</v>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" s="2" t="n">
-        <v>45939.19791666666</v>
-      </c>
-      <c r="B1877" s="2" t="n">
-        <v>45939.28125</v>
-      </c>
-      <c r="C1877" t="n">
-        <v>138.91</v>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" s="2" t="n">
-        <v>45939.20833333334</v>
-      </c>
-      <c r="B1878" s="2" t="n">
-        <v>45939.29166666666</v>
-      </c>
-      <c r="C1878" t="n">
-        <v>122.92</v>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" s="2" t="n">
-        <v>45939.21875</v>
-      </c>
-      <c r="B1879" s="2" t="n">
-        <v>45939.30208333334</v>
-      </c>
-      <c r="C1879" t="n">
-        <v>142.54</v>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" s="2" t="n">
-        <v>45939.22916666666</v>
-      </c>
-      <c r="B1880" s="2" t="n">
-        <v>45939.3125</v>
-      </c>
-      <c r="C1880" t="n">
-        <v>151.77</v>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" s="2" t="n">
-        <v>45939.23958333334</v>
-      </c>
-      <c r="B1881" s="2" t="n">
-        <v>45939.32291666666</v>
-      </c>
-      <c r="C1881" t="n">
-        <v>148.47</v>
-      </c>
-    </row>
-    <row r="1882">
-      <c r="A1882" s="2" t="n">
-        <v>45939.25</v>
-      </c>
-      <c r="B1882" s="2" t="n">
-        <v>45939.33333333334</v>
-      </c>
-      <c r="C1882" t="n">
-        <v>168.79</v>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" s="2" t="n">
-        <v>45939.26041666666</v>
-      </c>
-      <c r="B1883" s="2" t="n">
-        <v>45939.34375</v>
-      </c>
-      <c r="C1883" t="n">
-        <v>150.73</v>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" s="2" t="n">
-        <v>45939.27083333334</v>
-      </c>
-      <c r="B1884" s="2" t="n">
-        <v>45939.35416666666</v>
-      </c>
-      <c r="C1884" t="n">
-        <v>141.19</v>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" s="2" t="n">
-        <v>45939.28125</v>
-      </c>
-      <c r="B1885" s="2" t="n">
-        <v>45939.36458333334</v>
-      </c>
-      <c r="C1885" t="n">
-        <v>129.51</v>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" s="2" t="n">
-        <v>45939.29166666666</v>
-      </c>
-      <c r="B1886" s="2" t="n">
-        <v>45939.375</v>
-      </c>
-      <c r="C1886" t="n">
-        <v>166.31</v>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" s="2" t="n">
-        <v>45939.30208333334</v>
-      </c>
-      <c r="B1887" s="2" t="n">
-        <v>45939.38541666666</v>
-      </c>
-      <c r="C1887" t="n">
-        <v>129.77</v>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" s="2" t="n">
-        <v>45939.3125</v>
-      </c>
-      <c r="B1888" s="2" t="n">
-        <v>45939.39583333334</v>
-      </c>
-      <c r="C1888" t="n">
-        <v>119.27</v>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" s="2" t="n">
-        <v>45939.32291666666</v>
-      </c>
-      <c r="B1889" s="2" t="n">
-        <v>45939.40625</v>
-      </c>
-      <c r="C1889" t="n">
-        <v>101.26</v>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" s="2" t="n">
-        <v>45939.33333333334</v>
-      </c>
-      <c r="B1890" s="2" t="n">
-        <v>45939.41666666666</v>
-      </c>
-      <c r="C1890" t="n">
-        <v>127.63</v>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" s="2" t="n">
-        <v>45939.34375</v>
-      </c>
-      <c r="B1891" s="2" t="n">
-        <v>45939.42708333334</v>
-      </c>
-      <c r="C1891" t="n">
-        <v>108.8</v>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" s="2" t="n">
-        <v>45939.35416666666</v>
-      </c>
-      <c r="B1892" s="2" t="n">
-        <v>45939.4375</v>
-      </c>
-      <c r="C1892" t="n">
-        <v>99.84999999999999</v>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" s="2" t="n">
-        <v>45939.36458333334</v>
-      </c>
-      <c r="B1893" s="2" t="n">
-        <v>45939.44791666666</v>
-      </c>
-      <c r="C1893" t="n">
-        <v>88.39</v>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" s="2" t="n">
-        <v>45939.375</v>
-      </c>
-      <c r="B1894" s="2" t="n">
-        <v>45939.45833333334</v>
-      </c>
-      <c r="C1894" t="n">
-        <v>106.52</v>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" s="2" t="n">
-        <v>45939.38541666666</v>
-      </c>
-      <c r="B1895" s="2" t="n">
-        <v>45939.46875</v>
-      </c>
-      <c r="C1895" t="n">
-        <v>98.84</v>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" s="2" t="n">
-        <v>45939.39583333334</v>
-      </c>
-      <c r="B1896" s="2" t="n">
-        <v>45939.47916666666</v>
-      </c>
-      <c r="C1896" t="n">
-        <v>90.09999999999999</v>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" s="2" t="n">
-        <v>45939.40625</v>
-      </c>
-      <c r="B1897" s="2" t="n">
-        <v>45939.48958333334</v>
-      </c>
-      <c r="C1897" t="n">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" s="2" t="n">
-        <v>45939.41666666666</v>
-      </c>
-      <c r="B1898" s="2" t="n">
-        <v>45939.5</v>
-      </c>
-      <c r="C1898" t="n">
-        <v>100.33</v>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" s="2" t="n">
-        <v>45939.42708333334</v>
-      </c>
-      <c r="B1899" s="2" t="n">
-        <v>45939.51041666666</v>
-      </c>
-      <c r="C1899" t="n">
-        <v>90.95999999999999</v>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" s="2" t="n">
-        <v>45939.4375</v>
-      </c>
-      <c r="B1900" s="2" t="n">
-        <v>45939.52083333334</v>
-      </c>
-      <c r="C1900" t="n">
-        <v>85.06999999999999</v>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" s="2" t="n">
-        <v>45939.44791666666</v>
-      </c>
-      <c r="B1901" s="2" t="n">
-        <v>45939.53125</v>
-      </c>
-      <c r="C1901" t="n">
-        <v>77.42</v>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" s="2" t="n">
-        <v>45939.45833333334</v>
-      </c>
-      <c r="B1902" s="2" t="n">
-        <v>45939.54166666666</v>
-      </c>
-      <c r="C1902" t="n">
-        <v>84.83</v>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" s="2" t="n">
-        <v>45939.46875</v>
-      </c>
-      <c r="B1903" s="2" t="n">
-        <v>45939.55208333334</v>
-      </c>
-      <c r="C1903" t="n">
-        <v>83.08</v>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" s="2" t="n">
-        <v>45939.47916666666</v>
-      </c>
-      <c r="B1904" s="2" t="n">
-        <v>45939.5625</v>
-      </c>
-      <c r="C1904" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" s="2" t="n">
-        <v>45939.48958333334</v>
-      </c>
-      <c r="B1905" s="2" t="n">
-        <v>45939.57291666666</v>
-      </c>
-      <c r="C1905" t="n">
-        <v>65.73999999999999</v>
-      </c>
-    </row>
-    <row r="1906">
-      <c r="A1906" s="2" t="n">
-        <v>45939.5</v>
-      </c>
-      <c r="B1906" s="2" t="n">
-        <v>45939.58333333334</v>
-      </c>
-      <c r="C1906" t="n">
-        <v>77.77</v>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" s="2" t="n">
-        <v>45939.51041666666</v>
-      </c>
-      <c r="B1907" s="2" t="n">
-        <v>45939.59375</v>
-      </c>
-      <c r="C1907" t="n">
-        <v>78.22</v>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" s="2" t="n">
-        <v>45939.52083333334</v>
-      </c>
-      <c r="B1908" s="2" t="n">
-        <v>45939.60416666666</v>
-      </c>
-      <c r="C1908" t="n">
-        <v>75.17</v>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" s="2" t="n">
-        <v>45939.53125</v>
-      </c>
-      <c r="B1909" s="2" t="n">
-        <v>45939.61458333334</v>
-      </c>
-      <c r="C1909" t="n">
-        <v>78.09</v>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" s="2" t="n">
-        <v>45939.54166666666</v>
-      </c>
-      <c r="B1910" s="2" t="n">
-        <v>45939.625</v>
-      </c>
-      <c r="C1910" t="n">
-        <v>75.18000000000001</v>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" s="2" t="n">
-        <v>45939.55208333334</v>
-      </c>
-      <c r="B1911" s="2" t="n">
-        <v>45939.63541666666</v>
-      </c>
-      <c r="C1911" t="n">
-        <v>81.86</v>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" s="2" t="n">
-        <v>45939.5625</v>
-      </c>
-      <c r="B1912" s="2" t="n">
-        <v>45939.64583333334</v>
-      </c>
-      <c r="C1912" t="n">
-        <v>89.22</v>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" s="2" t="n">
-        <v>45939.57291666666</v>
-      </c>
-      <c r="B1913" s="2" t="n">
-        <v>45939.65625</v>
-      </c>
-      <c r="C1913" t="n">
-        <v>102.35</v>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" s="2" t="n">
-        <v>45939.58333333334</v>
-      </c>
-      <c r="B1914" s="2" t="n">
-        <v>45939.66666666666</v>
-      </c>
-      <c r="C1914" t="n">
-        <v>79.69</v>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" s="2" t="n">
-        <v>45939.59375</v>
-      </c>
-      <c r="B1915" s="2" t="n">
-        <v>45939.67708333334</v>
-      </c>
-      <c r="C1915" t="n">
-        <v>79.59999999999999</v>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" s="2" t="n">
-        <v>45939.60416666666</v>
-      </c>
-      <c r="B1916" s="2" t="n">
-        <v>45939.6875</v>
-      </c>
-      <c r="C1916" t="n">
-        <v>92.11</v>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" s="2" t="n">
-        <v>45939.61458333334</v>
-      </c>
-      <c r="B1917" s="2" t="n">
-        <v>45939.69791666666</v>
-      </c>
-      <c r="C1917" t="n">
-        <v>100.31</v>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" s="2" t="n">
-        <v>45939.625</v>
-      </c>
-      <c r="B1918" s="2" t="n">
-        <v>45939.70833333334</v>
-      </c>
-      <c r="C1918" t="n">
-        <v>76.86</v>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" s="2" t="n">
-        <v>45939.63541666666</v>
-      </c>
-      <c r="B1919" s="2" t="n">
-        <v>45939.71875</v>
-      </c>
-      <c r="C1919" t="n">
-        <v>103.67</v>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" s="2" t="n">
-        <v>45939.64583333334</v>
-      </c>
-      <c r="B1920" s="2" t="n">
-        <v>45939.72916666666</v>
-      </c>
-      <c r="C1920" t="n">
-        <v>106.5</v>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" s="2" t="n">
-        <v>45939.65625</v>
-      </c>
-      <c r="B1921" s="2" t="n">
-        <v>45939.73958333334</v>
-      </c>
-      <c r="C1921" t="n">
-        <v>127.43</v>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" s="2" t="n">
-        <v>45939.66666666666</v>
-      </c>
-      <c r="B1922" s="2" t="n">
-        <v>45939.75</v>
-      </c>
-      <c r="C1922" t="n">
-        <v>109.33</v>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" s="2" t="n">
-        <v>45939.67708333334</v>
-      </c>
-      <c r="B1923" s="2" t="n">
-        <v>45939.76041666666</v>
-      </c>
-      <c r="C1923" t="n">
-        <v>117.3</v>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" s="2" t="n">
-        <v>45939.6875</v>
-      </c>
-      <c r="B1924" s="2" t="n">
-        <v>45939.77083333334</v>
-      </c>
-      <c r="C1924" t="n">
-        <v>126.54</v>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" s="2" t="n">
-        <v>45939.69791666666</v>
-      </c>
-      <c r="B1925" s="2" t="n">
-        <v>45939.78125</v>
-      </c>
-      <c r="C1925" t="n">
-        <v>125.26</v>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" s="2" t="n">
-        <v>45939.70833333334</v>
-      </c>
-      <c r="B1926" s="2" t="n">
-        <v>45939.79166666666</v>
-      </c>
-      <c r="C1926" t="n">
-        <v>125.67</v>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" s="2" t="n">
-        <v>45939.71875</v>
-      </c>
-      <c r="B1927" s="2" t="n">
-        <v>45939.80208333334</v>
-      </c>
-      <c r="C1927" t="n">
-        <v>127.03</v>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" s="2" t="n">
-        <v>45939.72916666666</v>
-      </c>
-      <c r="B1928" s="2" t="n">
-        <v>45939.8125</v>
-      </c>
-      <c r="C1928" t="n">
-        <v>123.17</v>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" s="2" t="n">
-        <v>45939.73958333334</v>
-      </c>
-      <c r="B1929" s="2" t="n">
-        <v>45939.82291666666</v>
-      </c>
-      <c r="C1929" t="n">
-        <v>118.29</v>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" s="2" t="n">
-        <v>45939.75</v>
-      </c>
-      <c r="B1930" s="2" t="n">
-        <v>45939.83333333334</v>
-      </c>
-      <c r="C1930" t="n">
-        <v>119.85</v>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" s="2" t="n">
-        <v>45939.76041666666</v>
-      </c>
-      <c r="B1931" s="2" t="n">
-        <v>45939.84375</v>
-      </c>
-      <c r="C1931" t="n">
-        <v>115.01</v>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" s="2" t="n">
-        <v>45939.77083333334</v>
-      </c>
-      <c r="B1932" s="2" t="n">
-        <v>45939.85416666666</v>
-      </c>
-      <c r="C1932" t="n">
-        <v>110.47</v>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" s="2" t="n">
-        <v>45939.78125</v>
-      </c>
-      <c r="B1933" s="2" t="n">
-        <v>45939.86458333334</v>
-      </c>
-      <c r="C1933" t="n">
-        <v>105.17</v>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" s="2" t="n">
-        <v>45939.79166666666</v>
-      </c>
-      <c r="B1934" s="2" t="n">
-        <v>45939.875</v>
-      </c>
-      <c r="C1934" t="n">
-        <v>106.76</v>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" s="2" t="n">
-        <v>45939.80208333334</v>
-      </c>
-      <c r="B1935" s="2" t="n">
-        <v>45939.88541666666</v>
-      </c>
-      <c r="C1935" t="n">
-        <v>101.2</v>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" s="2" t="n">
-        <v>45939.8125</v>
-      </c>
-      <c r="B1936" s="2" t="n">
-        <v>45939.89583333334</v>
-      </c>
-      <c r="C1936" t="n">
-        <v>96.16</v>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" s="2" t="n">
-        <v>45939.82291666666</v>
-      </c>
-      <c r="B1937" s="2" t="n">
-        <v>45939.90625</v>
-      </c>
-      <c r="C1937" t="n">
-        <v>87.84999999999999</v>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" s="2" t="n">
-        <v>45939.83333333334</v>
-      </c>
-      <c r="B1938" s="2" t="n">
-        <v>45939.91666666666</v>
-      </c>
-      <c r="C1938" t="n">
-        <v>111.49</v>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" s="2" t="n">
-        <v>45939.84375</v>
-      </c>
-      <c r="B1939" s="2" t="n">
-        <v>45939.92708333334</v>
-      </c>
-      <c r="C1939" t="n">
-        <v>95.62</v>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" s="2" t="n">
-        <v>45939.85416666666</v>
-      </c>
-      <c r="B1940" s="2" t="n">
-        <v>45939.9375</v>
-      </c>
-      <c r="C1940" t="n">
-        <v>91.56999999999999</v>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" s="2" t="n">
-        <v>45939.86458333334</v>
-      </c>
-      <c r="B1941" s="2" t="n">
-        <v>45939.94791666666</v>
-      </c>
-      <c r="C1941" t="n">
-        <v>88.31</v>
-      </c>
-    </row>
-    <row r="1942">
-      <c r="A1942" s="2" t="n">
-        <v>45939.875</v>
-      </c>
-      <c r="B1942" s="2" t="n">
-        <v>45939.95833333334</v>
-      </c>
-      <c r="C1942" t="n">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="1943">
-      <c r="A1943" s="2" t="n">
-        <v>45939.88541666666</v>
-      </c>
-      <c r="B1943" s="2" t="n">
-        <v>45939.96875</v>
-      </c>
-      <c r="C1943" t="n">
-        <v>103.77</v>
-      </c>
-    </row>
-    <row r="1944">
-      <c r="A1944" s="2" t="n">
-        <v>45939.89583333334</v>
-      </c>
-      <c r="B1944" s="2" t="n">
-        <v>45939.97916666666</v>
-      </c>
-      <c r="C1944" t="n">
-        <v>89.02</v>
-      </c>
-    </row>
-    <row r="1945">
-      <c r="A1945" s="2" t="n">
-        <v>45939.90625</v>
-      </c>
-      <c r="B1945" s="2" t="n">
-        <v>45939.98958333334</v>
-      </c>
-      <c r="C1945" t="n">
-        <v>79.37</v>
       </c>
     </row>
   </sheetData>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3577"/>
+  <dimension ref="A1:C3673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39746,6 +39746,1062 @@
         <v>91.98</v>
       </c>
     </row>
+    <row r="3578">
+      <c r="A3578" s="2" t="n">
+        <v>46043.95833333334</v>
+      </c>
+      <c r="B3578" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="C3578" t="n">
+        <v>88.03</v>
+      </c>
+    </row>
+    <row r="3579">
+      <c r="A3579" s="2" t="n">
+        <v>46043.96875</v>
+      </c>
+      <c r="B3579" s="2" t="n">
+        <v>46044.01041666666</v>
+      </c>
+      <c r="C3579" t="n">
+        <v>88.42</v>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" s="2" t="n">
+        <v>46043.97916666666</v>
+      </c>
+      <c r="B3580" s="2" t="n">
+        <v>46044.02083333334</v>
+      </c>
+      <c r="C3580" t="n">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="3581">
+      <c r="A3581" s="2" t="n">
+        <v>46043.98958333334</v>
+      </c>
+      <c r="B3581" s="2" t="n">
+        <v>46044.03125</v>
+      </c>
+      <c r="C3581" t="n">
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="3582">
+      <c r="A3582" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B3582" s="2" t="n">
+        <v>46044.04166666666</v>
+      </c>
+      <c r="C3582" t="n">
+        <v>89.89</v>
+      </c>
+    </row>
+    <row r="3583">
+      <c r="A3583" s="2" t="n">
+        <v>46044.01041666666</v>
+      </c>
+      <c r="B3583" s="2" t="n">
+        <v>46044.05208333334</v>
+      </c>
+      <c r="C3583" t="n">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="3584">
+      <c r="A3584" s="2" t="n">
+        <v>46044.02083333334</v>
+      </c>
+      <c r="B3584" s="2" t="n">
+        <v>46044.0625</v>
+      </c>
+      <c r="C3584" t="n">
+        <v>87.72</v>
+      </c>
+    </row>
+    <row r="3585">
+      <c r="A3585" s="2" t="n">
+        <v>46044.03125</v>
+      </c>
+      <c r="B3585" s="2" t="n">
+        <v>46044.07291666666</v>
+      </c>
+      <c r="C3585" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3586">
+      <c r="A3586" s="2" t="n">
+        <v>46044.04166666666</v>
+      </c>
+      <c r="B3586" s="2" t="n">
+        <v>46044.08333333334</v>
+      </c>
+      <c r="C3586" t="n">
+        <v>90.18000000000001</v>
+      </c>
+    </row>
+    <row r="3587">
+      <c r="A3587" s="2" t="n">
+        <v>46044.05208333334</v>
+      </c>
+      <c r="B3587" s="2" t="n">
+        <v>46044.09375</v>
+      </c>
+      <c r="C3587" t="n">
+        <v>90.09</v>
+      </c>
+    </row>
+    <row r="3588">
+      <c r="A3588" s="2" t="n">
+        <v>46044.0625</v>
+      </c>
+      <c r="B3588" s="2" t="n">
+        <v>46044.10416666666</v>
+      </c>
+      <c r="C3588" t="n">
+        <v>89.98</v>
+      </c>
+    </row>
+    <row r="3589">
+      <c r="A3589" s="2" t="n">
+        <v>46044.07291666666</v>
+      </c>
+      <c r="B3589" s="2" t="n">
+        <v>46044.11458333334</v>
+      </c>
+      <c r="C3589" t="n">
+        <v>84.56999999999999</v>
+      </c>
+    </row>
+    <row r="3590">
+      <c r="A3590" s="2" t="n">
+        <v>46044.08333333334</v>
+      </c>
+      <c r="B3590" s="2" t="n">
+        <v>46044.125</v>
+      </c>
+      <c r="C3590" t="n">
+        <v>85.43000000000001</v>
+      </c>
+    </row>
+    <row r="3591">
+      <c r="A3591" s="2" t="n">
+        <v>46044.09375</v>
+      </c>
+      <c r="B3591" s="2" t="n">
+        <v>46044.13541666666</v>
+      </c>
+      <c r="C3591" t="n">
+        <v>83.65000000000001</v>
+      </c>
+    </row>
+    <row r="3592">
+      <c r="A3592" s="2" t="n">
+        <v>46044.10416666666</v>
+      </c>
+      <c r="B3592" s="2" t="n">
+        <v>46044.14583333334</v>
+      </c>
+      <c r="C3592" t="n">
+        <v>83.47</v>
+      </c>
+    </row>
+    <row r="3593">
+      <c r="A3593" s="2" t="n">
+        <v>46044.11458333334</v>
+      </c>
+      <c r="B3593" s="2" t="n">
+        <v>46044.15625</v>
+      </c>
+      <c r="C3593" t="n">
+        <v>83.81999999999999</v>
+      </c>
+    </row>
+    <row r="3594">
+      <c r="A3594" s="2" t="n">
+        <v>46044.125</v>
+      </c>
+      <c r="B3594" s="2" t="n">
+        <v>46044.16666666666</v>
+      </c>
+      <c r="C3594" t="n">
+        <v>83.86</v>
+      </c>
+    </row>
+    <row r="3595">
+      <c r="A3595" s="2" t="n">
+        <v>46044.13541666666</v>
+      </c>
+      <c r="B3595" s="2" t="n">
+        <v>46044.17708333334</v>
+      </c>
+      <c r="C3595" t="n">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="3596">
+      <c r="A3596" s="2" t="n">
+        <v>46044.14583333334</v>
+      </c>
+      <c r="B3596" s="2" t="n">
+        <v>46044.1875</v>
+      </c>
+      <c r="C3596" t="n">
+        <v>85.06</v>
+      </c>
+    </row>
+    <row r="3597">
+      <c r="A3597" s="2" t="n">
+        <v>46044.15625</v>
+      </c>
+      <c r="B3597" s="2" t="n">
+        <v>46044.19791666666</v>
+      </c>
+      <c r="C3597" t="n">
+        <v>85.95999999999999</v>
+      </c>
+    </row>
+    <row r="3598">
+      <c r="A3598" s="2" t="n">
+        <v>46044.16666666666</v>
+      </c>
+      <c r="B3598" s="2" t="n">
+        <v>46044.20833333334</v>
+      </c>
+      <c r="C3598" t="n">
+        <v>84.86</v>
+      </c>
+    </row>
+    <row r="3599">
+      <c r="A3599" s="2" t="n">
+        <v>46044.17708333334</v>
+      </c>
+      <c r="B3599" s="2" t="n">
+        <v>46044.21875</v>
+      </c>
+      <c r="C3599" t="n">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="3600">
+      <c r="A3600" s="2" t="n">
+        <v>46044.1875</v>
+      </c>
+      <c r="B3600" s="2" t="n">
+        <v>46044.22916666666</v>
+      </c>
+      <c r="C3600" t="n">
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="3601">
+      <c r="A3601" s="2" t="n">
+        <v>46044.19791666666</v>
+      </c>
+      <c r="B3601" s="2" t="n">
+        <v>46044.23958333334</v>
+      </c>
+      <c r="C3601" t="n">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" s="2" t="n">
+        <v>46044.20833333334</v>
+      </c>
+      <c r="B3602" s="2" t="n">
+        <v>46044.25</v>
+      </c>
+      <c r="C3602" t="n">
+        <v>85.23</v>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" s="2" t="n">
+        <v>46044.21875</v>
+      </c>
+      <c r="B3603" s="2" t="n">
+        <v>46044.26041666666</v>
+      </c>
+      <c r="C3603" t="n">
+        <v>88.73</v>
+      </c>
+    </row>
+    <row r="3604">
+      <c r="A3604" s="2" t="n">
+        <v>46044.22916666666</v>
+      </c>
+      <c r="B3604" s="2" t="n">
+        <v>46044.27083333334</v>
+      </c>
+      <c r="C3604" t="n">
+        <v>101.37</v>
+      </c>
+    </row>
+    <row r="3605">
+      <c r="A3605" s="2" t="n">
+        <v>46044.23958333334</v>
+      </c>
+      <c r="B3605" s="2" t="n">
+        <v>46044.28125</v>
+      </c>
+      <c r="C3605" t="n">
+        <v>111.26</v>
+      </c>
+    </row>
+    <row r="3606">
+      <c r="A3606" s="2" t="n">
+        <v>46044.25</v>
+      </c>
+      <c r="B3606" s="2" t="n">
+        <v>46044.29166666666</v>
+      </c>
+      <c r="C3606" t="n">
+        <v>97.34999999999999</v>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" s="2" t="n">
+        <v>46044.26041666666</v>
+      </c>
+      <c r="B3607" s="2" t="n">
+        <v>46044.30208333334</v>
+      </c>
+      <c r="C3607" t="n">
+        <v>104.82</v>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" s="2" t="n">
+        <v>46044.27083333334</v>
+      </c>
+      <c r="B3608" s="2" t="n">
+        <v>46044.3125</v>
+      </c>
+      <c r="C3608" t="n">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" s="2" t="n">
+        <v>46044.28125</v>
+      </c>
+      <c r="B3609" s="2" t="n">
+        <v>46044.32291666666</v>
+      </c>
+      <c r="C3609" t="n">
+        <v>119.13</v>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" s="2" t="n">
+        <v>46044.29166666666</v>
+      </c>
+      <c r="B3610" s="2" t="n">
+        <v>46044.33333333334</v>
+      </c>
+      <c r="C3610" t="n">
+        <v>135.01</v>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" s="2" t="n">
+        <v>46044.30208333334</v>
+      </c>
+      <c r="B3611" s="2" t="n">
+        <v>46044.34375</v>
+      </c>
+      <c r="C3611" t="n">
+        <v>143.18</v>
+      </c>
+    </row>
+    <row r="3612">
+      <c r="A3612" s="2" t="n">
+        <v>46044.3125</v>
+      </c>
+      <c r="B3612" s="2" t="n">
+        <v>46044.35416666666</v>
+      </c>
+      <c r="C3612" t="n">
+        <v>128.97</v>
+      </c>
+    </row>
+    <row r="3613">
+      <c r="A3613" s="2" t="n">
+        <v>46044.32291666666</v>
+      </c>
+      <c r="B3613" s="2" t="n">
+        <v>46044.36458333334</v>
+      </c>
+      <c r="C3613" t="n">
+        <v>122.18</v>
+      </c>
+    </row>
+    <row r="3614">
+      <c r="A3614" s="2" t="n">
+        <v>46044.33333333334</v>
+      </c>
+      <c r="B3614" s="2" t="n">
+        <v>46044.375</v>
+      </c>
+      <c r="C3614" t="n">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="3615">
+      <c r="A3615" s="2" t="n">
+        <v>46044.34375</v>
+      </c>
+      <c r="B3615" s="2" t="n">
+        <v>46044.38541666666</v>
+      </c>
+      <c r="C3615" t="n">
+        <v>115.67</v>
+      </c>
+    </row>
+    <row r="3616">
+      <c r="A3616" s="2" t="n">
+        <v>46044.35416666666</v>
+      </c>
+      <c r="B3616" s="2" t="n">
+        <v>46044.39583333334</v>
+      </c>
+      <c r="C3616" t="n">
+        <v>112.61</v>
+      </c>
+    </row>
+    <row r="3617">
+      <c r="A3617" s="2" t="n">
+        <v>46044.36458333334</v>
+      </c>
+      <c r="B3617" s="2" t="n">
+        <v>46044.40625</v>
+      </c>
+      <c r="C3617" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3618">
+      <c r="A3618" s="2" t="n">
+        <v>46044.375</v>
+      </c>
+      <c r="B3618" s="2" t="n">
+        <v>46044.41666666666</v>
+      </c>
+      <c r="C3618" t="n">
+        <v>109.02</v>
+      </c>
+    </row>
+    <row r="3619">
+      <c r="A3619" s="2" t="n">
+        <v>46044.38541666666</v>
+      </c>
+      <c r="B3619" s="2" t="n">
+        <v>46044.42708333334</v>
+      </c>
+      <c r="C3619" t="n">
+        <v>98.59</v>
+      </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" s="2" t="n">
+        <v>46044.39583333334</v>
+      </c>
+      <c r="B3620" s="2" t="n">
+        <v>46044.4375</v>
+      </c>
+      <c r="C3620" t="n">
+        <v>98.33</v>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" s="2" t="n">
+        <v>46044.40625</v>
+      </c>
+      <c r="B3621" s="2" t="n">
+        <v>46044.44791666666</v>
+      </c>
+      <c r="C3621" t="n">
+        <v>94.34</v>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" s="2" t="n">
+        <v>46044.41666666666</v>
+      </c>
+      <c r="B3622" s="2" t="n">
+        <v>46044.45833333334</v>
+      </c>
+      <c r="C3622" t="n">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" s="2" t="n">
+        <v>46044.42708333334</v>
+      </c>
+      <c r="B3623" s="2" t="n">
+        <v>46044.46875</v>
+      </c>
+      <c r="C3623" t="n">
+        <v>89.73999999999999</v>
+      </c>
+    </row>
+    <row r="3624">
+      <c r="A3624" s="2" t="n">
+        <v>46044.4375</v>
+      </c>
+      <c r="B3624" s="2" t="n">
+        <v>46044.47916666666</v>
+      </c>
+      <c r="C3624" t="n">
+        <v>89.94</v>
+      </c>
+    </row>
+    <row r="3625">
+      <c r="A3625" s="2" t="n">
+        <v>46044.44791666666</v>
+      </c>
+      <c r="B3625" s="2" t="n">
+        <v>46044.48958333334</v>
+      </c>
+      <c r="C3625" t="n">
+        <v>87.45</v>
+      </c>
+    </row>
+    <row r="3626">
+      <c r="A3626" s="2" t="n">
+        <v>46044.45833333334</v>
+      </c>
+      <c r="B3626" s="2" t="n">
+        <v>46044.5</v>
+      </c>
+      <c r="C3626" t="n">
+        <v>90.73</v>
+      </c>
+    </row>
+    <row r="3627">
+      <c r="A3627" s="2" t="n">
+        <v>46044.46875</v>
+      </c>
+      <c r="B3627" s="2" t="n">
+        <v>46044.51041666666</v>
+      </c>
+      <c r="C3627" t="n">
+        <v>87.01000000000001</v>
+      </c>
+    </row>
+    <row r="3628">
+      <c r="A3628" s="2" t="n">
+        <v>46044.47916666666</v>
+      </c>
+      <c r="B3628" s="2" t="n">
+        <v>46044.52083333334</v>
+      </c>
+      <c r="C3628" t="n">
+        <v>86.53</v>
+      </c>
+    </row>
+    <row r="3629">
+      <c r="A3629" s="2" t="n">
+        <v>46044.48958333334</v>
+      </c>
+      <c r="B3629" s="2" t="n">
+        <v>46044.53125</v>
+      </c>
+      <c r="C3629" t="n">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="3630">
+      <c r="A3630" s="2" t="n">
+        <v>46044.5</v>
+      </c>
+      <c r="B3630" s="2" t="n">
+        <v>46044.54166666666</v>
+      </c>
+      <c r="C3630" t="n">
+        <v>89.94</v>
+      </c>
+    </row>
+    <row r="3631">
+      <c r="A3631" s="2" t="n">
+        <v>46044.51041666666</v>
+      </c>
+      <c r="B3631" s="2" t="n">
+        <v>46044.55208333334</v>
+      </c>
+      <c r="C3631" t="n">
+        <v>90.76000000000001</v>
+      </c>
+    </row>
+    <row r="3632">
+      <c r="A3632" s="2" t="n">
+        <v>46044.52083333334</v>
+      </c>
+      <c r="B3632" s="2" t="n">
+        <v>46044.5625</v>
+      </c>
+      <c r="C3632" t="n">
+        <v>90.06</v>
+      </c>
+    </row>
+    <row r="3633">
+      <c r="A3633" s="2" t="n">
+        <v>46044.53125</v>
+      </c>
+      <c r="B3633" s="2" t="n">
+        <v>46044.57291666666</v>
+      </c>
+      <c r="C3633" t="n">
+        <v>90.17</v>
+      </c>
+    </row>
+    <row r="3634">
+      <c r="A3634" s="2" t="n">
+        <v>46044.54166666666</v>
+      </c>
+      <c r="B3634" s="2" t="n">
+        <v>46044.58333333334</v>
+      </c>
+      <c r="C3634" t="n">
+        <v>90.67</v>
+      </c>
+    </row>
+    <row r="3635">
+      <c r="A3635" s="2" t="n">
+        <v>46044.55208333334</v>
+      </c>
+      <c r="B3635" s="2" t="n">
+        <v>46044.59375</v>
+      </c>
+      <c r="C3635" t="n">
+        <v>97.09</v>
+      </c>
+    </row>
+    <row r="3636">
+      <c r="A3636" s="2" t="n">
+        <v>46044.5625</v>
+      </c>
+      <c r="B3636" s="2" t="n">
+        <v>46044.60416666666</v>
+      </c>
+      <c r="C3636" t="n">
+        <v>96.87</v>
+      </c>
+    </row>
+    <row r="3637">
+      <c r="A3637" s="2" t="n">
+        <v>46044.57291666666</v>
+      </c>
+      <c r="B3637" s="2" t="n">
+        <v>46044.61458333334</v>
+      </c>
+      <c r="C3637" t="n">
+        <v>101.49</v>
+      </c>
+    </row>
+    <row r="3638">
+      <c r="A3638" s="2" t="n">
+        <v>46044.58333333334</v>
+      </c>
+      <c r="B3638" s="2" t="n">
+        <v>46044.625</v>
+      </c>
+      <c r="C3638" t="n">
+        <v>95.83</v>
+      </c>
+    </row>
+    <row r="3639">
+      <c r="A3639" s="2" t="n">
+        <v>46044.59375</v>
+      </c>
+      <c r="B3639" s="2" t="n">
+        <v>46044.63541666666</v>
+      </c>
+      <c r="C3639" t="n">
+        <v>101.88</v>
+      </c>
+    </row>
+    <row r="3640">
+      <c r="A3640" s="2" t="n">
+        <v>46044.60416666666</v>
+      </c>
+      <c r="B3640" s="2" t="n">
+        <v>46044.64583333334</v>
+      </c>
+      <c r="C3640" t="n">
+        <v>108.25</v>
+      </c>
+    </row>
+    <row r="3641">
+      <c r="A3641" s="2" t="n">
+        <v>46044.61458333334</v>
+      </c>
+      <c r="B3641" s="2" t="n">
+        <v>46044.65625</v>
+      </c>
+      <c r="C3641" t="n">
+        <v>113.86</v>
+      </c>
+    </row>
+    <row r="3642">
+      <c r="A3642" s="2" t="n">
+        <v>46044.625</v>
+      </c>
+      <c r="B3642" s="2" t="n">
+        <v>46044.66666666666</v>
+      </c>
+      <c r="C3642" t="n">
+        <v>110.07</v>
+      </c>
+    </row>
+    <row r="3643">
+      <c r="A3643" s="2" t="n">
+        <v>46044.63541666666</v>
+      </c>
+      <c r="B3643" s="2" t="n">
+        <v>46044.67708333334</v>
+      </c>
+      <c r="C3643" t="n">
+        <v>123.16</v>
+      </c>
+    </row>
+    <row r="3644">
+      <c r="A3644" s="2" t="n">
+        <v>46044.64583333334</v>
+      </c>
+      <c r="B3644" s="2" t="n">
+        <v>46044.6875</v>
+      </c>
+      <c r="C3644" t="n">
+        <v>136.94</v>
+      </c>
+    </row>
+    <row r="3645">
+      <c r="A3645" s="2" t="n">
+        <v>46044.65625</v>
+      </c>
+      <c r="B3645" s="2" t="n">
+        <v>46044.69791666666</v>
+      </c>
+      <c r="C3645" t="n">
+        <v>127.61</v>
+      </c>
+    </row>
+    <row r="3646">
+      <c r="A3646" s="2" t="n">
+        <v>46044.66666666666</v>
+      </c>
+      <c r="B3646" s="2" t="n">
+        <v>46044.70833333334</v>
+      </c>
+      <c r="C3646" t="n">
+        <v>123.63</v>
+      </c>
+    </row>
+    <row r="3647">
+      <c r="A3647" s="2" t="n">
+        <v>46044.67708333334</v>
+      </c>
+      <c r="B3647" s="2" t="n">
+        <v>46044.71875</v>
+      </c>
+      <c r="C3647" t="n">
+        <v>131.92</v>
+      </c>
+    </row>
+    <row r="3648">
+      <c r="A3648" s="2" t="n">
+        <v>46044.6875</v>
+      </c>
+      <c r="B3648" s="2" t="n">
+        <v>46044.72916666666</v>
+      </c>
+      <c r="C3648" t="n">
+        <v>136.64</v>
+      </c>
+    </row>
+    <row r="3649">
+      <c r="A3649" s="2" t="n">
+        <v>46044.69791666666</v>
+      </c>
+      <c r="B3649" s="2" t="n">
+        <v>46044.73958333334</v>
+      </c>
+      <c r="C3649" t="n">
+        <v>134.98</v>
+      </c>
+    </row>
+    <row r="3650">
+      <c r="A3650" s="2" t="n">
+        <v>46044.70833333334</v>
+      </c>
+      <c r="B3650" s="2" t="n">
+        <v>46044.75</v>
+      </c>
+      <c r="C3650" t="n">
+        <v>126.39</v>
+      </c>
+    </row>
+    <row r="3651">
+      <c r="A3651" s="2" t="n">
+        <v>46044.71875</v>
+      </c>
+      <c r="B3651" s="2" t="n">
+        <v>46044.76041666666</v>
+      </c>
+      <c r="C3651" t="n">
+        <v>127.39</v>
+      </c>
+    </row>
+    <row r="3652">
+      <c r="A3652" s="2" t="n">
+        <v>46044.72916666666</v>
+      </c>
+      <c r="B3652" s="2" t="n">
+        <v>46044.77083333334</v>
+      </c>
+      <c r="C3652" t="n">
+        <v>127.42</v>
+      </c>
+    </row>
+    <row r="3653">
+      <c r="A3653" s="2" t="n">
+        <v>46044.73958333334</v>
+      </c>
+      <c r="B3653" s="2" t="n">
+        <v>46044.78125</v>
+      </c>
+      <c r="C3653" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3654">
+      <c r="A3654" s="2" t="n">
+        <v>46044.75</v>
+      </c>
+      <c r="B3654" s="2" t="n">
+        <v>46044.79166666666</v>
+      </c>
+      <c r="C3654" t="n">
+        <v>128.65</v>
+      </c>
+    </row>
+    <row r="3655">
+      <c r="A3655" s="2" t="n">
+        <v>46044.76041666666</v>
+      </c>
+      <c r="B3655" s="2" t="n">
+        <v>46044.80208333334</v>
+      </c>
+      <c r="C3655" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3656">
+      <c r="A3656" s="2" t="n">
+        <v>46044.77083333334</v>
+      </c>
+      <c r="B3656" s="2" t="n">
+        <v>46044.8125</v>
+      </c>
+      <c r="C3656" t="n">
+        <v>122.67</v>
+      </c>
+    </row>
+    <row r="3657">
+      <c r="A3657" s="2" t="n">
+        <v>46044.78125</v>
+      </c>
+      <c r="B3657" s="2" t="n">
+        <v>46044.82291666666</v>
+      </c>
+      <c r="C3657" t="n">
+        <v>112.81</v>
+      </c>
+    </row>
+    <row r="3658">
+      <c r="A3658" s="2" t="n">
+        <v>46044.79166666666</v>
+      </c>
+      <c r="B3658" s="2" t="n">
+        <v>46044.83333333334</v>
+      </c>
+      <c r="C3658" t="n">
+        <v>115.91</v>
+      </c>
+    </row>
+    <row r="3659">
+      <c r="A3659" s="2" t="n">
+        <v>46044.80208333334</v>
+      </c>
+      <c r="B3659" s="2" t="n">
+        <v>46044.84375</v>
+      </c>
+      <c r="C3659" t="n">
+        <v>108.31</v>
+      </c>
+    </row>
+    <row r="3660">
+      <c r="A3660" s="2" t="n">
+        <v>46044.8125</v>
+      </c>
+      <c r="B3660" s="2" t="n">
+        <v>46044.85416666666</v>
+      </c>
+      <c r="C3660" t="n">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="3661">
+      <c r="A3661" s="2" t="n">
+        <v>46044.82291666666</v>
+      </c>
+      <c r="B3661" s="2" t="n">
+        <v>46044.86458333334</v>
+      </c>
+      <c r="C3661" t="n">
+        <v>106.14</v>
+      </c>
+    </row>
+    <row r="3662">
+      <c r="A3662" s="2" t="n">
+        <v>46044.83333333334</v>
+      </c>
+      <c r="B3662" s="2" t="n">
+        <v>46044.875</v>
+      </c>
+      <c r="C3662" t="n">
+        <v>120.33</v>
+      </c>
+    </row>
+    <row r="3663">
+      <c r="A3663" s="2" t="n">
+        <v>46044.84375</v>
+      </c>
+      <c r="B3663" s="2" t="n">
+        <v>46044.88541666666</v>
+      </c>
+      <c r="C3663" t="n">
+        <v>108.04</v>
+      </c>
+    </row>
+    <row r="3664">
+      <c r="A3664" s="2" t="n">
+        <v>46044.85416666666</v>
+      </c>
+      <c r="B3664" s="2" t="n">
+        <v>46044.89583333334</v>
+      </c>
+      <c r="C3664" t="n">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="3665">
+      <c r="A3665" s="2" t="n">
+        <v>46044.86458333334</v>
+      </c>
+      <c r="B3665" s="2" t="n">
+        <v>46044.90625</v>
+      </c>
+      <c r="C3665" t="n">
+        <v>97.44</v>
+      </c>
+    </row>
+    <row r="3666">
+      <c r="A3666" s="2" t="n">
+        <v>46044.875</v>
+      </c>
+      <c r="B3666" s="2" t="n">
+        <v>46044.91666666666</v>
+      </c>
+      <c r="C3666" t="n">
+        <v>102.68</v>
+      </c>
+    </row>
+    <row r="3667">
+      <c r="A3667" s="2" t="n">
+        <v>46044.88541666666</v>
+      </c>
+      <c r="B3667" s="2" t="n">
+        <v>46044.92708333334</v>
+      </c>
+      <c r="C3667" t="n">
+        <v>101.91</v>
+      </c>
+    </row>
+    <row r="3668">
+      <c r="A3668" s="2" t="n">
+        <v>46044.89583333334</v>
+      </c>
+      <c r="B3668" s="2" t="n">
+        <v>46044.9375</v>
+      </c>
+      <c r="C3668" t="n">
+        <v>108.95</v>
+      </c>
+    </row>
+    <row r="3669">
+      <c r="A3669" s="2" t="n">
+        <v>46044.90625</v>
+      </c>
+      <c r="B3669" s="2" t="n">
+        <v>46044.94791666666</v>
+      </c>
+      <c r="C3669" t="n">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="3670">
+      <c r="A3670" s="2" t="n">
+        <v>46044.91666666666</v>
+      </c>
+      <c r="B3670" s="2" t="n">
+        <v>46044.95833333334</v>
+      </c>
+      <c r="C3670" t="n">
+        <v>102.67</v>
+      </c>
+    </row>
+    <row r="3671">
+      <c r="A3671" s="2" t="n">
+        <v>46044.92708333334</v>
+      </c>
+      <c r="B3671" s="2" t="n">
+        <v>46044.96875</v>
+      </c>
+      <c r="C3671" t="n">
+        <v>96.56</v>
+      </c>
+    </row>
+    <row r="3672">
+      <c r="A3672" s="2" t="n">
+        <v>46044.9375</v>
+      </c>
+      <c r="B3672" s="2" t="n">
+        <v>46044.97916666666</v>
+      </c>
+      <c r="C3672" t="n">
+        <v>99.45</v>
+      </c>
+    </row>
+    <row r="3673">
+      <c r="A3673" s="2" t="n">
+        <v>46044.94791666666</v>
+      </c>
+      <c r="B3673" s="2" t="n">
+        <v>46044.98958333334</v>
+      </c>
+      <c r="C3673" t="n">
+        <v>90.45999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3840"/>
+  <dimension ref="A1:C3744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41577,1062 +41577,6 @@
         <v>90.45999999999999</v>
       </c>
     </row>
-    <row r="3745">
-      <c r="A3745" s="2" t="n">
-        <v>46060.95833333334</v>
-      </c>
-      <c r="B3745" s="2" t="n">
-        <v>46061</v>
-      </c>
-      <c r="C3745" t="n">
-        <v>108.87</v>
-      </c>
-    </row>
-    <row r="3746">
-      <c r="A3746" s="2" t="n">
-        <v>46060.96875</v>
-      </c>
-      <c r="B3746" s="2" t="n">
-        <v>46061.01041666666</v>
-      </c>
-      <c r="C3746" t="n">
-        <v>101.13</v>
-      </c>
-    </row>
-    <row r="3747">
-      <c r="A3747" s="2" t="n">
-        <v>46060.97916666666</v>
-      </c>
-      <c r="B3747" s="2" t="n">
-        <v>46061.02083333334</v>
-      </c>
-      <c r="C3747" t="n">
-        <v>97.81999999999999</v>
-      </c>
-    </row>
-    <row r="3748">
-      <c r="A3748" s="2" t="n">
-        <v>46060.98958333334</v>
-      </c>
-      <c r="B3748" s="2" t="n">
-        <v>46061.03125</v>
-      </c>
-      <c r="C3748" t="n">
-        <v>93.06999999999999</v>
-      </c>
-    </row>
-    <row r="3749">
-      <c r="A3749" s="2" t="n">
-        <v>46061</v>
-      </c>
-      <c r="B3749" s="2" t="n">
-        <v>46061.04166666666</v>
-      </c>
-      <c r="C3749" t="n">
-        <v>97.79000000000001</v>
-      </c>
-    </row>
-    <row r="3750">
-      <c r="A3750" s="2" t="n">
-        <v>46061.01041666666</v>
-      </c>
-      <c r="B3750" s="2" t="n">
-        <v>46061.05208333334</v>
-      </c>
-      <c r="C3750" t="n">
-        <v>98.66</v>
-      </c>
-    </row>
-    <row r="3751">
-      <c r="A3751" s="2" t="n">
-        <v>46061.02083333334</v>
-      </c>
-      <c r="B3751" s="2" t="n">
-        <v>46061.0625</v>
-      </c>
-      <c r="C3751" t="n">
-        <v>97.09999999999999</v>
-      </c>
-    </row>
-    <row r="3752">
-      <c r="A3752" s="2" t="n">
-        <v>46061.03125</v>
-      </c>
-      <c r="B3752" s="2" t="n">
-        <v>46061.07291666666</v>
-      </c>
-      <c r="C3752" t="n">
-        <v>95.20999999999999</v>
-      </c>
-    </row>
-    <row r="3753">
-      <c r="A3753" s="2" t="n">
-        <v>46061.04166666666</v>
-      </c>
-      <c r="B3753" s="2" t="n">
-        <v>46061.08333333334</v>
-      </c>
-      <c r="C3753" t="n">
-        <v>98.05</v>
-      </c>
-    </row>
-    <row r="3754">
-      <c r="A3754" s="2" t="n">
-        <v>46061.05208333334</v>
-      </c>
-      <c r="B3754" s="2" t="n">
-        <v>46061.09375</v>
-      </c>
-      <c r="C3754" t="n">
-        <v>95.23</v>
-      </c>
-    </row>
-    <row r="3755">
-      <c r="A3755" s="2" t="n">
-        <v>46061.0625</v>
-      </c>
-      <c r="B3755" s="2" t="n">
-        <v>46061.10416666666</v>
-      </c>
-      <c r="C3755" t="n">
-        <v>92.69</v>
-      </c>
-    </row>
-    <row r="3756">
-      <c r="A3756" s="2" t="n">
-        <v>46061.07291666666</v>
-      </c>
-      <c r="B3756" s="2" t="n">
-        <v>46061.11458333334</v>
-      </c>
-      <c r="C3756" t="n">
-        <v>91.63</v>
-      </c>
-    </row>
-    <row r="3757">
-      <c r="A3757" s="2" t="n">
-        <v>46061.08333333334</v>
-      </c>
-      <c r="B3757" s="2" t="n">
-        <v>46061.125</v>
-      </c>
-      <c r="C3757" t="n">
-        <v>93.48999999999999</v>
-      </c>
-    </row>
-    <row r="3758">
-      <c r="A3758" s="2" t="n">
-        <v>46061.09375</v>
-      </c>
-      <c r="B3758" s="2" t="n">
-        <v>46061.13541666666</v>
-      </c>
-      <c r="C3758" t="n">
-        <v>92.25</v>
-      </c>
-    </row>
-    <row r="3759">
-      <c r="A3759" s="2" t="n">
-        <v>46061.10416666666</v>
-      </c>
-      <c r="B3759" s="2" t="n">
-        <v>46061.14583333334</v>
-      </c>
-      <c r="C3759" t="n">
-        <v>91.13</v>
-      </c>
-    </row>
-    <row r="3760">
-      <c r="A3760" s="2" t="n">
-        <v>46061.11458333334</v>
-      </c>
-      <c r="B3760" s="2" t="n">
-        <v>46061.15625</v>
-      </c>
-      <c r="C3760" t="n">
-        <v>91.61</v>
-      </c>
-    </row>
-    <row r="3761">
-      <c r="A3761" s="2" t="n">
-        <v>46061.125</v>
-      </c>
-      <c r="B3761" s="2" t="n">
-        <v>46061.16666666666</v>
-      </c>
-      <c r="C3761" t="n">
-        <v>90.34999999999999</v>
-      </c>
-    </row>
-    <row r="3762">
-      <c r="A3762" s="2" t="n">
-        <v>46061.13541666666</v>
-      </c>
-      <c r="B3762" s="2" t="n">
-        <v>46061.17708333334</v>
-      </c>
-      <c r="C3762" t="n">
-        <v>90.43000000000001</v>
-      </c>
-    </row>
-    <row r="3763">
-      <c r="A3763" s="2" t="n">
-        <v>46061.14583333334</v>
-      </c>
-      <c r="B3763" s="2" t="n">
-        <v>46061.1875</v>
-      </c>
-      <c r="C3763" t="n">
-        <v>90.73</v>
-      </c>
-    </row>
-    <row r="3764">
-      <c r="A3764" s="2" t="n">
-        <v>46061.15625</v>
-      </c>
-      <c r="B3764" s="2" t="n">
-        <v>46061.19791666666</v>
-      </c>
-      <c r="C3764" t="n">
-        <v>90.33</v>
-      </c>
-    </row>
-    <row r="3765">
-      <c r="A3765" s="2" t="n">
-        <v>46061.16666666666</v>
-      </c>
-      <c r="B3765" s="2" t="n">
-        <v>46061.20833333334</v>
-      </c>
-      <c r="C3765" t="n">
-        <v>92.12</v>
-      </c>
-    </row>
-    <row r="3766">
-      <c r="A3766" s="2" t="n">
-        <v>46061.17708333334</v>
-      </c>
-      <c r="B3766" s="2" t="n">
-        <v>46061.21875</v>
-      </c>
-      <c r="C3766" t="n">
-        <v>91.44</v>
-      </c>
-    </row>
-    <row r="3767">
-      <c r="A3767" s="2" t="n">
-        <v>46061.1875</v>
-      </c>
-      <c r="B3767" s="2" t="n">
-        <v>46061.22916666666</v>
-      </c>
-      <c r="C3767" t="n">
-        <v>90.36</v>
-      </c>
-    </row>
-    <row r="3768">
-      <c r="A3768" s="2" t="n">
-        <v>46061.19791666666</v>
-      </c>
-      <c r="B3768" s="2" t="n">
-        <v>46061.23958333334</v>
-      </c>
-      <c r="C3768" t="n">
-        <v>91.61</v>
-      </c>
-    </row>
-    <row r="3769">
-      <c r="A3769" s="2" t="n">
-        <v>46061.20833333334</v>
-      </c>
-      <c r="B3769" s="2" t="n">
-        <v>46061.25</v>
-      </c>
-      <c r="C3769" t="n">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="3770">
-      <c r="A3770" s="2" t="n">
-        <v>46061.21875</v>
-      </c>
-      <c r="B3770" s="2" t="n">
-        <v>46061.26041666666</v>
-      </c>
-      <c r="C3770" t="n">
-        <v>87.67</v>
-      </c>
-    </row>
-    <row r="3771">
-      <c r="A3771" s="2" t="n">
-        <v>46061.22916666666</v>
-      </c>
-      <c r="B3771" s="2" t="n">
-        <v>46061.27083333334</v>
-      </c>
-      <c r="C3771" t="n">
-        <v>90.98</v>
-      </c>
-    </row>
-    <row r="3772">
-      <c r="A3772" s="2" t="n">
-        <v>46061.23958333334</v>
-      </c>
-      <c r="B3772" s="2" t="n">
-        <v>46061.28125</v>
-      </c>
-      <c r="C3772" t="n">
-        <v>95.95999999999999</v>
-      </c>
-    </row>
-    <row r="3773">
-      <c r="A3773" s="2" t="n">
-        <v>46061.25</v>
-      </c>
-      <c r="B3773" s="2" t="n">
-        <v>46061.29166666666</v>
-      </c>
-      <c r="C3773" t="n">
-        <v>88.2</v>
-      </c>
-    </row>
-    <row r="3774">
-      <c r="A3774" s="2" t="n">
-        <v>46061.26041666666</v>
-      </c>
-      <c r="B3774" s="2" t="n">
-        <v>46061.30208333334</v>
-      </c>
-      <c r="C3774" t="n">
-        <v>91.33</v>
-      </c>
-    </row>
-    <row r="3775">
-      <c r="A3775" s="2" t="n">
-        <v>46061.27083333334</v>
-      </c>
-      <c r="B3775" s="2" t="n">
-        <v>46061.3125</v>
-      </c>
-      <c r="C3775" t="n">
-        <v>94.69</v>
-      </c>
-    </row>
-    <row r="3776">
-      <c r="A3776" s="2" t="n">
-        <v>46061.28125</v>
-      </c>
-      <c r="B3776" s="2" t="n">
-        <v>46061.32291666666</v>
-      </c>
-      <c r="C3776" t="n">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3777">
-      <c r="A3777" s="2" t="n">
-        <v>46061.29166666666</v>
-      </c>
-      <c r="B3777" s="2" t="n">
-        <v>46061.33333333334</v>
-      </c>
-      <c r="C3777" t="n">
-        <v>94.41</v>
-      </c>
-    </row>
-    <row r="3778">
-      <c r="A3778" s="2" t="n">
-        <v>46061.30208333334</v>
-      </c>
-      <c r="B3778" s="2" t="n">
-        <v>46061.34375</v>
-      </c>
-      <c r="C3778" t="n">
-        <v>98.72</v>
-      </c>
-    </row>
-    <row r="3779">
-      <c r="A3779" s="2" t="n">
-        <v>46061.3125</v>
-      </c>
-      <c r="B3779" s="2" t="n">
-        <v>46061.35416666666</v>
-      </c>
-      <c r="C3779" t="n">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="3780">
-      <c r="A3780" s="2" t="n">
-        <v>46061.32291666666</v>
-      </c>
-      <c r="B3780" s="2" t="n">
-        <v>46061.36458333334</v>
-      </c>
-      <c r="C3780" t="n">
-        <v>100.04</v>
-      </c>
-    </row>
-    <row r="3781">
-      <c r="A3781" s="2" t="n">
-        <v>46061.33333333334</v>
-      </c>
-      <c r="B3781" s="2" t="n">
-        <v>46061.375</v>
-      </c>
-      <c r="C3781" t="n">
-        <v>100.16</v>
-      </c>
-    </row>
-    <row r="3782">
-      <c r="A3782" s="2" t="n">
-        <v>46061.34375</v>
-      </c>
-      <c r="B3782" s="2" t="n">
-        <v>46061.38541666666</v>
-      </c>
-      <c r="C3782" t="n">
-        <v>99.87</v>
-      </c>
-    </row>
-    <row r="3783">
-      <c r="A3783" s="2" t="n">
-        <v>46061.35416666666</v>
-      </c>
-      <c r="B3783" s="2" t="n">
-        <v>46061.39583333334</v>
-      </c>
-      <c r="C3783" t="n">
-        <v>99.48999999999999</v>
-      </c>
-    </row>
-    <row r="3784">
-      <c r="A3784" s="2" t="n">
-        <v>46061.36458333334</v>
-      </c>
-      <c r="B3784" s="2" t="n">
-        <v>46061.40625</v>
-      </c>
-      <c r="C3784" t="n">
-        <v>93.78</v>
-      </c>
-    </row>
-    <row r="3785">
-      <c r="A3785" s="2" t="n">
-        <v>46061.375</v>
-      </c>
-      <c r="B3785" s="2" t="n">
-        <v>46061.41666666666</v>
-      </c>
-      <c r="C3785" t="n">
-        <v>100.9</v>
-      </c>
-    </row>
-    <row r="3786">
-      <c r="A3786" s="2" t="n">
-        <v>46061.38541666666</v>
-      </c>
-      <c r="B3786" s="2" t="n">
-        <v>46061.42708333334</v>
-      </c>
-      <c r="C3786" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3787">
-      <c r="A3787" s="2" t="n">
-        <v>46061.39583333334</v>
-      </c>
-      <c r="B3787" s="2" t="n">
-        <v>46061.4375</v>
-      </c>
-      <c r="C3787" t="n">
-        <v>94.86</v>
-      </c>
-    </row>
-    <row r="3788">
-      <c r="A3788" s="2" t="n">
-        <v>46061.40625</v>
-      </c>
-      <c r="B3788" s="2" t="n">
-        <v>46061.44791666666</v>
-      </c>
-      <c r="C3788" t="n">
-        <v>93.12</v>
-      </c>
-    </row>
-    <row r="3789">
-      <c r="A3789" s="2" t="n">
-        <v>46061.41666666666</v>
-      </c>
-      <c r="B3789" s="2" t="n">
-        <v>46061.45833333334</v>
-      </c>
-      <c r="C3789" t="n">
-        <v>96.90000000000001</v>
-      </c>
-    </row>
-    <row r="3790">
-      <c r="A3790" s="2" t="n">
-        <v>46061.42708333334</v>
-      </c>
-      <c r="B3790" s="2" t="n">
-        <v>46061.46875</v>
-      </c>
-      <c r="C3790" t="n">
-        <v>93.98</v>
-      </c>
-    </row>
-    <row r="3791">
-      <c r="A3791" s="2" t="n">
-        <v>46061.4375</v>
-      </c>
-      <c r="B3791" s="2" t="n">
-        <v>46061.47916666666</v>
-      </c>
-      <c r="C3791" t="n">
-        <v>92.53</v>
-      </c>
-    </row>
-    <row r="3792">
-      <c r="A3792" s="2" t="n">
-        <v>46061.44791666666</v>
-      </c>
-      <c r="B3792" s="2" t="n">
-        <v>46061.48958333334</v>
-      </c>
-      <c r="C3792" t="n">
-        <v>90.44</v>
-      </c>
-    </row>
-    <row r="3793">
-      <c r="A3793" s="2" t="n">
-        <v>46061.45833333334</v>
-      </c>
-      <c r="B3793" s="2" t="n">
-        <v>46061.5</v>
-      </c>
-      <c r="C3793" t="n">
-        <v>92.03</v>
-      </c>
-    </row>
-    <row r="3794">
-      <c r="A3794" s="2" t="n">
-        <v>46061.46875</v>
-      </c>
-      <c r="B3794" s="2" t="n">
-        <v>46061.51041666666</v>
-      </c>
-      <c r="C3794" t="n">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="3795">
-      <c r="A3795" s="2" t="n">
-        <v>46061.47916666666</v>
-      </c>
-      <c r="B3795" s="2" t="n">
-        <v>46061.52083333334</v>
-      </c>
-      <c r="C3795" t="n">
-        <v>92.56</v>
-      </c>
-    </row>
-    <row r="3796">
-      <c r="A3796" s="2" t="n">
-        <v>46061.48958333334</v>
-      </c>
-      <c r="B3796" s="2" t="n">
-        <v>46061.53125</v>
-      </c>
-      <c r="C3796" t="n">
-        <v>89.59</v>
-      </c>
-    </row>
-    <row r="3797">
-      <c r="A3797" s="2" t="n">
-        <v>46061.5</v>
-      </c>
-      <c r="B3797" s="2" t="n">
-        <v>46061.54166666666</v>
-      </c>
-      <c r="C3797" t="n">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="3798">
-      <c r="A3798" s="2" t="n">
-        <v>46061.51041666666</v>
-      </c>
-      <c r="B3798" s="2" t="n">
-        <v>46061.55208333334</v>
-      </c>
-      <c r="C3798" t="n">
-        <v>88.97</v>
-      </c>
-    </row>
-    <row r="3799">
-      <c r="A3799" s="2" t="n">
-        <v>46061.52083333334</v>
-      </c>
-      <c r="B3799" s="2" t="n">
-        <v>46061.5625</v>
-      </c>
-      <c r="C3799" t="n">
-        <v>90.88</v>
-      </c>
-    </row>
-    <row r="3800">
-      <c r="A3800" s="2" t="n">
-        <v>46061.53125</v>
-      </c>
-      <c r="B3800" s="2" t="n">
-        <v>46061.57291666666</v>
-      </c>
-      <c r="C3800" t="n">
-        <v>89.17</v>
-      </c>
-    </row>
-    <row r="3801">
-      <c r="A3801" s="2" t="n">
-        <v>46061.54166666666</v>
-      </c>
-      <c r="B3801" s="2" t="n">
-        <v>46061.58333333334</v>
-      </c>
-      <c r="C3801" t="n">
-        <v>88.76000000000001</v>
-      </c>
-    </row>
-    <row r="3802">
-      <c r="A3802" s="2" t="n">
-        <v>46061.55208333334</v>
-      </c>
-      <c r="B3802" s="2" t="n">
-        <v>46061.59375</v>
-      </c>
-      <c r="C3802" t="n">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="3803">
-      <c r="A3803" s="2" t="n">
-        <v>46061.5625</v>
-      </c>
-      <c r="B3803" s="2" t="n">
-        <v>46061.60416666666</v>
-      </c>
-      <c r="C3803" t="n">
-        <v>91.29000000000001</v>
-      </c>
-    </row>
-    <row r="3804">
-      <c r="A3804" s="2" t="n">
-        <v>46061.57291666666</v>
-      </c>
-      <c r="B3804" s="2" t="n">
-        <v>46061.61458333334</v>
-      </c>
-      <c r="C3804" t="n">
-        <v>93.73</v>
-      </c>
-    </row>
-    <row r="3805">
-      <c r="A3805" s="2" t="n">
-        <v>46061.58333333334</v>
-      </c>
-      <c r="B3805" s="2" t="n">
-        <v>46061.625</v>
-      </c>
-      <c r="C3805" t="n">
-        <v>92.69</v>
-      </c>
-    </row>
-    <row r="3806">
-      <c r="A3806" s="2" t="n">
-        <v>46061.59375</v>
-      </c>
-      <c r="B3806" s="2" t="n">
-        <v>46061.63541666666</v>
-      </c>
-      <c r="C3806" t="n">
-        <v>96.51000000000001</v>
-      </c>
-    </row>
-    <row r="3807">
-      <c r="A3807" s="2" t="n">
-        <v>46061.60416666666</v>
-      </c>
-      <c r="B3807" s="2" t="n">
-        <v>46061.64583333334</v>
-      </c>
-      <c r="C3807" t="n">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3808">
-      <c r="A3808" s="2" t="n">
-        <v>46061.61458333334</v>
-      </c>
-      <c r="B3808" s="2" t="n">
-        <v>46061.65625</v>
-      </c>
-      <c r="C3808" t="n">
-        <v>105.63</v>
-      </c>
-    </row>
-    <row r="3809">
-      <c r="A3809" s="2" t="n">
-        <v>46061.625</v>
-      </c>
-      <c r="B3809" s="2" t="n">
-        <v>46061.66666666666</v>
-      </c>
-      <c r="C3809" t="n">
-        <v>92.94</v>
-      </c>
-    </row>
-    <row r="3810">
-      <c r="A3810" s="2" t="n">
-        <v>46061.63541666666</v>
-      </c>
-      <c r="B3810" s="2" t="n">
-        <v>46061.67708333334</v>
-      </c>
-      <c r="C3810" t="n">
-        <v>100.57</v>
-      </c>
-    </row>
-    <row r="3811">
-      <c r="A3811" s="2" t="n">
-        <v>46061.64583333334</v>
-      </c>
-      <c r="B3811" s="2" t="n">
-        <v>46061.6875</v>
-      </c>
-      <c r="C3811" t="n">
-        <v>107.46</v>
-      </c>
-    </row>
-    <row r="3812">
-      <c r="A3812" s="2" t="n">
-        <v>46061.65625</v>
-      </c>
-      <c r="B3812" s="2" t="n">
-        <v>46061.69791666666</v>
-      </c>
-      <c r="C3812" t="n">
-        <v>118.19</v>
-      </c>
-    </row>
-    <row r="3813">
-      <c r="A3813" s="2" t="n">
-        <v>46061.66666666666</v>
-      </c>
-      <c r="B3813" s="2" t="n">
-        <v>46061.70833333334</v>
-      </c>
-      <c r="C3813" t="n">
-        <v>111.91</v>
-      </c>
-    </row>
-    <row r="3814">
-      <c r="A3814" s="2" t="n">
-        <v>46061.67708333334</v>
-      </c>
-      <c r="B3814" s="2" t="n">
-        <v>46061.71875</v>
-      </c>
-      <c r="C3814" t="n">
-        <v>120.09</v>
-      </c>
-    </row>
-    <row r="3815">
-      <c r="A3815" s="2" t="n">
-        <v>46061.6875</v>
-      </c>
-      <c r="B3815" s="2" t="n">
-        <v>46061.72916666666</v>
-      </c>
-      <c r="C3815" t="n">
-        <v>125.41</v>
-      </c>
-    </row>
-    <row r="3816">
-      <c r="A3816" s="2" t="n">
-        <v>46061.69791666666</v>
-      </c>
-      <c r="B3816" s="2" t="n">
-        <v>46061.73958333334</v>
-      </c>
-      <c r="C3816" t="n">
-        <v>129.3</v>
-      </c>
-    </row>
-    <row r="3817">
-      <c r="A3817" s="2" t="n">
-        <v>46061.70833333334</v>
-      </c>
-      <c r="B3817" s="2" t="n">
-        <v>46061.75</v>
-      </c>
-      <c r="C3817" t="n">
-        <v>126.95</v>
-      </c>
-    </row>
-    <row r="3818">
-      <c r="A3818" s="2" t="n">
-        <v>46061.71875</v>
-      </c>
-      <c r="B3818" s="2" t="n">
-        <v>46061.76041666666</v>
-      </c>
-      <c r="C3818" t="n">
-        <v>129.89</v>
-      </c>
-    </row>
-    <row r="3819">
-      <c r="A3819" s="2" t="n">
-        <v>46061.72916666666</v>
-      </c>
-      <c r="B3819" s="2" t="n">
-        <v>46061.77083333334</v>
-      </c>
-      <c r="C3819" t="n">
-        <v>132.55</v>
-      </c>
-    </row>
-    <row r="3820">
-      <c r="A3820" s="2" t="n">
-        <v>46061.73958333334</v>
-      </c>
-      <c r="B3820" s="2" t="n">
-        <v>46061.78125</v>
-      </c>
-      <c r="C3820" t="n">
-        <v>129.84</v>
-      </c>
-    </row>
-    <row r="3821">
-      <c r="A3821" s="2" t="n">
-        <v>46061.75</v>
-      </c>
-      <c r="B3821" s="2" t="n">
-        <v>46061.79166666666</v>
-      </c>
-      <c r="C3821" t="n">
-        <v>132.96</v>
-      </c>
-    </row>
-    <row r="3822">
-      <c r="A3822" s="2" t="n">
-        <v>46061.76041666666</v>
-      </c>
-      <c r="B3822" s="2" t="n">
-        <v>46061.80208333334</v>
-      </c>
-      <c r="C3822" t="n">
-        <v>129.55</v>
-      </c>
-    </row>
-    <row r="3823">
-      <c r="A3823" s="2" t="n">
-        <v>46061.77083333334</v>
-      </c>
-      <c r="B3823" s="2" t="n">
-        <v>46061.8125</v>
-      </c>
-      <c r="C3823" t="n">
-        <v>125.09</v>
-      </c>
-    </row>
-    <row r="3824">
-      <c r="A3824" s="2" t="n">
-        <v>46061.78125</v>
-      </c>
-      <c r="B3824" s="2" t="n">
-        <v>46061.82291666666</v>
-      </c>
-      <c r="C3824" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3825">
-      <c r="A3825" s="2" t="n">
-        <v>46061.79166666666</v>
-      </c>
-      <c r="B3825" s="2" t="n">
-        <v>46061.83333333334</v>
-      </c>
-      <c r="C3825" t="n">
-        <v>122.21</v>
-      </c>
-    </row>
-    <row r="3826">
-      <c r="A3826" s="2" t="n">
-        <v>46061.80208333334</v>
-      </c>
-      <c r="B3826" s="2" t="n">
-        <v>46061.84375</v>
-      </c>
-      <c r="C3826" t="n">
-        <v>113.65</v>
-      </c>
-    </row>
-    <row r="3827">
-      <c r="A3827" s="2" t="n">
-        <v>46061.8125</v>
-      </c>
-      <c r="B3827" s="2" t="n">
-        <v>46061.85416666666</v>
-      </c>
-      <c r="C3827" t="n">
-        <v>109.35</v>
-      </c>
-    </row>
-    <row r="3828">
-      <c r="A3828" s="2" t="n">
-        <v>46061.82291666666</v>
-      </c>
-      <c r="B3828" s="2" t="n">
-        <v>46061.86458333334</v>
-      </c>
-      <c r="C3828" t="n">
-        <v>103.88</v>
-      </c>
-    </row>
-    <row r="3829">
-      <c r="A3829" s="2" t="n">
-        <v>46061.83333333334</v>
-      </c>
-      <c r="B3829" s="2" t="n">
-        <v>46061.875</v>
-      </c>
-      <c r="C3829" t="n">
-        <v>109.68</v>
-      </c>
-    </row>
-    <row r="3830">
-      <c r="A3830" s="2" t="n">
-        <v>46061.84375</v>
-      </c>
-      <c r="B3830" s="2" t="n">
-        <v>46061.88541666666</v>
-      </c>
-      <c r="C3830" t="n">
-        <v>107.09</v>
-      </c>
-    </row>
-    <row r="3831">
-      <c r="A3831" s="2" t="n">
-        <v>46061.85416666666</v>
-      </c>
-      <c r="B3831" s="2" t="n">
-        <v>46061.89583333334</v>
-      </c>
-      <c r="C3831" t="n">
-        <v>103.63</v>
-      </c>
-    </row>
-    <row r="3832">
-      <c r="A3832" s="2" t="n">
-        <v>46061.86458333334</v>
-      </c>
-      <c r="B3832" s="2" t="n">
-        <v>46061.90625</v>
-      </c>
-      <c r="C3832" t="n">
-        <v>101.05</v>
-      </c>
-    </row>
-    <row r="3833">
-      <c r="A3833" s="2" t="n">
-        <v>46061.875</v>
-      </c>
-      <c r="B3833" s="2" t="n">
-        <v>46061.91666666666</v>
-      </c>
-      <c r="C3833" t="n">
-        <v>105.51</v>
-      </c>
-    </row>
-    <row r="3834">
-      <c r="A3834" s="2" t="n">
-        <v>46061.88541666666</v>
-      </c>
-      <c r="B3834" s="2" t="n">
-        <v>46061.92708333334</v>
-      </c>
-      <c r="C3834" t="n">
-        <v>104.16</v>
-      </c>
-    </row>
-    <row r="3835">
-      <c r="A3835" s="2" t="n">
-        <v>46061.89583333334</v>
-      </c>
-      <c r="B3835" s="2" t="n">
-        <v>46061.9375</v>
-      </c>
-      <c r="C3835" t="n">
-        <v>104.14</v>
-      </c>
-    </row>
-    <row r="3836">
-      <c r="A3836" s="2" t="n">
-        <v>46061.90625</v>
-      </c>
-      <c r="B3836" s="2" t="n">
-        <v>46061.94791666666</v>
-      </c>
-      <c r="C3836" t="n">
-        <v>101.42</v>
-      </c>
-    </row>
-    <row r="3837">
-      <c r="A3837" s="2" t="n">
-        <v>46061.91666666666</v>
-      </c>
-      <c r="B3837" s="2" t="n">
-        <v>46061.95833333334</v>
-      </c>
-      <c r="C3837" t="n">
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="3838">
-      <c r="A3838" s="2" t="n">
-        <v>46061.92708333334</v>
-      </c>
-      <c r="B3838" s="2" t="n">
-        <v>46061.96875</v>
-      </c>
-      <c r="C3838" t="n">
-        <v>101.71</v>
-      </c>
-    </row>
-    <row r="3839">
-      <c r="A3839" s="2" t="n">
-        <v>46061.9375</v>
-      </c>
-      <c r="B3839" s="2" t="n">
-        <v>46061.97916666666</v>
-      </c>
-      <c r="C3839" t="n">
-        <v>100.28</v>
-      </c>
-    </row>
-    <row r="3840">
-      <c r="A3840" s="2" t="n">
-        <v>46061.94791666666</v>
-      </c>
-      <c r="B3840" s="2" t="n">
-        <v>46061.98958333334</v>
-      </c>
-      <c r="C3840" t="n">
-        <v>93.73999999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3744"/>
+  <dimension ref="A1:C3840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41577,6 +41577,1062 @@
         <v>90.45999999999999</v>
       </c>
     </row>
+    <row r="3745">
+      <c r="A3745" s="2" t="n">
+        <v>46060.95833333334</v>
+      </c>
+      <c r="B3745" s="2" t="n">
+        <v>46061</v>
+      </c>
+      <c r="C3745" t="n">
+        <v>108.87</v>
+      </c>
+    </row>
+    <row r="3746">
+      <c r="A3746" s="2" t="n">
+        <v>46060.96875</v>
+      </c>
+      <c r="B3746" s="2" t="n">
+        <v>46061.01041666666</v>
+      </c>
+      <c r="C3746" t="n">
+        <v>101.13</v>
+      </c>
+    </row>
+    <row r="3747">
+      <c r="A3747" s="2" t="n">
+        <v>46060.97916666666</v>
+      </c>
+      <c r="B3747" s="2" t="n">
+        <v>46061.02083333334</v>
+      </c>
+      <c r="C3747" t="n">
+        <v>97.81999999999999</v>
+      </c>
+    </row>
+    <row r="3748">
+      <c r="A3748" s="2" t="n">
+        <v>46060.98958333334</v>
+      </c>
+      <c r="B3748" s="2" t="n">
+        <v>46061.03125</v>
+      </c>
+      <c r="C3748" t="n">
+        <v>93.06999999999999</v>
+      </c>
+    </row>
+    <row r="3749">
+      <c r="A3749" s="2" t="n">
+        <v>46061</v>
+      </c>
+      <c r="B3749" s="2" t="n">
+        <v>46061.04166666666</v>
+      </c>
+      <c r="C3749" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3750">
+      <c r="A3750" s="2" t="n">
+        <v>46061.01041666666</v>
+      </c>
+      <c r="B3750" s="2" t="n">
+        <v>46061.05208333334</v>
+      </c>
+      <c r="C3750" t="n">
+        <v>98.66</v>
+      </c>
+    </row>
+    <row r="3751">
+      <c r="A3751" s="2" t="n">
+        <v>46061.02083333334</v>
+      </c>
+      <c r="B3751" s="2" t="n">
+        <v>46061.0625</v>
+      </c>
+      <c r="C3751" t="n">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="3752">
+      <c r="A3752" s="2" t="n">
+        <v>46061.03125</v>
+      </c>
+      <c r="B3752" s="2" t="n">
+        <v>46061.07291666666</v>
+      </c>
+      <c r="C3752" t="n">
+        <v>95.20999999999999</v>
+      </c>
+    </row>
+    <row r="3753">
+      <c r="A3753" s="2" t="n">
+        <v>46061.04166666666</v>
+      </c>
+      <c r="B3753" s="2" t="n">
+        <v>46061.08333333334</v>
+      </c>
+      <c r="C3753" t="n">
+        <v>98.05</v>
+      </c>
+    </row>
+    <row r="3754">
+      <c r="A3754" s="2" t="n">
+        <v>46061.05208333334</v>
+      </c>
+      <c r="B3754" s="2" t="n">
+        <v>46061.09375</v>
+      </c>
+      <c r="C3754" t="n">
+        <v>95.23</v>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" s="2" t="n">
+        <v>46061.0625</v>
+      </c>
+      <c r="B3755" s="2" t="n">
+        <v>46061.10416666666</v>
+      </c>
+      <c r="C3755" t="n">
+        <v>92.69</v>
+      </c>
+    </row>
+    <row r="3756">
+      <c r="A3756" s="2" t="n">
+        <v>46061.07291666666</v>
+      </c>
+      <c r="B3756" s="2" t="n">
+        <v>46061.11458333334</v>
+      </c>
+      <c r="C3756" t="n">
+        <v>91.63</v>
+      </c>
+    </row>
+    <row r="3757">
+      <c r="A3757" s="2" t="n">
+        <v>46061.08333333334</v>
+      </c>
+      <c r="B3757" s="2" t="n">
+        <v>46061.125</v>
+      </c>
+      <c r="C3757" t="n">
+        <v>93.48999999999999</v>
+      </c>
+    </row>
+    <row r="3758">
+      <c r="A3758" s="2" t="n">
+        <v>46061.09375</v>
+      </c>
+      <c r="B3758" s="2" t="n">
+        <v>46061.13541666666</v>
+      </c>
+      <c r="C3758" t="n">
+        <v>92.25</v>
+      </c>
+    </row>
+    <row r="3759">
+      <c r="A3759" s="2" t="n">
+        <v>46061.10416666666</v>
+      </c>
+      <c r="B3759" s="2" t="n">
+        <v>46061.14583333334</v>
+      </c>
+      <c r="C3759" t="n">
+        <v>91.13</v>
+      </c>
+    </row>
+    <row r="3760">
+      <c r="A3760" s="2" t="n">
+        <v>46061.11458333334</v>
+      </c>
+      <c r="B3760" s="2" t="n">
+        <v>46061.15625</v>
+      </c>
+      <c r="C3760" t="n">
+        <v>91.61</v>
+      </c>
+    </row>
+    <row r="3761">
+      <c r="A3761" s="2" t="n">
+        <v>46061.125</v>
+      </c>
+      <c r="B3761" s="2" t="n">
+        <v>46061.16666666666</v>
+      </c>
+      <c r="C3761" t="n">
+        <v>90.34999999999999</v>
+      </c>
+    </row>
+    <row r="3762">
+      <c r="A3762" s="2" t="n">
+        <v>46061.13541666666</v>
+      </c>
+      <c r="B3762" s="2" t="n">
+        <v>46061.17708333334</v>
+      </c>
+      <c r="C3762" t="n">
+        <v>90.43000000000001</v>
+      </c>
+    </row>
+    <row r="3763">
+      <c r="A3763" s="2" t="n">
+        <v>46061.14583333334</v>
+      </c>
+      <c r="B3763" s="2" t="n">
+        <v>46061.1875</v>
+      </c>
+      <c r="C3763" t="n">
+        <v>90.73</v>
+      </c>
+    </row>
+    <row r="3764">
+      <c r="A3764" s="2" t="n">
+        <v>46061.15625</v>
+      </c>
+      <c r="B3764" s="2" t="n">
+        <v>46061.19791666666</v>
+      </c>
+      <c r="C3764" t="n">
+        <v>90.33</v>
+      </c>
+    </row>
+    <row r="3765">
+      <c r="A3765" s="2" t="n">
+        <v>46061.16666666666</v>
+      </c>
+      <c r="B3765" s="2" t="n">
+        <v>46061.20833333334</v>
+      </c>
+      <c r="C3765" t="n">
+        <v>92.12</v>
+      </c>
+    </row>
+    <row r="3766">
+      <c r="A3766" s="2" t="n">
+        <v>46061.17708333334</v>
+      </c>
+      <c r="B3766" s="2" t="n">
+        <v>46061.21875</v>
+      </c>
+      <c r="C3766" t="n">
+        <v>91.44</v>
+      </c>
+    </row>
+    <row r="3767">
+      <c r="A3767" s="2" t="n">
+        <v>46061.1875</v>
+      </c>
+      <c r="B3767" s="2" t="n">
+        <v>46061.22916666666</v>
+      </c>
+      <c r="C3767" t="n">
+        <v>90.36</v>
+      </c>
+    </row>
+    <row r="3768">
+      <c r="A3768" s="2" t="n">
+        <v>46061.19791666666</v>
+      </c>
+      <c r="B3768" s="2" t="n">
+        <v>46061.23958333334</v>
+      </c>
+      <c r="C3768" t="n">
+        <v>91.61</v>
+      </c>
+    </row>
+    <row r="3769">
+      <c r="A3769" s="2" t="n">
+        <v>46061.20833333334</v>
+      </c>
+      <c r="B3769" s="2" t="n">
+        <v>46061.25</v>
+      </c>
+      <c r="C3769" t="n">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="3770">
+      <c r="A3770" s="2" t="n">
+        <v>46061.21875</v>
+      </c>
+      <c r="B3770" s="2" t="n">
+        <v>46061.26041666666</v>
+      </c>
+      <c r="C3770" t="n">
+        <v>87.67</v>
+      </c>
+    </row>
+    <row r="3771">
+      <c r="A3771" s="2" t="n">
+        <v>46061.22916666666</v>
+      </c>
+      <c r="B3771" s="2" t="n">
+        <v>46061.27083333334</v>
+      </c>
+      <c r="C3771" t="n">
+        <v>90.98</v>
+      </c>
+    </row>
+    <row r="3772">
+      <c r="A3772" s="2" t="n">
+        <v>46061.23958333334</v>
+      </c>
+      <c r="B3772" s="2" t="n">
+        <v>46061.28125</v>
+      </c>
+      <c r="C3772" t="n">
+        <v>95.95999999999999</v>
+      </c>
+    </row>
+    <row r="3773">
+      <c r="A3773" s="2" t="n">
+        <v>46061.25</v>
+      </c>
+      <c r="B3773" s="2" t="n">
+        <v>46061.29166666666</v>
+      </c>
+      <c r="C3773" t="n">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="3774">
+      <c r="A3774" s="2" t="n">
+        <v>46061.26041666666</v>
+      </c>
+      <c r="B3774" s="2" t="n">
+        <v>46061.30208333334</v>
+      </c>
+      <c r="C3774" t="n">
+        <v>91.33</v>
+      </c>
+    </row>
+    <row r="3775">
+      <c r="A3775" s="2" t="n">
+        <v>46061.27083333334</v>
+      </c>
+      <c r="B3775" s="2" t="n">
+        <v>46061.3125</v>
+      </c>
+      <c r="C3775" t="n">
+        <v>94.69</v>
+      </c>
+    </row>
+    <row r="3776">
+      <c r="A3776" s="2" t="n">
+        <v>46061.28125</v>
+      </c>
+      <c r="B3776" s="2" t="n">
+        <v>46061.32291666666</v>
+      </c>
+      <c r="C3776" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="3777">
+      <c r="A3777" s="2" t="n">
+        <v>46061.29166666666</v>
+      </c>
+      <c r="B3777" s="2" t="n">
+        <v>46061.33333333334</v>
+      </c>
+      <c r="C3777" t="n">
+        <v>94.41</v>
+      </c>
+    </row>
+    <row r="3778">
+      <c r="A3778" s="2" t="n">
+        <v>46061.30208333334</v>
+      </c>
+      <c r="B3778" s="2" t="n">
+        <v>46061.34375</v>
+      </c>
+      <c r="C3778" t="n">
+        <v>98.72</v>
+      </c>
+    </row>
+    <row r="3779">
+      <c r="A3779" s="2" t="n">
+        <v>46061.3125</v>
+      </c>
+      <c r="B3779" s="2" t="n">
+        <v>46061.35416666666</v>
+      </c>
+      <c r="C3779" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="3780">
+      <c r="A3780" s="2" t="n">
+        <v>46061.32291666666</v>
+      </c>
+      <c r="B3780" s="2" t="n">
+        <v>46061.36458333334</v>
+      </c>
+      <c r="C3780" t="n">
+        <v>100.04</v>
+      </c>
+    </row>
+    <row r="3781">
+      <c r="A3781" s="2" t="n">
+        <v>46061.33333333334</v>
+      </c>
+      <c r="B3781" s="2" t="n">
+        <v>46061.375</v>
+      </c>
+      <c r="C3781" t="n">
+        <v>100.16</v>
+      </c>
+    </row>
+    <row r="3782">
+      <c r="A3782" s="2" t="n">
+        <v>46061.34375</v>
+      </c>
+      <c r="B3782" s="2" t="n">
+        <v>46061.38541666666</v>
+      </c>
+      <c r="C3782" t="n">
+        <v>99.87</v>
+      </c>
+    </row>
+    <row r="3783">
+      <c r="A3783" s="2" t="n">
+        <v>46061.35416666666</v>
+      </c>
+      <c r="B3783" s="2" t="n">
+        <v>46061.39583333334</v>
+      </c>
+      <c r="C3783" t="n">
+        <v>99.48999999999999</v>
+      </c>
+    </row>
+    <row r="3784">
+      <c r="A3784" s="2" t="n">
+        <v>46061.36458333334</v>
+      </c>
+      <c r="B3784" s="2" t="n">
+        <v>46061.40625</v>
+      </c>
+      <c r="C3784" t="n">
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="3785">
+      <c r="A3785" s="2" t="n">
+        <v>46061.375</v>
+      </c>
+      <c r="B3785" s="2" t="n">
+        <v>46061.41666666666</v>
+      </c>
+      <c r="C3785" t="n">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="3786">
+      <c r="A3786" s="2" t="n">
+        <v>46061.38541666666</v>
+      </c>
+      <c r="B3786" s="2" t="n">
+        <v>46061.42708333334</v>
+      </c>
+      <c r="C3786" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3787">
+      <c r="A3787" s="2" t="n">
+        <v>46061.39583333334</v>
+      </c>
+      <c r="B3787" s="2" t="n">
+        <v>46061.4375</v>
+      </c>
+      <c r="C3787" t="n">
+        <v>94.86</v>
+      </c>
+    </row>
+    <row r="3788">
+      <c r="A3788" s="2" t="n">
+        <v>46061.40625</v>
+      </c>
+      <c r="B3788" s="2" t="n">
+        <v>46061.44791666666</v>
+      </c>
+      <c r="C3788" t="n">
+        <v>93.12</v>
+      </c>
+    </row>
+    <row r="3789">
+      <c r="A3789" s="2" t="n">
+        <v>46061.41666666666</v>
+      </c>
+      <c r="B3789" s="2" t="n">
+        <v>46061.45833333334</v>
+      </c>
+      <c r="C3789" t="n">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="3790">
+      <c r="A3790" s="2" t="n">
+        <v>46061.42708333334</v>
+      </c>
+      <c r="B3790" s="2" t="n">
+        <v>46061.46875</v>
+      </c>
+      <c r="C3790" t="n">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="3791">
+      <c r="A3791" s="2" t="n">
+        <v>46061.4375</v>
+      </c>
+      <c r="B3791" s="2" t="n">
+        <v>46061.47916666666</v>
+      </c>
+      <c r="C3791" t="n">
+        <v>92.53</v>
+      </c>
+    </row>
+    <row r="3792">
+      <c r="A3792" s="2" t="n">
+        <v>46061.44791666666</v>
+      </c>
+      <c r="B3792" s="2" t="n">
+        <v>46061.48958333334</v>
+      </c>
+      <c r="C3792" t="n">
+        <v>90.44</v>
+      </c>
+    </row>
+    <row r="3793">
+      <c r="A3793" s="2" t="n">
+        <v>46061.45833333334</v>
+      </c>
+      <c r="B3793" s="2" t="n">
+        <v>46061.5</v>
+      </c>
+      <c r="C3793" t="n">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="3794">
+      <c r="A3794" s="2" t="n">
+        <v>46061.46875</v>
+      </c>
+      <c r="B3794" s="2" t="n">
+        <v>46061.51041666666</v>
+      </c>
+      <c r="C3794" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="3795">
+      <c r="A3795" s="2" t="n">
+        <v>46061.47916666666</v>
+      </c>
+      <c r="B3795" s="2" t="n">
+        <v>46061.52083333334</v>
+      </c>
+      <c r="C3795" t="n">
+        <v>92.56</v>
+      </c>
+    </row>
+    <row r="3796">
+      <c r="A3796" s="2" t="n">
+        <v>46061.48958333334</v>
+      </c>
+      <c r="B3796" s="2" t="n">
+        <v>46061.53125</v>
+      </c>
+      <c r="C3796" t="n">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="3797">
+      <c r="A3797" s="2" t="n">
+        <v>46061.5</v>
+      </c>
+      <c r="B3797" s="2" t="n">
+        <v>46061.54166666666</v>
+      </c>
+      <c r="C3797" t="n">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="3798">
+      <c r="A3798" s="2" t="n">
+        <v>46061.51041666666</v>
+      </c>
+      <c r="B3798" s="2" t="n">
+        <v>46061.55208333334</v>
+      </c>
+      <c r="C3798" t="n">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="3799">
+      <c r="A3799" s="2" t="n">
+        <v>46061.52083333334</v>
+      </c>
+      <c r="B3799" s="2" t="n">
+        <v>46061.5625</v>
+      </c>
+      <c r="C3799" t="n">
+        <v>90.88</v>
+      </c>
+    </row>
+    <row r="3800">
+      <c r="A3800" s="2" t="n">
+        <v>46061.53125</v>
+      </c>
+      <c r="B3800" s="2" t="n">
+        <v>46061.57291666666</v>
+      </c>
+      <c r="C3800" t="n">
+        <v>89.17</v>
+      </c>
+    </row>
+    <row r="3801">
+      <c r="A3801" s="2" t="n">
+        <v>46061.54166666666</v>
+      </c>
+      <c r="B3801" s="2" t="n">
+        <v>46061.58333333334</v>
+      </c>
+      <c r="C3801" t="n">
+        <v>88.76000000000001</v>
+      </c>
+    </row>
+    <row r="3802">
+      <c r="A3802" s="2" t="n">
+        <v>46061.55208333334</v>
+      </c>
+      <c r="B3802" s="2" t="n">
+        <v>46061.59375</v>
+      </c>
+      <c r="C3802" t="n">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="3803">
+      <c r="A3803" s="2" t="n">
+        <v>46061.5625</v>
+      </c>
+      <c r="B3803" s="2" t="n">
+        <v>46061.60416666666</v>
+      </c>
+      <c r="C3803" t="n">
+        <v>91.29000000000001</v>
+      </c>
+    </row>
+    <row r="3804">
+      <c r="A3804" s="2" t="n">
+        <v>46061.57291666666</v>
+      </c>
+      <c r="B3804" s="2" t="n">
+        <v>46061.61458333334</v>
+      </c>
+      <c r="C3804" t="n">
+        <v>93.73</v>
+      </c>
+    </row>
+    <row r="3805">
+      <c r="A3805" s="2" t="n">
+        <v>46061.58333333334</v>
+      </c>
+      <c r="B3805" s="2" t="n">
+        <v>46061.625</v>
+      </c>
+      <c r="C3805" t="n">
+        <v>92.69</v>
+      </c>
+    </row>
+    <row r="3806">
+      <c r="A3806" s="2" t="n">
+        <v>46061.59375</v>
+      </c>
+      <c r="B3806" s="2" t="n">
+        <v>46061.63541666666</v>
+      </c>
+      <c r="C3806" t="n">
+        <v>96.51000000000001</v>
+      </c>
+    </row>
+    <row r="3807">
+      <c r="A3807" s="2" t="n">
+        <v>46061.60416666666</v>
+      </c>
+      <c r="B3807" s="2" t="n">
+        <v>46061.64583333334</v>
+      </c>
+      <c r="C3807" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="3808">
+      <c r="A3808" s="2" t="n">
+        <v>46061.61458333334</v>
+      </c>
+      <c r="B3808" s="2" t="n">
+        <v>46061.65625</v>
+      </c>
+      <c r="C3808" t="n">
+        <v>105.63</v>
+      </c>
+    </row>
+    <row r="3809">
+      <c r="A3809" s="2" t="n">
+        <v>46061.625</v>
+      </c>
+      <c r="B3809" s="2" t="n">
+        <v>46061.66666666666</v>
+      </c>
+      <c r="C3809" t="n">
+        <v>92.94</v>
+      </c>
+    </row>
+    <row r="3810">
+      <c r="A3810" s="2" t="n">
+        <v>46061.63541666666</v>
+      </c>
+      <c r="B3810" s="2" t="n">
+        <v>46061.67708333334</v>
+      </c>
+      <c r="C3810" t="n">
+        <v>100.57</v>
+      </c>
+    </row>
+    <row r="3811">
+      <c r="A3811" s="2" t="n">
+        <v>46061.64583333334</v>
+      </c>
+      <c r="B3811" s="2" t="n">
+        <v>46061.6875</v>
+      </c>
+      <c r="C3811" t="n">
+        <v>107.46</v>
+      </c>
+    </row>
+    <row r="3812">
+      <c r="A3812" s="2" t="n">
+        <v>46061.65625</v>
+      </c>
+      <c r="B3812" s="2" t="n">
+        <v>46061.69791666666</v>
+      </c>
+      <c r="C3812" t="n">
+        <v>118.19</v>
+      </c>
+    </row>
+    <row r="3813">
+      <c r="A3813" s="2" t="n">
+        <v>46061.66666666666</v>
+      </c>
+      <c r="B3813" s="2" t="n">
+        <v>46061.70833333334</v>
+      </c>
+      <c r="C3813" t="n">
+        <v>111.91</v>
+      </c>
+    </row>
+    <row r="3814">
+      <c r="A3814" s="2" t="n">
+        <v>46061.67708333334</v>
+      </c>
+      <c r="B3814" s="2" t="n">
+        <v>46061.71875</v>
+      </c>
+      <c r="C3814" t="n">
+        <v>120.09</v>
+      </c>
+    </row>
+    <row r="3815">
+      <c r="A3815" s="2" t="n">
+        <v>46061.6875</v>
+      </c>
+      <c r="B3815" s="2" t="n">
+        <v>46061.72916666666</v>
+      </c>
+      <c r="C3815" t="n">
+        <v>125.41</v>
+      </c>
+    </row>
+    <row r="3816">
+      <c r="A3816" s="2" t="n">
+        <v>46061.69791666666</v>
+      </c>
+      <c r="B3816" s="2" t="n">
+        <v>46061.73958333334</v>
+      </c>
+      <c r="C3816" t="n">
+        <v>129.3</v>
+      </c>
+    </row>
+    <row r="3817">
+      <c r="A3817" s="2" t="n">
+        <v>46061.70833333334</v>
+      </c>
+      <c r="B3817" s="2" t="n">
+        <v>46061.75</v>
+      </c>
+      <c r="C3817" t="n">
+        <v>126.95</v>
+      </c>
+    </row>
+    <row r="3818">
+      <c r="A3818" s="2" t="n">
+        <v>46061.71875</v>
+      </c>
+      <c r="B3818" s="2" t="n">
+        <v>46061.76041666666</v>
+      </c>
+      <c r="C3818" t="n">
+        <v>129.89</v>
+      </c>
+    </row>
+    <row r="3819">
+      <c r="A3819" s="2" t="n">
+        <v>46061.72916666666</v>
+      </c>
+      <c r="B3819" s="2" t="n">
+        <v>46061.77083333334</v>
+      </c>
+      <c r="C3819" t="n">
+        <v>132.55</v>
+      </c>
+    </row>
+    <row r="3820">
+      <c r="A3820" s="2" t="n">
+        <v>46061.73958333334</v>
+      </c>
+      <c r="B3820" s="2" t="n">
+        <v>46061.78125</v>
+      </c>
+      <c r="C3820" t="n">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="3821">
+      <c r="A3821" s="2" t="n">
+        <v>46061.75</v>
+      </c>
+      <c r="B3821" s="2" t="n">
+        <v>46061.79166666666</v>
+      </c>
+      <c r="C3821" t="n">
+        <v>132.96</v>
+      </c>
+    </row>
+    <row r="3822">
+      <c r="A3822" s="2" t="n">
+        <v>46061.76041666666</v>
+      </c>
+      <c r="B3822" s="2" t="n">
+        <v>46061.80208333334</v>
+      </c>
+      <c r="C3822" t="n">
+        <v>129.55</v>
+      </c>
+    </row>
+    <row r="3823">
+      <c r="A3823" s="2" t="n">
+        <v>46061.77083333334</v>
+      </c>
+      <c r="B3823" s="2" t="n">
+        <v>46061.8125</v>
+      </c>
+      <c r="C3823" t="n">
+        <v>125.09</v>
+      </c>
+    </row>
+    <row r="3824">
+      <c r="A3824" s="2" t="n">
+        <v>46061.78125</v>
+      </c>
+      <c r="B3824" s="2" t="n">
+        <v>46061.82291666666</v>
+      </c>
+      <c r="C3824" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3825">
+      <c r="A3825" s="2" t="n">
+        <v>46061.79166666666</v>
+      </c>
+      <c r="B3825" s="2" t="n">
+        <v>46061.83333333334</v>
+      </c>
+      <c r="C3825" t="n">
+        <v>122.21</v>
+      </c>
+    </row>
+    <row r="3826">
+      <c r="A3826" s="2" t="n">
+        <v>46061.80208333334</v>
+      </c>
+      <c r="B3826" s="2" t="n">
+        <v>46061.84375</v>
+      </c>
+      <c r="C3826" t="n">
+        <v>113.65</v>
+      </c>
+    </row>
+    <row r="3827">
+      <c r="A3827" s="2" t="n">
+        <v>46061.8125</v>
+      </c>
+      <c r="B3827" s="2" t="n">
+        <v>46061.85416666666</v>
+      </c>
+      <c r="C3827" t="n">
+        <v>109.35</v>
+      </c>
+    </row>
+    <row r="3828">
+      <c r="A3828" s="2" t="n">
+        <v>46061.82291666666</v>
+      </c>
+      <c r="B3828" s="2" t="n">
+        <v>46061.86458333334</v>
+      </c>
+      <c r="C3828" t="n">
+        <v>103.88</v>
+      </c>
+    </row>
+    <row r="3829">
+      <c r="A3829" s="2" t="n">
+        <v>46061.83333333334</v>
+      </c>
+      <c r="B3829" s="2" t="n">
+        <v>46061.875</v>
+      </c>
+      <c r="C3829" t="n">
+        <v>109.68</v>
+      </c>
+    </row>
+    <row r="3830">
+      <c r="A3830" s="2" t="n">
+        <v>46061.84375</v>
+      </c>
+      <c r="B3830" s="2" t="n">
+        <v>46061.88541666666</v>
+      </c>
+      <c r="C3830" t="n">
+        <v>107.09</v>
+      </c>
+    </row>
+    <row r="3831">
+      <c r="A3831" s="2" t="n">
+        <v>46061.85416666666</v>
+      </c>
+      <c r="B3831" s="2" t="n">
+        <v>46061.89583333334</v>
+      </c>
+      <c r="C3831" t="n">
+        <v>103.63</v>
+      </c>
+    </row>
+    <row r="3832">
+      <c r="A3832" s="2" t="n">
+        <v>46061.86458333334</v>
+      </c>
+      <c r="B3832" s="2" t="n">
+        <v>46061.90625</v>
+      </c>
+      <c r="C3832" t="n">
+        <v>101.05</v>
+      </c>
+    </row>
+    <row r="3833">
+      <c r="A3833" s="2" t="n">
+        <v>46061.875</v>
+      </c>
+      <c r="B3833" s="2" t="n">
+        <v>46061.91666666666</v>
+      </c>
+      <c r="C3833" t="n">
+        <v>105.51</v>
+      </c>
+    </row>
+    <row r="3834">
+      <c r="A3834" s="2" t="n">
+        <v>46061.88541666666</v>
+      </c>
+      <c r="B3834" s="2" t="n">
+        <v>46061.92708333334</v>
+      </c>
+      <c r="C3834" t="n">
+        <v>104.16</v>
+      </c>
+    </row>
+    <row r="3835">
+      <c r="A3835" s="2" t="n">
+        <v>46061.89583333334</v>
+      </c>
+      <c r="B3835" s="2" t="n">
+        <v>46061.9375</v>
+      </c>
+      <c r="C3835" t="n">
+        <v>104.14</v>
+      </c>
+    </row>
+    <row r="3836">
+      <c r="A3836" s="2" t="n">
+        <v>46061.90625</v>
+      </c>
+      <c r="B3836" s="2" t="n">
+        <v>46061.94791666666</v>
+      </c>
+      <c r="C3836" t="n">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="3837">
+      <c r="A3837" s="2" t="n">
+        <v>46061.91666666666</v>
+      </c>
+      <c r="B3837" s="2" t="n">
+        <v>46061.95833333334</v>
+      </c>
+      <c r="C3837" t="n">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="3838">
+      <c r="A3838" s="2" t="n">
+        <v>46061.92708333334</v>
+      </c>
+      <c r="B3838" s="2" t="n">
+        <v>46061.96875</v>
+      </c>
+      <c r="C3838" t="n">
+        <v>101.71</v>
+      </c>
+    </row>
+    <row r="3839">
+      <c r="A3839" s="2" t="n">
+        <v>46061.9375</v>
+      </c>
+      <c r="B3839" s="2" t="n">
+        <v>46061.97916666666</v>
+      </c>
+      <c r="C3839" t="n">
+        <v>100.28</v>
+      </c>
+    </row>
+    <row r="3840">
+      <c r="A3840" s="2" t="n">
+        <v>46061.94791666666</v>
+      </c>
+      <c r="B3840" s="2" t="n">
+        <v>46061.98958333334</v>
+      </c>
+      <c r="C3840" t="n">
+        <v>93.73999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -41579,1058 +41579,1058 @@
     </row>
     <row r="3745">
       <c r="A3745" s="2" t="n">
-        <v>46060.95833333334</v>
+        <v>46061.95833333334</v>
       </c>
       <c r="B3745" s="2" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="C3745" t="n">
-        <v>108.87</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="3746">
       <c r="A3746" s="2" t="n">
-        <v>46060.96875</v>
+        <v>46061.96875</v>
       </c>
       <c r="B3746" s="2" t="n">
-        <v>46061.01041666666</v>
+        <v>46062.01041666666</v>
       </c>
       <c r="C3746" t="n">
-        <v>101.13</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="3747">
       <c r="A3747" s="2" t="n">
-        <v>46060.97916666666</v>
+        <v>46061.97916666666</v>
       </c>
       <c r="B3747" s="2" t="n">
-        <v>46061.02083333334</v>
+        <v>46062.02083333334</v>
       </c>
       <c r="C3747" t="n">
-        <v>97.81999999999999</v>
+        <v>92.38</v>
       </c>
     </row>
     <row r="3748">
       <c r="A3748" s="2" t="n">
-        <v>46060.98958333334</v>
+        <v>46061.98958333334</v>
       </c>
       <c r="B3748" s="2" t="n">
-        <v>46061.03125</v>
+        <v>46062.03125</v>
       </c>
       <c r="C3748" t="n">
-        <v>93.06999999999999</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="3749">
       <c r="A3749" s="2" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B3749" s="2" t="n">
-        <v>46061.04166666666</v>
+        <v>46062.04166666666</v>
       </c>
       <c r="C3749" t="n">
-        <v>97.79000000000001</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="3750">
       <c r="A3750" s="2" t="n">
-        <v>46061.01041666666</v>
+        <v>46062.01041666666</v>
       </c>
       <c r="B3750" s="2" t="n">
-        <v>46061.05208333334</v>
+        <v>46062.05208333334</v>
       </c>
       <c r="C3750" t="n">
-        <v>98.66</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="3751">
       <c r="A3751" s="2" t="n">
-        <v>46061.02083333334</v>
+        <v>46062.02083333334</v>
       </c>
       <c r="B3751" s="2" t="n">
-        <v>46061.0625</v>
+        <v>46062.0625</v>
       </c>
       <c r="C3751" t="n">
-        <v>97.09999999999999</v>
+        <v>92.94</v>
       </c>
     </row>
     <row r="3752">
       <c r="A3752" s="2" t="n">
-        <v>46061.03125</v>
+        <v>46062.03125</v>
       </c>
       <c r="B3752" s="2" t="n">
-        <v>46061.07291666666</v>
+        <v>46062.07291666666</v>
       </c>
       <c r="C3752" t="n">
-        <v>95.20999999999999</v>
+        <v>90.53</v>
       </c>
     </row>
     <row r="3753">
       <c r="A3753" s="2" t="n">
-        <v>46061.04166666666</v>
+        <v>46062.04166666666</v>
       </c>
       <c r="B3753" s="2" t="n">
-        <v>46061.08333333334</v>
+        <v>46062.08333333334</v>
       </c>
       <c r="C3753" t="n">
-        <v>98.05</v>
+        <v>94.06999999999999</v>
       </c>
     </row>
     <row r="3754">
       <c r="A3754" s="2" t="n">
-        <v>46061.05208333334</v>
+        <v>46062.05208333334</v>
       </c>
       <c r="B3754" s="2" t="n">
-        <v>46061.09375</v>
+        <v>46062.09375</v>
       </c>
       <c r="C3754" t="n">
-        <v>95.23</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="3755">
       <c r="A3755" s="2" t="n">
-        <v>46061.0625</v>
+        <v>46062.0625</v>
       </c>
       <c r="B3755" s="2" t="n">
-        <v>46061.10416666666</v>
+        <v>46062.10416666666</v>
       </c>
       <c r="C3755" t="n">
-        <v>92.69</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="3756">
       <c r="A3756" s="2" t="n">
-        <v>46061.07291666666</v>
+        <v>46062.07291666666</v>
       </c>
       <c r="B3756" s="2" t="n">
-        <v>46061.11458333334</v>
+        <v>46062.11458333334</v>
       </c>
       <c r="C3756" t="n">
-        <v>91.63</v>
+        <v>88.92</v>
       </c>
     </row>
     <row r="3757">
       <c r="A3757" s="2" t="n">
-        <v>46061.08333333334</v>
+        <v>46062.08333333334</v>
       </c>
       <c r="B3757" s="2" t="n">
-        <v>46061.125</v>
+        <v>46062.125</v>
       </c>
       <c r="C3757" t="n">
-        <v>93.48999999999999</v>
+        <v>90.94</v>
       </c>
     </row>
     <row r="3758">
       <c r="A3758" s="2" t="n">
-        <v>46061.09375</v>
+        <v>46062.09375</v>
       </c>
       <c r="B3758" s="2" t="n">
-        <v>46061.13541666666</v>
+        <v>46062.13541666666</v>
       </c>
       <c r="C3758" t="n">
-        <v>92.25</v>
+        <v>90.03</v>
       </c>
     </row>
     <row r="3759">
       <c r="A3759" s="2" t="n">
-        <v>46061.10416666666</v>
+        <v>46062.10416666666</v>
       </c>
       <c r="B3759" s="2" t="n">
-        <v>46061.14583333334</v>
+        <v>46062.14583333334</v>
       </c>
       <c r="C3759" t="n">
-        <v>91.13</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="3760">
       <c r="A3760" s="2" t="n">
-        <v>46061.11458333334</v>
+        <v>46062.11458333334</v>
       </c>
       <c r="B3760" s="2" t="n">
-        <v>46061.15625</v>
+        <v>46062.15625</v>
       </c>
       <c r="C3760" t="n">
-        <v>91.61</v>
+        <v>89.77</v>
       </c>
     </row>
     <row r="3761">
       <c r="A3761" s="2" t="n">
-        <v>46061.125</v>
+        <v>46062.125</v>
       </c>
       <c r="B3761" s="2" t="n">
-        <v>46061.16666666666</v>
+        <v>46062.16666666666</v>
       </c>
       <c r="C3761" t="n">
-        <v>90.34999999999999</v>
+        <v>87.87</v>
       </c>
     </row>
     <row r="3762">
       <c r="A3762" s="2" t="n">
-        <v>46061.13541666666</v>
+        <v>46062.13541666666</v>
       </c>
       <c r="B3762" s="2" t="n">
-        <v>46061.17708333334</v>
+        <v>46062.17708333334</v>
       </c>
       <c r="C3762" t="n">
-        <v>90.43000000000001</v>
+        <v>89.18000000000001</v>
       </c>
     </row>
     <row r="3763">
       <c r="A3763" s="2" t="n">
-        <v>46061.14583333334</v>
+        <v>46062.14583333334</v>
       </c>
       <c r="B3763" s="2" t="n">
-        <v>46061.1875</v>
+        <v>46062.1875</v>
       </c>
       <c r="C3763" t="n">
-        <v>90.73</v>
+        <v>90.11</v>
       </c>
     </row>
     <row r="3764">
       <c r="A3764" s="2" t="n">
-        <v>46061.15625</v>
+        <v>46062.15625</v>
       </c>
       <c r="B3764" s="2" t="n">
-        <v>46061.19791666666</v>
+        <v>46062.19791666666</v>
       </c>
       <c r="C3764" t="n">
-        <v>90.33</v>
+        <v>95.18000000000001</v>
       </c>
     </row>
     <row r="3765">
       <c r="A3765" s="2" t="n">
-        <v>46061.16666666666</v>
+        <v>46062.16666666666</v>
       </c>
       <c r="B3765" s="2" t="n">
-        <v>46061.20833333334</v>
+        <v>46062.20833333334</v>
       </c>
       <c r="C3765" t="n">
-        <v>92.12</v>
+        <v>91.87</v>
       </c>
     </row>
     <row r="3766">
       <c r="A3766" s="2" t="n">
-        <v>46061.17708333334</v>
+        <v>46062.17708333334</v>
       </c>
       <c r="B3766" s="2" t="n">
-        <v>46061.21875</v>
+        <v>46062.21875</v>
       </c>
       <c r="C3766" t="n">
-        <v>91.44</v>
+        <v>96.48</v>
       </c>
     </row>
     <row r="3767">
       <c r="A3767" s="2" t="n">
-        <v>46061.1875</v>
+        <v>46062.1875</v>
       </c>
       <c r="B3767" s="2" t="n">
-        <v>46061.22916666666</v>
+        <v>46062.22916666666</v>
       </c>
       <c r="C3767" t="n">
-        <v>90.36</v>
+        <v>101.27</v>
       </c>
     </row>
     <row r="3768">
       <c r="A3768" s="2" t="n">
-        <v>46061.19791666666</v>
+        <v>46062.19791666666</v>
       </c>
       <c r="B3768" s="2" t="n">
-        <v>46061.23958333334</v>
+        <v>46062.23958333334</v>
       </c>
       <c r="C3768" t="n">
-        <v>91.61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3769">
       <c r="A3769" s="2" t="n">
-        <v>46061.20833333334</v>
+        <v>46062.20833333334</v>
       </c>
       <c r="B3769" s="2" t="n">
-        <v>46061.25</v>
+        <v>46062.25</v>
       </c>
       <c r="C3769" t="n">
-        <v>84.8</v>
+        <v>101.27</v>
       </c>
     </row>
     <row r="3770">
       <c r="A3770" s="2" t="n">
-        <v>46061.21875</v>
+        <v>46062.21875</v>
       </c>
       <c r="B3770" s="2" t="n">
-        <v>46061.26041666666</v>
+        <v>46062.26041666666</v>
       </c>
       <c r="C3770" t="n">
-        <v>87.67</v>
+        <v>116.41</v>
       </c>
     </row>
     <row r="3771">
       <c r="A3771" s="2" t="n">
-        <v>46061.22916666666</v>
+        <v>46062.22916666666</v>
       </c>
       <c r="B3771" s="2" t="n">
-        <v>46061.27083333334</v>
+        <v>46062.27083333334</v>
       </c>
       <c r="C3771" t="n">
-        <v>90.98</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="3772">
       <c r="A3772" s="2" t="n">
-        <v>46061.23958333334</v>
+        <v>46062.23958333334</v>
       </c>
       <c r="B3772" s="2" t="n">
-        <v>46061.28125</v>
+        <v>46062.28125</v>
       </c>
       <c r="C3772" t="n">
-        <v>95.95999999999999</v>
+        <v>158.33</v>
       </c>
     </row>
     <row r="3773">
       <c r="A3773" s="2" t="n">
-        <v>46061.25</v>
+        <v>46062.25</v>
       </c>
       <c r="B3773" s="2" t="n">
-        <v>46061.29166666666</v>
+        <v>46062.29166666666</v>
       </c>
       <c r="C3773" t="n">
-        <v>88.2</v>
+        <v>129.99</v>
       </c>
     </row>
     <row r="3774">
       <c r="A3774" s="2" t="n">
-        <v>46061.26041666666</v>
+        <v>46062.26041666666</v>
       </c>
       <c r="B3774" s="2" t="n">
-        <v>46061.30208333334</v>
+        <v>46062.30208333334</v>
       </c>
       <c r="C3774" t="n">
-        <v>91.33</v>
+        <v>152.36</v>
       </c>
     </row>
     <row r="3775">
       <c r="A3775" s="2" t="n">
-        <v>46061.27083333334</v>
+        <v>46062.27083333334</v>
       </c>
       <c r="B3775" s="2" t="n">
-        <v>46061.3125</v>
+        <v>46062.3125</v>
       </c>
       <c r="C3775" t="n">
-        <v>94.69</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3776">
       <c r="A3776" s="2" t="n">
-        <v>46061.28125</v>
+        <v>46062.28125</v>
       </c>
       <c r="B3776" s="2" t="n">
-        <v>46061.32291666666</v>
+        <v>46062.32291666666</v>
       </c>
       <c r="C3776" t="n">
-        <v>99.09999999999999</v>
+        <v>163.64</v>
       </c>
     </row>
     <row r="3777">
       <c r="A3777" s="2" t="n">
-        <v>46061.29166666666</v>
+        <v>46062.29166666666</v>
       </c>
       <c r="B3777" s="2" t="n">
-        <v>46061.33333333334</v>
+        <v>46062.33333333334</v>
       </c>
       <c r="C3777" t="n">
-        <v>94.41</v>
+        <v>170.29</v>
       </c>
     </row>
     <row r="3778">
       <c r="A3778" s="2" t="n">
-        <v>46061.30208333334</v>
+        <v>46062.30208333334</v>
       </c>
       <c r="B3778" s="2" t="n">
-        <v>46061.34375</v>
+        <v>46062.34375</v>
       </c>
       <c r="C3778" t="n">
-        <v>98.72</v>
+        <v>179.32</v>
       </c>
     </row>
     <row r="3779">
       <c r="A3779" s="2" t="n">
-        <v>46061.3125</v>
+        <v>46062.3125</v>
       </c>
       <c r="B3779" s="2" t="n">
-        <v>46061.35416666666</v>
+        <v>46062.35416666666</v>
       </c>
       <c r="C3779" t="n">
-        <v>100.1</v>
+        <v>179.34</v>
       </c>
     </row>
     <row r="3780">
       <c r="A3780" s="2" t="n">
-        <v>46061.32291666666</v>
+        <v>46062.32291666666</v>
       </c>
       <c r="B3780" s="2" t="n">
-        <v>46061.36458333334</v>
+        <v>46062.36458333334</v>
       </c>
       <c r="C3780" t="n">
-        <v>100.04</v>
+        <v>175.09</v>
       </c>
     </row>
     <row r="3781">
       <c r="A3781" s="2" t="n">
-        <v>46061.33333333334</v>
+        <v>46062.33333333334</v>
       </c>
       <c r="B3781" s="2" t="n">
-        <v>46061.375</v>
+        <v>46062.375</v>
       </c>
       <c r="C3781" t="n">
-        <v>100.16</v>
+        <v>182.41</v>
       </c>
     </row>
     <row r="3782">
       <c r="A3782" s="2" t="n">
-        <v>46061.34375</v>
+        <v>46062.34375</v>
       </c>
       <c r="B3782" s="2" t="n">
-        <v>46061.38541666666</v>
+        <v>46062.38541666666</v>
       </c>
       <c r="C3782" t="n">
-        <v>99.87</v>
+        <v>171.32</v>
       </c>
     </row>
     <row r="3783">
       <c r="A3783" s="2" t="n">
-        <v>46061.35416666666</v>
+        <v>46062.35416666666</v>
       </c>
       <c r="B3783" s="2" t="n">
-        <v>46061.39583333334</v>
+        <v>46062.39583333334</v>
       </c>
       <c r="C3783" t="n">
-        <v>99.48999999999999</v>
+        <v>151.84</v>
       </c>
     </row>
     <row r="3784">
       <c r="A3784" s="2" t="n">
-        <v>46061.36458333334</v>
+        <v>46062.36458333334</v>
       </c>
       <c r="B3784" s="2" t="n">
-        <v>46061.40625</v>
+        <v>46062.40625</v>
       </c>
       <c r="C3784" t="n">
-        <v>93.78</v>
+        <v>148.06</v>
       </c>
     </row>
     <row r="3785">
       <c r="A3785" s="2" t="n">
-        <v>46061.375</v>
+        <v>46062.375</v>
       </c>
       <c r="B3785" s="2" t="n">
-        <v>46061.41666666666</v>
+        <v>46062.41666666666</v>
       </c>
       <c r="C3785" t="n">
-        <v>100.9</v>
+        <v>158.59</v>
       </c>
     </row>
     <row r="3786">
       <c r="A3786" s="2" t="n">
-        <v>46061.38541666666</v>
+        <v>46062.38541666666</v>
       </c>
       <c r="B3786" s="2" t="n">
-        <v>46061.42708333334</v>
+        <v>46062.42708333334</v>
       </c>
       <c r="C3786" t="n">
-        <v>98</v>
+        <v>154.96</v>
       </c>
     </row>
     <row r="3787">
       <c r="A3787" s="2" t="n">
-        <v>46061.39583333334</v>
+        <v>46062.39583333334</v>
       </c>
       <c r="B3787" s="2" t="n">
-        <v>46061.4375</v>
+        <v>46062.4375</v>
       </c>
       <c r="C3787" t="n">
-        <v>94.86</v>
+        <v>146.04</v>
       </c>
     </row>
     <row r="3788">
       <c r="A3788" s="2" t="n">
-        <v>46061.40625</v>
+        <v>46062.40625</v>
       </c>
       <c r="B3788" s="2" t="n">
-        <v>46061.44791666666</v>
+        <v>46062.44791666666</v>
       </c>
       <c r="C3788" t="n">
-        <v>93.12</v>
+        <v>136.63</v>
       </c>
     </row>
     <row r="3789">
       <c r="A3789" s="2" t="n">
-        <v>46061.41666666666</v>
+        <v>46062.41666666666</v>
       </c>
       <c r="B3789" s="2" t="n">
-        <v>46061.45833333334</v>
+        <v>46062.45833333334</v>
       </c>
       <c r="C3789" t="n">
-        <v>96.90000000000001</v>
+        <v>142.94</v>
       </c>
     </row>
     <row r="3790">
       <c r="A3790" s="2" t="n">
-        <v>46061.42708333334</v>
+        <v>46062.42708333334</v>
       </c>
       <c r="B3790" s="2" t="n">
-        <v>46061.46875</v>
+        <v>46062.46875</v>
       </c>
       <c r="C3790" t="n">
-        <v>93.98</v>
+        <v>138.97</v>
       </c>
     </row>
     <row r="3791">
       <c r="A3791" s="2" t="n">
-        <v>46061.4375</v>
+        <v>46062.4375</v>
       </c>
       <c r="B3791" s="2" t="n">
-        <v>46061.47916666666</v>
+        <v>46062.47916666666</v>
       </c>
       <c r="C3791" t="n">
-        <v>92.53</v>
+        <v>136.31</v>
       </c>
     </row>
     <row r="3792">
       <c r="A3792" s="2" t="n">
-        <v>46061.44791666666</v>
+        <v>46062.44791666666</v>
       </c>
       <c r="B3792" s="2" t="n">
-        <v>46061.48958333334</v>
+        <v>46062.48958333334</v>
       </c>
       <c r="C3792" t="n">
-        <v>90.44</v>
+        <v>129.95</v>
       </c>
     </row>
     <row r="3793">
       <c r="A3793" s="2" t="n">
-        <v>46061.45833333334</v>
+        <v>46062.45833333334</v>
       </c>
       <c r="B3793" s="2" t="n">
-        <v>46061.5</v>
+        <v>46062.5</v>
       </c>
       <c r="C3793" t="n">
-        <v>92.03</v>
+        <v>138.44</v>
       </c>
     </row>
     <row r="3794">
       <c r="A3794" s="2" t="n">
-        <v>46061.46875</v>
+        <v>46062.46875</v>
       </c>
       <c r="B3794" s="2" t="n">
-        <v>46061.51041666666</v>
+        <v>46062.51041666666</v>
       </c>
       <c r="C3794" t="n">
-        <v>90.5</v>
+        <v>131.46</v>
       </c>
     </row>
     <row r="3795">
       <c r="A3795" s="2" t="n">
-        <v>46061.47916666666</v>
+        <v>46062.47916666666</v>
       </c>
       <c r="B3795" s="2" t="n">
-        <v>46061.52083333334</v>
+        <v>46062.52083333334</v>
       </c>
       <c r="C3795" t="n">
-        <v>92.56</v>
+        <v>129.11</v>
       </c>
     </row>
     <row r="3796">
       <c r="A3796" s="2" t="n">
-        <v>46061.48958333334</v>
+        <v>46062.48958333334</v>
       </c>
       <c r="B3796" s="2" t="n">
-        <v>46061.53125</v>
+        <v>46062.53125</v>
       </c>
       <c r="C3796" t="n">
-        <v>89.59</v>
+        <v>122.74</v>
       </c>
     </row>
     <row r="3797">
       <c r="A3797" s="2" t="n">
-        <v>46061.5</v>
+        <v>46062.5</v>
       </c>
       <c r="B3797" s="2" t="n">
-        <v>46061.54166666666</v>
+        <v>46062.54166666666</v>
       </c>
       <c r="C3797" t="n">
-        <v>90.8</v>
+        <v>130.01</v>
       </c>
     </row>
     <row r="3798">
       <c r="A3798" s="2" t="n">
-        <v>46061.51041666666</v>
+        <v>46062.51041666666</v>
       </c>
       <c r="B3798" s="2" t="n">
-        <v>46061.55208333334</v>
+        <v>46062.55208333334</v>
       </c>
       <c r="C3798" t="n">
-        <v>88.97</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="3799">
       <c r="A3799" s="2" t="n">
-        <v>46061.52083333334</v>
+        <v>46062.52083333334</v>
       </c>
       <c r="B3799" s="2" t="n">
-        <v>46061.5625</v>
+        <v>46062.5625</v>
       </c>
       <c r="C3799" t="n">
-        <v>90.88</v>
+        <v>124.6</v>
       </c>
     </row>
     <row r="3800">
       <c r="A3800" s="2" t="n">
-        <v>46061.53125</v>
+        <v>46062.53125</v>
       </c>
       <c r="B3800" s="2" t="n">
-        <v>46061.57291666666</v>
+        <v>46062.57291666666</v>
       </c>
       <c r="C3800" t="n">
-        <v>89.17</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="3801">
       <c r="A3801" s="2" t="n">
-        <v>46061.54166666666</v>
+        <v>46062.54166666666</v>
       </c>
       <c r="B3801" s="2" t="n">
-        <v>46061.58333333334</v>
+        <v>46062.58333333334</v>
       </c>
       <c r="C3801" t="n">
-        <v>88.76000000000001</v>
+        <v>116.47</v>
       </c>
     </row>
     <row r="3802">
       <c r="A3802" s="2" t="n">
-        <v>46061.55208333334</v>
+        <v>46062.55208333334</v>
       </c>
       <c r="B3802" s="2" t="n">
-        <v>46061.59375</v>
+        <v>46062.59375</v>
       </c>
       <c r="C3802" t="n">
-        <v>89.90000000000001</v>
+        <v>125.23</v>
       </c>
     </row>
     <row r="3803">
       <c r="A3803" s="2" t="n">
-        <v>46061.5625</v>
+        <v>46062.5625</v>
       </c>
       <c r="B3803" s="2" t="n">
-        <v>46061.60416666666</v>
+        <v>46062.60416666666</v>
       </c>
       <c r="C3803" t="n">
-        <v>91.29000000000001</v>
+        <v>132.18</v>
       </c>
     </row>
     <row r="3804">
       <c r="A3804" s="2" t="n">
-        <v>46061.57291666666</v>
+        <v>46062.57291666666</v>
       </c>
       <c r="B3804" s="2" t="n">
-        <v>46061.61458333334</v>
+        <v>46062.61458333334</v>
       </c>
       <c r="C3804" t="n">
-        <v>93.73</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="3805">
       <c r="A3805" s="2" t="n">
-        <v>46061.58333333334</v>
+        <v>46062.58333333334</v>
       </c>
       <c r="B3805" s="2" t="n">
-        <v>46061.625</v>
+        <v>46062.625</v>
       </c>
       <c r="C3805" t="n">
-        <v>92.69</v>
+        <v>120.08</v>
       </c>
     </row>
     <row r="3806">
       <c r="A3806" s="2" t="n">
-        <v>46061.59375</v>
+        <v>46062.59375</v>
       </c>
       <c r="B3806" s="2" t="n">
-        <v>46061.63541666666</v>
+        <v>46062.63541666666</v>
       </c>
       <c r="C3806" t="n">
-        <v>96.51000000000001</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="3807">
       <c r="A3807" s="2" t="n">
-        <v>46061.60416666666</v>
+        <v>46062.60416666666</v>
       </c>
       <c r="B3807" s="2" t="n">
-        <v>46061.64583333334</v>
+        <v>46062.64583333334</v>
       </c>
       <c r="C3807" t="n">
-        <v>99.09999999999999</v>
+        <v>145.32</v>
       </c>
     </row>
     <row r="3808">
       <c r="A3808" s="2" t="n">
-        <v>46061.61458333334</v>
+        <v>46062.61458333334</v>
       </c>
       <c r="B3808" s="2" t="n">
-        <v>46061.65625</v>
+        <v>46062.65625</v>
       </c>
       <c r="C3808" t="n">
-        <v>105.63</v>
+        <v>157.91</v>
       </c>
     </row>
     <row r="3809">
       <c r="A3809" s="2" t="n">
-        <v>46061.625</v>
+        <v>46062.625</v>
       </c>
       <c r="B3809" s="2" t="n">
-        <v>46061.66666666666</v>
+        <v>46062.66666666666</v>
       </c>
       <c r="C3809" t="n">
-        <v>92.94</v>
+        <v>128.61</v>
       </c>
     </row>
     <row r="3810">
       <c r="A3810" s="2" t="n">
-        <v>46061.63541666666</v>
+        <v>46062.63541666666</v>
       </c>
       <c r="B3810" s="2" t="n">
-        <v>46061.67708333334</v>
+        <v>46062.67708333334</v>
       </c>
       <c r="C3810" t="n">
-        <v>100.57</v>
+        <v>148.24</v>
       </c>
     </row>
     <row r="3811">
       <c r="A3811" s="2" t="n">
-        <v>46061.64583333334</v>
+        <v>46062.64583333334</v>
       </c>
       <c r="B3811" s="2" t="n">
-        <v>46061.6875</v>
+        <v>46062.6875</v>
       </c>
       <c r="C3811" t="n">
-        <v>107.46</v>
+        <v>168.24</v>
       </c>
     </row>
     <row r="3812">
       <c r="A3812" s="2" t="n">
-        <v>46061.65625</v>
+        <v>46062.65625</v>
       </c>
       <c r="B3812" s="2" t="n">
-        <v>46061.69791666666</v>
+        <v>46062.69791666666</v>
       </c>
       <c r="C3812" t="n">
-        <v>118.19</v>
+        <v>175.4</v>
       </c>
     </row>
     <row r="3813">
       <c r="A3813" s="2" t="n">
-        <v>46061.66666666666</v>
+        <v>46062.66666666666</v>
       </c>
       <c r="B3813" s="2" t="n">
-        <v>46061.70833333334</v>
+        <v>46062.70833333334</v>
       </c>
       <c r="C3813" t="n">
-        <v>111.91</v>
+        <v>169.06</v>
       </c>
     </row>
     <row r="3814">
       <c r="A3814" s="2" t="n">
-        <v>46061.67708333334</v>
+        <v>46062.67708333334</v>
       </c>
       <c r="B3814" s="2" t="n">
-        <v>46061.71875</v>
+        <v>46062.71875</v>
       </c>
       <c r="C3814" t="n">
-        <v>120.09</v>
+        <v>207.56</v>
       </c>
     </row>
     <row r="3815">
       <c r="A3815" s="2" t="n">
-        <v>46061.6875</v>
+        <v>46062.6875</v>
       </c>
       <c r="B3815" s="2" t="n">
-        <v>46061.72916666666</v>
+        <v>46062.72916666666</v>
       </c>
       <c r="C3815" t="n">
-        <v>125.41</v>
+        <v>216.59</v>
       </c>
     </row>
     <row r="3816">
       <c r="A3816" s="2" t="n">
-        <v>46061.69791666666</v>
+        <v>46062.69791666666</v>
       </c>
       <c r="B3816" s="2" t="n">
-        <v>46061.73958333334</v>
+        <v>46062.73958333334</v>
       </c>
       <c r="C3816" t="n">
-        <v>129.3</v>
+        <v>218.58</v>
       </c>
     </row>
     <row r="3817">
       <c r="A3817" s="2" t="n">
-        <v>46061.70833333334</v>
+        <v>46062.70833333334</v>
       </c>
       <c r="B3817" s="2" t="n">
-        <v>46061.75</v>
+        <v>46062.75</v>
       </c>
       <c r="C3817" t="n">
-        <v>126.95</v>
+        <v>181.73</v>
       </c>
     </row>
     <row r="3818">
       <c r="A3818" s="2" t="n">
-        <v>46061.71875</v>
+        <v>46062.71875</v>
       </c>
       <c r="B3818" s="2" t="n">
-        <v>46061.76041666666</v>
+        <v>46062.76041666666</v>
       </c>
       <c r="C3818" t="n">
-        <v>129.89</v>
+        <v>173.4</v>
       </c>
     </row>
     <row r="3819">
       <c r="A3819" s="2" t="n">
-        <v>46061.72916666666</v>
+        <v>46062.72916666666</v>
       </c>
       <c r="B3819" s="2" t="n">
-        <v>46061.77083333334</v>
+        <v>46062.77083333334</v>
       </c>
       <c r="C3819" t="n">
-        <v>132.55</v>
+        <v>165.84</v>
       </c>
     </row>
     <row r="3820">
       <c r="A3820" s="2" t="n">
-        <v>46061.73958333334</v>
+        <v>46062.73958333334</v>
       </c>
       <c r="B3820" s="2" t="n">
-        <v>46061.78125</v>
+        <v>46062.78125</v>
       </c>
       <c r="C3820" t="n">
-        <v>129.84</v>
+        <v>172.83</v>
       </c>
     </row>
     <row r="3821">
       <c r="A3821" s="2" t="n">
-        <v>46061.75</v>
+        <v>46062.75</v>
       </c>
       <c r="B3821" s="2" t="n">
-        <v>46061.79166666666</v>
+        <v>46062.79166666666</v>
       </c>
       <c r="C3821" t="n">
-        <v>132.96</v>
+        <v>183.64</v>
       </c>
     </row>
     <row r="3822">
       <c r="A3822" s="2" t="n">
-        <v>46061.76041666666</v>
+        <v>46062.76041666666</v>
       </c>
       <c r="B3822" s="2" t="n">
-        <v>46061.80208333334</v>
+        <v>46062.80208333334</v>
       </c>
       <c r="C3822" t="n">
-        <v>129.55</v>
+        <v>163.28</v>
       </c>
     </row>
     <row r="3823">
       <c r="A3823" s="2" t="n">
-        <v>46061.77083333334</v>
+        <v>46062.77083333334</v>
       </c>
       <c r="B3823" s="2" t="n">
-        <v>46061.8125</v>
+        <v>46062.8125</v>
       </c>
       <c r="C3823" t="n">
-        <v>125.09</v>
+        <v>152.48</v>
       </c>
     </row>
     <row r="3824">
       <c r="A3824" s="2" t="n">
-        <v>46061.78125</v>
+        <v>46062.78125</v>
       </c>
       <c r="B3824" s="2" t="n">
-        <v>46061.82291666666</v>
+        <v>46062.82291666666</v>
       </c>
       <c r="C3824" t="n">
-        <v>120</v>
+        <v>137.17</v>
       </c>
     </row>
     <row r="3825">
       <c r="A3825" s="2" t="n">
-        <v>46061.79166666666</v>
+        <v>46062.79166666666</v>
       </c>
       <c r="B3825" s="2" t="n">
-        <v>46061.83333333334</v>
+        <v>46062.83333333334</v>
       </c>
       <c r="C3825" t="n">
-        <v>122.21</v>
+        <v>153.8</v>
       </c>
     </row>
     <row r="3826">
       <c r="A3826" s="2" t="n">
-        <v>46061.80208333334</v>
+        <v>46062.80208333334</v>
       </c>
       <c r="B3826" s="2" t="n">
-        <v>46061.84375</v>
+        <v>46062.84375</v>
       </c>
       <c r="C3826" t="n">
-        <v>113.65</v>
+        <v>140.67</v>
       </c>
     </row>
     <row r="3827">
       <c r="A3827" s="2" t="n">
-        <v>46061.8125</v>
+        <v>46062.8125</v>
       </c>
       <c r="B3827" s="2" t="n">
-        <v>46061.85416666666</v>
+        <v>46062.85416666666</v>
       </c>
       <c r="C3827" t="n">
-        <v>109.35</v>
+        <v>132.99</v>
       </c>
     </row>
     <row r="3828">
       <c r="A3828" s="2" t="n">
-        <v>46061.82291666666</v>
+        <v>46062.82291666666</v>
       </c>
       <c r="B3828" s="2" t="n">
-        <v>46061.86458333334</v>
+        <v>46062.86458333334</v>
       </c>
       <c r="C3828" t="n">
-        <v>103.88</v>
+        <v>120.87</v>
       </c>
     </row>
     <row r="3829">
       <c r="A3829" s="2" t="n">
-        <v>46061.83333333334</v>
+        <v>46062.83333333334</v>
       </c>
       <c r="B3829" s="2" t="n">
-        <v>46061.875</v>
+        <v>46062.875</v>
       </c>
       <c r="C3829" t="n">
-        <v>109.68</v>
+        <v>139.22</v>
       </c>
     </row>
     <row r="3830">
       <c r="A3830" s="2" t="n">
-        <v>46061.84375</v>
+        <v>46062.84375</v>
       </c>
       <c r="B3830" s="2" t="n">
-        <v>46061.88541666666</v>
+        <v>46062.88541666666</v>
       </c>
       <c r="C3830" t="n">
-        <v>107.09</v>
+        <v>134.72</v>
       </c>
     </row>
     <row r="3831">
       <c r="A3831" s="2" t="n">
-        <v>46061.85416666666</v>
+        <v>46062.85416666666</v>
       </c>
       <c r="B3831" s="2" t="n">
-        <v>46061.89583333334</v>
+        <v>46062.89583333334</v>
       </c>
       <c r="C3831" t="n">
-        <v>103.63</v>
+        <v>122.19</v>
       </c>
     </row>
     <row r="3832">
       <c r="A3832" s="2" t="n">
-        <v>46061.86458333334</v>
+        <v>46062.86458333334</v>
       </c>
       <c r="B3832" s="2" t="n">
-        <v>46061.90625</v>
+        <v>46062.90625</v>
       </c>
       <c r="C3832" t="n">
-        <v>101.05</v>
+        <v>107.36</v>
       </c>
     </row>
     <row r="3833">
       <c r="A3833" s="2" t="n">
-        <v>46061.875</v>
+        <v>46062.875</v>
       </c>
       <c r="B3833" s="2" t="n">
-        <v>46061.91666666666</v>
+        <v>46062.91666666666</v>
       </c>
       <c r="C3833" t="n">
-        <v>105.51</v>
+        <v>120.93</v>
       </c>
     </row>
     <row r="3834">
       <c r="A3834" s="2" t="n">
-        <v>46061.88541666666</v>
+        <v>46062.88541666666</v>
       </c>
       <c r="B3834" s="2" t="n">
-        <v>46061.92708333334</v>
+        <v>46062.92708333334</v>
       </c>
       <c r="C3834" t="n">
-        <v>104.16</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="3835">
       <c r="A3835" s="2" t="n">
-        <v>46061.89583333334</v>
+        <v>46062.89583333334</v>
       </c>
       <c r="B3835" s="2" t="n">
-        <v>46061.9375</v>
+        <v>46062.9375</v>
       </c>
       <c r="C3835" t="n">
-        <v>104.14</v>
+        <v>118.43</v>
       </c>
     </row>
     <row r="3836">
       <c r="A3836" s="2" t="n">
-        <v>46061.90625</v>
+        <v>46062.90625</v>
       </c>
       <c r="B3836" s="2" t="n">
-        <v>46061.94791666666</v>
+        <v>46062.94791666666</v>
       </c>
       <c r="C3836" t="n">
-        <v>101.42</v>
+        <v>108.66</v>
       </c>
     </row>
     <row r="3837">
       <c r="A3837" s="2" t="n">
-        <v>46061.91666666666</v>
+        <v>46062.91666666666</v>
       </c>
       <c r="B3837" s="2" t="n">
-        <v>46061.95833333334</v>
+        <v>46062.95833333334</v>
       </c>
       <c r="C3837" t="n">
-        <v>102.25</v>
+        <v>110.85</v>
       </c>
     </row>
     <row r="3838">
       <c r="A3838" s="2" t="n">
-        <v>46061.92708333334</v>
+        <v>46062.92708333334</v>
       </c>
       <c r="B3838" s="2" t="n">
-        <v>46061.96875</v>
+        <v>46062.96875</v>
       </c>
       <c r="C3838" t="n">
-        <v>101.71</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="3839">
       <c r="A3839" s="2" t="n">
-        <v>46061.9375</v>
+        <v>46062.9375</v>
       </c>
       <c r="B3839" s="2" t="n">
-        <v>46061.97916666666</v>
+        <v>46062.97916666666</v>
       </c>
       <c r="C3839" t="n">
-        <v>100.28</v>
+        <v>102.34</v>
       </c>
     </row>
     <row r="3840">
       <c r="A3840" s="2" t="n">
-        <v>46061.94791666666</v>
+        <v>46062.94791666666</v>
       </c>
       <c r="B3840" s="2" t="n">
-        <v>46061.98958333334</v>
+        <v>46062.98958333334</v>
       </c>
       <c r="C3840" t="n">
-        <v>93.73999999999999</v>
+        <v>93.29000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/day_ahead_prices.xlsx
+++ b/day_ahead_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3840"/>
+  <dimension ref="A1:C3744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41577,1062 +41577,6 @@
         <v>90.45999999999999</v>
       </c>
     </row>
-    <row r="3745">
-      <c r="A3745" s="2" t="n">
-        <v>46061.95833333334</v>
-      </c>
-      <c r="B3745" s="2" t="n">
-        <v>46062</v>
-      </c>
-      <c r="C3745" t="n">
-        <v>99.88</v>
-      </c>
-    </row>
-    <row r="3746">
-      <c r="A3746" s="2" t="n">
-        <v>46061.96875</v>
-      </c>
-      <c r="B3746" s="2" t="n">
-        <v>46062.01041666666</v>
-      </c>
-      <c r="C3746" t="n">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="3747">
-      <c r="A3747" s="2" t="n">
-        <v>46061.97916666666</v>
-      </c>
-      <c r="B3747" s="2" t="n">
-        <v>46062.02083333334</v>
-      </c>
-      <c r="C3747" t="n">
-        <v>92.38</v>
-      </c>
-    </row>
-    <row r="3748">
-      <c r="A3748" s="2" t="n">
-        <v>46061.98958333334</v>
-      </c>
-      <c r="B3748" s="2" t="n">
-        <v>46062.03125</v>
-      </c>
-      <c r="C3748" t="n">
-        <v>89.40000000000001</v>
-      </c>
-    </row>
-    <row r="3749">
-      <c r="A3749" s="2" t="n">
-        <v>46062</v>
-      </c>
-      <c r="B3749" s="2" t="n">
-        <v>46062.04166666666</v>
-      </c>
-      <c r="C3749" t="n">
-        <v>95.92</v>
-      </c>
-    </row>
-    <row r="3750">
-      <c r="A3750" s="2" t="n">
-        <v>46062.01041666666</v>
-      </c>
-      <c r="B3750" s="2" t="n">
-        <v>46062.05208333334</v>
-      </c>
-      <c r="C3750" t="n">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="3751">
-      <c r="A3751" s="2" t="n">
-        <v>46062.02083333334</v>
-      </c>
-      <c r="B3751" s="2" t="n">
-        <v>46062.0625</v>
-      </c>
-      <c r="C3751" t="n">
-        <v>92.94</v>
-      </c>
-    </row>
-    <row r="3752">
-      <c r="A3752" s="2" t="n">
-        <v>46062.03125</v>
-      </c>
-      <c r="B3752" s="2" t="n">
-        <v>46062.07291666666</v>
-      </c>
-      <c r="C3752" t="n">
-        <v>90.53</v>
-      </c>
-    </row>
-    <row r="3753">
-      <c r="A3753" s="2" t="n">
-        <v>46062.04166666666</v>
-      </c>
-      <c r="B3753" s="2" t="n">
-        <v>46062.08333333334</v>
-      </c>
-      <c r="C3753" t="n">
-        <v>94.06999999999999</v>
-      </c>
-    </row>
-    <row r="3754">
-      <c r="A3754" s="2" t="n">
-        <v>46062.05208333334</v>
-      </c>
-      <c r="B3754" s="2" t="n">
-        <v>46062.09375</v>
-      </c>
-      <c r="C3754" t="n">
-        <v>92.25</v>
-      </c>
-    </row>
-    <row r="3755">
-      <c r="A3755" s="2" t="n">
-        <v>46062.0625</v>
-      </c>
-      <c r="B3755" s="2" t="n">
-        <v>46062.10416666666</v>
-      </c>
-      <c r="C3755" t="n">
-        <v>92.75</v>
-      </c>
-    </row>
-    <row r="3756">
-      <c r="A3756" s="2" t="n">
-        <v>46062.07291666666</v>
-      </c>
-      <c r="B3756" s="2" t="n">
-        <v>46062.11458333334</v>
-      </c>
-      <c r="C3756" t="n">
-        <v>88.92</v>
-      </c>
-    </row>
-    <row r="3757">
-      <c r="A3757" s="2" t="n">
-        <v>46062.08333333334</v>
-      </c>
-      <c r="B3757" s="2" t="n">
-        <v>46062.125</v>
-      </c>
-      <c r="C3757" t="n">
-        <v>90.94</v>
-      </c>
-    </row>
-    <row r="3758">
-      <c r="A3758" s="2" t="n">
-        <v>46062.09375</v>
-      </c>
-      <c r="B3758" s="2" t="n">
-        <v>46062.13541666666</v>
-      </c>
-      <c r="C3758" t="n">
-        <v>90.03</v>
-      </c>
-    </row>
-    <row r="3759">
-      <c r="A3759" s="2" t="n">
-        <v>46062.10416666666</v>
-      </c>
-      <c r="B3759" s="2" t="n">
-        <v>46062.14583333334</v>
-      </c>
-      <c r="C3759" t="n">
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="3760">
-      <c r="A3760" s="2" t="n">
-        <v>46062.11458333334</v>
-      </c>
-      <c r="B3760" s="2" t="n">
-        <v>46062.15625</v>
-      </c>
-      <c r="C3760" t="n">
-        <v>89.77</v>
-      </c>
-    </row>
-    <row r="3761">
-      <c r="A3761" s="2" t="n">
-        <v>46062.125</v>
-      </c>
-      <c r="B3761" s="2" t="n">
-        <v>46062.16666666666</v>
-      </c>
-      <c r="C3761" t="n">
-        <v>87.87</v>
-      </c>
-    </row>
-    <row r="3762">
-      <c r="A3762" s="2" t="n">
-        <v>46062.13541666666</v>
-      </c>
-      <c r="B3762" s="2" t="n">
-        <v>46062.17708333334</v>
-      </c>
-      <c r="C3762" t="n">
-        <v>89.18000000000001</v>
-      </c>
-    </row>
-    <row r="3763">
-      <c r="A3763" s="2" t="n">
-        <v>46062.14583333334</v>
-      </c>
-      <c r="B3763" s="2" t="n">
-        <v>46062.1875</v>
-      </c>
-      <c r="C3763" t="n">
-        <v>90.11</v>
-      </c>
-    </row>
-    <row r="3764">
-      <c r="A3764" s="2" t="n">
-        <v>46062.15625</v>
-      </c>
-      <c r="B3764" s="2" t="n">
-        <v>46062.19791666666</v>
-      </c>
-      <c r="C3764" t="n">
-        <v>95.18000000000001</v>
-      </c>
-    </row>
-    <row r="3765">
-      <c r="A3765" s="2" t="n">
-        <v>46062.16666666666</v>
-      </c>
-      <c r="B3765" s="2" t="n">
-        <v>46062.20833333334</v>
-      </c>
-      <c r="C3765" t="n">
-        <v>91.87</v>
-      </c>
-    </row>
-    <row r="3766">
-      <c r="A3766" s="2" t="n">
-        <v>46062.17708333334</v>
-      </c>
-      <c r="B3766" s="2" t="n">
-        <v>46062.21875</v>
-      </c>
-      <c r="C3766" t="n">
-        <v>96.48</v>
-      </c>
-    </row>
-    <row r="3767">
-      <c r="A3767" s="2" t="n">
-        <v>46062.1875</v>
-      </c>
-      <c r="B3767" s="2" t="n">
-        <v>46062.22916666666</v>
-      </c>
-      <c r="C3767" t="n">
-        <v>101.27</v>
-      </c>
-    </row>
-    <row r="3768">
-      <c r="A3768" s="2" t="n">
-        <v>46062.19791666666</v>
-      </c>
-      <c r="B3768" s="2" t="n">
-        <v>46062.23958333334</v>
-      </c>
-      <c r="C3768" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3769">
-      <c r="A3769" s="2" t="n">
-        <v>46062.20833333334</v>
-      </c>
-      <c r="B3769" s="2" t="n">
-        <v>46062.25</v>
-      </c>
-      <c r="C3769" t="n">
-        <v>101.27</v>
-      </c>
-    </row>
-    <row r="3770">
-      <c r="A3770" s="2" t="n">
-        <v>46062.21875</v>
-      </c>
-      <c r="B3770" s="2" t="n">
-        <v>46062.26041666666</v>
-      </c>
-      <c r="C3770" t="n">
-        <v>116.41</v>
-      </c>
-    </row>
-    <row r="3771">
-      <c r="A3771" s="2" t="n">
-        <v>46062.22916666666</v>
-      </c>
-      <c r="B3771" s="2" t="n">
-        <v>46062.27083333334</v>
-      </c>
-      <c r="C3771" t="n">
-        <v>130.75</v>
-      </c>
-    </row>
-    <row r="3772">
-      <c r="A3772" s="2" t="n">
-        <v>46062.23958333334</v>
-      </c>
-      <c r="B3772" s="2" t="n">
-        <v>46062.28125</v>
-      </c>
-      <c r="C3772" t="n">
-        <v>158.33</v>
-      </c>
-    </row>
-    <row r="3773">
-      <c r="A3773" s="2" t="n">
-        <v>46062.25</v>
-      </c>
-      <c r="B3773" s="2" t="n">
-        <v>46062.29166666666</v>
-      </c>
-      <c r="C3773" t="n">
-        <v>129.99</v>
-      </c>
-    </row>
-    <row r="3774">
-      <c r="A3774" s="2" t="n">
-        <v>46062.26041666666</v>
-      </c>
-      <c r="B3774" s="2" t="n">
-        <v>46062.30208333334</v>
-      </c>
-      <c r="C3774" t="n">
-        <v>152.36</v>
-      </c>
-    </row>
-    <row r="3775">
-      <c r="A3775" s="2" t="n">
-        <v>46062.27083333334</v>
-      </c>
-      <c r="B3775" s="2" t="n">
-        <v>46062.3125</v>
-      </c>
-      <c r="C3775" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3776">
-      <c r="A3776" s="2" t="n">
-        <v>46062.28125</v>
-      </c>
-      <c r="B3776" s="2" t="n">
-        <v>46062.32291666666</v>
-      </c>
-      <c r="C3776" t="n">
-        <v>163.64</v>
-      </c>
-    </row>
-    <row r="3777">
-      <c r="A3777" s="2" t="n">
-        <v>46062.29166666666</v>
-      </c>
-      <c r="B3777" s="2" t="n">
-        <v>46062.33333333334</v>
-      </c>
-      <c r="C3777" t="n">
-        <v>170.29</v>
-      </c>
-    </row>
-    <row r="3778">
-      <c r="A3778" s="2" t="n">
-        <v>46062.30208333334</v>
-      </c>
-      <c r="B3778" s="2" t="n">
-        <v>46062.34375</v>
-      </c>
-      <c r="C3778" t="n">
-        <v>179.32</v>
-      </c>
-    </row>
-    <row r="3779">
-      <c r="A3779" s="2" t="n">
-        <v>46062.3125</v>
-      </c>
-      <c r="B3779" s="2" t="n">
-        <v>46062.35416666666</v>
-      </c>
-      <c r="C3779" t="n">
-        <v>179.34</v>
-      </c>
-    </row>
-    <row r="3780">
-      <c r="A3780" s="2" t="n">
-        <v>46062.32291666666</v>
-      </c>
-      <c r="B3780" s="2" t="n">
-        <v>46062.36458333334</v>
-      </c>
-      <c r="C3780" t="n">
-        <v>175.09</v>
-      </c>
-    </row>
-    <row r="3781">
-      <c r="A3781" s="2" t="n">
-        <v>46062.33333333334</v>
-      </c>
-      <c r="B3781" s="2" t="n">
-        <v>46062.375</v>
-      </c>
-      <c r="C3781" t="n">
-        <v>182.41</v>
-      </c>
-    </row>
-    <row r="3782">
-      <c r="A3782" s="2" t="n">
-        <v>46062.34375</v>
-      </c>
-      <c r="B3782" s="2" t="n">
-        <v>46062.38541666666</v>
-      </c>
-      <c r="C3782" t="n">
-        <v>171.32</v>
-      </c>
-    </row>
-    <row r="3783">
-      <c r="A3783" s="2" t="n">
-        <v>46062.35416666666</v>
-      </c>
-      <c r="B3783" s="2" t="n">
-        <v>46062.39583333334</v>
-      </c>
-      <c r="C3783" t="n">
-        <v>151.84</v>
-      </c>
-    </row>
-    <row r="3784">
-      <c r="A3784" s="2" t="n">
-        <v>46062.36458333334</v>
-      </c>
-      <c r="B3784" s="2" t="n">
-        <v>46062.40625</v>
-      </c>
-      <c r="C3784" t="n">
-        <v>148.06</v>
-      </c>
-    </row>
-    <row r="3785">
-      <c r="A3785" s="2" t="n">
-        <v>46062.375</v>
-      </c>
-      <c r="B3785" s="2" t="n">
-        <v>46062.41666666666</v>
-      </c>
-      <c r="C3785" t="n">
-        <v>158.59</v>
-      </c>
-    </row>
-    <row r="3786">
-      <c r="A3786" s="2" t="n">
-        <v>46062.38541666666</v>
-      </c>
-      <c r="B3786" s="2" t="n">
-        <v>46062.42708333334</v>
-      </c>
-      <c r="C3786" t="n">
-        <v>154.96</v>
-      </c>
-    </row>
-    <row r="3787">
-      <c r="A3787" s="2" t="n">
-        <v>46062.39583333334</v>
-      </c>
-      <c r="B3787" s="2" t="n">
-        <v>46062.4375</v>
-      </c>
-      <c r="C3787" t="n">
-        <v>146.04</v>
-      </c>
-    </row>
-    <row r="3788">
-      <c r="A3788" s="2" t="n">
-        <v>46062.40625</v>
-      </c>
-      <c r="B3788" s="2" t="n">
-        <v>46062.44791666666</v>
-      </c>
-      <c r="C3788" t="n">
-        <v>136.63</v>
-      </c>
-    </row>
-    <row r="3789">
-      <c r="A3789" s="2" t="n">
-        <v>46062.41666666666</v>
-      </c>
-      <c r="B3789" s="2" t="n">
-        <v>46062.45833333334</v>
-      </c>
-      <c r="C3789" t="n">
-        <v>142.94</v>
-      </c>
-    </row>
-    <row r="3790">
-      <c r="A3790" s="2" t="n">
-        <v>46062.42708333334</v>
-      </c>
-      <c r="B3790" s="2" t="n">
-        <v>46062.46875</v>
-      </c>
-      <c r="C3790" t="n">
-        <v>138.97</v>
-      </c>
-    </row>
-    <row r="3791">
-      <c r="A3791" s="2" t="n">
-        <v>46062.4375</v>
-      </c>
-      <c r="B3791" s="2" t="n">
-        <v>46062.47916666666</v>
-      </c>
-      <c r="C3791" t="n">
-        <v>136.31</v>
-      </c>
-    </row>
-    <row r="3792">
-      <c r="A3792" s="2" t="n">
-        <v>46062.44791666666</v>
-      </c>
-      <c r="B3792" s="2" t="n">
-        <v>46062.48958333334</v>
-      </c>
-      <c r="C3792" t="n">
-        <v>129.95</v>
-      </c>
-    </row>
-    <row r="3793">
-      <c r="A3793" s="2" t="n">
-        <v>46062.45833333334</v>
-      </c>
-      <c r="B3793" s="2" t="n">
-        <v>46062.5</v>
-      </c>
-      <c r="C3793" t="n">
-        <v>138.44</v>
-      </c>
-    </row>
-    <row r="3794">
-      <c r="A3794" s="2" t="n">
-        <v>46062.46875</v>
-      </c>
-      <c r="B3794" s="2" t="n">
-        <v>46062.51041666666</v>
-      </c>
-      <c r="C3794" t="n">
-        <v>131.46</v>
-      </c>
-    </row>
-    <row r="3795">
-      <c r="A3795" s="2" t="n">
-        <v>46062.47916666666</v>
-      </c>
-      <c r="B3795" s="2" t="n">
-        <v>46062.52083333334</v>
-      </c>
-      <c r="C3795" t="n">
-        <v>129.11</v>
-      </c>
-    </row>
-    <row r="3796">
-      <c r="A3796" s="2" t="n">
-        <v>46062.48958333334</v>
-      </c>
-      <c r="B3796" s="2" t="n">
-        <v>46062.53125</v>
-      </c>
-      <c r="C3796" t="n">
-        <v>122.74</v>
-      </c>
-    </row>
-    <row r="3797">
-      <c r="A3797" s="2" t="n">
-        <v>46062.5</v>
-      </c>
-      <c r="B3797" s="2" t="n">
-        <v>46062.54166666666</v>
-      </c>
-      <c r="C3797" t="n">
-        <v>130.01</v>
-      </c>
-    </row>
-    <row r="3798">
-      <c r="A3798" s="2" t="n">
-        <v>46062.51041666666</v>
-      </c>
-      <c r="B3798" s="2" t="n">
-        <v>46062.55208333334</v>
-      </c>
-      <c r="C3798" t="n">
-        <v>128.36</v>
-      </c>
-    </row>
-    <row r="3799">
-      <c r="A3799" s="2" t="n">
-        <v>46062.52083333334</v>
-      </c>
-      <c r="B3799" s="2" t="n">
-        <v>46062.5625</v>
-      </c>
-      <c r="C3799" t="n">
-        <v>124.6</v>
-      </c>
-    </row>
-    <row r="3800">
-      <c r="A3800" s="2" t="n">
-        <v>46062.53125</v>
-      </c>
-      <c r="B3800" s="2" t="n">
-        <v>46062.57291666666</v>
-      </c>
-      <c r="C3800" t="n">
-        <v>120.26</v>
-      </c>
-    </row>
-    <row r="3801">
-      <c r="A3801" s="2" t="n">
-        <v>46062.54166666666</v>
-      </c>
-      <c r="B3801" s="2" t="n">
-        <v>46062.58333333334</v>
-      </c>
-      <c r="C3801" t="n">
-        <v>116.47</v>
-      </c>
-    </row>
-    <row r="3802">
-      <c r="A3802" s="2" t="n">
-        <v>46062.55208333334</v>
-      </c>
-      <c r="B3802" s="2" t="n">
-        <v>46062.59375</v>
-      </c>
-      <c r="C3802" t="n">
-        <v>125.23</v>
-      </c>
-    </row>
-    <row r="3803">
-      <c r="A3803" s="2" t="n">
-        <v>46062.5625</v>
-      </c>
-      <c r="B3803" s="2" t="n">
-        <v>46062.60416666666</v>
-      </c>
-      <c r="C3803" t="n">
-        <v>132.18</v>
-      </c>
-    </row>
-    <row r="3804">
-      <c r="A3804" s="2" t="n">
-        <v>46062.57291666666</v>
-      </c>
-      <c r="B3804" s="2" t="n">
-        <v>46062.61458333334</v>
-      </c>
-      <c r="C3804" t="n">
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="3805">
-      <c r="A3805" s="2" t="n">
-        <v>46062.58333333334</v>
-      </c>
-      <c r="B3805" s="2" t="n">
-        <v>46062.625</v>
-      </c>
-      <c r="C3805" t="n">
-        <v>120.08</v>
-      </c>
-    </row>
-    <row r="3806">
-      <c r="A3806" s="2" t="n">
-        <v>46062.59375</v>
-      </c>
-      <c r="B3806" s="2" t="n">
-        <v>46062.63541666666</v>
-      </c>
-      <c r="C3806" t="n">
-        <v>129.9</v>
-      </c>
-    </row>
-    <row r="3807">
-      <c r="A3807" s="2" t="n">
-        <v>46062.60416666666</v>
-      </c>
-      <c r="B3807" s="2" t="n">
-        <v>46062.64583333334</v>
-      </c>
-      <c r="C3807" t="n">
-        <v>145.32</v>
-      </c>
-    </row>
-    <row r="3808">
-      <c r="A3808" s="2" t="n">
-        <v>46062.61458333334</v>
-      </c>
-      <c r="B3808" s="2" t="n">
-        <v>46062.65625</v>
-      </c>
-      <c r="C3808" t="n">
-        <v>157.91</v>
-      </c>
-    </row>
-    <row r="3809">
-      <c r="A3809" s="2" t="n">
-        <v>46062.625</v>
-      </c>
-      <c r="B3809" s="2" t="n">
-        <v>46062.66666666666</v>
-      </c>
-      <c r="C3809" t="n">
-        <v>128.61</v>
-      </c>
-    </row>
-    <row r="3810">
-      <c r="A3810" s="2" t="n">
-        <v>46062.63541666666</v>
-      </c>
-      <c r="B3810" s="2" t="n">
-        <v>46062.67708333334</v>
-      </c>
-      <c r="C3810" t="n">
-        <v>148.24</v>
-      </c>
-    </row>
-    <row r="3811">
-      <c r="A3811" s="2" t="n">
-        <v>46062.64583333334</v>
-      </c>
-      <c r="B3811" s="2" t="n">
-        <v>46062.6875</v>
-      </c>
-      <c r="C3811" t="n">
-        <v>168.24</v>
-      </c>
-    </row>
-    <row r="3812">
-      <c r="A3812" s="2" t="n">
-        <v>46062.65625</v>
-      </c>
-      <c r="B3812" s="2" t="n">
-        <v>46062.69791666666</v>
-      </c>
-      <c r="C3812" t="n">
-        <v>175.4</v>
-      </c>
-    </row>
-    <row r="3813">
-      <c r="A3813" s="2" t="n">
-        <v>46062.66666666666</v>
-      </c>
-      <c r="B3813" s="2" t="n">
-        <v>46062.70833333334</v>
-      </c>
-      <c r="C3813" t="n">
-        <v>169.06</v>
-      </c>
-    </row>
-    <row r="3814">
-      <c r="A3814" s="2" t="n">
-        <v>46062.67708333334</v>
-      </c>
-      <c r="B3814" s="2" t="n">
-        <v>46062.71875</v>
-      </c>
-      <c r="C3814" t="n">
-        <v>207.56</v>
-      </c>
-    </row>
-    <row r="3815">
-      <c r="A3815" s="2" t="n">
-        <v>46062.6875</v>
-      </c>
-      <c r="B3815" s="2" t="n">
-        <v>46062.72916666666</v>
-      </c>
-      <c r="C3815" t="n">
-        <v>216.59</v>
-      </c>
-    </row>
-    <row r="3816">
-      <c r="A3816" s="2" t="n">
-        <v>46062.69791666666</v>
-      </c>
-      <c r="B3816" s="2" t="n">
-        <v>46062.73958333334</v>
-      </c>
-      <c r="C3816" t="n">
-        <v>218.58</v>
-      </c>
-    </row>
-    <row r="3817">
-      <c r="A3817" s="2" t="n">
-        <v>46062.70833333334</v>
-      </c>
-      <c r="B3817" s="2" t="n">
-        <v>46062.75</v>
-      </c>
-      <c r="C3817" t="n">
-        <v>181.73</v>
-      </c>
-    </row>
-    <row r="3818">
-      <c r="A3818" s="2" t="n">
-        <v>46062.71875</v>
-      </c>
-      <c r="B3818" s="2" t="n">
-        <v>46062.76041666666</v>
-      </c>
-      <c r="C3818" t="n">
-        <v>173.4</v>
-      </c>
-    </row>
-    <row r="3819">
-      <c r="A3819" s="2" t="n">
-        <v>46062.72916666666</v>
-      </c>
-      <c r="B3819" s="2" t="n">
-        <v>46062.77083333334</v>
-      </c>
-      <c r="C3819" t="n">
-        <v>165.84</v>
-      </c>
-    </row>
-    <row r="3820">
-      <c r="A3820" s="2" t="n">
-        <v>46062.73958333334</v>
-      </c>
-      <c r="B3820" s="2" t="n">
-        <v>46062.78125</v>
-      </c>
-      <c r="C3820" t="n">
-        <v>172.83</v>
-      </c>
-    </row>
-    <row r="3821">
-      <c r="A3821" s="2" t="n">
-        <v>46062.75</v>
-      </c>
-      <c r="B3821" s="2" t="n">
-        <v>46062.79166666666</v>
-      </c>
-      <c r="C3821" t="n">
-        <v>183.64</v>
-      </c>
-    </row>
-    <row r="3822">
-      <c r="A3822" s="2" t="n">
-        <v>46062.76041666666</v>
-      </c>
-      <c r="B3822" s="2" t="n">
-        <v>46062.80208333334</v>
-      </c>
-      <c r="C3822" t="n">
-        <v>163.28</v>
-      </c>
-    </row>
-    <row r="3823">
-      <c r="A3823" s="2" t="n">
-        <v>46062.77083333334</v>
-      </c>
-      <c r="B3823" s="2" t="n">
-        <v>46062.8125</v>
-      </c>
-      <c r="C3823" t="n">
-        <v>152.48</v>
-      </c>
-    </row>
-    <row r="3824">
-      <c r="A3824" s="2" t="n">
-        <v>46062.78125</v>
-      </c>
-      <c r="B3824" s="2" t="n">
-        <v>46062.82291666666</v>
-      </c>
-      <c r="C3824" t="n">
-        <v>137.17</v>
-      </c>
-    </row>
-    <row r="3825">
-      <c r="A3825" s="2" t="n">
-        <v>46062.79166666666</v>
-      </c>
-      <c r="B3825" s="2" t="n">
-        <v>46062.83333333334</v>
-      </c>
-      <c r="C3825" t="n">
-        <v>153.8</v>
-      </c>
-    </row>
-    <row r="3826">
-      <c r="A3826" s="2" t="n">
-        <v>46062.80208333334</v>
-      </c>
-      <c r="B3826" s="2" t="n">
-        <v>46062.84375</v>
-      </c>
-      <c r="C3826" t="n">
-        <v>140.67</v>
-      </c>
-    </row>
-    <row r="3827">
-      <c r="A3827" s="2" t="n">
-        <v>46062.8125</v>
-      </c>
-      <c r="B3827" s="2" t="n">
-        <v>46062.85416666666</v>
-      </c>
-      <c r="C3827" t="n">
-        <v>132.99</v>
-      </c>
-    </row>
-    <row r="3828">
-      <c r="A3828" s="2" t="n">
-        <v>46062.82291666666</v>
-      </c>
-      <c r="B3828" s="2" t="n">
-        <v>46062.86458333334</v>
-      </c>
-      <c r="C3828" t="n">
-        <v>120.87</v>
-      </c>
-    </row>
-    <row r="3829">
-      <c r="A3829" s="2" t="n">
-        <v>46062.83333333334</v>
-      </c>
-      <c r="B3829" s="2" t="n">
-        <v>46062.875</v>
-      </c>
-      <c r="C3829" t="n">
-        <v>139.22</v>
-      </c>
-    </row>
-    <row r="3830">
-      <c r="A3830" s="2" t="n">
-        <v>46062.84375</v>
-      </c>
-      <c r="B3830" s="2" t="n">
-        <v>46062.88541666666</v>
-      </c>
-      <c r="C3830" t="n">
-        <v>134.72</v>
-      </c>
-    </row>
-    <row r="3831">
-      <c r="A3831" s="2" t="n">
-        <v>46062.85416666666</v>
-      </c>
-      <c r="B3831" s="2" t="n">
-        <v>46062.89583333334</v>
-      </c>
-      <c r="C3831" t="n">
-        <v>122.19</v>
-      </c>
-    </row>
-    <row r="3832">
-      <c r="A3832" s="2" t="n">
-        <v>46062.86458333334</v>
-      </c>
-      <c r="B3832" s="2" t="n">
-        <v>46062.90625</v>
-      </c>
-      <c r="C3832" t="n">
-        <v>107.36</v>
-      </c>
-    </row>
-    <row r="3833">
-      <c r="A3833" s="2" t="n">
-        <v>46062.875</v>
-      </c>
-      <c r="B3833" s="2" t="n">
-        <v>46062.91666666666</v>
-      </c>
-      <c r="C3833" t="n">
-        <v>120.93</v>
-      </c>
-    </row>
-    <row r="3834">
-      <c r="A3834" s="2" t="n">
-        <v>46062.88541666666</v>
-      </c>
-      <c r="B3834" s="2" t="n">
-        <v>46062.92708333334</v>
-      </c>
-      <c r="C3834" t="n">
-        <v>114.4</v>
-      </c>
-    </row>
-    <row r="3835">
-      <c r="A3835" s="2" t="n">
-        <v>46062.89583333334</v>
-      </c>
-      <c r="B3835" s="2" t="n">
-        <v>46062.9375</v>
-      </c>
-      <c r="C3835" t="n">
-        <v>118.43</v>
-      </c>
-    </row>
-    <row r="3836">
-      <c r="A3836" s="2" t="n">
-        <v>46062.90625</v>
-      </c>
-      <c r="B3836" s="2" t="n">
-        <v>46062.94791666666</v>
-      </c>
-      <c r="C3836" t="n">
-        <v>108.66</v>
-      </c>
-    </row>
-    <row r="3837">
-      <c r="A3837" s="2" t="n">
-        <v>46062.91666666666</v>
-      </c>
-      <c r="B3837" s="2" t="n">
-        <v>46062.95833333334</v>
-      </c>
-      <c r="C3837" t="n">
-        <v>110.85</v>
-      </c>
-    </row>
-    <row r="3838">
-      <c r="A3838" s="2" t="n">
-        <v>46062.92708333334</v>
-      </c>
-      <c r="B3838" s="2" t="n">
-        <v>46062.96875</v>
-      </c>
-      <c r="C3838" t="n">
-        <v>100.14</v>
-      </c>
-    </row>
-    <row r="3839">
-      <c r="A3839" s="2" t="n">
-        <v>46062.9375</v>
-      </c>
-      <c r="B3839" s="2" t="n">
-        <v>46062.97916666666</v>
-      </c>
-      <c r="C3839" t="n">
-        <v>102.34</v>
-      </c>
-    </row>
-    <row r="3840">
-      <c r="A3840" s="2" t="n">
-        <v>46062.94791666666</v>
-      </c>
-      <c r="B3840" s="2" t="n">
-        <v>46062.98958333334</v>
-      </c>
-      <c r="C3840" t="n">
-        <v>93.29000000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
